--- a/premise/data/additional_inventories/lci-hydrogen-electrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-electrolysis.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hydrogen!$A$1:$H$223</definedName>
   </definedNames>
-  <calcPr calcId="162913" calcMode="manual" iterate="1" iterateCount="15" iterateDelta="0.05"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -692,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G224"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="N81" sqref="N81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1081,7 +1081,7 @@
         <v>4</v>
       </c>
       <c r="D80" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="E80" t="s">
         <v>12</v>
@@ -1530,7 +1530,7 @@
         <v>4</v>
       </c>
       <c r="D113" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="E113" t="s">
         <v>12</v>
@@ -1818,7 +1818,7 @@
         <v>4</v>
       </c>
       <c r="D132" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="E132" t="s">
         <v>12</v>
@@ -3068,7 +3068,7 @@
         <v>4</v>
       </c>
       <c r="D219" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="E219" t="s">
         <v>12</v>

--- a/premise/data/additional_inventories/lci-hydrogen-electrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-electrolysis.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Hydrogen" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hydrogen!$A$1:$H$223</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hydrogen!$A$1:$H$174</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -690,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G224"/>
+  <dimension ref="A1:G175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="N81" sqref="N81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -966,145 +966,813 @@
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
+    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B71" t="s">
-        <v>14</v>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31">
+        <v>250</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <v>1000</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33">
+        <v>1500</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34">
+        <v>1000</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35">
+        <v>1500</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>89</v>
+      </c>
+      <c r="D46" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>85</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>89</v>
+      </c>
+      <c r="D47" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>89</v>
+      </c>
+      <c r="D48" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>77</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>29</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>27</v>
+      </c>
+      <c r="B57" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>25</v>
+      </c>
+      <c r="B59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59" t="s">
+        <v>22</v>
+      </c>
+      <c r="E59" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59" t="s">
+        <v>21</v>
+      </c>
+      <c r="G59" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>84</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>89</v>
+      </c>
+      <c r="D60" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" t="s">
+        <v>18</v>
+      </c>
+      <c r="F60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61">
+        <v>600</v>
+      </c>
+      <c r="C61" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" t="s">
+        <v>2</v>
+      </c>
+      <c r="F61" t="s">
+        <v>1</v>
+      </c>
+      <c r="G61" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>83</v>
+      </c>
+      <c r="B62">
+        <v>7</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" t="s">
+        <v>2</v>
+      </c>
+      <c r="F62" t="s">
+        <v>1</v>
+      </c>
+      <c r="G62" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>81</v>
+      </c>
+      <c r="B63">
+        <v>3600</v>
+      </c>
+      <c r="C63" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" t="s">
+        <v>3</v>
+      </c>
+      <c r="E63" t="s">
+        <v>58</v>
+      </c>
+      <c r="F63" t="s">
+        <v>1</v>
+      </c>
+      <c r="G63" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64">
+        <v>231.2</v>
+      </c>
+      <c r="C64" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" t="s">
+        <v>64</v>
+      </c>
+      <c r="E64" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" t="s">
+        <v>1</v>
+      </c>
+      <c r="G64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>79</v>
+      </c>
+      <c r="B65">
+        <v>1000</v>
+      </c>
+      <c r="C65" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" t="s">
+        <v>32</v>
+      </c>
+      <c r="F65" t="s">
+        <v>1</v>
+      </c>
+      <c r="G65" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66">
+        <v>1300</v>
+      </c>
+      <c r="C66" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" t="s">
+        <v>2</v>
+      </c>
+      <c r="F66" t="s">
+        <v>1</v>
+      </c>
+      <c r="G66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>56</v>
+      </c>
+      <c r="B67">
+        <v>405</v>
+      </c>
+      <c r="C67" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67" t="s">
+        <v>2</v>
+      </c>
+      <c r="F67" t="s">
+        <v>1</v>
+      </c>
+      <c r="G67" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68">
+        <v>400</v>
+      </c>
+      <c r="C68" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68" t="s">
+        <v>2</v>
+      </c>
+      <c r="F68" t="s">
+        <v>1</v>
+      </c>
+      <c r="G68" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>55</v>
+      </c>
+      <c r="B69">
+        <v>405</v>
+      </c>
+      <c r="C69" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" t="s">
+        <v>2</v>
+      </c>
+      <c r="F69" t="s">
+        <v>1</v>
+      </c>
+      <c r="G69" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>29</v>
-      </c>
-      <c r="B72">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="B72" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>20</v>
-      </c>
-      <c r="B73" t="s">
-        <v>85</v>
+        <v>29</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B74" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B75" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
+        <v>18</v>
+      </c>
+      <c r="B76" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>27</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B77" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
+    <row r="78" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>25</v>
-      </c>
-      <c r="B78" t="s">
-        <v>24</v>
-      </c>
-      <c r="C78" t="s">
-        <v>23</v>
-      </c>
-      <c r="D78" t="s">
-        <v>22</v>
-      </c>
-      <c r="E78" t="s">
-        <v>18</v>
-      </c>
-      <c r="F78" t="s">
-        <v>21</v>
-      </c>
-      <c r="G78" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>85</v>
-      </c>
-      <c r="B79">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="B79" t="s">
+        <v>24</v>
       </c>
       <c r="C79" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="D79" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E79" t="s">
         <v>18</v>
       </c>
       <c r="F79" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="G79" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="B80">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="D80" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="E80" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F80" t="s">
-        <v>1</v>
-      </c>
-      <c r="G80" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B81">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="C81" t="s">
         <v>4</v>
       </c>
       <c r="D81" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E81" t="s">
         <v>2</v>
@@ -1113,21 +1781,21 @@
         <v>1</v>
       </c>
       <c r="G81" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="B82">
-        <v>1500</v>
+        <v>45</v>
       </c>
       <c r="C82" t="s">
         <v>4</v>
       </c>
       <c r="D82" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E82" t="s">
         <v>2</v>
@@ -1136,38 +1804,38 @@
         <v>1</v>
       </c>
       <c r="G82" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B83">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="C83" t="s">
         <v>4</v>
       </c>
       <c r="D83" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="E83" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
         <v>1</v>
       </c>
       <c r="G83" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="B84">
-        <v>1500</v>
+        <v>180</v>
       </c>
       <c r="C84" t="s">
         <v>4</v>
@@ -1182,133 +1850,139 @@
         <v>1</v>
       </c>
       <c r="G84" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85">
+        <v>15</v>
+      </c>
+      <c r="C85" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85" t="s">
+        <v>3</v>
+      </c>
+      <c r="E85" t="s">
+        <v>2</v>
+      </c>
+      <c r="F85" t="s">
+        <v>1</v>
+      </c>
+      <c r="G85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86">
+        <v>45</v>
+      </c>
+      <c r="C86" t="s">
+        <v>4</v>
+      </c>
+      <c r="D86" t="s">
+        <v>3</v>
+      </c>
+      <c r="E86" t="s">
+        <v>2</v>
+      </c>
+      <c r="F86" t="s">
+        <v>1</v>
+      </c>
+      <c r="G86" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>22</v>
-      </c>
-      <c r="B87" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>29</v>
-      </c>
-      <c r="B88">
-        <v>1</v>
+      <c r="B88" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B89" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>21</v>
-      </c>
-      <c r="B90" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B91" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B92" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>18</v>
+      </c>
+      <c r="B93" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B94" t="s">
-        <v>24</v>
-      </c>
-      <c r="C94" t="s">
-        <v>23</v>
-      </c>
-      <c r="D94" t="s">
-        <v>22</v>
-      </c>
-      <c r="E94" t="s">
-        <v>18</v>
-      </c>
-      <c r="F94" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>86</v>
-      </c>
-      <c r="B95">
-        <v>1</v>
-      </c>
-      <c r="C95" t="s">
         <v>89</v>
       </c>
-      <c r="D95" t="s">
-        <v>14</v>
-      </c>
-      <c r="E95" t="s">
-        <v>18</v>
-      </c>
-      <c r="F95" t="s">
-        <v>17</v>
+    </row>
+    <row r="95" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>85</v>
-      </c>
-      <c r="B96">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="B96" t="s">
+        <v>24</v>
       </c>
       <c r="C96" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="D96" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E96" t="s">
         <v>18</v>
       </c>
       <c r="F96" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -1323,15 +1997,15 @@
         <v>18</v>
       </c>
       <c r="F97" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>9.4759999999999997E-2</v>
       </c>
       <c r="C98" t="s">
         <v>89</v>
@@ -1351,7 +2025,7 @@
         <v>30</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
@@ -1375,7 +2049,7 @@
         <v>20</v>
       </c>
       <c r="B103" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
@@ -1432,7 +2106,7 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -1452,16 +2126,16 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="B110">
-        <v>600</v>
+        <v>23.19371210332438</v>
       </c>
       <c r="C110" t="s">
         <v>4</v>
       </c>
       <c r="D110" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E110" t="s">
         <v>2</v>
@@ -1470,21 +2144,21 @@
         <v>1</v>
       </c>
       <c r="G110" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B111">
-        <v>7</v>
+        <v>24.73995957687934</v>
       </c>
       <c r="C111" t="s">
         <v>4</v>
       </c>
       <c r="D111" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E111" t="s">
         <v>2</v>
@@ -1493,61 +2167,61 @@
         <v>1</v>
       </c>
       <c r="G111" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B112">
-        <v>3600</v>
+        <v>46.387424206648753</v>
       </c>
       <c r="C112" t="s">
         <v>4</v>
       </c>
       <c r="D112" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E112" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F112" t="s">
         <v>1</v>
       </c>
       <c r="G112" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="B113">
-        <v>231.2</v>
+        <v>77.312373677747928</v>
       </c>
       <c r="C113" t="s">
         <v>4</v>
       </c>
       <c r="D113" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="E113" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F113" t="s">
         <v>1</v>
       </c>
       <c r="G113" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B114">
-        <v>1000</v>
+        <v>34.017444418209088</v>
       </c>
       <c r="C114" t="s">
         <v>4</v>
@@ -1556,27 +2230,27 @@
         <v>14</v>
       </c>
       <c r="E114" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="F114" t="s">
         <v>1</v>
       </c>
       <c r="G114" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="B115">
-        <v>1300</v>
+        <v>114.42231304306689</v>
       </c>
       <c r="C115" t="s">
         <v>4</v>
       </c>
       <c r="D115" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E115" t="s">
         <v>2</v>
@@ -1585,194 +2259,194 @@
         <v>1</v>
       </c>
       <c r="G115" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>56</v>
-      </c>
-      <c r="B116">
-        <v>405</v>
-      </c>
-      <c r="C116" t="s">
-        <v>4</v>
-      </c>
-      <c r="D116" t="s">
-        <v>3</v>
-      </c>
-      <c r="E116" t="s">
-        <v>2</v>
-      </c>
-      <c r="F116" t="s">
-        <v>1</v>
-      </c>
-      <c r="G116" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>7</v>
-      </c>
-      <c r="B117">
-        <v>400</v>
-      </c>
-      <c r="C117" t="s">
-        <v>4</v>
-      </c>
-      <c r="D117" t="s">
-        <v>3</v>
-      </c>
-      <c r="E117" t="s">
-        <v>2</v>
-      </c>
-      <c r="F117" t="s">
-        <v>1</v>
-      </c>
-      <c r="G117" t="s">
-        <v>7</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>55</v>
-      </c>
-      <c r="B118">
-        <v>405</v>
-      </c>
-      <c r="C118" t="s">
-        <v>4</v>
-      </c>
-      <c r="D118" t="s">
-        <v>3</v>
-      </c>
-      <c r="E118" t="s">
-        <v>2</v>
-      </c>
-      <c r="F118" t="s">
-        <v>1</v>
-      </c>
-      <c r="G118" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A120" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>77</v>
+        <v>22</v>
+      </c>
+      <c r="B118" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>29</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>20</v>
+      </c>
+      <c r="B120" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B121" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>29</v>
-      </c>
-      <c r="B122">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="B122" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B123" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>21</v>
-      </c>
-      <c r="B124" t="s">
-        <v>28</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B125" t="s">
-        <v>18</v>
+        <v>24</v>
+      </c>
+      <c r="C125" t="s">
+        <v>23</v>
+      </c>
+      <c r="D125" t="s">
+        <v>22</v>
+      </c>
+      <c r="E125" t="s">
+        <v>18</v>
+      </c>
+      <c r="F125" t="s">
+        <v>21</v>
+      </c>
+      <c r="G125" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>27</v>
-      </c>
-      <c r="B126" t="s">
+        <v>65</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A127" s="1" t="s">
-        <v>26</v>
+      <c r="D126" t="s">
+        <v>64</v>
+      </c>
+      <c r="E126" t="s">
+        <v>63</v>
+      </c>
+      <c r="F126" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>62</v>
+      </c>
+      <c r="B127">
+        <v>0.27396999999999999</v>
+      </c>
+      <c r="C127" t="s">
+        <v>4</v>
+      </c>
+      <c r="D127" t="s">
+        <v>3</v>
+      </c>
+      <c r="E127" t="s">
+        <v>2</v>
+      </c>
+      <c r="F127" t="s">
+        <v>1</v>
+      </c>
+      <c r="G127" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>25</v>
-      </c>
-      <c r="B128" t="s">
-        <v>24</v>
+        <v>60</v>
+      </c>
+      <c r="B128">
+        <v>1.6437999999999999</v>
       </c>
       <c r="C128" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="D128" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="E128" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F128" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="G128" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="B129">
-        <v>1</v>
+        <v>0.45662000000000003</v>
       </c>
       <c r="C129" t="s">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="D129" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="E129" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F129" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="G129" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B130">
-        <v>60</v>
+        <v>0.59360999999999997</v>
       </c>
       <c r="C130" t="s">
         <v>4</v>
       </c>
       <c r="D130" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E130" t="s">
         <v>2</v>
@@ -1781,21 +2455,21 @@
         <v>1</v>
       </c>
       <c r="G130" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="B131">
-        <v>45</v>
+        <v>0.18493000000000001</v>
       </c>
       <c r="C131" t="s">
         <v>4</v>
       </c>
       <c r="D131" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E131" t="s">
         <v>2</v>
@@ -1804,38 +2478,38 @@
         <v>1</v>
       </c>
       <c r="G131" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B132">
-        <v>30</v>
+        <v>9.1324000000000002E-2</v>
       </c>
       <c r="C132" t="s">
         <v>4</v>
       </c>
       <c r="D132" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="E132" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F132" t="s">
         <v>1</v>
       </c>
       <c r="G132" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="B133">
-        <v>180</v>
+        <v>0.18493000000000001</v>
       </c>
       <c r="C133" t="s">
         <v>4</v>
@@ -1850,1348 +2524,674 @@
         <v>1</v>
       </c>
       <c r="G133" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>6</v>
-      </c>
-      <c r="B134">
-        <v>15</v>
-      </c>
-      <c r="C134" t="s">
-        <v>4</v>
-      </c>
-      <c r="D134" t="s">
-        <v>3</v>
-      </c>
-      <c r="E134" t="s">
-        <v>2</v>
-      </c>
-      <c r="F134" t="s">
-        <v>1</v>
-      </c>
-      <c r="G134" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>0</v>
-      </c>
-      <c r="B135">
-        <v>45</v>
-      </c>
-      <c r="C135" t="s">
-        <v>4</v>
-      </c>
-      <c r="D135" t="s">
-        <v>3</v>
-      </c>
-      <c r="E135" t="s">
-        <v>2</v>
-      </c>
-      <c r="F135" t="s">
-        <v>1</v>
-      </c>
-      <c r="G135" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A137" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B137" s="1" t="s">
-        <v>76</v>
+      <c r="B135" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>22</v>
+      </c>
+      <c r="B136" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>29</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B138" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>29</v>
-      </c>
-      <c r="B139">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="B139" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B140" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B141" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
-        <v>18</v>
-      </c>
-      <c r="B142" t="s">
-        <v>18</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B143" t="s">
+        <v>24</v>
+      </c>
+      <c r="C143" t="s">
+        <v>23</v>
+      </c>
+      <c r="D143" t="s">
+        <v>22</v>
+      </c>
+      <c r="E143" t="s">
+        <v>18</v>
+      </c>
+      <c r="F143" t="s">
+        <v>21</v>
+      </c>
+      <c r="G143" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>54</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+      <c r="C144" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A144" s="1" t="s">
-        <v>26</v>
+      <c r="D144" t="s">
+        <v>14</v>
+      </c>
+      <c r="E144" t="s">
+        <v>18</v>
+      </c>
+      <c r="F144" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>25</v>
-      </c>
-      <c r="B145" t="s">
-        <v>24</v>
+        <v>16</v>
+      </c>
+      <c r="B145">
+        <v>15</v>
       </c>
       <c r="C145" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="D145" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E145" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F145" t="s">
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="G145" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="B146">
-        <v>1</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="C146" t="s">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="D146" t="s">
         <v>14</v>
       </c>
       <c r="E146" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F146" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="G146" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="B147">
-        <v>9.4759999999999997E-2</v>
+        <v>3.2179104477611951</v>
       </c>
       <c r="C147" t="s">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="D147" t="s">
         <v>14</v>
       </c>
       <c r="E147" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F147" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A149" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>75</v>
+      <c r="G147" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>49</v>
+      </c>
+      <c r="B148">
+        <v>5</v>
+      </c>
+      <c r="C148" t="s">
+        <v>4</v>
+      </c>
+      <c r="D148" t="s">
+        <v>14</v>
+      </c>
+      <c r="E148" t="s">
+        <v>2</v>
+      </c>
+      <c r="F148" t="s">
+        <v>1</v>
+      </c>
+      <c r="G148" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>47</v>
+      </c>
+      <c r="B149">
+        <v>5.0083333333333337</v>
+      </c>
+      <c r="C149" t="s">
+        <v>4</v>
+      </c>
+      <c r="D149" t="s">
+        <v>3</v>
+      </c>
+      <c r="E149" t="s">
+        <v>2</v>
+      </c>
+      <c r="F149" t="s">
+        <v>1</v>
+      </c>
+      <c r="G149" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>22</v>
-      </c>
-      <c r="B150" t="s">
-        <v>14</v>
+        <v>45</v>
+      </c>
+      <c r="B150">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="C150" t="s">
+        <v>4</v>
+      </c>
+      <c r="D150" t="s">
+        <v>14</v>
+      </c>
+      <c r="E150" t="s">
+        <v>2</v>
+      </c>
+      <c r="F150" t="s">
+        <v>1</v>
+      </c>
+      <c r="G150" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B151">
-        <v>1</v>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="C151" t="s">
+        <v>4</v>
+      </c>
+      <c r="D151" t="s">
+        <v>14</v>
+      </c>
+      <c r="E151" t="s">
+        <v>2</v>
+      </c>
+      <c r="F151" t="s">
+        <v>1</v>
+      </c>
+      <c r="G151" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>20</v>
-      </c>
-      <c r="B152" t="s">
-        <v>75</v>
+        <v>41</v>
+      </c>
+      <c r="B152">
+        <v>0.48333333333333339</v>
+      </c>
+      <c r="C152" t="s">
+        <v>4</v>
+      </c>
+      <c r="D152" t="s">
+        <v>14</v>
+      </c>
+      <c r="E152" t="s">
+        <v>2</v>
+      </c>
+      <c r="F152" t="s">
+        <v>1</v>
+      </c>
+      <c r="G152" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>21</v>
-      </c>
-      <c r="B153" t="s">
-        <v>28</v>
+        <v>39</v>
+      </c>
+      <c r="B153">
+        <v>13.33333333333333</v>
+      </c>
+      <c r="C153" t="s">
+        <v>4</v>
+      </c>
+      <c r="D153" t="s">
+        <v>3</v>
+      </c>
+      <c r="E153" t="s">
+        <v>2</v>
+      </c>
+      <c r="F153" t="s">
+        <v>1</v>
+      </c>
+      <c r="G153" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>18</v>
-      </c>
-      <c r="B154" t="s">
-        <v>18</v>
+        <v>37</v>
+      </c>
+      <c r="B154">
+        <v>3.2179104477611951</v>
+      </c>
+      <c r="C154" t="s">
+        <v>4</v>
+      </c>
+      <c r="D154" t="s">
+        <v>3</v>
+      </c>
+      <c r="E154" t="s">
+        <v>2</v>
+      </c>
+      <c r="F154" t="s">
+        <v>1</v>
+      </c>
+      <c r="G154" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>27</v>
-      </c>
-      <c r="B155" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A156" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
-        <v>25</v>
-      </c>
-      <c r="B157" t="s">
-        <v>24</v>
-      </c>
-      <c r="C157" t="s">
-        <v>23</v>
-      </c>
-      <c r="D157" t="s">
-        <v>22</v>
-      </c>
-      <c r="E157" t="s">
-        <v>18</v>
-      </c>
-      <c r="F157" t="s">
-        <v>21</v>
-      </c>
-      <c r="G157" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
-        <v>75</v>
-      </c>
-      <c r="B158">
-        <v>1</v>
-      </c>
-      <c r="C158" t="s">
-        <v>89</v>
-      </c>
-      <c r="D158" t="s">
-        <v>14</v>
-      </c>
-      <c r="E158" t="s">
-        <v>18</v>
-      </c>
-      <c r="F158" t="s">
-        <v>17</v>
+        <v>35</v>
+      </c>
+      <c r="B155">
+        <v>0.48333333333333339</v>
+      </c>
+      <c r="C155" t="s">
+        <v>4</v>
+      </c>
+      <c r="D155" t="s">
+        <v>3</v>
+      </c>
+      <c r="E155" t="s">
+        <v>2</v>
+      </c>
+      <c r="F155" t="s">
+        <v>1</v>
+      </c>
+      <c r="G155" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>33</v>
+      </c>
+      <c r="B156">
+        <v>53.233750000000001</v>
+      </c>
+      <c r="C156" t="s">
+        <v>4</v>
+      </c>
+      <c r="D156" t="s">
+        <v>14</v>
+      </c>
+      <c r="E156" t="s">
+        <v>32</v>
+      </c>
+      <c r="F156" t="s">
+        <v>1</v>
+      </c>
+      <c r="G156" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>16</v>
-      </c>
-      <c r="B159">
-        <v>23.19371210332438</v>
-      </c>
-      <c r="C159" t="s">
-        <v>4</v>
-      </c>
-      <c r="D159" t="s">
-        <v>14</v>
-      </c>
-      <c r="E159" t="s">
-        <v>2</v>
-      </c>
-      <c r="F159" t="s">
-        <v>1</v>
-      </c>
-      <c r="G159" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="B159" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="B160">
-        <v>24.73995957687934</v>
-      </c>
-      <c r="C160" t="s">
-        <v>4</v>
-      </c>
-      <c r="D160" t="s">
-        <v>14</v>
-      </c>
-      <c r="E160" t="s">
-        <v>2</v>
-      </c>
-      <c r="F160" t="s">
-        <v>1</v>
-      </c>
-      <c r="G160" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>73</v>
-      </c>
-      <c r="B161">
-        <v>46.387424206648753</v>
-      </c>
-      <c r="C161" t="s">
-        <v>4</v>
-      </c>
-      <c r="D161" t="s">
-        <v>14</v>
-      </c>
-      <c r="E161" t="s">
-        <v>2</v>
-      </c>
-      <c r="F161" t="s">
-        <v>1</v>
-      </c>
-      <c r="G161" t="s">
-        <v>72</v>
+        <v>20</v>
+      </c>
+      <c r="B161" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>71</v>
-      </c>
-      <c r="B162">
-        <v>77.312373677747928</v>
-      </c>
-      <c r="C162" t="s">
-        <v>4</v>
-      </c>
-      <c r="D162" t="s">
-        <v>14</v>
-      </c>
-      <c r="E162" t="s">
-        <v>2</v>
-      </c>
-      <c r="F162" t="s">
-        <v>1</v>
-      </c>
-      <c r="G162" t="s">
-        <v>70</v>
+        <v>21</v>
+      </c>
+      <c r="B162" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>69</v>
-      </c>
-      <c r="B163">
-        <v>34.017444418209088</v>
-      </c>
-      <c r="C163" t="s">
-        <v>4</v>
-      </c>
-      <c r="D163" t="s">
-        <v>14</v>
-      </c>
-      <c r="E163" t="s">
-        <v>2</v>
-      </c>
-      <c r="F163" t="s">
-        <v>1</v>
-      </c>
-      <c r="G163" t="s">
-        <v>68</v>
+        <v>18</v>
+      </c>
+      <c r="B163" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>67</v>
-      </c>
-      <c r="B164">
-        <v>114.42231304306689</v>
-      </c>
-      <c r="C164" t="s">
-        <v>4</v>
-      </c>
-      <c r="D164" t="s">
-        <v>14</v>
-      </c>
-      <c r="E164" t="s">
-        <v>2</v>
-      </c>
-      <c r="F164" t="s">
-        <v>1</v>
-      </c>
-      <c r="G164" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A166" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>65</v>
+        <v>27</v>
+      </c>
+      <c r="B164" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A165" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>25</v>
+      </c>
+      <c r="B166" t="s">
+        <v>24</v>
+      </c>
+      <c r="C166" t="s">
+        <v>23</v>
+      </c>
+      <c r="D166" t="s">
+        <v>22</v>
+      </c>
+      <c r="E166" t="s">
+        <v>18</v>
+      </c>
+      <c r="F166" t="s">
+        <v>21</v>
+      </c>
+      <c r="G166" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>22</v>
-      </c>
-      <c r="B167" t="s">
-        <v>64</v>
+        <v>19</v>
+      </c>
+      <c r="B167">
+        <v>1</v>
+      </c>
+      <c r="C167" t="s">
+        <v>89</v>
+      </c>
+      <c r="D167" t="s">
+        <v>14</v>
+      </c>
+      <c r="E167" t="s">
+        <v>18</v>
+      </c>
+      <c r="F167" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B168">
-        <v>1</v>
+        <v>220</v>
+      </c>
+      <c r="C168" t="s">
+        <v>4</v>
+      </c>
+      <c r="D168" t="s">
+        <v>14</v>
+      </c>
+      <c r="E168" t="s">
+        <v>2</v>
+      </c>
+      <c r="F168" t="s">
+        <v>1</v>
+      </c>
+      <c r="G168" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>20</v>
-      </c>
-      <c r="B169" t="s">
-        <v>65</v>
+        <v>92</v>
+      </c>
+      <c r="B169">
+        <v>440</v>
+      </c>
+      <c r="C169" t="s">
+        <v>4</v>
+      </c>
+      <c r="D169" t="s">
+        <v>14</v>
+      </c>
+      <c r="E169" t="s">
+        <v>2</v>
+      </c>
+      <c r="F169" t="s">
+        <v>1</v>
+      </c>
+      <c r="G169" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>21</v>
-      </c>
-      <c r="B170" t="s">
-        <v>28</v>
+        <v>13</v>
+      </c>
+      <c r="B170">
+        <v>220</v>
+      </c>
+      <c r="C170" t="s">
+        <v>4</v>
+      </c>
+      <c r="D170" t="s">
+        <v>64</v>
+      </c>
+      <c r="E170" t="s">
+        <v>12</v>
+      </c>
+      <c r="F170" t="s">
+        <v>1</v>
+      </c>
+      <c r="G170" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>18</v>
-      </c>
-      <c r="B171" t="s">
-        <v>63</v>
+        <v>10</v>
+      </c>
+      <c r="B171">
+        <v>1320</v>
+      </c>
+      <c r="C171" t="s">
+        <v>4</v>
+      </c>
+      <c r="D171" t="s">
+        <v>3</v>
+      </c>
+      <c r="E171" t="s">
+        <v>2</v>
+      </c>
+      <c r="F171" t="s">
+        <v>1</v>
+      </c>
+      <c r="G171" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>27</v>
-      </c>
-      <c r="B172" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A173" s="1" t="s">
-        <v>26</v>
+        <v>8</v>
+      </c>
+      <c r="B172">
+        <v>220</v>
+      </c>
+      <c r="C172" t="s">
+        <v>4</v>
+      </c>
+      <c r="D172" t="s">
+        <v>3</v>
+      </c>
+      <c r="E172" t="s">
+        <v>2</v>
+      </c>
+      <c r="F172" t="s">
+        <v>1</v>
+      </c>
+      <c r="G172" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>7</v>
+      </c>
+      <c r="B173">
+        <v>1320</v>
+      </c>
+      <c r="C173" t="s">
+        <v>4</v>
+      </c>
+      <c r="D173" t="s">
+        <v>3</v>
+      </c>
+      <c r="E173" t="s">
+        <v>2</v>
+      </c>
+      <c r="F173" t="s">
+        <v>1</v>
+      </c>
+      <c r="G173" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>25</v>
-      </c>
-      <c r="B174" t="s">
-        <v>24</v>
+        <v>6</v>
+      </c>
+      <c r="B174">
+        <v>220</v>
       </c>
       <c r="C174" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="D174" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E174" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F174" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="G174" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="B175">
-        <v>1</v>
+        <v>440</v>
       </c>
       <c r="C175" t="s">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="D175" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="E175" t="s">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="F175" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
-        <v>62</v>
-      </c>
-      <c r="B176">
-        <v>0.27396999999999999</v>
-      </c>
-      <c r="C176" t="s">
-        <v>4</v>
-      </c>
-      <c r="D176" t="s">
-        <v>3</v>
-      </c>
-      <c r="E176" t="s">
-        <v>2</v>
-      </c>
-      <c r="F176" t="s">
-        <v>1</v>
-      </c>
-      <c r="G176" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
-        <v>60</v>
-      </c>
-      <c r="B177">
-        <v>1.6437999999999999</v>
-      </c>
-      <c r="C177" t="s">
-        <v>4</v>
-      </c>
-      <c r="D177" t="s">
-        <v>59</v>
-      </c>
-      <c r="E177" t="s">
-        <v>58</v>
-      </c>
-      <c r="F177" t="s">
-        <v>1</v>
-      </c>
-      <c r="G177" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
-        <v>33</v>
-      </c>
-      <c r="B178">
-        <v>0.45662000000000003</v>
-      </c>
-      <c r="C178" t="s">
-        <v>4</v>
-      </c>
-      <c r="D178" t="s">
-        <v>59</v>
-      </c>
-      <c r="E178" t="s">
-        <v>32</v>
-      </c>
-      <c r="F178" t="s">
-        <v>1</v>
-      </c>
-      <c r="G178" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
-        <v>10</v>
-      </c>
-      <c r="B179">
-        <v>0.59360999999999997</v>
-      </c>
-      <c r="C179" t="s">
-        <v>4</v>
-      </c>
-      <c r="D179" t="s">
-        <v>3</v>
-      </c>
-      <c r="E179" t="s">
-        <v>2</v>
-      </c>
-      <c r="F179" t="s">
-        <v>1</v>
-      </c>
-      <c r="G179" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
-        <v>56</v>
-      </c>
-      <c r="B180">
-        <v>0.18493000000000001</v>
-      </c>
-      <c r="C180" t="s">
-        <v>4</v>
-      </c>
-      <c r="D180" t="s">
-        <v>3</v>
-      </c>
-      <c r="E180" t="s">
-        <v>2</v>
-      </c>
-      <c r="F180" t="s">
-        <v>1</v>
-      </c>
-      <c r="G180" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
-        <v>7</v>
-      </c>
-      <c r="B181">
-        <v>9.1324000000000002E-2</v>
-      </c>
-      <c r="C181" t="s">
-        <v>4</v>
-      </c>
-      <c r="D181" t="s">
-        <v>3</v>
-      </c>
-      <c r="E181" t="s">
-        <v>2</v>
-      </c>
-      <c r="F181" t="s">
-        <v>1</v>
-      </c>
-      <c r="G181" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
-        <v>55</v>
-      </c>
-      <c r="B182">
-        <v>0.18493000000000001</v>
-      </c>
-      <c r="C182" t="s">
-        <v>4</v>
-      </c>
-      <c r="D182" t="s">
-        <v>3</v>
-      </c>
-      <c r="E182" t="s">
-        <v>2</v>
-      </c>
-      <c r="F182" t="s">
-        <v>1</v>
-      </c>
-      <c r="G182" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A184" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
-        <v>22</v>
-      </c>
-      <c r="B185" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A186" t="s">
-        <v>29</v>
-      </c>
-      <c r="B186">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A187" t="s">
-        <v>20</v>
-      </c>
-      <c r="B187" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A188" t="s">
-        <v>21</v>
-      </c>
-      <c r="B188" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A189" t="s">
-        <v>18</v>
-      </c>
-      <c r="B189" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A190" t="s">
-        <v>27</v>
-      </c>
-      <c r="B190" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A191" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A192" t="s">
-        <v>25</v>
-      </c>
-      <c r="B192" t="s">
-        <v>24</v>
-      </c>
-      <c r="C192" t="s">
-        <v>23</v>
-      </c>
-      <c r="D192" t="s">
-        <v>22</v>
-      </c>
-      <c r="E192" t="s">
-        <v>18</v>
-      </c>
-      <c r="F192" t="s">
-        <v>21</v>
-      </c>
-      <c r="G192" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A193" t="s">
-        <v>54</v>
-      </c>
-      <c r="B193">
-        <v>1</v>
-      </c>
-      <c r="C193" t="s">
-        <v>89</v>
-      </c>
-      <c r="D193" t="s">
-        <v>14</v>
-      </c>
-      <c r="E193" t="s">
-        <v>18</v>
-      </c>
-      <c r="F193" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A194" t="s">
-        <v>16</v>
-      </c>
-      <c r="B194">
-        <v>15</v>
-      </c>
-      <c r="C194" t="s">
-        <v>4</v>
-      </c>
-      <c r="D194" t="s">
-        <v>14</v>
-      </c>
-      <c r="E194" t="s">
-        <v>2</v>
-      </c>
-      <c r="F194" t="s">
-        <v>1</v>
-      </c>
-      <c r="G194" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A195" t="s">
-        <v>53</v>
-      </c>
-      <c r="B195">
-        <v>8.3333333333333332E-3</v>
-      </c>
-      <c r="C195" t="s">
-        <v>4</v>
-      </c>
-      <c r="D195" t="s">
-        <v>14</v>
-      </c>
-      <c r="E195" t="s">
-        <v>2</v>
-      </c>
-      <c r="F195" t="s">
-        <v>1</v>
-      </c>
-      <c r="G195" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A196" t="s">
-        <v>51</v>
-      </c>
-      <c r="B196">
-        <v>3.2179104477611951</v>
-      </c>
-      <c r="C196" t="s">
-        <v>4</v>
-      </c>
-      <c r="D196" t="s">
-        <v>14</v>
-      </c>
-      <c r="E196" t="s">
-        <v>2</v>
-      </c>
-      <c r="F196" t="s">
-        <v>1</v>
-      </c>
-      <c r="G196" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A197" t="s">
-        <v>49</v>
-      </c>
-      <c r="B197">
-        <v>5</v>
-      </c>
-      <c r="C197" t="s">
-        <v>4</v>
-      </c>
-      <c r="D197" t="s">
-        <v>14</v>
-      </c>
-      <c r="E197" t="s">
-        <v>2</v>
-      </c>
-      <c r="F197" t="s">
-        <v>1</v>
-      </c>
-      <c r="G197" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A198" t="s">
-        <v>47</v>
-      </c>
-      <c r="B198">
-        <v>5.0083333333333337</v>
-      </c>
-      <c r="C198" t="s">
-        <v>4</v>
-      </c>
-      <c r="D198" t="s">
-        <v>3</v>
-      </c>
-      <c r="E198" t="s">
-        <v>2</v>
-      </c>
-      <c r="F198" t="s">
-        <v>1</v>
-      </c>
-      <c r="G198" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A199" t="s">
-        <v>45</v>
-      </c>
-      <c r="B199">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="C199" t="s">
-        <v>4</v>
-      </c>
-      <c r="D199" t="s">
-        <v>14</v>
-      </c>
-      <c r="E199" t="s">
-        <v>2</v>
-      </c>
-      <c r="F199" t="s">
-        <v>1</v>
-      </c>
-      <c r="G199" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A200" t="s">
-        <v>43</v>
-      </c>
-      <c r="B200">
-        <v>8.3333333333333339</v>
-      </c>
-      <c r="C200" t="s">
-        <v>4</v>
-      </c>
-      <c r="D200" t="s">
-        <v>14</v>
-      </c>
-      <c r="E200" t="s">
-        <v>2</v>
-      </c>
-      <c r="F200" t="s">
-        <v>1</v>
-      </c>
-      <c r="G200" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A201" t="s">
-        <v>41</v>
-      </c>
-      <c r="B201">
-        <v>0.48333333333333339</v>
-      </c>
-      <c r="C201" t="s">
-        <v>4</v>
-      </c>
-      <c r="D201" t="s">
-        <v>14</v>
-      </c>
-      <c r="E201" t="s">
-        <v>2</v>
-      </c>
-      <c r="F201" t="s">
-        <v>1</v>
-      </c>
-      <c r="G201" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A202" t="s">
-        <v>39</v>
-      </c>
-      <c r="B202">
-        <v>13.33333333333333</v>
-      </c>
-      <c r="C202" t="s">
-        <v>4</v>
-      </c>
-      <c r="D202" t="s">
-        <v>3</v>
-      </c>
-      <c r="E202" t="s">
-        <v>2</v>
-      </c>
-      <c r="F202" t="s">
-        <v>1</v>
-      </c>
-      <c r="G202" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A203" t="s">
-        <v>37</v>
-      </c>
-      <c r="B203">
-        <v>3.2179104477611951</v>
-      </c>
-      <c r="C203" t="s">
-        <v>4</v>
-      </c>
-      <c r="D203" t="s">
-        <v>3</v>
-      </c>
-      <c r="E203" t="s">
-        <v>2</v>
-      </c>
-      <c r="F203" t="s">
-        <v>1</v>
-      </c>
-      <c r="G203" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A204" t="s">
-        <v>35</v>
-      </c>
-      <c r="B204">
-        <v>0.48333333333333339</v>
-      </c>
-      <c r="C204" t="s">
-        <v>4</v>
-      </c>
-      <c r="D204" t="s">
-        <v>3</v>
-      </c>
-      <c r="E204" t="s">
-        <v>2</v>
-      </c>
-      <c r="F204" t="s">
-        <v>1</v>
-      </c>
-      <c r="G204" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A205" t="s">
-        <v>33</v>
-      </c>
-      <c r="B205">
-        <v>53.233750000000001</v>
-      </c>
-      <c r="C205" t="s">
-        <v>4</v>
-      </c>
-      <c r="D205" t="s">
-        <v>14</v>
-      </c>
-      <c r="E205" t="s">
-        <v>32</v>
-      </c>
-      <c r="F205" t="s">
-        <v>1</v>
-      </c>
-      <c r="G205" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A207" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A208" t="s">
-        <v>22</v>
-      </c>
-      <c r="B208" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A209" t="s">
-        <v>29</v>
-      </c>
-      <c r="B209">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A210" t="s">
-        <v>20</v>
-      </c>
-      <c r="B210" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A211" t="s">
-        <v>21</v>
-      </c>
-      <c r="B211" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A212" t="s">
-        <v>18</v>
-      </c>
-      <c r="B212" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A213" t="s">
-        <v>27</v>
-      </c>
-      <c r="B213" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A214" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A215" t="s">
-        <v>25</v>
-      </c>
-      <c r="B215" t="s">
-        <v>24</v>
-      </c>
-      <c r="C215" t="s">
-        <v>23</v>
-      </c>
-      <c r="D215" t="s">
-        <v>22</v>
-      </c>
-      <c r="E215" t="s">
-        <v>18</v>
-      </c>
-      <c r="F215" t="s">
-        <v>21</v>
-      </c>
-      <c r="G215" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A216" t="s">
-        <v>19</v>
-      </c>
-      <c r="B216">
-        <v>1</v>
-      </c>
-      <c r="C216" t="s">
-        <v>89</v>
-      </c>
-      <c r="D216" t="s">
-        <v>14</v>
-      </c>
-      <c r="E216" t="s">
-        <v>18</v>
-      </c>
-      <c r="F216" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A217" t="s">
-        <v>16</v>
-      </c>
-      <c r="B217">
-        <v>220</v>
-      </c>
-      <c r="C217" t="s">
-        <v>4</v>
-      </c>
-      <c r="D217" t="s">
-        <v>14</v>
-      </c>
-      <c r="E217" t="s">
-        <v>2</v>
-      </c>
-      <c r="F217" t="s">
-        <v>1</v>
-      </c>
-      <c r="G217" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A218" t="s">
-        <v>92</v>
-      </c>
-      <c r="B218">
-        <v>440</v>
-      </c>
-      <c r="C218" t="s">
-        <v>4</v>
-      </c>
-      <c r="D218" t="s">
-        <v>14</v>
-      </c>
-      <c r="E218" t="s">
-        <v>2</v>
-      </c>
-      <c r="F218" t="s">
-        <v>1</v>
-      </c>
-      <c r="G218" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A219" t="s">
-        <v>13</v>
-      </c>
-      <c r="B219">
-        <v>220</v>
-      </c>
-      <c r="C219" t="s">
-        <v>4</v>
-      </c>
-      <c r="D219" t="s">
-        <v>64</v>
-      </c>
-      <c r="E219" t="s">
-        <v>12</v>
-      </c>
-      <c r="F219" t="s">
-        <v>1</v>
-      </c>
-      <c r="G219" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A220" t="s">
-        <v>10</v>
-      </c>
-      <c r="B220">
-        <v>1320</v>
-      </c>
-      <c r="C220" t="s">
-        <v>4</v>
-      </c>
-      <c r="D220" t="s">
-        <v>3</v>
-      </c>
-      <c r="E220" t="s">
-        <v>2</v>
-      </c>
-      <c r="F220" t="s">
-        <v>1</v>
-      </c>
-      <c r="G220" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A221" t="s">
-        <v>8</v>
-      </c>
-      <c r="B221">
-        <v>220</v>
-      </c>
-      <c r="C221" t="s">
-        <v>4</v>
-      </c>
-      <c r="D221" t="s">
-        <v>3</v>
-      </c>
-      <c r="E221" t="s">
-        <v>2</v>
-      </c>
-      <c r="F221" t="s">
-        <v>1</v>
-      </c>
-      <c r="G221" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A222" t="s">
-        <v>7</v>
-      </c>
-      <c r="B222">
-        <v>1320</v>
-      </c>
-      <c r="C222" t="s">
-        <v>4</v>
-      </c>
-      <c r="D222" t="s">
-        <v>3</v>
-      </c>
-      <c r="E222" t="s">
-        <v>2</v>
-      </c>
-      <c r="F222" t="s">
-        <v>1</v>
-      </c>
-      <c r="G222" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A223" t="s">
-        <v>6</v>
-      </c>
-      <c r="B223">
-        <v>220</v>
-      </c>
-      <c r="C223" t="s">
-        <v>4</v>
-      </c>
-      <c r="D223" t="s">
-        <v>3</v>
-      </c>
-      <c r="E223" t="s">
-        <v>2</v>
-      </c>
-      <c r="F223" t="s">
-        <v>1</v>
-      </c>
-      <c r="G223" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A224" t="s">
-        <v>0</v>
-      </c>
-      <c r="B224">
-        <v>440</v>
-      </c>
-      <c r="C224" t="s">
-        <v>4</v>
-      </c>
-      <c r="D224" t="s">
-        <v>3</v>
-      </c>
-      <c r="E224" t="s">
-        <v>2</v>
-      </c>
-      <c r="F224" t="s">
-        <v>1</v>
-      </c>
-      <c r="G224" t="s">
+        <v>1</v>
+      </c>
+      <c r="G175" t="s">
         <v>0</v>
       </c>
     </row>

--- a/premise/data/additional_inventories/lci-hydrogen-electrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-electrolysis.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="lci" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="manual" iterate="1" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="113">
   <si>
     <t>Database</t>
   </si>
@@ -318,6 +318,51 @@
   </si>
   <si>
     <t>1 MW PEM electrolyzer based on Bareiß, K., de la Rua, C., Möckl, M., Hamacher, T., 2019. Life cycle assessment of hydrogen from proton exchange membrane water electrolysis in future energy systems 237, 862-872. 10.1016/j.apenergy.2019.01.001</t>
+  </si>
+  <si>
+    <t>transformer and rectifier unit, for electrolyzer</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>worksheet name</t>
+  </si>
+  <si>
+    <t>hydrogen</t>
+  </si>
+  <si>
+    <t>ecoinvent</t>
+  </si>
+  <si>
+    <t>market for transport, freight, lorry 16-32 metric ton, EURO5</t>
+  </si>
+  <si>
+    <t>ton kilometer</t>
+  </si>
+  <si>
+    <t>transport, freight, lorry 16-32 metric ton, EURO5</t>
+  </si>
+  <si>
+    <t>reinforcing steel production</t>
+  </si>
+  <si>
+    <t>reinforcing steel</t>
+  </si>
+  <si>
+    <t>sheet rolling, aluminium</t>
+  </si>
+  <si>
+    <t>sheet rolling, steel</t>
+  </si>
+  <si>
+    <t>tube insulation production, elastomere</t>
+  </si>
+  <si>
+    <t>tube insulation, elastomere</t>
+  </si>
+  <si>
+    <t>wire drawing, copper</t>
   </si>
 </sst>
 </file>
@@ -327,7 +372,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,6 +429,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -429,7 +482,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -493,6 +546,8 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Neutral" xfId="4" builtinId="28"/>
@@ -777,10 +832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P73"/>
+  <dimension ref="A1:P92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2325,6 +2380,336 @@
         <v>21</v>
       </c>
     </row>
+    <row r="75" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="C75" s="53"/>
+      <c r="D75" s="53"/>
+      <c r="E75" s="53"/>
+      <c r="F75" s="53"/>
+      <c r="G75" s="53"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B76" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="C76" s="53"/>
+      <c r="D76" s="53"/>
+      <c r="E76" s="53"/>
+      <c r="F76" s="53"/>
+      <c r="G76" s="53"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" s="53">
+        <v>1</v>
+      </c>
+      <c r="C77" s="53"/>
+      <c r="D77" s="53"/>
+      <c r="E77" s="53"/>
+      <c r="F77" s="53"/>
+      <c r="G77" s="53"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="C78" s="53"/>
+      <c r="D78" s="53"/>
+      <c r="E78" s="53"/>
+      <c r="F78" s="53"/>
+      <c r="G78" s="53"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="C79" s="53"/>
+      <c r="D79" s="53"/>
+      <c r="E79" s="53"/>
+      <c r="F79" s="53"/>
+      <c r="G79" s="53"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" s="53"/>
+      <c r="D80" s="53"/>
+      <c r="E80" s="53"/>
+      <c r="F80" s="53"/>
+      <c r="G80" s="53"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="B81" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="C81" s="53"/>
+      <c r="D81" s="53"/>
+      <c r="E81" s="53"/>
+      <c r="F81" s="53"/>
+      <c r="G81" s="53"/>
+    </row>
+    <row r="82" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A82" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82" s="53"/>
+      <c r="C82" s="53"/>
+      <c r="D82" s="53"/>
+      <c r="E82" s="53"/>
+      <c r="F82" s="53"/>
+      <c r="G82" s="53"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="E83" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="F83" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83" s="53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="B84" s="53">
+        <v>1</v>
+      </c>
+      <c r="C84" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="D84" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="E84" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="F84" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="G84" s="53"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="B85" s="53">
+        <v>220</v>
+      </c>
+      <c r="C85" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="D85" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="E85" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="G85" s="53" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="B86" s="53">
+        <v>440</v>
+      </c>
+      <c r="C86" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="D86" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="E86" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="G86" s="53" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="B87" s="53">
+        <v>220</v>
+      </c>
+      <c r="C87" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="D87" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="E87" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F87" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="G87" s="53" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="B88" s="53">
+        <v>1320</v>
+      </c>
+      <c r="C88" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="D88" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="E88" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="G88" s="53" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="B89" s="53">
+        <v>220</v>
+      </c>
+      <c r="C89" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="D89" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="E89" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="G89" s="53" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="B90" s="53">
+        <v>1320</v>
+      </c>
+      <c r="C90" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="D90" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="E90" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="F90" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="G90" s="53" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="B91" s="53">
+        <v>220</v>
+      </c>
+      <c r="C91" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="D91" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="E91" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="G91" s="53" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="B92" s="53">
+        <v>440</v>
+      </c>
+      <c r="C92" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="D92" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="E92" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="G92" s="53" t="s">
+        <v>112</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/premise/data/additional_inventories/lci-hydrogen-electrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-electrolysis.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacchi_r\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacchi_r\Documents\GitHub\premise\premise\data\additional_inventories\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11856"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="lci" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="manual" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="113">
   <si>
     <t>Database</t>
   </si>
@@ -318,6 +318,51 @@
   </si>
   <si>
     <t>1 MW PEM electrolyzer based on Bareiß, K., de la Rua, C., Möckl, M., Hamacher, T., 2019. Life cycle assessment of hydrogen from proton exchange membrane water electrolysis in future energy systems 237, 862-872. 10.1016/j.apenergy.2019.01.001</t>
+  </si>
+  <si>
+    <t>transformer and rectifier unit, for electrolyzer</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>worksheet name</t>
+  </si>
+  <si>
+    <t>hydrogen</t>
+  </si>
+  <si>
+    <t>ecoinvent</t>
+  </si>
+  <si>
+    <t>market for transport, freight, lorry 16-32 metric ton, EURO5</t>
+  </si>
+  <si>
+    <t>ton kilometer</t>
+  </si>
+  <si>
+    <t>transport, freight, lorry 16-32 metric ton, EURO5</t>
+  </si>
+  <si>
+    <t>reinforcing steel production</t>
+  </si>
+  <si>
+    <t>reinforcing steel</t>
+  </si>
+  <si>
+    <t>sheet rolling, aluminium</t>
+  </si>
+  <si>
+    <t>sheet rolling, steel</t>
+  </si>
+  <si>
+    <t>tube insulation production, elastomere</t>
+  </si>
+  <si>
+    <t>tube insulation, elastomere</t>
+  </si>
+  <si>
+    <t>wire drawing, copper</t>
   </si>
 </sst>
 </file>
@@ -327,7 +372,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,6 +429,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -429,7 +482,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -493,6 +546,8 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Neutral" xfId="4" builtinId="28"/>
@@ -777,10 +832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P73"/>
+  <dimension ref="A1:P92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2325,6 +2380,336 @@
         <v>21</v>
       </c>
     </row>
+    <row r="75" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="C75" s="53"/>
+      <c r="D75" s="53"/>
+      <c r="E75" s="53"/>
+      <c r="F75" s="53"/>
+      <c r="G75" s="53"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B76" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="C76" s="53"/>
+      <c r="D76" s="53"/>
+      <c r="E76" s="53"/>
+      <c r="F76" s="53"/>
+      <c r="G76" s="53"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" s="53">
+        <v>1</v>
+      </c>
+      <c r="C77" s="53"/>
+      <c r="D77" s="53"/>
+      <c r="E77" s="53"/>
+      <c r="F77" s="53"/>
+      <c r="G77" s="53"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="C78" s="53"/>
+      <c r="D78" s="53"/>
+      <c r="E78" s="53"/>
+      <c r="F78" s="53"/>
+      <c r="G78" s="53"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="C79" s="53"/>
+      <c r="D79" s="53"/>
+      <c r="E79" s="53"/>
+      <c r="F79" s="53"/>
+      <c r="G79" s="53"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" s="53"/>
+      <c r="D80" s="53"/>
+      <c r="E80" s="53"/>
+      <c r="F80" s="53"/>
+      <c r="G80" s="53"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="B81" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="C81" s="53"/>
+      <c r="D81" s="53"/>
+      <c r="E81" s="53"/>
+      <c r="F81" s="53"/>
+      <c r="G81" s="53"/>
+    </row>
+    <row r="82" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A82" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82" s="53"/>
+      <c r="C82" s="53"/>
+      <c r="D82" s="53"/>
+      <c r="E82" s="53"/>
+      <c r="F82" s="53"/>
+      <c r="G82" s="53"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="E83" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="F83" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83" s="53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="B84" s="53">
+        <v>1</v>
+      </c>
+      <c r="C84" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="D84" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="E84" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="F84" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="G84" s="53"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="B85" s="53">
+        <v>220</v>
+      </c>
+      <c r="C85" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="D85" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="E85" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="G85" s="53" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="B86" s="53">
+        <v>440</v>
+      </c>
+      <c r="C86" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="D86" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="E86" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="G86" s="53" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="B87" s="53">
+        <v>220</v>
+      </c>
+      <c r="C87" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="D87" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="E87" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F87" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="G87" s="53" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="B88" s="53">
+        <v>1320</v>
+      </c>
+      <c r="C88" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="D88" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="E88" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="G88" s="53" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="B89" s="53">
+        <v>220</v>
+      </c>
+      <c r="C89" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="D89" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="E89" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="G89" s="53" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="B90" s="53">
+        <v>1320</v>
+      </c>
+      <c r="C90" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="D90" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="E90" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="F90" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="G90" s="53" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="B91" s="53">
+        <v>220</v>
+      </c>
+      <c r="C91" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="D91" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="E91" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="G91" s="53" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="B92" s="53">
+        <v>440</v>
+      </c>
+      <c r="C92" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="D92" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="E92" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="G92" s="53" t="s">
+        <v>112</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/premise/data/additional_inventories/lci-hydrogen-electrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-electrolysis.xlsx
@@ -1,23 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacchi_r\Documents\GitHub\premise\premise\data\additional_inventories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BAB1ABA-DB69-AB45-A378-14AB6D353F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8040"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="23040" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lci" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029" iterate="1" iterateCount="10" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -368,7 +379,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
   </numFmts>
@@ -552,9 +563,9 @@
   <cellStyles count="5">
     <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 11 3" xfId="1"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Normal 11 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -831,28 +842,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41.21875" customWidth="1"/>
-    <col min="2" max="2" width="40.77734375" style="27" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="41.1640625" customWidth="1"/>
+    <col min="2" max="2" width="40.83203125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
     <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.44140625" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="99.21875" style="29" customWidth="1"/>
+    <col min="9" max="9" width="99.1640625" style="29" customWidth="1"/>
     <col min="10" max="10" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -860,7 +871,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -876,7 +887,7 @@
       <c r="I2" s="30"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="37"/>
       <c r="C3" s="3"/>
@@ -888,7 +899,7 @@
       <c r="I3" s="30"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="38"/>
       <c r="C4" s="5"/>
@@ -900,7 +911,7 @@
       <c r="I4" s="31"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -916,7 +927,7 @@
       <c r="I5" s="32"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -932,7 +943,7 @@
       <c r="I6" s="32"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -948,7 +959,7 @@
       <c r="I7" s="32"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -964,7 +975,7 @@
       <c r="I8" s="32"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
@@ -980,7 +991,7 @@
       <c r="I9" s="32"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -996,7 +1007,7 @@
       <c r="I10" s="33"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>7</v>
       </c>
@@ -1016,7 +1027,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
         <v>8</v>
       </c>
@@ -1054,7 +1065,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
         <v>94</v>
       </c>
@@ -1091,7 +1102,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="str">
         <f>A30</f>
         <v>electrolyzer, PEM, Balance of Plant</v>
@@ -1135,7 +1146,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="str">
         <f>A31</f>
         <v>electrolyzer, PEM, Stack</v>
@@ -1178,7 +1189,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="51" t="s">
         <v>75</v>
       </c>
@@ -1207,7 +1218,7 @@
       </c>
       <c r="M16"/>
     </row>
-    <row r="17" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="51" t="s">
         <v>79</v>
       </c>
@@ -1239,7 +1250,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="48" t="s">
         <v>88</v>
       </c>
@@ -1264,10 +1275,10 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="I19" s="29"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="38"/>
       <c r="C20" s="5"/>
@@ -1278,7 +1289,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="31"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>1</v>
       </c>
@@ -1293,7 +1304,7 @@
       <c r="H21" s="7"/>
       <c r="I21" s="32"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1308,7 +1319,7 @@
       <c r="H22" s="7"/>
       <c r="I22" s="32"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>11</v>
       </c>
@@ -1323,7 +1334,7 @@
       <c r="H23" s="7"/>
       <c r="I23" s="32"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>4</v>
       </c>
@@ -1339,7 +1350,7 @@
       <c r="H24" s="7"/>
       <c r="I24" s="32"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>2</v>
       </c>
@@ -1354,7 +1365,7 @@
       <c r="H25" s="7"/>
       <c r="I25" s="32"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>6</v>
       </c>
@@ -1369,7 +1380,7 @@
       <c r="H26" s="6"/>
       <c r="I26" s="33"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>7</v>
       </c>
@@ -1382,7 +1393,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="34"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>8</v>
       </c>
@@ -1411,7 +1422,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="str">
         <f>B24</f>
         <v>electrolyzer, PEM</v>
@@ -1441,7 +1452,7 @@
       <c r="H29" s="8"/>
       <c r="I29" s="34"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
         <v>59</v>
       </c>
@@ -1471,7 +1482,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
         <v>58</v>
       </c>
@@ -1498,12 +1509,12 @@
       <c r="J31" s="20"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:13" s="20" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" s="20" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="27"/>
       <c r="G32" s="9"/>
       <c r="I32" s="29"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="38"/>
       <c r="C33" s="5"/>
@@ -1514,7 +1525,7 @@
       <c r="H33" s="5"/>
       <c r="I33" s="31"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>1</v>
       </c>
@@ -1530,7 +1541,7 @@
       <c r="H34" s="7"/>
       <c r="I34" s="32"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1545,7 +1556,7 @@
       <c r="H35" s="7"/>
       <c r="I35" s="32"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>11</v>
       </c>
@@ -1560,7 +1571,7 @@
       <c r="H36" s="7"/>
       <c r="I36" s="32"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>4</v>
       </c>
@@ -1576,7 +1587,7 @@
       <c r="H37" s="7"/>
       <c r="I37" s="32"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>2</v>
       </c>
@@ -1591,7 +1602,7 @@
       <c r="H38" s="7"/>
       <c r="I38" s="32"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="21" t="s">
         <v>6</v>
       </c>
@@ -1606,7 +1617,7 @@
       <c r="H39" s="7"/>
       <c r="I39" s="32"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>7</v>
       </c>
@@ -1619,7 +1630,7 @@
       <c r="H40" s="6"/>
       <c r="I40" s="33"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
         <v>8</v>
       </c>
@@ -1648,7 +1659,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="str">
         <f>B37</f>
         <v>electrolyzer, PEM, Stack</v>
@@ -1678,7 +1689,7 @@
       <c r="H42" s="12"/>
       <c r="I42" s="36"/>
     </row>
-    <row r="43" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>25</v>
       </c>
@@ -1710,7 +1721,7 @@
       <c r="O43"/>
       <c r="P43"/>
     </row>
-    <row r="44" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
         <v>28</v>
       </c>
@@ -1742,7 +1753,7 @@
       <c r="O44"/>
       <c r="P44"/>
     </row>
-    <row r="45" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
         <v>30</v>
       </c>
@@ -1774,7 +1785,7 @@
       <c r="O45"/>
       <c r="P45"/>
     </row>
-    <row r="46" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
         <v>31</v>
       </c>
@@ -1806,7 +1817,7 @@
       <c r="O46"/>
       <c r="P46"/>
     </row>
-    <row r="47" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="17" t="s">
         <v>33</v>
       </c>
@@ -1838,7 +1849,7 @@
       <c r="O47"/>
       <c r="P47"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>35</v>
       </c>
@@ -1865,7 +1876,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>41</v>
       </c>
@@ -1892,7 +1903,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="18" t="s">
         <v>37</v>
       </c>
@@ -1915,7 +1926,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>40</v>
       </c>
@@ -1936,7 +1947,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="27"/>
       <c r="C52" s="8"/>
       <c r="F52" s="9"/>
@@ -1944,7 +1955,7 @@
       <c r="H52" s="9"/>
       <c r="I52" s="29"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
       <c r="B53" s="38"/>
       <c r="C53" s="5"/>
@@ -1954,7 +1965,7 @@
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>1</v>
       </c>
@@ -1970,7 +1981,7 @@
       <c r="J54" s="23"/>
       <c r="K54" s="22"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>3</v>
       </c>
@@ -1986,7 +1997,7 @@
       <c r="J55" s="1"/>
       <c r="K55" s="22"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>11</v>
       </c>
@@ -2002,7 +2013,7 @@
       <c r="J56" s="20"/>
       <c r="K56" s="22"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2016,7 +2027,7 @@
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
     </row>
-    <row r="58" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>2</v>
       </c>
@@ -2030,7 +2041,7 @@
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>6</v>
       </c>
@@ -2044,7 +2055,7 @@
       <c r="G59" s="7"/>
       <c r="H59" s="6"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>7</v>
       </c>
@@ -2056,7 +2067,7 @@
       <c r="G60" s="6"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="18" t="s">
         <v>8</v>
       </c>
@@ -2085,7 +2096,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="18" t="s">
         <v>59</v>
       </c>
@@ -2110,7 +2121,7 @@
       </c>
       <c r="H62" s="8"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="19" t="s">
         <v>43</v>
       </c>
@@ -2134,7 +2145,7 @@
       </c>
       <c r="H63" s="8"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="19" t="s">
         <v>45</v>
       </c>
@@ -2158,7 +2169,7 @@
       </c>
       <c r="H64" s="18"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="18" t="s">
         <v>31</v>
       </c>
@@ -2182,7 +2193,7 @@
       </c>
       <c r="H65" s="18"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="19" t="s">
         <v>28</v>
       </c>
@@ -2205,7 +2216,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="20" t="s">
         <v>47</v>
       </c>
@@ -2228,7 +2239,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>50</v>
       </c>
@@ -2251,7 +2262,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>51</v>
       </c>
@@ -2278,7 +2289,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>53</v>
       </c>
@@ -2307,7 +2318,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
         <v>19</v>
       </c>
@@ -2336,7 +2347,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
         <v>62</v>
       </c>
@@ -2359,7 +2370,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
         <v>63</v>
       </c>
@@ -2380,7 +2391,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="54" t="s">
         <v>1</v>
       </c>
@@ -2393,7 +2404,7 @@
       <c r="F75" s="53"/>
       <c r="G75" s="53"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="53" t="s">
         <v>2</v>
       </c>
@@ -2406,7 +2417,7 @@
       <c r="F76" s="53"/>
       <c r="G76" s="53"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="53" t="s">
         <v>3</v>
       </c>
@@ -2419,7 +2430,7 @@
       <c r="F77" s="53"/>
       <c r="G77" s="53"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="53" t="s">
         <v>4</v>
       </c>
@@ -2432,7 +2443,7 @@
       <c r="F78" s="53"/>
       <c r="G78" s="53"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="53" t="s">
         <v>5</v>
       </c>
@@ -2445,7 +2456,7 @@
       <c r="F79" s="53"/>
       <c r="G79" s="53"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="53" t="s">
         <v>6</v>
       </c>
@@ -2458,7 +2469,7 @@
       <c r="F80" s="53"/>
       <c r="G80" s="53"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="53" t="s">
         <v>100</v>
       </c>
@@ -2471,7 +2482,7 @@
       <c r="F81" s="53"/>
       <c r="G81" s="53"/>
     </row>
-    <row r="82" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="54" t="s">
         <v>7</v>
       </c>
@@ -2482,7 +2493,7 @@
       <c r="F82" s="53"/>
       <c r="G82" s="53"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="53" t="s">
         <v>8</v>
       </c>
@@ -2505,7 +2516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="53" t="s">
         <v>98</v>
       </c>
@@ -2526,7 +2537,7 @@
       </c>
       <c r="G84" s="53"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="53" t="s">
         <v>28</v>
       </c>
@@ -2549,7 +2560,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="53" t="s">
         <v>31</v>
       </c>
@@ -2572,7 +2583,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="53" t="s">
         <v>103</v>
       </c>
@@ -2595,7 +2606,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="53" t="s">
         <v>106</v>
       </c>
@@ -2618,7 +2629,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="53" t="s">
         <v>108</v>
       </c>
@@ -2641,7 +2652,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="53" t="s">
         <v>109</v>
       </c>
@@ -2664,7 +2675,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="53" t="s">
         <v>110</v>
       </c>
@@ -2687,7 +2698,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="53" t="s">
         <v>112</v>
       </c>

--- a/premise/data/additional_inventories/lci-hydrogen-electrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-electrolysis.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacchi_r\Documents\GitHub\premise\premise\data\additional_inventories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BAB1ABA-DB69-AB45-A378-14AB6D353F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="23040" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="765" windowWidth="23040" windowHeight="17100"/>
   </bookViews>
   <sheets>
     <sheet name="lci" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateCount="10" calcOnSave="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -112,15 +111,9 @@
     <t>GLO</t>
   </si>
   <si>
-    <t>market for titanium dioxide</t>
-  </si>
-  <si>
     <t>RoW</t>
   </si>
   <si>
-    <t>titanium dioxide</t>
-  </si>
-  <si>
     <t>market for aluminium, wrought alloy</t>
   </si>
   <si>
@@ -136,12 +129,6 @@
     <t>copper, anode</t>
   </si>
   <si>
-    <t>market for carbon black</t>
-  </si>
-  <si>
-    <t>carbon black</t>
-  </si>
-  <si>
     <t>market for tetrafluoroethylene</t>
   </si>
   <si>
@@ -374,12 +361,24 @@
   </si>
   <si>
     <t>wire drawing, copper</t>
+  </si>
+  <si>
+    <t>market for titanium</t>
+  </si>
+  <si>
+    <t>titanium</t>
+  </si>
+  <si>
+    <t>market for activated carbon, granular</t>
+  </si>
+  <si>
+    <t>activated carbon, granular</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
   </numFmts>
@@ -563,9 +562,9 @@
   <cellStyles count="5">
     <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 11 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 11 3" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 3" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -842,28 +841,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.1640625" customWidth="1"/>
-    <col min="2" max="2" width="40.83203125" style="27" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="99.1640625" style="29" customWidth="1"/>
+    <col min="1" max="1" width="41.140625" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" style="27" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="99.140625" style="29" customWidth="1"/>
     <col min="10" max="10" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -871,12 +870,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -887,7 +886,7 @@
       <c r="I2" s="30"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="37"/>
       <c r="C3" s="3"/>
@@ -899,7 +898,7 @@
       <c r="I3" s="30"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="38"/>
       <c r="C4" s="5"/>
@@ -911,12 +910,12 @@
       <c r="I4" s="31"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="7"/>
@@ -927,7 +926,7 @@
       <c r="I5" s="32"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -943,12 +942,12 @@
       <c r="I6" s="32"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -959,12 +958,12 @@
       <c r="I7" s="32"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -975,12 +974,12 @@
       <c r="I8" s="32"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -991,7 +990,7 @@
       <c r="I9" s="32"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -1007,7 +1006,7 @@
       <c r="I10" s="33"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>7</v>
       </c>
@@ -1020,14 +1019,14 @@
       <c r="H11" s="1"/>
       <c r="I11" s="34"/>
       <c r="J11" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K11" s="4"/>
       <c r="M11" s="20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>8</v>
       </c>
@@ -1056,18 +1055,18 @@
         <v>11</v>
       </c>
       <c r="J12" s="26" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K12" s="4">
         <v>120</v>
       </c>
       <c r="L12" s="28" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B13" s="27">
         <v>1</v>
@@ -1088,21 +1087,21 @@
         <v>23</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="34"/>
       <c r="J13" s="20" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K13" s="4">
         <v>0.61</v>
       </c>
       <c r="L13" s="20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="str">
         <f>A30</f>
         <v>electrolyzer, PEM, Balance of Plant</v>
@@ -1136,17 +1135,17 @@
         <v>Assuming lifetime of electrolyzer stack of 7 years, BOP 20 years</v>
       </c>
       <c r="J14" s="20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K14" s="20">
         <f>7*8760</f>
         <v>61320</v>
       </c>
       <c r="L14" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="str">
         <f>A31</f>
         <v>electrolyzer, PEM, Stack</v>
@@ -1177,59 +1176,59 @@
       </c>
       <c r="I15" s="29"/>
       <c r="J15" s="45" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K15" s="20">
         <v>0.95</v>
       </c>
       <c r="L15" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="M15" s="48" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="51" t="s">
         <v>71</v>
-      </c>
-      <c r="M15" s="48" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="51" t="s">
-        <v>75</v>
       </c>
       <c r="B16" s="27">
         <f>(K12/3.6)/K13</f>
         <v>54.644808743169406</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F16" s="20" t="s">
         <v>13</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="35" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M16"/>
     </row>
-    <row r="17" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="51" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B17" s="27">
         <v>12</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>14</v>
@@ -1238,21 +1237,21 @@
         <v>13</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I17" s="35" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J17" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="M17" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="M17" s="50" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="48" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B18" s="49">
         <v>8</v>
@@ -1269,16 +1268,16 @@
       </c>
       <c r="G18" s="48"/>
       <c r="H18" s="48" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I18" s="52" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I19" s="29"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="38"/>
       <c r="C20" s="5"/>
@@ -1289,12 +1288,12 @@
       <c r="H20" s="5"/>
       <c r="I20" s="31"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1304,7 +1303,7 @@
       <c r="H21" s="7"/>
       <c r="I21" s="32"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1319,12 +1318,12 @@
       <c r="H22" s="7"/>
       <c r="I22" s="32"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B23" s="41" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1334,7 +1333,7 @@
       <c r="H23" s="7"/>
       <c r="I23" s="32"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>4</v>
       </c>
@@ -1350,7 +1349,7 @@
       <c r="H24" s="7"/>
       <c r="I24" s="32"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>2</v>
       </c>
@@ -1365,7 +1364,7 @@
       <c r="H25" s="7"/>
       <c r="I25" s="32"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>6</v>
       </c>
@@ -1380,7 +1379,7 @@
       <c r="H26" s="6"/>
       <c r="I26" s="33"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>7</v>
       </c>
@@ -1393,7 +1392,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="34"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>8</v>
       </c>
@@ -1422,7 +1421,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="str">
         <f>B24</f>
         <v>electrolyzer, PEM</v>
@@ -1452,9 +1451,9 @@
       <c r="H29" s="8"/>
       <c r="I29" s="34"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B30" s="27">
         <f>1*7/20</f>
@@ -1479,12 +1478,12 @@
       </c>
       <c r="H30" s="8"/>
       <c r="I30" s="35" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B31" s="27">
         <v>1</v>
@@ -1509,12 +1508,12 @@
       <c r="J31" s="20"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:13" s="20" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" s="20" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="27"/>
       <c r="G32" s="9"/>
       <c r="I32" s="29"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="38"/>
       <c r="C33" s="5"/>
@@ -1525,7 +1524,7 @@
       <c r="H33" s="5"/>
       <c r="I33" s="31"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>1</v>
       </c>
@@ -1541,7 +1540,7 @@
       <c r="H34" s="7"/>
       <c r="I34" s="32"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1556,12 +1555,12 @@
       <c r="H35" s="7"/>
       <c r="I35" s="32"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B36" s="41" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1571,7 +1570,7 @@
       <c r="H36" s="7"/>
       <c r="I36" s="32"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>4</v>
       </c>
@@ -1587,7 +1586,7 @@
       <c r="H37" s="7"/>
       <c r="I37" s="32"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>2</v>
       </c>
@@ -1602,7 +1601,7 @@
       <c r="H38" s="7"/>
       <c r="I38" s="32"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="21" t="s">
         <v>6</v>
       </c>
@@ -1617,7 +1616,7 @@
       <c r="H39" s="7"/>
       <c r="I39" s="32"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>7</v>
       </c>
@@ -1630,7 +1629,7 @@
       <c r="H40" s="6"/>
       <c r="I40" s="33"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>8</v>
       </c>
@@ -1659,7 +1658,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="str">
         <f>B37</f>
         <v>electrolyzer, PEM, Stack</v>
@@ -1689,18 +1688,18 @@
       <c r="H42" s="12"/>
       <c r="I42" s="36"/>
     </row>
-    <row r="43" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="B43" s="27">
         <v>528</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E43" s="13" t="s">
         <v>14</v>
@@ -1709,7 +1708,7 @@
         <v>13</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="H43" s="8"/>
       <c r="I43" s="34"/>
@@ -1721,15 +1720,15 @@
       <c r="O43"/>
       <c r="P43"/>
     </row>
-    <row r="44" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B44" s="27">
         <v>27</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>24</v>
@@ -1741,7 +1740,7 @@
         <v>13</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H44" s="8"/>
       <c r="I44" s="34"/>
@@ -1753,15 +1752,15 @@
       <c r="O44"/>
       <c r="P44"/>
     </row>
-    <row r="45" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B45" s="27">
         <v>100</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D45" s="15" t="s">
         <v>24</v>
@@ -1785,15 +1784,15 @@
       <c r="O45"/>
       <c r="P45"/>
     </row>
-    <row r="46" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B46" s="27">
         <v>4.5</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D46" s="16" t="s">
         <v>24</v>
@@ -1805,7 +1804,7 @@
         <v>13</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H46"/>
       <c r="I46" s="29"/>
@@ -1817,15 +1816,15 @@
       <c r="O46"/>
       <c r="P46"/>
     </row>
-    <row r="47" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="B47" s="27">
         <v>9</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D47" s="17" t="s">
         <v>24</v>
@@ -1836,8 +1835,8 @@
       <c r="F47" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G47" s="17" t="s">
-        <v>34</v>
+      <c r="G47" s="53" t="s">
+        <v>112</v>
       </c>
       <c r="H47"/>
       <c r="I47" s="29"/>
@@ -1849,16 +1848,16 @@
       <c r="O47"/>
       <c r="P47"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B48" s="27">
         <f>16*(0.85/(0.85+0.18))</f>
         <v>13.203883495145631</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D48" s="17" t="s">
         <v>24</v>
@@ -1870,25 +1869,25 @@
         <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I48" s="29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B49" s="27">
         <f>16-B48</f>
         <v>2.7961165048543695</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E49" s="18" t="s">
         <v>14</v>
@@ -1897,21 +1896,21 @@
         <v>13</v>
       </c>
       <c r="G49" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I49" s="29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B50" s="27">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D50" s="20" t="s">
         <v>24</v>
@@ -1923,12 +1922,12 @@
         <v>13</v>
       </c>
       <c r="G50" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B51" s="27">
         <v>0.75</v>
@@ -1944,10 +1943,10 @@
       </c>
       <c r="G51" s="8"/>
       <c r="H51" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="27"/>
       <c r="C52" s="8"/>
       <c r="F52" s="9"/>
@@ -1955,7 +1954,7 @@
       <c r="H52" s="9"/>
       <c r="I52" s="29"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
       <c r="B53" s="38"/>
       <c r="C53" s="5"/>
@@ -1965,12 +1964,12 @@
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B54" s="39" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -1981,7 +1980,7 @@
       <c r="J54" s="23"/>
       <c r="K54" s="22"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>3</v>
       </c>
@@ -1997,12 +1996,12 @@
       <c r="J55" s="1"/>
       <c r="K55" s="22"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B56" s="41" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2013,12 +2012,12 @@
       <c r="J56" s="20"/>
       <c r="K56" s="22"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B57" s="42" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2027,7 +2026,7 @@
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
     </row>
-    <row r="58" spans="1:11" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>2</v>
       </c>
@@ -2041,7 +2040,7 @@
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>6</v>
       </c>
@@ -2055,7 +2054,7 @@
       <c r="G59" s="7"/>
       <c r="H59" s="6"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>7</v>
       </c>
@@ -2067,7 +2066,7 @@
       <c r="G60" s="6"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="18" t="s">
         <v>8</v>
       </c>
@@ -2096,9 +2095,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B62" s="27">
         <v>1</v>
@@ -2117,19 +2116,19 @@
         <v>23</v>
       </c>
       <c r="G62" s="18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H62" s="8"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="19" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B63" s="27">
         <v>1900</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D63" s="19" t="s">
         <v>24</v>
@@ -2141,19 +2140,19 @@
         <v>13</v>
       </c>
       <c r="G63" s="19" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H63" s="8"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="19" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B64" s="27">
         <v>4800</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D64" s="19" t="s">
         <v>24</v>
@@ -2165,19 +2164,19 @@
         <v>13</v>
       </c>
       <c r="G64" s="19" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H64" s="18"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B65" s="27">
         <v>100</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D65" s="18" t="s">
         <v>24</v>
@@ -2189,19 +2188,19 @@
         <v>13</v>
       </c>
       <c r="G65" s="18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H65" s="18"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B66" s="27">
         <v>100</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D66" s="19" t="s">
         <v>24</v>
@@ -2213,18 +2212,18 @@
         <v>13</v>
       </c>
       <c r="G66" s="19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="20" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B67" s="27">
         <v>300</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D67" s="20" t="s">
         <v>24</v>
@@ -2236,18 +2235,18 @@
         <v>13</v>
       </c>
       <c r="G67" s="20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B68" s="27">
         <v>1100</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D68" s="20" t="s">
         <v>24</v>
@@ -2259,45 +2258,45 @@
         <v>13</v>
       </c>
       <c r="G68" s="20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B69" s="27">
         <f>5600/2400</f>
         <v>2.3333333333333335</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D69" s="20" t="s">
         <v>24</v>
       </c>
       <c r="E69" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F69" s="20" t="s">
         <v>13</v>
       </c>
       <c r="G69" t="s">
+        <v>48</v>
+      </c>
+      <c r="I69" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="I69" s="29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B70" s="27">
         <v>200</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D70" s="20" t="s">
         <v>24</v>
@@ -2309,16 +2308,16 @@
         <v>13</v>
       </c>
       <c r="G70" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I70" s="29" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J70" s="25" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>19</v>
       </c>
@@ -2341,15 +2340,15 @@
         <v>21</v>
       </c>
       <c r="J71" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K71" s="24" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B72" s="43">
         <f>B71</f>
@@ -2370,9 +2369,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B73" s="43">
         <f>B72*20</f>
@@ -2391,12 +2390,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="54" t="s">
         <v>1</v>
       </c>
       <c r="B75" s="54" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C75" s="53"/>
       <c r="D75" s="53"/>
@@ -2404,7 +2403,7 @@
       <c r="F75" s="53"/>
       <c r="G75" s="53"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="53" t="s">
         <v>2</v>
       </c>
@@ -2417,7 +2416,7 @@
       <c r="F76" s="53"/>
       <c r="G76" s="53"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="53" t="s">
         <v>3</v>
       </c>
@@ -2430,12 +2429,12 @@
       <c r="F77" s="53"/>
       <c r="G77" s="53"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="53" t="s">
         <v>4</v>
       </c>
       <c r="B78" s="53" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C78" s="53"/>
       <c r="D78" s="53"/>
@@ -2443,12 +2442,12 @@
       <c r="F78" s="53"/>
       <c r="G78" s="53"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="53" t="s">
         <v>5</v>
       </c>
       <c r="B79" s="53" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C79" s="53"/>
       <c r="D79" s="53"/>
@@ -2456,7 +2455,7 @@
       <c r="F79" s="53"/>
       <c r="G79" s="53"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="53" t="s">
         <v>6</v>
       </c>
@@ -2469,12 +2468,12 @@
       <c r="F80" s="53"/>
       <c r="G80" s="53"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="53" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B81" s="53" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C81" s="53"/>
       <c r="D81" s="53"/>
@@ -2482,7 +2481,7 @@
       <c r="F81" s="53"/>
       <c r="G81" s="53"/>
     </row>
-    <row r="82" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="54" t="s">
         <v>7</v>
       </c>
@@ -2493,7 +2492,7 @@
       <c r="F82" s="53"/>
       <c r="G82" s="53"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="53" t="s">
         <v>8</v>
       </c>
@@ -2516,15 +2515,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="53" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B84" s="53">
         <v>1</v>
       </c>
       <c r="C84" s="53" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D84" s="53" t="s">
         <v>24</v>
@@ -2537,15 +2536,15 @@
       </c>
       <c r="G84" s="53"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="53" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B85" s="53">
         <v>220</v>
       </c>
       <c r="C85" s="53" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D85" s="53" t="s">
         <v>24</v>
@@ -2557,18 +2556,18 @@
         <v>13</v>
       </c>
       <c r="G85" s="53" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="53" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" s="53" t="s">
-        <v>31</v>
       </c>
       <c r="B86" s="53">
         <v>440</v>
       </c>
       <c r="C86" s="53" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D86" s="53" t="s">
         <v>24</v>
@@ -2580,44 +2579,44 @@
         <v>13</v>
       </c>
       <c r="G86" s="53" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="53" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B87" s="53">
         <v>220</v>
       </c>
       <c r="C87" s="53" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D87" s="53" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E87" s="53" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F87" s="53" t="s">
         <v>13</v>
       </c>
       <c r="G87" s="53" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="53" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B88" s="53">
         <v>1320</v>
       </c>
       <c r="C88" s="53" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D88" s="53" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E88" s="53" t="s">
         <v>14</v>
@@ -2626,21 +2625,21 @@
         <v>13</v>
       </c>
       <c r="G88" s="53" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="53" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B89" s="53">
         <v>220</v>
       </c>
       <c r="C89" s="53" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D89" s="53" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E89" s="53" t="s">
         <v>14</v>
@@ -2649,21 +2648,21 @@
         <v>13</v>
       </c>
       <c r="G89" s="53" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="53" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B90" s="53">
         <v>1320</v>
       </c>
       <c r="C90" s="53" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D90" s="53" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E90" s="53" t="s">
         <v>14</v>
@@ -2672,21 +2671,21 @@
         <v>13</v>
       </c>
       <c r="G90" s="53" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="53" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B91" s="53">
         <v>220</v>
       </c>
       <c r="C91" s="53" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D91" s="53" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E91" s="53" t="s">
         <v>14</v>
@@ -2695,21 +2694,21 @@
         <v>13</v>
       </c>
       <c r="G91" s="53" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="53" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B92" s="53">
         <v>440</v>
       </c>
       <c r="C92" s="53" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D92" s="53" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E92" s="53" t="s">
         <v>14</v>
@@ -2718,7 +2717,7 @@
         <v>13</v>
       </c>
       <c r="G92" s="53" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/premise/data/additional_inventories/lci-hydrogen-electrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-electrolysis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8040"/>
+    <workbookView xWindow="0" yWindow="765" windowWidth="23040" windowHeight="17100"/>
   </bookViews>
   <sheets>
     <sheet name="lci" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,16 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -101,15 +111,9 @@
     <t>GLO</t>
   </si>
   <si>
-    <t>market for titanium dioxide</t>
-  </si>
-  <si>
     <t>RoW</t>
   </si>
   <si>
-    <t>titanium dioxide</t>
-  </si>
-  <si>
     <t>market for aluminium, wrought alloy</t>
   </si>
   <si>
@@ -125,12 +129,6 @@
     <t>copper, anode</t>
   </si>
   <si>
-    <t>market for carbon black</t>
-  </si>
-  <si>
-    <t>carbon black</t>
-  </si>
-  <si>
     <t>market for tetrafluoroethylene</t>
   </si>
   <si>
@@ -363,6 +361,18 @@
   </si>
   <si>
     <t>wire drawing, copper</t>
+  </si>
+  <si>
+    <t>market for titanium</t>
+  </si>
+  <si>
+    <t>titanium</t>
+  </si>
+  <si>
+    <t>market for activated carbon, granular</t>
+  </si>
+  <si>
+    <t>activated carbon, granular</t>
   </si>
 </sst>
 </file>
@@ -834,25 +844,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.21875" customWidth="1"/>
-    <col min="2" max="2" width="40.77734375" style="27" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.44140625" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="99.21875" style="29" customWidth="1"/>
+    <col min="1" max="1" width="41.140625" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" style="27" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="99.140625" style="29" customWidth="1"/>
     <col min="10" max="10" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -860,12 +870,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -876,7 +886,7 @@
       <c r="I2" s="30"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="37"/>
       <c r="C3" s="3"/>
@@ -888,7 +898,7 @@
       <c r="I3" s="30"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="38"/>
       <c r="C4" s="5"/>
@@ -900,12 +910,12 @@
       <c r="I4" s="31"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="7"/>
@@ -916,7 +926,7 @@
       <c r="I5" s="32"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -932,12 +942,12 @@
       <c r="I6" s="32"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -948,12 +958,12 @@
       <c r="I7" s="32"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -964,12 +974,12 @@
       <c r="I8" s="32"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -980,7 +990,7 @@
       <c r="I9" s="32"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -996,7 +1006,7 @@
       <c r="I10" s="33"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>7</v>
       </c>
@@ -1009,14 +1019,14 @@
       <c r="H11" s="1"/>
       <c r="I11" s="34"/>
       <c r="J11" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K11" s="4"/>
       <c r="M11" s="20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>8</v>
       </c>
@@ -1045,18 +1055,18 @@
         <v>11</v>
       </c>
       <c r="J12" s="26" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K12" s="4">
         <v>120</v>
       </c>
       <c r="L12" s="28" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B13" s="27">
         <v>1</v>
@@ -1077,21 +1087,21 @@
         <v>23</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="34"/>
       <c r="J13" s="20" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K13" s="4">
         <v>0.61</v>
       </c>
       <c r="L13" s="20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="str">
         <f>A30</f>
         <v>electrolyzer, PEM, Balance of Plant</v>
@@ -1125,17 +1135,17 @@
         <v>Assuming lifetime of electrolyzer stack of 7 years, BOP 20 years</v>
       </c>
       <c r="J14" s="20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K14" s="20">
         <f>7*8760</f>
         <v>61320</v>
       </c>
       <c r="L14" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="str">
         <f>A31</f>
         <v>electrolyzer, PEM, Stack</v>
@@ -1166,59 +1176,59 @@
       </c>
       <c r="I15" s="29"/>
       <c r="J15" s="45" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K15" s="20">
         <v>0.95</v>
       </c>
       <c r="L15" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="M15" s="48" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="51" t="s">
         <v>71</v>
-      </c>
-      <c r="M15" s="48" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="51" t="s">
-        <v>75</v>
       </c>
       <c r="B16" s="27">
         <f>(K12/3.6)/K13</f>
         <v>54.644808743169406</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F16" s="20" t="s">
         <v>13</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="35" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M16"/>
     </row>
-    <row r="17" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="51" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B17" s="27">
         <v>12</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>14</v>
@@ -1227,21 +1237,21 @@
         <v>13</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I17" s="35" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J17" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="M17" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="M17" s="50" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="48" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B18" s="49">
         <v>8</v>
@@ -1258,16 +1268,16 @@
       </c>
       <c r="G18" s="48"/>
       <c r="H18" s="48" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I18" s="52" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I19" s="29"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="38"/>
       <c r="C20" s="5"/>
@@ -1278,12 +1288,12 @@
       <c r="H20" s="5"/>
       <c r="I20" s="31"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1293,7 +1303,7 @@
       <c r="H21" s="7"/>
       <c r="I21" s="32"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1308,12 +1318,12 @@
       <c r="H22" s="7"/>
       <c r="I22" s="32"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B23" s="41" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1323,7 +1333,7 @@
       <c r="H23" s="7"/>
       <c r="I23" s="32"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>4</v>
       </c>
@@ -1339,7 +1349,7 @@
       <c r="H24" s="7"/>
       <c r="I24" s="32"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>2</v>
       </c>
@@ -1354,7 +1364,7 @@
       <c r="H25" s="7"/>
       <c r="I25" s="32"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>6</v>
       </c>
@@ -1369,7 +1379,7 @@
       <c r="H26" s="6"/>
       <c r="I26" s="33"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>7</v>
       </c>
@@ -1382,7 +1392,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="34"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>8</v>
       </c>
@@ -1411,7 +1421,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="str">
         <f>B24</f>
         <v>electrolyzer, PEM</v>
@@ -1441,9 +1451,9 @@
       <c r="H29" s="8"/>
       <c r="I29" s="34"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B30" s="27">
         <f>1*7/20</f>
@@ -1468,12 +1478,12 @@
       </c>
       <c r="H30" s="8"/>
       <c r="I30" s="35" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B31" s="27">
         <v>1</v>
@@ -1498,12 +1508,12 @@
       <c r="J31" s="20"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:13" s="20" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" s="20" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="27"/>
       <c r="G32" s="9"/>
       <c r="I32" s="29"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="38"/>
       <c r="C33" s="5"/>
@@ -1514,7 +1524,7 @@
       <c r="H33" s="5"/>
       <c r="I33" s="31"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>1</v>
       </c>
@@ -1530,7 +1540,7 @@
       <c r="H34" s="7"/>
       <c r="I34" s="32"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1545,12 +1555,12 @@
       <c r="H35" s="7"/>
       <c r="I35" s="32"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B36" s="41" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1560,7 +1570,7 @@
       <c r="H36" s="7"/>
       <c r="I36" s="32"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>4</v>
       </c>
@@ -1576,7 +1586,7 @@
       <c r="H37" s="7"/>
       <c r="I37" s="32"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>2</v>
       </c>
@@ -1591,7 +1601,7 @@
       <c r="H38" s="7"/>
       <c r="I38" s="32"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="21" t="s">
         <v>6</v>
       </c>
@@ -1606,7 +1616,7 @@
       <c r="H39" s="7"/>
       <c r="I39" s="32"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>7</v>
       </c>
@@ -1619,7 +1629,7 @@
       <c r="H40" s="6"/>
       <c r="I40" s="33"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>8</v>
       </c>
@@ -1648,7 +1658,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="str">
         <f>B37</f>
         <v>electrolyzer, PEM, Stack</v>
@@ -1678,18 +1688,18 @@
       <c r="H42" s="12"/>
       <c r="I42" s="36"/>
     </row>
-    <row r="43" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="B43" s="27">
         <v>528</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E43" s="13" t="s">
         <v>14</v>
@@ -1698,7 +1708,7 @@
         <v>13</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="H43" s="8"/>
       <c r="I43" s="34"/>
@@ -1710,15 +1720,15 @@
       <c r="O43"/>
       <c r="P43"/>
     </row>
-    <row r="44" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B44" s="27">
         <v>27</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>24</v>
@@ -1730,7 +1740,7 @@
         <v>13</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H44" s="8"/>
       <c r="I44" s="34"/>
@@ -1742,15 +1752,15 @@
       <c r="O44"/>
       <c r="P44"/>
     </row>
-    <row r="45" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B45" s="27">
         <v>100</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D45" s="15" t="s">
         <v>24</v>
@@ -1774,15 +1784,15 @@
       <c r="O45"/>
       <c r="P45"/>
     </row>
-    <row r="46" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B46" s="27">
         <v>4.5</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D46" s="16" t="s">
         <v>24</v>
@@ -1794,7 +1804,7 @@
         <v>13</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H46"/>
       <c r="I46" s="29"/>
@@ -1806,15 +1816,15 @@
       <c r="O46"/>
       <c r="P46"/>
     </row>
-    <row r="47" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="B47" s="27">
         <v>9</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D47" s="17" t="s">
         <v>24</v>
@@ -1825,8 +1835,8 @@
       <c r="F47" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G47" s="17" t="s">
-        <v>34</v>
+      <c r="G47" s="53" t="s">
+        <v>112</v>
       </c>
       <c r="H47"/>
       <c r="I47" s="29"/>
@@ -1838,16 +1848,16 @@
       <c r="O47"/>
       <c r="P47"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B48" s="27">
         <f>16*(0.85/(0.85+0.18))</f>
         <v>13.203883495145631</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D48" s="17" t="s">
         <v>24</v>
@@ -1859,25 +1869,25 @@
         <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I48" s="29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B49" s="27">
         <f>16-B48</f>
         <v>2.7961165048543695</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E49" s="18" t="s">
         <v>14</v>
@@ -1886,21 +1896,21 @@
         <v>13</v>
       </c>
       <c r="G49" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I49" s="29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B50" s="27">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D50" s="20" t="s">
         <v>24</v>
@@ -1912,12 +1922,12 @@
         <v>13</v>
       </c>
       <c r="G50" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B51" s="27">
         <v>0.75</v>
@@ -1933,10 +1943,10 @@
       </c>
       <c r="G51" s="8"/>
       <c r="H51" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="27"/>
       <c r="C52" s="8"/>
       <c r="F52" s="9"/>
@@ -1944,7 +1954,7 @@
       <c r="H52" s="9"/>
       <c r="I52" s="29"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
       <c r="B53" s="38"/>
       <c r="C53" s="5"/>
@@ -1954,12 +1964,12 @@
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B54" s="39" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -1970,7 +1980,7 @@
       <c r="J54" s="23"/>
       <c r="K54" s="22"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>3</v>
       </c>
@@ -1986,12 +1996,12 @@
       <c r="J55" s="1"/>
       <c r="K55" s="22"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B56" s="41" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2002,12 +2012,12 @@
       <c r="J56" s="20"/>
       <c r="K56" s="22"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B57" s="42" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2016,7 +2026,7 @@
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
     </row>
-    <row r="58" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>2</v>
       </c>
@@ -2030,7 +2040,7 @@
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>6</v>
       </c>
@@ -2044,7 +2054,7 @@
       <c r="G59" s="7"/>
       <c r="H59" s="6"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>7</v>
       </c>
@@ -2056,7 +2066,7 @@
       <c r="G60" s="6"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="18" t="s">
         <v>8</v>
       </c>
@@ -2085,9 +2095,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B62" s="27">
         <v>1</v>
@@ -2106,19 +2116,19 @@
         <v>23</v>
       </c>
       <c r="G62" s="18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H62" s="8"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="19" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B63" s="27">
         <v>1900</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D63" s="19" t="s">
         <v>24</v>
@@ -2130,19 +2140,19 @@
         <v>13</v>
       </c>
       <c r="G63" s="19" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H63" s="8"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="19" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B64" s="27">
         <v>4800</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D64" s="19" t="s">
         <v>24</v>
@@ -2154,19 +2164,19 @@
         <v>13</v>
       </c>
       <c r="G64" s="19" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H64" s="18"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B65" s="27">
         <v>100</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D65" s="18" t="s">
         <v>24</v>
@@ -2178,19 +2188,19 @@
         <v>13</v>
       </c>
       <c r="G65" s="18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H65" s="18"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B66" s="27">
         <v>100</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D66" s="19" t="s">
         <v>24</v>
@@ -2202,18 +2212,18 @@
         <v>13</v>
       </c>
       <c r="G66" s="19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="20" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B67" s="27">
         <v>300</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D67" s="20" t="s">
         <v>24</v>
@@ -2225,18 +2235,18 @@
         <v>13</v>
       </c>
       <c r="G67" s="20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B68" s="27">
         <v>1100</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D68" s="20" t="s">
         <v>24</v>
@@ -2248,45 +2258,45 @@
         <v>13</v>
       </c>
       <c r="G68" s="20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B69" s="27">
         <f>5600/2400</f>
         <v>2.3333333333333335</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D69" s="20" t="s">
         <v>24</v>
       </c>
       <c r="E69" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F69" s="20" t="s">
         <v>13</v>
       </c>
       <c r="G69" t="s">
+        <v>48</v>
+      </c>
+      <c r="I69" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="I69" s="29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B70" s="27">
         <v>200</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D70" s="20" t="s">
         <v>24</v>
@@ -2298,16 +2308,16 @@
         <v>13</v>
       </c>
       <c r="G70" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I70" s="29" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J70" s="25" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>19</v>
       </c>
@@ -2330,15 +2340,15 @@
         <v>21</v>
       </c>
       <c r="J71" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K71" s="24" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B72" s="43">
         <f>B71</f>
@@ -2359,9 +2369,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B73" s="43">
         <f>B72*20</f>
@@ -2380,12 +2390,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="54" t="s">
         <v>1</v>
       </c>
       <c r="B75" s="54" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C75" s="53"/>
       <c r="D75" s="53"/>
@@ -2393,7 +2403,7 @@
       <c r="F75" s="53"/>
       <c r="G75" s="53"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="53" t="s">
         <v>2</v>
       </c>
@@ -2406,7 +2416,7 @@
       <c r="F76" s="53"/>
       <c r="G76" s="53"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="53" t="s">
         <v>3</v>
       </c>
@@ -2419,12 +2429,12 @@
       <c r="F77" s="53"/>
       <c r="G77" s="53"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="53" t="s">
         <v>4</v>
       </c>
       <c r="B78" s="53" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C78" s="53"/>
       <c r="D78" s="53"/>
@@ -2432,12 +2442,12 @@
       <c r="F78" s="53"/>
       <c r="G78" s="53"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="53" t="s">
         <v>5</v>
       </c>
       <c r="B79" s="53" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C79" s="53"/>
       <c r="D79" s="53"/>
@@ -2445,7 +2455,7 @@
       <c r="F79" s="53"/>
       <c r="G79" s="53"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="53" t="s">
         <v>6</v>
       </c>
@@ -2458,12 +2468,12 @@
       <c r="F80" s="53"/>
       <c r="G80" s="53"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="53" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B81" s="53" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C81" s="53"/>
       <c r="D81" s="53"/>
@@ -2471,7 +2481,7 @@
       <c r="F81" s="53"/>
       <c r="G81" s="53"/>
     </row>
-    <row r="82" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="54" t="s">
         <v>7</v>
       </c>
@@ -2482,7 +2492,7 @@
       <c r="F82" s="53"/>
       <c r="G82" s="53"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="53" t="s">
         <v>8</v>
       </c>
@@ -2505,15 +2515,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="53" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B84" s="53">
         <v>1</v>
       </c>
       <c r="C84" s="53" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D84" s="53" t="s">
         <v>24</v>
@@ -2526,15 +2536,15 @@
       </c>
       <c r="G84" s="53"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="53" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B85" s="53">
         <v>220</v>
       </c>
       <c r="C85" s="53" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D85" s="53" t="s">
         <v>24</v>
@@ -2546,18 +2556,18 @@
         <v>13</v>
       </c>
       <c r="G85" s="53" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="53" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A86" s="53" t="s">
-        <v>31</v>
       </c>
       <c r="B86" s="53">
         <v>440</v>
       </c>
       <c r="C86" s="53" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D86" s="53" t="s">
         <v>24</v>
@@ -2569,44 +2579,44 @@
         <v>13</v>
       </c>
       <c r="G86" s="53" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="53" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B87" s="53">
         <v>220</v>
       </c>
       <c r="C87" s="53" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D87" s="53" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E87" s="53" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F87" s="53" t="s">
         <v>13</v>
       </c>
       <c r="G87" s="53" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="53" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B88" s="53">
         <v>1320</v>
       </c>
       <c r="C88" s="53" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D88" s="53" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E88" s="53" t="s">
         <v>14</v>
@@ -2615,21 +2625,21 @@
         <v>13</v>
       </c>
       <c r="G88" s="53" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="53" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B89" s="53">
         <v>220</v>
       </c>
       <c r="C89" s="53" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D89" s="53" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E89" s="53" t="s">
         <v>14</v>
@@ -2638,21 +2648,21 @@
         <v>13</v>
       </c>
       <c r="G89" s="53" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="53" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B90" s="53">
         <v>1320</v>
       </c>
       <c r="C90" s="53" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D90" s="53" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E90" s="53" t="s">
         <v>14</v>
@@ -2661,21 +2671,21 @@
         <v>13</v>
       </c>
       <c r="G90" s="53" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="53" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B91" s="53">
         <v>220</v>
       </c>
       <c r="C91" s="53" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D91" s="53" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E91" s="53" t="s">
         <v>14</v>
@@ -2684,21 +2694,21 @@
         <v>13</v>
       </c>
       <c r="G91" s="53" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="53" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B92" s="53">
         <v>440</v>
       </c>
       <c r="C92" s="53" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D92" s="53" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E92" s="53" t="s">
         <v>14</v>
@@ -2707,7 +2717,7 @@
         <v>13</v>
       </c>
       <c r="G92" s="53" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/premise/data/additional_inventories/lci-hydrogen-electrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-electrolysis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="765" windowWidth="23040" windowHeight="17100"/>
+    <workbookView xWindow="0" yWindow="768" windowWidth="23040" windowHeight="17100"/>
   </bookViews>
   <sheets>
     <sheet name="lci" sheetId="1" r:id="rId1"/>
@@ -845,24 +845,24 @@
   <dimension ref="A1:P92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.140625" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" style="27" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="99.140625" style="29" customWidth="1"/>
+    <col min="1" max="1" width="41.109375" customWidth="1"/>
+    <col min="2" max="2" width="40.88671875" style="27" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="99.109375" style="29" customWidth="1"/>
     <col min="10" max="10" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -870,7 +870,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -886,7 +886,7 @@
       <c r="I2" s="30"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="37"/>
       <c r="C3" s="3"/>
@@ -898,7 +898,7 @@
       <c r="I3" s="30"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="38"/>
       <c r="C4" s="5"/>
@@ -910,7 +910,7 @@
       <c r="I4" s="31"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -926,7 +926,7 @@
       <c r="I5" s="32"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -942,7 +942,7 @@
       <c r="I6" s="32"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -958,7 +958,7 @@
       <c r="I7" s="32"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -974,7 +974,7 @@
       <c r="I8" s="32"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
@@ -990,7 +990,7 @@
       <c r="I9" s="32"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -1006,7 +1006,7 @@
       <c r="I10" s="33"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>7</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>8</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="27" t="s">
         <v>90</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="str">
         <f>A30</f>
         <v>electrolyzer, PEM, Balance of Plant</v>
@@ -1145,7 +1145,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="str">
         <f>A31</f>
         <v>electrolyzer, PEM, Stack</v>
@@ -1188,7 +1188,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="51" t="s">
         <v>71</v>
       </c>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="M16"/>
     </row>
-    <row r="17" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="51" t="s">
         <v>75</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="48" t="s">
         <v>84</v>
       </c>
@@ -1274,10 +1274,10 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="I19" s="29"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="38"/>
       <c r="C20" s="5"/>
@@ -1288,7 +1288,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="31"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>1</v>
       </c>
@@ -1303,7 +1303,7 @@
       <c r="H21" s="7"/>
       <c r="I21" s="32"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1318,7 +1318,7 @@
       <c r="H22" s="7"/>
       <c r="I22" s="32"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>11</v>
       </c>
@@ -1333,7 +1333,7 @@
       <c r="H23" s="7"/>
       <c r="I23" s="32"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>4</v>
       </c>
@@ -1349,7 +1349,7 @@
       <c r="H24" s="7"/>
       <c r="I24" s="32"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>2</v>
       </c>
@@ -1364,7 +1364,7 @@
       <c r="H25" s="7"/>
       <c r="I25" s="32"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>6</v>
       </c>
@@ -1379,7 +1379,7 @@
       <c r="H26" s="6"/>
       <c r="I26" s="33"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>7</v>
       </c>
@@ -1392,7 +1392,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="34"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>8</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="str">
         <f>B24</f>
         <v>electrolyzer, PEM</v>
@@ -1451,7 +1451,7 @@
       <c r="H29" s="8"/>
       <c r="I29" s="34"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>55</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>54</v>
       </c>
@@ -1508,12 +1508,12 @@
       <c r="J31" s="20"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:13" s="20" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" s="20" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="27"/>
       <c r="G32" s="9"/>
       <c r="I32" s="29"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="B33" s="38"/>
       <c r="C33" s="5"/>
@@ -1524,7 +1524,7 @@
       <c r="H33" s="5"/>
       <c r="I33" s="31"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>1</v>
       </c>
@@ -1540,7 +1540,7 @@
       <c r="H34" s="7"/>
       <c r="I34" s="32"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1555,7 +1555,7 @@
       <c r="H35" s="7"/>
       <c r="I35" s="32"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>11</v>
       </c>
@@ -1570,7 +1570,7 @@
       <c r="H36" s="7"/>
       <c r="I36" s="32"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>4</v>
       </c>
@@ -1586,7 +1586,7 @@
       <c r="H37" s="7"/>
       <c r="I37" s="32"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>2</v>
       </c>
@@ -1601,7 +1601,7 @@
       <c r="H38" s="7"/>
       <c r="I38" s="32"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="21" t="s">
         <v>6</v>
       </c>
@@ -1616,7 +1616,7 @@
       <c r="H39" s="7"/>
       <c r="I39" s="32"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>7</v>
       </c>
@@ -1629,7 +1629,7 @@
       <c r="H40" s="6"/>
       <c r="I40" s="33"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
         <v>8</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="str">
         <f>B37</f>
         <v>electrolyzer, PEM, Stack</v>
@@ -1688,7 +1688,7 @@
       <c r="H42" s="12"/>
       <c r="I42" s="36"/>
     </row>
-    <row r="43" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="13" t="s">
         <v>109</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>81</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E43" s="13" t="s">
         <v>14</v>
@@ -1720,7 +1720,7 @@
       <c r="O43"/>
       <c r="P43"/>
     </row>
-    <row r="44" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14" t="s">
         <v>26</v>
       </c>
@@ -1752,7 +1752,7 @@
       <c r="O44"/>
       <c r="P44"/>
     </row>
-    <row r="45" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="15" t="s">
         <v>28</v>
       </c>
@@ -1784,7 +1784,7 @@
       <c r="O45"/>
       <c r="P45"/>
     </row>
-    <row r="46" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="16" t="s">
         <v>29</v>
       </c>
@@ -1816,7 +1816,7 @@
       <c r="O46"/>
       <c r="P46"/>
     </row>
-    <row r="47" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="17" t="s">
         <v>111</v>
       </c>
@@ -1848,7 +1848,7 @@
       <c r="O47"/>
       <c r="P47"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>31</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>37</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="18" t="s">
         <v>33</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B52" s="27"/>
       <c r="C52" s="8"/>
       <c r="F52" s="9"/>
@@ -1954,7 +1954,7 @@
       <c r="H52" s="9"/>
       <c r="I52" s="29"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="5"/>
       <c r="B53" s="38"/>
       <c r="C53" s="5"/>
@@ -1964,7 +1964,7 @@
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>1</v>
       </c>
@@ -1980,7 +1980,7 @@
       <c r="J54" s="23"/>
       <c r="K54" s="22"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>3</v>
       </c>
@@ -1996,7 +1996,7 @@
       <c r="J55" s="1"/>
       <c r="K55" s="22"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>11</v>
       </c>
@@ -2012,7 +2012,7 @@
       <c r="J56" s="20"/>
       <c r="K56" s="22"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2026,7 +2026,7 @@
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
     </row>
-    <row r="58" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>2</v>
       </c>
@@ -2040,7 +2040,7 @@
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>6</v>
       </c>
@@ -2054,7 +2054,7 @@
       <c r="G59" s="7"/>
       <c r="H59" s="6"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>7</v>
       </c>
@@ -2066,7 +2066,7 @@
       <c r="G60" s="6"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="18" t="s">
         <v>8</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="18" t="s">
         <v>55</v>
       </c>
@@ -2120,7 +2120,7 @@
       </c>
       <c r="H62" s="8"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="19" t="s">
         <v>39</v>
       </c>
@@ -2144,7 +2144,7 @@
       </c>
       <c r="H63" s="8"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="19" t="s">
         <v>41</v>
       </c>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="H64" s="18"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="18" t="s">
         <v>29</v>
       </c>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="H65" s="18"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="19" t="s">
         <v>26</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="20" t="s">
         <v>43</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>46</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>47</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>49</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
         <v>19</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
         <v>58</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
         <v>59</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="54" t="s">
         <v>1</v>
       </c>
@@ -2403,7 +2403,7 @@
       <c r="F75" s="53"/>
       <c r="G75" s="53"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="53" t="s">
         <v>2</v>
       </c>
@@ -2416,7 +2416,7 @@
       <c r="F76" s="53"/>
       <c r="G76" s="53"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="53" t="s">
         <v>3</v>
       </c>
@@ -2429,7 +2429,7 @@
       <c r="F77" s="53"/>
       <c r="G77" s="53"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="53" t="s">
         <v>4</v>
       </c>
@@ -2442,7 +2442,7 @@
       <c r="F78" s="53"/>
       <c r="G78" s="53"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="53" t="s">
         <v>5</v>
       </c>
@@ -2455,7 +2455,7 @@
       <c r="F79" s="53"/>
       <c r="G79" s="53"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="53" t="s">
         <v>6</v>
       </c>
@@ -2468,7 +2468,7 @@
       <c r="F80" s="53"/>
       <c r="G80" s="53"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="53" t="s">
         <v>96</v>
       </c>
@@ -2481,7 +2481,7 @@
       <c r="F81" s="53"/>
       <c r="G81" s="53"/>
     </row>
-    <row r="82" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="54" t="s">
         <v>7</v>
       </c>
@@ -2492,7 +2492,7 @@
       <c r="F82" s="53"/>
       <c r="G82" s="53"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="53" t="s">
         <v>8</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="53" t="s">
         <v>94</v>
       </c>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="G84" s="53"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="53" t="s">
         <v>26</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="53" t="s">
         <v>29</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="53" t="s">
         <v>99</v>
       </c>
@@ -2605,7 +2605,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="53" t="s">
         <v>102</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="53" t="s">
         <v>104</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="53" t="s">
         <v>105</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="53" t="s">
         <v>106</v>
       </c>
@@ -2697,7 +2697,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="53" t="s">
         <v>108</v>
       </c>

--- a/premise/data/additional_inventories/lci-hydrogen-electrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-electrolysis.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10507"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacchi_r\Documents\GitHub\premise\premise\data\additional_inventories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4FBEE40-DC5B-694A-B7EE-F1958159E842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="768" windowWidth="23040" windowHeight="17100"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="23040" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lci" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -363,22 +364,22 @@
     <t>wire drawing, copper</t>
   </si>
   <si>
-    <t>market for titanium</t>
-  </si>
-  <si>
-    <t>titanium</t>
-  </si>
-  <si>
     <t>market for activated carbon, granular</t>
   </si>
   <si>
     <t>activated carbon, granular</t>
+  </si>
+  <si>
+    <t>market for titanium, primary</t>
+  </si>
+  <si>
+    <t>titanium, primary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
   </numFmts>
@@ -562,9 +563,9 @@
   <cellStyles count="5">
     <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 11 3" xfId="1"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Normal 11 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -841,28 +842,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="B28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41.109375" customWidth="1"/>
-    <col min="2" max="2" width="40.88671875" style="27" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="41.1640625" customWidth="1"/>
+    <col min="2" max="2" width="40.83203125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
     <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.44140625" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="99.109375" style="29" customWidth="1"/>
+    <col min="9" max="9" width="99.1640625" style="29" customWidth="1"/>
     <col min="10" max="10" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -870,7 +871,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -886,7 +887,7 @@
       <c r="I2" s="30"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="37"/>
       <c r="C3" s="3"/>
@@ -898,7 +899,7 @@
       <c r="I3" s="30"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="38"/>
       <c r="C4" s="5"/>
@@ -910,7 +911,7 @@
       <c r="I4" s="31"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -926,7 +927,7 @@
       <c r="I5" s="32"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -942,7 +943,7 @@
       <c r="I6" s="32"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -958,7 +959,7 @@
       <c r="I7" s="32"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -974,7 +975,7 @@
       <c r="I8" s="32"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
@@ -990,7 +991,7 @@
       <c r="I9" s="32"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -1006,7 +1007,7 @@
       <c r="I10" s="33"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>7</v>
       </c>
@@ -1026,7 +1027,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
         <v>8</v>
       </c>
@@ -1064,7 +1065,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
         <v>90</v>
       </c>
@@ -1101,7 +1102,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="str">
         <f>A30</f>
         <v>electrolyzer, PEM, Balance of Plant</v>
@@ -1145,7 +1146,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="str">
         <f>A31</f>
         <v>electrolyzer, PEM, Stack</v>
@@ -1188,7 +1189,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="51" t="s">
         <v>71</v>
       </c>
@@ -1217,7 +1218,7 @@
       </c>
       <c r="M16"/>
     </row>
-    <row r="17" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="51" t="s">
         <v>75</v>
       </c>
@@ -1249,7 +1250,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="48" t="s">
         <v>84</v>
       </c>
@@ -1274,10 +1275,10 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="I19" s="29"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="38"/>
       <c r="C20" s="5"/>
@@ -1288,7 +1289,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="31"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>1</v>
       </c>
@@ -1303,7 +1304,7 @@
       <c r="H21" s="7"/>
       <c r="I21" s="32"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1318,7 +1319,7 @@
       <c r="H22" s="7"/>
       <c r="I22" s="32"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>11</v>
       </c>
@@ -1333,7 +1334,7 @@
       <c r="H23" s="7"/>
       <c r="I23" s="32"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>4</v>
       </c>
@@ -1349,7 +1350,7 @@
       <c r="H24" s="7"/>
       <c r="I24" s="32"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>2</v>
       </c>
@@ -1364,7 +1365,7 @@
       <c r="H25" s="7"/>
       <c r="I25" s="32"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>6</v>
       </c>
@@ -1379,7 +1380,7 @@
       <c r="H26" s="6"/>
       <c r="I26" s="33"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>7</v>
       </c>
@@ -1392,7 +1393,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="34"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>8</v>
       </c>
@@ -1421,7 +1422,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="str">
         <f>B24</f>
         <v>electrolyzer, PEM</v>
@@ -1451,7 +1452,7 @@
       <c r="H29" s="8"/>
       <c r="I29" s="34"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
         <v>55</v>
       </c>
@@ -1481,7 +1482,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
         <v>54</v>
       </c>
@@ -1508,12 +1509,12 @@
       <c r="J31" s="20"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:13" s="20" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" s="20" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="27"/>
       <c r="G32" s="9"/>
       <c r="I32" s="29"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="38"/>
       <c r="C33" s="5"/>
@@ -1524,7 +1525,7 @@
       <c r="H33" s="5"/>
       <c r="I33" s="31"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>1</v>
       </c>
@@ -1540,7 +1541,7 @@
       <c r="H34" s="7"/>
       <c r="I34" s="32"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1555,7 +1556,7 @@
       <c r="H35" s="7"/>
       <c r="I35" s="32"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>11</v>
       </c>
@@ -1570,7 +1571,7 @@
       <c r="H36" s="7"/>
       <c r="I36" s="32"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>4</v>
       </c>
@@ -1586,7 +1587,7 @@
       <c r="H37" s="7"/>
       <c r="I37" s="32"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>2</v>
       </c>
@@ -1601,7 +1602,7 @@
       <c r="H38" s="7"/>
       <c r="I38" s="32"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="21" t="s">
         <v>6</v>
       </c>
@@ -1616,7 +1617,7 @@
       <c r="H39" s="7"/>
       <c r="I39" s="32"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>7</v>
       </c>
@@ -1629,7 +1630,7 @@
       <c r="H40" s="6"/>
       <c r="I40" s="33"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
         <v>8</v>
       </c>
@@ -1658,7 +1659,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="str">
         <f>B37</f>
         <v>electrolyzer, PEM, Stack</v>
@@ -1688,9 +1689,9 @@
       <c r="H42" s="12"/>
       <c r="I42" s="36"/>
     </row>
-    <row r="43" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B43" s="27">
         <v>528</v>
@@ -1708,7 +1709,7 @@
         <v>13</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H43" s="8"/>
       <c r="I43" s="34"/>
@@ -1720,7 +1721,7 @@
       <c r="O43"/>
       <c r="P43"/>
     </row>
-    <row r="44" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
         <v>26</v>
       </c>
@@ -1752,7 +1753,7 @@
       <c r="O44"/>
       <c r="P44"/>
     </row>
-    <row r="45" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
         <v>28</v>
       </c>
@@ -1784,7 +1785,7 @@
       <c r="O45"/>
       <c r="P45"/>
     </row>
-    <row r="46" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
         <v>29</v>
       </c>
@@ -1816,9 +1817,9 @@
       <c r="O46"/>
       <c r="P46"/>
     </row>
-    <row r="47" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B47" s="27">
         <v>9</v>
@@ -1836,7 +1837,7 @@
         <v>13</v>
       </c>
       <c r="G47" s="53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H47"/>
       <c r="I47" s="29"/>
@@ -1848,7 +1849,7 @@
       <c r="O47"/>
       <c r="P47"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>31</v>
       </c>
@@ -1875,7 +1876,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>37</v>
       </c>
@@ -1902,7 +1903,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="18" t="s">
         <v>33</v>
       </c>
@@ -1925,7 +1926,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -1946,7 +1947,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="27"/>
       <c r="C52" s="8"/>
       <c r="F52" s="9"/>
@@ -1954,7 +1955,7 @@
       <c r="H52" s="9"/>
       <c r="I52" s="29"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
       <c r="B53" s="38"/>
       <c r="C53" s="5"/>
@@ -1964,7 +1965,7 @@
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>1</v>
       </c>
@@ -1980,7 +1981,7 @@
       <c r="J54" s="23"/>
       <c r="K54" s="22"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>3</v>
       </c>
@@ -1996,7 +1997,7 @@
       <c r="J55" s="1"/>
       <c r="K55" s="22"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>11</v>
       </c>
@@ -2012,7 +2013,7 @@
       <c r="J56" s="20"/>
       <c r="K56" s="22"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2026,7 +2027,7 @@
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
     </row>
-    <row r="58" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>2</v>
       </c>
@@ -2040,7 +2041,7 @@
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>6</v>
       </c>
@@ -2054,7 +2055,7 @@
       <c r="G59" s="7"/>
       <c r="H59" s="6"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>7</v>
       </c>
@@ -2066,7 +2067,7 @@
       <c r="G60" s="6"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="18" t="s">
         <v>8</v>
       </c>
@@ -2095,7 +2096,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="18" t="s">
         <v>55</v>
       </c>
@@ -2120,7 +2121,7 @@
       </c>
       <c r="H62" s="8"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="19" t="s">
         <v>39</v>
       </c>
@@ -2144,7 +2145,7 @@
       </c>
       <c r="H63" s="8"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="19" t="s">
         <v>41</v>
       </c>
@@ -2168,7 +2169,7 @@
       </c>
       <c r="H64" s="18"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="18" t="s">
         <v>29</v>
       </c>
@@ -2192,7 +2193,7 @@
       </c>
       <c r="H65" s="18"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="19" t="s">
         <v>26</v>
       </c>
@@ -2215,7 +2216,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="20" t="s">
         <v>43</v>
       </c>
@@ -2238,7 +2239,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>46</v>
       </c>
@@ -2261,7 +2262,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>47</v>
       </c>
@@ -2288,7 +2289,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>49</v>
       </c>
@@ -2317,7 +2318,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
         <v>19</v>
       </c>
@@ -2346,7 +2347,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
         <v>58</v>
       </c>
@@ -2369,7 +2370,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
         <v>59</v>
       </c>
@@ -2390,7 +2391,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="54" t="s">
         <v>1</v>
       </c>
@@ -2403,7 +2404,7 @@
       <c r="F75" s="53"/>
       <c r="G75" s="53"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="53" t="s">
         <v>2</v>
       </c>
@@ -2416,7 +2417,7 @@
       <c r="F76" s="53"/>
       <c r="G76" s="53"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="53" t="s">
         <v>3</v>
       </c>
@@ -2429,7 +2430,7 @@
       <c r="F77" s="53"/>
       <c r="G77" s="53"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="53" t="s">
         <v>4</v>
       </c>
@@ -2442,7 +2443,7 @@
       <c r="F78" s="53"/>
       <c r="G78" s="53"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="53" t="s">
         <v>5</v>
       </c>
@@ -2455,7 +2456,7 @@
       <c r="F79" s="53"/>
       <c r="G79" s="53"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="53" t="s">
         <v>6</v>
       </c>
@@ -2468,7 +2469,7 @@
       <c r="F80" s="53"/>
       <c r="G80" s="53"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="53" t="s">
         <v>96</v>
       </c>
@@ -2481,7 +2482,7 @@
       <c r="F81" s="53"/>
       <c r="G81" s="53"/>
     </row>
-    <row r="82" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="54" t="s">
         <v>7</v>
       </c>
@@ -2492,7 +2493,7 @@
       <c r="F82" s="53"/>
       <c r="G82" s="53"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="53" t="s">
         <v>8</v>
       </c>
@@ -2515,7 +2516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="53" t="s">
         <v>94</v>
       </c>
@@ -2536,7 +2537,7 @@
       </c>
       <c r="G84" s="53"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="53" t="s">
         <v>26</v>
       </c>
@@ -2559,7 +2560,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="53" t="s">
         <v>29</v>
       </c>
@@ -2582,7 +2583,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="53" t="s">
         <v>99</v>
       </c>
@@ -2605,7 +2606,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="53" t="s">
         <v>102</v>
       </c>
@@ -2628,7 +2629,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="53" t="s">
         <v>104</v>
       </c>
@@ -2651,7 +2652,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="53" t="s">
         <v>105</v>
       </c>
@@ -2674,7 +2675,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="53" t="s">
         <v>106</v>
       </c>
@@ -2697,7 +2698,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="53" t="s">
         <v>108</v>
       </c>

--- a/premise/data/additional_inventories/lci-hydrogen-electrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-electrolysis.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10507"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacchi_r\Documents\GitHub\premise\premise\data\additional_inventories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2549F767-2E81-F648-95C2-3A8B894F4AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="768" windowWidth="23040" windowHeight="17100"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="23040" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lci" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -363,22 +364,22 @@
     <t>wire drawing, copper</t>
   </si>
   <si>
-    <t>market for titanium</t>
-  </si>
-  <si>
-    <t>titanium</t>
-  </si>
-  <si>
     <t>market for activated carbon, granular</t>
   </si>
   <si>
     <t>activated carbon, granular</t>
+  </si>
+  <si>
+    <t>market for titanium, primary</t>
+  </si>
+  <si>
+    <t>titanium, primary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
   </numFmts>
@@ -562,9 +563,9 @@
   <cellStyles count="5">
     <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 11 3" xfId="1"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Normal 11 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -841,28 +842,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="B28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41.109375" customWidth="1"/>
-    <col min="2" max="2" width="40.88671875" style="27" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="41.1640625" customWidth="1"/>
+    <col min="2" max="2" width="40.83203125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
     <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.44140625" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="99.109375" style="29" customWidth="1"/>
+    <col min="9" max="9" width="99.1640625" style="29" customWidth="1"/>
     <col min="10" max="10" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -870,7 +871,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -886,7 +887,7 @@
       <c r="I2" s="30"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="37"/>
       <c r="C3" s="3"/>
@@ -898,7 +899,7 @@
       <c r="I3" s="30"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="38"/>
       <c r="C4" s="5"/>
@@ -910,7 +911,7 @@
       <c r="I4" s="31"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -926,7 +927,7 @@
       <c r="I5" s="32"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -942,7 +943,7 @@
       <c r="I6" s="32"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -958,7 +959,7 @@
       <c r="I7" s="32"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -974,7 +975,7 @@
       <c r="I8" s="32"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
@@ -990,7 +991,7 @@
       <c r="I9" s="32"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -1006,7 +1007,7 @@
       <c r="I10" s="33"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>7</v>
       </c>
@@ -1026,7 +1027,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
         <v>8</v>
       </c>
@@ -1064,7 +1065,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
         <v>90</v>
       </c>
@@ -1101,7 +1102,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="str">
         <f>A30</f>
         <v>electrolyzer, PEM, Balance of Plant</v>
@@ -1145,7 +1146,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="str">
         <f>A31</f>
         <v>electrolyzer, PEM, Stack</v>
@@ -1188,7 +1189,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="51" t="s">
         <v>71</v>
       </c>
@@ -1217,7 +1218,7 @@
       </c>
       <c r="M16"/>
     </row>
-    <row r="17" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="51" t="s">
         <v>75</v>
       </c>
@@ -1249,7 +1250,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="48" t="s">
         <v>84</v>
       </c>
@@ -1274,10 +1275,10 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="I19" s="29"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="38"/>
       <c r="C20" s="5"/>
@@ -1288,7 +1289,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="31"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>1</v>
       </c>
@@ -1303,7 +1304,7 @@
       <c r="H21" s="7"/>
       <c r="I21" s="32"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1318,7 +1319,7 @@
       <c r="H22" s="7"/>
       <c r="I22" s="32"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>11</v>
       </c>
@@ -1333,7 +1334,7 @@
       <c r="H23" s="7"/>
       <c r="I23" s="32"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>4</v>
       </c>
@@ -1349,7 +1350,7 @@
       <c r="H24" s="7"/>
       <c r="I24" s="32"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>2</v>
       </c>
@@ -1364,7 +1365,7 @@
       <c r="H25" s="7"/>
       <c r="I25" s="32"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>6</v>
       </c>
@@ -1379,7 +1380,7 @@
       <c r="H26" s="6"/>
       <c r="I26" s="33"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>7</v>
       </c>
@@ -1392,7 +1393,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="34"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>8</v>
       </c>
@@ -1421,7 +1422,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="str">
         <f>B24</f>
         <v>electrolyzer, PEM</v>
@@ -1451,7 +1452,7 @@
       <c r="H29" s="8"/>
       <c r="I29" s="34"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
         <v>55</v>
       </c>
@@ -1481,7 +1482,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
         <v>54</v>
       </c>
@@ -1508,12 +1509,12 @@
       <c r="J31" s="20"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:13" s="20" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" s="20" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="27"/>
       <c r="G32" s="9"/>
       <c r="I32" s="29"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="38"/>
       <c r="C33" s="5"/>
@@ -1524,7 +1525,7 @@
       <c r="H33" s="5"/>
       <c r="I33" s="31"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>1</v>
       </c>
@@ -1540,7 +1541,7 @@
       <c r="H34" s="7"/>
       <c r="I34" s="32"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1555,7 +1556,7 @@
       <c r="H35" s="7"/>
       <c r="I35" s="32"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>11</v>
       </c>
@@ -1570,7 +1571,7 @@
       <c r="H36" s="7"/>
       <c r="I36" s="32"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>4</v>
       </c>
@@ -1586,7 +1587,7 @@
       <c r="H37" s="7"/>
       <c r="I37" s="32"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>2</v>
       </c>
@@ -1601,7 +1602,7 @@
       <c r="H38" s="7"/>
       <c r="I38" s="32"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="21" t="s">
         <v>6</v>
       </c>
@@ -1616,7 +1617,7 @@
       <c r="H39" s="7"/>
       <c r="I39" s="32"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>7</v>
       </c>
@@ -1629,7 +1630,7 @@
       <c r="H40" s="6"/>
       <c r="I40" s="33"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
         <v>8</v>
       </c>
@@ -1658,7 +1659,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="str">
         <f>B37</f>
         <v>electrolyzer, PEM, Stack</v>
@@ -1688,9 +1689,9 @@
       <c r="H42" s="12"/>
       <c r="I42" s="36"/>
     </row>
-    <row r="43" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B43" s="27">
         <v>528</v>
@@ -1708,7 +1709,7 @@
         <v>13</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H43" s="8"/>
       <c r="I43" s="34"/>
@@ -1720,7 +1721,7 @@
       <c r="O43"/>
       <c r="P43"/>
     </row>
-    <row r="44" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
         <v>26</v>
       </c>
@@ -1752,7 +1753,7 @@
       <c r="O44"/>
       <c r="P44"/>
     </row>
-    <row r="45" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
         <v>28</v>
       </c>
@@ -1784,7 +1785,7 @@
       <c r="O45"/>
       <c r="P45"/>
     </row>
-    <row r="46" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
         <v>29</v>
       </c>
@@ -1816,9 +1817,9 @@
       <c r="O46"/>
       <c r="P46"/>
     </row>
-    <row r="47" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B47" s="27">
         <v>9</v>
@@ -1836,7 +1837,7 @@
         <v>13</v>
       </c>
       <c r="G47" s="53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H47"/>
       <c r="I47" s="29"/>
@@ -1848,7 +1849,7 @@
       <c r="O47"/>
       <c r="P47"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>31</v>
       </c>
@@ -1875,7 +1876,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>37</v>
       </c>
@@ -1902,7 +1903,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="18" t="s">
         <v>33</v>
       </c>
@@ -1925,7 +1926,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -1946,7 +1947,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="27"/>
       <c r="C52" s="8"/>
       <c r="F52" s="9"/>
@@ -1954,7 +1955,7 @@
       <c r="H52" s="9"/>
       <c r="I52" s="29"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
       <c r="B53" s="38"/>
       <c r="C53" s="5"/>
@@ -1964,7 +1965,7 @@
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>1</v>
       </c>
@@ -1980,7 +1981,7 @@
       <c r="J54" s="23"/>
       <c r="K54" s="22"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>3</v>
       </c>
@@ -1996,7 +1997,7 @@
       <c r="J55" s="1"/>
       <c r="K55" s="22"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>11</v>
       </c>
@@ -2012,7 +2013,7 @@
       <c r="J56" s="20"/>
       <c r="K56" s="22"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2026,7 +2027,7 @@
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
     </row>
-    <row r="58" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>2</v>
       </c>
@@ -2040,7 +2041,7 @@
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>6</v>
       </c>
@@ -2054,7 +2055,7 @@
       <c r="G59" s="7"/>
       <c r="H59" s="6"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>7</v>
       </c>
@@ -2066,7 +2067,7 @@
       <c r="G60" s="6"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="18" t="s">
         <v>8</v>
       </c>
@@ -2095,7 +2096,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="18" t="s">
         <v>55</v>
       </c>
@@ -2120,7 +2121,7 @@
       </c>
       <c r="H62" s="8"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="19" t="s">
         <v>39</v>
       </c>
@@ -2144,7 +2145,7 @@
       </c>
       <c r="H63" s="8"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="19" t="s">
         <v>41</v>
       </c>
@@ -2168,7 +2169,7 @@
       </c>
       <c r="H64" s="18"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="18" t="s">
         <v>29</v>
       </c>
@@ -2192,7 +2193,7 @@
       </c>
       <c r="H65" s="18"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="19" t="s">
         <v>26</v>
       </c>
@@ -2215,7 +2216,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="20" t="s">
         <v>43</v>
       </c>
@@ -2238,7 +2239,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>46</v>
       </c>
@@ -2261,7 +2262,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>47</v>
       </c>
@@ -2288,7 +2289,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>49</v>
       </c>
@@ -2317,7 +2318,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
         <v>19</v>
       </c>
@@ -2346,7 +2347,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
         <v>58</v>
       </c>
@@ -2369,7 +2370,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
         <v>59</v>
       </c>
@@ -2390,7 +2391,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="54" t="s">
         <v>1</v>
       </c>
@@ -2403,7 +2404,7 @@
       <c r="F75" s="53"/>
       <c r="G75" s="53"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="53" t="s">
         <v>2</v>
       </c>
@@ -2416,7 +2417,7 @@
       <c r="F76" s="53"/>
       <c r="G76" s="53"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="53" t="s">
         <v>3</v>
       </c>
@@ -2429,7 +2430,7 @@
       <c r="F77" s="53"/>
       <c r="G77" s="53"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="53" t="s">
         <v>4</v>
       </c>
@@ -2442,7 +2443,7 @@
       <c r="F78" s="53"/>
       <c r="G78" s="53"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="53" t="s">
         <v>5</v>
       </c>
@@ -2455,7 +2456,7 @@
       <c r="F79" s="53"/>
       <c r="G79" s="53"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="53" t="s">
         <v>6</v>
       </c>
@@ -2468,7 +2469,7 @@
       <c r="F80" s="53"/>
       <c r="G80" s="53"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="53" t="s">
         <v>96</v>
       </c>
@@ -2481,7 +2482,7 @@
       <c r="F81" s="53"/>
       <c r="G81" s="53"/>
     </row>
-    <row r="82" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="54" t="s">
         <v>7</v>
       </c>
@@ -2492,7 +2493,7 @@
       <c r="F82" s="53"/>
       <c r="G82" s="53"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="53" t="s">
         <v>8</v>
       </c>
@@ -2515,7 +2516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="53" t="s">
         <v>94</v>
       </c>
@@ -2536,7 +2537,7 @@
       </c>
       <c r="G84" s="53"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="53" t="s">
         <v>26</v>
       </c>
@@ -2559,7 +2560,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="53" t="s">
         <v>29</v>
       </c>
@@ -2582,7 +2583,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="53" t="s">
         <v>99</v>
       </c>
@@ -2605,7 +2606,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="53" t="s">
         <v>102</v>
       </c>
@@ -2628,7 +2629,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="53" t="s">
         <v>104</v>
       </c>
@@ -2651,7 +2652,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="53" t="s">
         <v>105</v>
       </c>
@@ -2674,7 +2675,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="53" t="s">
         <v>106</v>
       </c>
@@ -2697,7 +2698,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="53" t="s">
         <v>108</v>
       </c>

--- a/premise/data/additional_inventories/lci-hydrogen-electrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-electrolysis.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10507"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacchi_r\Documents\GitHub\premise\premise\data\additional_inventories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5CBCBE-312D-204D-A569-09D44EF851DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="768" windowWidth="23040" windowHeight="17100"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="23040" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lci" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -363,22 +364,22 @@
     <t>wire drawing, copper</t>
   </si>
   <si>
-    <t>market for titanium</t>
-  </si>
-  <si>
-    <t>titanium</t>
-  </si>
-  <si>
     <t>market for activated carbon, granular</t>
   </si>
   <si>
     <t>activated carbon, granular</t>
+  </si>
+  <si>
+    <t>market for titanium, primary</t>
+  </si>
+  <si>
+    <t>titanium, primary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
   </numFmts>
@@ -562,9 +563,9 @@
   <cellStyles count="5">
     <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 11 3" xfId="1"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Normal 11 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -841,28 +842,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="B28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41.109375" customWidth="1"/>
-    <col min="2" max="2" width="40.88671875" style="27" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="41.1640625" customWidth="1"/>
+    <col min="2" max="2" width="40.83203125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
     <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.44140625" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="99.109375" style="29" customWidth="1"/>
+    <col min="9" max="9" width="99.1640625" style="29" customWidth="1"/>
     <col min="10" max="10" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -870,7 +871,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -886,7 +887,7 @@
       <c r="I2" s="30"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="37"/>
       <c r="C3" s="3"/>
@@ -898,7 +899,7 @@
       <c r="I3" s="30"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="38"/>
       <c r="C4" s="5"/>
@@ -910,7 +911,7 @@
       <c r="I4" s="31"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -926,7 +927,7 @@
       <c r="I5" s="32"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -942,7 +943,7 @@
       <c r="I6" s="32"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -958,7 +959,7 @@
       <c r="I7" s="32"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -974,7 +975,7 @@
       <c r="I8" s="32"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
@@ -990,7 +991,7 @@
       <c r="I9" s="32"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -1006,7 +1007,7 @@
       <c r="I10" s="33"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>7</v>
       </c>
@@ -1026,7 +1027,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
         <v>8</v>
       </c>
@@ -1064,7 +1065,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
         <v>90</v>
       </c>
@@ -1101,7 +1102,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="str">
         <f>A30</f>
         <v>electrolyzer, PEM, Balance of Plant</v>
@@ -1145,7 +1146,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="str">
         <f>A31</f>
         <v>electrolyzer, PEM, Stack</v>
@@ -1188,7 +1189,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="51" t="s">
         <v>71</v>
       </c>
@@ -1217,7 +1218,7 @@
       </c>
       <c r="M16"/>
     </row>
-    <row r="17" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="51" t="s">
         <v>75</v>
       </c>
@@ -1249,7 +1250,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="48" t="s">
         <v>84</v>
       </c>
@@ -1274,10 +1275,10 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="I19" s="29"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="38"/>
       <c r="C20" s="5"/>
@@ -1288,7 +1289,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="31"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>1</v>
       </c>
@@ -1303,7 +1304,7 @@
       <c r="H21" s="7"/>
       <c r="I21" s="32"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1318,7 +1319,7 @@
       <c r="H22" s="7"/>
       <c r="I22" s="32"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>11</v>
       </c>
@@ -1333,7 +1334,7 @@
       <c r="H23" s="7"/>
       <c r="I23" s="32"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>4</v>
       </c>
@@ -1349,7 +1350,7 @@
       <c r="H24" s="7"/>
       <c r="I24" s="32"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>2</v>
       </c>
@@ -1364,7 +1365,7 @@
       <c r="H25" s="7"/>
       <c r="I25" s="32"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>6</v>
       </c>
@@ -1379,7 +1380,7 @@
       <c r="H26" s="6"/>
       <c r="I26" s="33"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>7</v>
       </c>
@@ -1392,7 +1393,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="34"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>8</v>
       </c>
@@ -1421,7 +1422,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="str">
         <f>B24</f>
         <v>electrolyzer, PEM</v>
@@ -1451,7 +1452,7 @@
       <c r="H29" s="8"/>
       <c r="I29" s="34"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
         <v>55</v>
       </c>
@@ -1481,7 +1482,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
         <v>54</v>
       </c>
@@ -1508,12 +1509,12 @@
       <c r="J31" s="20"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:13" s="20" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" s="20" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="27"/>
       <c r="G32" s="9"/>
       <c r="I32" s="29"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="38"/>
       <c r="C33" s="5"/>
@@ -1524,7 +1525,7 @@
       <c r="H33" s="5"/>
       <c r="I33" s="31"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>1</v>
       </c>
@@ -1540,7 +1541,7 @@
       <c r="H34" s="7"/>
       <c r="I34" s="32"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1555,7 +1556,7 @@
       <c r="H35" s="7"/>
       <c r="I35" s="32"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>11</v>
       </c>
@@ -1570,7 +1571,7 @@
       <c r="H36" s="7"/>
       <c r="I36" s="32"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>4</v>
       </c>
@@ -1586,7 +1587,7 @@
       <c r="H37" s="7"/>
       <c r="I37" s="32"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>2</v>
       </c>
@@ -1601,7 +1602,7 @@
       <c r="H38" s="7"/>
       <c r="I38" s="32"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="21" t="s">
         <v>6</v>
       </c>
@@ -1616,7 +1617,7 @@
       <c r="H39" s="7"/>
       <c r="I39" s="32"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>7</v>
       </c>
@@ -1629,7 +1630,7 @@
       <c r="H40" s="6"/>
       <c r="I40" s="33"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
         <v>8</v>
       </c>
@@ -1658,7 +1659,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="str">
         <f>B37</f>
         <v>electrolyzer, PEM, Stack</v>
@@ -1688,9 +1689,9 @@
       <c r="H42" s="12"/>
       <c r="I42" s="36"/>
     </row>
-    <row r="43" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B43" s="27">
         <v>528</v>
@@ -1708,7 +1709,7 @@
         <v>13</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H43" s="8"/>
       <c r="I43" s="34"/>
@@ -1720,7 +1721,7 @@
       <c r="O43"/>
       <c r="P43"/>
     </row>
-    <row r="44" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
         <v>26</v>
       </c>
@@ -1752,7 +1753,7 @@
       <c r="O44"/>
       <c r="P44"/>
     </row>
-    <row r="45" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
         <v>28</v>
       </c>
@@ -1784,7 +1785,7 @@
       <c r="O45"/>
       <c r="P45"/>
     </row>
-    <row r="46" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
         <v>29</v>
       </c>
@@ -1816,9 +1817,9 @@
       <c r="O46"/>
       <c r="P46"/>
     </row>
-    <row r="47" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B47" s="27">
         <v>9</v>
@@ -1836,7 +1837,7 @@
         <v>13</v>
       </c>
       <c r="G47" s="53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H47"/>
       <c r="I47" s="29"/>
@@ -1848,7 +1849,7 @@
       <c r="O47"/>
       <c r="P47"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>31</v>
       </c>
@@ -1875,7 +1876,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>37</v>
       </c>
@@ -1902,7 +1903,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="18" t="s">
         <v>33</v>
       </c>
@@ -1925,7 +1926,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -1946,7 +1947,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="27"/>
       <c r="C52" s="8"/>
       <c r="F52" s="9"/>
@@ -1954,7 +1955,7 @@
       <c r="H52" s="9"/>
       <c r="I52" s="29"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
       <c r="B53" s="38"/>
       <c r="C53" s="5"/>
@@ -1964,7 +1965,7 @@
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>1</v>
       </c>
@@ -1980,7 +1981,7 @@
       <c r="J54" s="23"/>
       <c r="K54" s="22"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>3</v>
       </c>
@@ -1996,7 +1997,7 @@
       <c r="J55" s="1"/>
       <c r="K55" s="22"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>11</v>
       </c>
@@ -2012,7 +2013,7 @@
       <c r="J56" s="20"/>
       <c r="K56" s="22"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2026,7 +2027,7 @@
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
     </row>
-    <row r="58" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>2</v>
       </c>
@@ -2040,7 +2041,7 @@
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>6</v>
       </c>
@@ -2054,7 +2055,7 @@
       <c r="G59" s="7"/>
       <c r="H59" s="6"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>7</v>
       </c>
@@ -2066,7 +2067,7 @@
       <c r="G60" s="6"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="18" t="s">
         <v>8</v>
       </c>
@@ -2095,7 +2096,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="18" t="s">
         <v>55</v>
       </c>
@@ -2120,7 +2121,7 @@
       </c>
       <c r="H62" s="8"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="19" t="s">
         <v>39</v>
       </c>
@@ -2144,7 +2145,7 @@
       </c>
       <c r="H63" s="8"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="19" t="s">
         <v>41</v>
       </c>
@@ -2168,7 +2169,7 @@
       </c>
       <c r="H64" s="18"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="18" t="s">
         <v>29</v>
       </c>
@@ -2192,7 +2193,7 @@
       </c>
       <c r="H65" s="18"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="19" t="s">
         <v>26</v>
       </c>
@@ -2215,7 +2216,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="20" t="s">
         <v>43</v>
       </c>
@@ -2238,7 +2239,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>46</v>
       </c>
@@ -2261,7 +2262,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>47</v>
       </c>
@@ -2288,7 +2289,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>49</v>
       </c>
@@ -2317,7 +2318,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
         <v>19</v>
       </c>
@@ -2346,7 +2347,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
         <v>58</v>
       </c>
@@ -2369,7 +2370,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
         <v>59</v>
       </c>
@@ -2390,7 +2391,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="54" t="s">
         <v>1</v>
       </c>
@@ -2403,7 +2404,7 @@
       <c r="F75" s="53"/>
       <c r="G75" s="53"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="53" t="s">
         <v>2</v>
       </c>
@@ -2416,7 +2417,7 @@
       <c r="F76" s="53"/>
       <c r="G76" s="53"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="53" t="s">
         <v>3</v>
       </c>
@@ -2429,7 +2430,7 @@
       <c r="F77" s="53"/>
       <c r="G77" s="53"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="53" t="s">
         <v>4</v>
       </c>
@@ -2442,7 +2443,7 @@
       <c r="F78" s="53"/>
       <c r="G78" s="53"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="53" t="s">
         <v>5</v>
       </c>
@@ -2455,7 +2456,7 @@
       <c r="F79" s="53"/>
       <c r="G79" s="53"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="53" t="s">
         <v>6</v>
       </c>
@@ -2468,7 +2469,7 @@
       <c r="F80" s="53"/>
       <c r="G80" s="53"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="53" t="s">
         <v>96</v>
       </c>
@@ -2481,7 +2482,7 @@
       <c r="F81" s="53"/>
       <c r="G81" s="53"/>
     </row>
-    <row r="82" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="54" t="s">
         <v>7</v>
       </c>
@@ -2492,7 +2493,7 @@
       <c r="F82" s="53"/>
       <c r="G82" s="53"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="53" t="s">
         <v>8</v>
       </c>
@@ -2515,7 +2516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="53" t="s">
         <v>94</v>
       </c>
@@ -2536,7 +2537,7 @@
       </c>
       <c r="G84" s="53"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="53" t="s">
         <v>26</v>
       </c>
@@ -2559,7 +2560,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="53" t="s">
         <v>29</v>
       </c>
@@ -2582,7 +2583,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="53" t="s">
         <v>99</v>
       </c>
@@ -2605,7 +2606,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="53" t="s">
         <v>102</v>
       </c>
@@ -2628,7 +2629,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="53" t="s">
         <v>104</v>
       </c>
@@ -2651,7 +2652,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="53" t="s">
         <v>105</v>
       </c>
@@ -2674,7 +2675,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="53" t="s">
         <v>106</v>
       </c>
@@ -2697,7 +2698,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="53" t="s">
         <v>108</v>
       </c>

--- a/premise/data/additional_inventories/lci-hydrogen-electrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-electrolysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5CBCBE-312D-204D-A569-09D44EF851DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE8DAAD-57D1-234D-8F7C-CFCF392A7E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="23040" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -493,7 +493,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -559,6 +559,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Neutral" xfId="4" builtinId="28"/>
@@ -845,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -963,7 +964,7 @@
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="55" t="s">
         <v>91</v>
       </c>
       <c r="C8" s="7"/>

--- a/premise/data/additional_inventories/lci-hydrogen-electrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-electrolysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2549F767-2E81-F648-95C2-3A8B894F4AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE8DAAD-57D1-234D-8F7C-CFCF392A7E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="23040" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -493,7 +493,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -559,6 +559,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Neutral" xfId="4" builtinId="28"/>
@@ -845,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -963,7 +964,7 @@
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="55" t="s">
         <v>91</v>
       </c>
       <c r="C8" s="7"/>

--- a/premise/data/additional_inventories/lci-hydrogen-electrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-electrolysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE8DAAD-57D1-234D-8F7C-CFCF392A7E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4FBEE40-DC5B-694A-B7EE-F1958159E842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="23040" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -493,7 +493,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -559,7 +559,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Neutral" xfId="4" builtinId="28"/>
@@ -846,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="B28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -964,7 +963,7 @@
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="49" t="s">
         <v>91</v>
       </c>
       <c r="C8" s="7"/>

--- a/premise/data/additional_inventories/lci-hydrogen-electrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-electrolysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1941E274-1F91-5B49-9C92-A755F9E056C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781D0AD2-CEEE-9E47-8A18-C999A98DF494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="1900" windowWidth="28100" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="680" yWindow="1900" windowWidth="29820" windowHeight="24740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lci" sheetId="1" r:id="rId1"/>
@@ -633,9 +633,6 @@
   </si>
   <si>
     <t>electrolyzer production, 1MWe, SOEC, Stack</t>
-  </si>
-  <si>
-    <t>1 MWe Solid Oxide electrolyzer based on Niklas Gerloff, Comparative Life-Cycle-Assessment analysis of three major water electrolysis technologies while applying various energy scenarios for a greener hydrogen production, Journal of Energy Storage, Volume 43, 2021, https://doi.org/10.1016/j.est.2021.102759. Lifetime of 7-8 years. Produced amount of H2 over 20 years: 3779894.18 kg. Amounts of lanthanum oxide and strontium carbonate are unsure.  Values have already been multiplied by 3 to reflect 2 stack replacements over 20 years of use.</t>
   </si>
   <si>
     <t>air electrode</t>
@@ -1775,6 +1772,9 @@
   </si>
   <si>
     <t>natural resource::land</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 MWe Solid Oxide electrolyzer based on Niklas Gerloff, Comparative Life-Cycle-Assessment analysis of three major water electrolysis technologies while applying various energy scenarios for a greener hydrogen production, Journal of Energy Storage, Volume 43, 2021, https://doi.org/10.1016/j.est.2021.102759. Lifetime of 7-8 years. Produced amount of H2 over 20 years: 3779894.18 kg. Amounts of lanthanum oxide and strontium carbonate are unsure. </t>
   </si>
 </sst>
 </file>
@@ -2042,7 +2042,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -2126,8 +2126,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2141,20 +2156,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2443,8 +2446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T493"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A338" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B361" sqref="B361"/>
+    <sheetView tabSelected="1" topLeftCell="A451" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A473" sqref="A473:XFD492"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2502,7 +2505,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C4" s="11"/>
       <c r="K4" s="13"/>
@@ -2526,12 +2529,12 @@
       <c r="O5" s="13"/>
       <c r="P5" s="13"/>
     </row>
-    <row r="6" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" s="12" customFormat="1" ht="306" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>491</v>
+      <c r="B6" s="59" t="s">
+        <v>490</v>
       </c>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
@@ -2645,7 +2648,7 @@
     </row>
     <row r="12" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B12" s="17">
         <v>1</v>
@@ -2697,7 +2700,7 @@
         <v>52</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J13"/>
       <c r="K13" s="20"/>
@@ -2745,7 +2748,7 @@
     </row>
     <row r="15" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B15" s="12">
         <f>B13*-1</f>
@@ -2761,10 +2764,10 @@
         <v>12</v>
       </c>
       <c r="G15" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="H15" s="12" t="s">
         <v>260</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>261</v>
       </c>
       <c r="J15"/>
       <c r="K15" s="20"/>
@@ -2778,7 +2781,7 @@
     </row>
     <row r="16" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B16" s="12">
         <f>-1*B14</f>
@@ -2794,10 +2797,10 @@
         <v>12</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J16"/>
       <c r="K16" s="20"/>
@@ -2830,7 +2833,7 @@
         <v>38</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="J17"/>
       <c r="K17" s="20"/>
@@ -2939,7 +2942,7 @@
     </row>
     <row r="21" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B21" s="16">
         <f>(0.09*1000*20)/2963200</f>
@@ -2947,10 +2950,10 @@
       </c>
       <c r="C21" s="22"/>
       <c r="D21" s="22" t="s">
+        <v>513</v>
+      </c>
+      <c r="E21" s="22" t="s">
         <v>514</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>515</v>
       </c>
       <c r="F21" s="22" t="s">
         <v>15</v>
@@ -3637,7 +3640,7 @@
         <v>1</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K48" s="13"/>
       <c r="L48" s="13"/>
@@ -3679,7 +3682,7 @@
         <v>4</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K51" s="13"/>
       <c r="L51" s="13"/>
@@ -3805,7 +3808,7 @@
     </row>
     <row r="57" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B57" s="12">
         <f>-1*B42</f>
@@ -3821,7 +3824,7 @@
         <v>12</v>
       </c>
       <c r="G57" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J57"/>
       <c r="K57" s="20"/>
@@ -3835,7 +3838,7 @@
     </row>
     <row r="58" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B58" s="12">
         <f>-1*B32</f>
@@ -3851,7 +3854,7 @@
         <v>12</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J58"/>
       <c r="K58" s="20"/>
@@ -3865,7 +3868,7 @@
     </row>
     <row r="59" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B59" s="12">
         <f>-1*B40</f>
@@ -3881,7 +3884,7 @@
         <v>12</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J59"/>
       <c r="K59" s="20"/>
@@ -3895,14 +3898,14 @@
     </row>
     <row r="60" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B60" s="12">
         <f>-1*B35</f>
         <v>-16</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>13</v>
@@ -3911,7 +3914,7 @@
         <v>12</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J60"/>
       <c r="K60" s="20"/>
@@ -3925,7 +3928,7 @@
     </row>
     <row r="61" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B61" s="12">
         <f>-1*B44</f>
@@ -3941,7 +3944,7 @@
         <v>12</v>
       </c>
       <c r="G61" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J61"/>
       <c r="K61" s="20"/>
@@ -5724,7 +5727,7 @@
         <v>1</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K122" s="13"/>
       <c r="L122" s="13"/>
@@ -5766,7 +5769,7 @@
         <v>4</v>
       </c>
       <c r="B125" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K125" s="13"/>
       <c r="L125" s="13"/>
@@ -5892,7 +5895,7 @@
     </row>
     <row r="131" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B131" s="12">
         <f>7523*-1</f>
@@ -5908,7 +5911,7 @@
         <v>12</v>
       </c>
       <c r="G131" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J131"/>
       <c r="K131" s="20"/>
@@ -5922,13 +5925,13 @@
     </row>
     <row r="132" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="17" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B132" s="12">
         <v>-3312</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D132" s="12" t="s">
         <v>13</v>
@@ -5937,7 +5940,7 @@
         <v>12</v>
       </c>
       <c r="G132" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J132"/>
       <c r="K132" s="20"/>
@@ -5951,7 +5954,7 @@
     </row>
     <row r="133" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B133" s="12">
         <v>-260</v>
@@ -5966,7 +5969,7 @@
         <v>12</v>
       </c>
       <c r="G133" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J133"/>
       <c r="K133" s="20"/>
@@ -5980,13 +5983,13 @@
     </row>
     <row r="134" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B134" s="12">
         <v>-32</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D134" s="12" t="s">
         <v>13</v>
@@ -5995,7 +5998,7 @@
         <v>12</v>
       </c>
       <c r="G134" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J134"/>
       <c r="K134" s="20"/>
@@ -6009,13 +6012,13 @@
     </row>
     <row r="135" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B135" s="12">
         <v>-14</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D135" s="12" t="s">
         <v>13</v>
@@ -6024,7 +6027,7 @@
         <v>12</v>
       </c>
       <c r="G135" s="12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J135"/>
       <c r="K135" s="20"/>
@@ -6038,7 +6041,7 @@
     </row>
     <row r="136" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B136" s="12">
         <v>-8</v>
@@ -6053,7 +6056,7 @@
         <v>12</v>
       </c>
       <c r="G136" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J136"/>
       <c r="K136" s="20"/>
@@ -6067,7 +6070,7 @@
     </row>
     <row r="137" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B137" s="12">
         <v>-764.6</v>
@@ -6082,7 +6085,7 @@
         <v>12</v>
       </c>
       <c r="G137" s="12" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J137"/>
       <c r="K137" s="20"/>
@@ -6096,7 +6099,7 @@
     </row>
     <row r="138" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="12" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B138" s="12">
         <v>-600</v>
@@ -6111,7 +6114,7 @@
         <v>12</v>
       </c>
       <c r="G138" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J138"/>
       <c r="K138" s="20"/>
@@ -6125,7 +6128,7 @@
     </row>
     <row r="139" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B139" s="12">
         <v>-345</v>
@@ -6140,7 +6143,7 @@
         <v>12</v>
       </c>
       <c r="G139" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J139"/>
       <c r="K139" s="20"/>
@@ -6154,13 +6157,13 @@
     </row>
     <row r="140" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B140" s="12">
         <v>-147</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D140" s="12" t="s">
         <v>13</v>
@@ -6169,7 +6172,7 @@
         <v>12</v>
       </c>
       <c r="G140" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J140"/>
       <c r="K140" s="20"/>
@@ -6183,7 +6186,7 @@
     </row>
     <row r="141" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="12" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B141" s="12">
         <v>-5600</v>
@@ -6198,7 +6201,7 @@
         <v>12</v>
       </c>
       <c r="G141" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J141"/>
       <c r="K141" s="20"/>
@@ -6212,13 +6215,13 @@
     </row>
     <row r="142" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B142" s="12">
         <v>-100</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D142" s="12" t="s">
         <v>13</v>
@@ -6227,7 +6230,7 @@
         <v>12</v>
       </c>
       <c r="G142" s="12" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J142"/>
       <c r="K142" s="20"/>
@@ -7269,7 +7272,7 @@
         <v>1</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C186" s="11"/>
       <c r="K186" s="13"/>
@@ -7298,7 +7301,7 @@
         <v>11</v>
       </c>
       <c r="B188" s="15" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K188" s="13"/>
       <c r="L188" s="13"/>
@@ -7312,7 +7315,7 @@
         <v>4</v>
       </c>
       <c r="B189" s="16" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="K189" s="13"/>
       <c r="L189" s="13"/>
@@ -7412,7 +7415,7 @@
     </row>
     <row r="194" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="17" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B194" s="17">
         <v>1</v>
@@ -7430,7 +7433,7 @@
         <v>17</v>
       </c>
       <c r="G194" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H194" s="11"/>
       <c r="I194" s="11"/>
@@ -7498,7 +7501,7 @@
         <v>167</v>
       </c>
       <c r="H196" s="12" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="J196"/>
       <c r="K196" s="20"/>
@@ -7512,7 +7515,7 @@
     </row>
     <row r="197" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="17" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B197" s="17">
         <f>-1*B195</f>
@@ -7528,10 +7531,10 @@
         <v>12</v>
       </c>
       <c r="G197" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H197" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J197"/>
       <c r="K197" s="20"/>
@@ -7545,7 +7548,7 @@
     </row>
     <row r="198" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B198" s="17">
         <f>-1*B196</f>
@@ -7561,10 +7564,10 @@
         <v>12</v>
       </c>
       <c r="G198" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H198" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J198"/>
       <c r="K198" s="20"/>
@@ -7597,7 +7600,7 @@
         <v>38</v>
       </c>
       <c r="H199" s="11" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J199"/>
       <c r="K199" s="20"/>
@@ -7705,7 +7708,7 @@
     </row>
     <row r="203" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" s="22" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B203" s="16">
         <f>(0.12*1000*27.5)/4259200</f>
@@ -7713,10 +7716,10 @@
       </c>
       <c r="C203" s="22"/>
       <c r="D203" s="22" t="s">
+        <v>513</v>
+      </c>
+      <c r="E203" s="22" t="s">
         <v>514</v>
-      </c>
-      <c r="E203" s="22" t="s">
-        <v>515</v>
       </c>
       <c r="F203" s="22" t="s">
         <v>15</v>
@@ -8156,7 +8159,7 @@
         <v>1</v>
       </c>
       <c r="B222" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K222" s="13"/>
       <c r="L222" s="13"/>
@@ -8198,7 +8201,7 @@
         <v>4</v>
       </c>
       <c r="B225" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K225" s="13"/>
       <c r="L225" s="13"/>
@@ -8324,7 +8327,7 @@
     </row>
     <row r="231" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B231" s="12">
         <v>-60583</v>
@@ -8339,7 +8342,7 @@
         <v>12</v>
       </c>
       <c r="G231" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J231"/>
       <c r="K231" s="20"/>
@@ -8353,13 +8356,13 @@
     </row>
     <row r="232" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A232" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B232" s="12">
         <v>-579</v>
       </c>
       <c r="C232" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D232" s="12" t="s">
         <v>13</v>
@@ -8368,7 +8371,7 @@
         <v>12</v>
       </c>
       <c r="G232" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J232"/>
       <c r="K232" s="20"/>
@@ -10470,7 +10473,7 @@
         <v>1</v>
       </c>
       <c r="B303" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K303" s="13"/>
       <c r="L303" s="13"/>
@@ -10512,7 +10515,7 @@
         <v>4</v>
       </c>
       <c r="B306" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K306" s="13"/>
       <c r="L306" s="13"/>
@@ -10638,7 +10641,7 @@
     </row>
     <row r="312" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A312" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B312" s="12">
         <v>-12819.5</v>
@@ -10653,7 +10656,7 @@
         <v>12</v>
       </c>
       <c r="G312" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J312"/>
       <c r="K312" s="20"/>
@@ -10667,13 +10670,13 @@
     </row>
     <row r="313" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A313" s="17" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B313" s="12">
         <v>-5134.3999999999996</v>
       </c>
       <c r="C313" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D313" s="12" t="s">
         <v>13</v>
@@ -10682,7 +10685,7 @@
         <v>12</v>
       </c>
       <c r="G313" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J313"/>
       <c r="K313" s="20"/>
@@ -10696,7 +10699,7 @@
     </row>
     <row r="314" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A314" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B314" s="12">
         <v>-160</v>
@@ -10711,7 +10714,7 @@
         <v>12</v>
       </c>
       <c r="G314" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J314"/>
       <c r="K314" s="20"/>
@@ -10725,13 +10728,13 @@
     </row>
     <row r="315" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A315" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B315" s="12">
         <v>-32</v>
       </c>
       <c r="C315" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D315" s="12" t="s">
         <v>13</v>
@@ -10740,7 +10743,7 @@
         <v>12</v>
       </c>
       <c r="G315" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J315"/>
       <c r="K315" s="20"/>
@@ -10754,13 +10757,13 @@
     </row>
     <row r="316" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A316" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B316" s="12">
         <v>-14</v>
       </c>
       <c r="C316" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D316" s="12" t="s">
         <v>13</v>
@@ -10769,7 +10772,7 @@
         <v>12</v>
       </c>
       <c r="G316" s="12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J316"/>
       <c r="K316" s="20"/>
@@ -10783,7 +10786,7 @@
     </row>
     <row r="317" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A317" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B317" s="12">
         <v>-800</v>
@@ -10798,7 +10801,7 @@
         <v>12</v>
       </c>
       <c r="G317" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J317"/>
       <c r="K317" s="20"/>
@@ -10812,7 +10815,7 @@
     </row>
     <row r="318" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A318" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B318" s="12">
         <v>-468</v>
@@ -10827,7 +10830,7 @@
         <v>12</v>
       </c>
       <c r="G318" s="12" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J318"/>
       <c r="K318" s="20"/>
@@ -10841,7 +10844,7 @@
     </row>
     <row r="319" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A319" s="12" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B319" s="12">
         <v>-716</v>
@@ -10856,7 +10859,7 @@
         <v>12</v>
       </c>
       <c r="G319" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J319"/>
       <c r="K319" s="20"/>
@@ -10870,7 +10873,7 @@
     </row>
     <row r="320" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A320" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B320" s="12">
         <v>-617</v>
@@ -10885,7 +10888,7 @@
         <v>12</v>
       </c>
       <c r="G320" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J320"/>
       <c r="K320" s="20"/>
@@ -10899,13 +10902,13 @@
     </row>
     <row r="321" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A321" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B321" s="12">
         <v>-208</v>
       </c>
       <c r="C321" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D321" s="12" t="s">
         <v>13</v>
@@ -10914,7 +10917,7 @@
         <v>12</v>
       </c>
       <c r="G321" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J321"/>
       <c r="K321" s="20"/>
@@ -10928,7 +10931,7 @@
     </row>
     <row r="322" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A322" s="12" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B322" s="12">
         <v>-18519</v>
@@ -10943,7 +10946,7 @@
         <v>12</v>
       </c>
       <c r="G322" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J322"/>
       <c r="K322" s="20"/>
@@ -10969,7 +10972,7 @@
         <v>1</v>
       </c>
       <c r="B324" s="10" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C324" s="11"/>
       <c r="K324" s="13"/>
@@ -10998,7 +11001,7 @@
         <v>11</v>
       </c>
       <c r="B326" s="15" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="K326" s="13"/>
       <c r="L326" s="13"/>
@@ -11012,7 +11015,7 @@
         <v>4</v>
       </c>
       <c r="B327" s="16" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="K327" s="13"/>
       <c r="L327" s="13"/>
@@ -11112,7 +11115,7 @@
     </row>
     <row r="332" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A332" s="17" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B332" s="17">
         <v>1</v>
@@ -11130,7 +11133,7 @@
         <v>17</v>
       </c>
       <c r="G332" s="12" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H332" s="11"/>
       <c r="I332" s="11"/>
@@ -11164,7 +11167,7 @@
         <v>193</v>
       </c>
       <c r="H333" s="12" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J333"/>
       <c r="K333" s="20"/>
@@ -11212,7 +11215,7 @@
     </row>
     <row r="335" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A335" s="17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B335" s="12">
         <f>-1*B333</f>
@@ -11228,10 +11231,10 @@
         <v>12</v>
       </c>
       <c r="G335" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H335" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J335"/>
       <c r="K335" s="20"/>
@@ -11245,7 +11248,7 @@
     </row>
     <row r="336" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A336" s="17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B336" s="12">
         <f>-1*B334</f>
@@ -11261,10 +11264,10 @@
         <v>12</v>
       </c>
       <c r="G336" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H336" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J336"/>
       <c r="K336" s="20"/>
@@ -11297,7 +11300,7 @@
         <v>38</v>
       </c>
       <c r="H337" s="11" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J337"/>
       <c r="K337" s="20"/>
@@ -11405,7 +11408,7 @@
     </row>
     <row r="341" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A341" s="22" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B341" s="16">
         <f>(0.02*1000*20)/3776000</f>
@@ -11413,10 +11416,10 @@
       </c>
       <c r="C341" s="22"/>
       <c r="D341" s="22" t="s">
+        <v>513</v>
+      </c>
+      <c r="E341" s="22" t="s">
         <v>514</v>
-      </c>
-      <c r="E341" s="22" t="s">
-        <v>515</v>
       </c>
       <c r="F341" s="22" t="s">
         <v>15</v>
@@ -11447,7 +11450,7 @@
         <v>1</v>
       </c>
       <c r="B343" s="10" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C343" s="11"/>
       <c r="K343" s="13"/>
@@ -11476,7 +11479,7 @@
         <v>11</v>
       </c>
       <c r="B345" s="15" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="K345" s="13"/>
       <c r="L345" s="13"/>
@@ -11490,7 +11493,7 @@
         <v>4</v>
       </c>
       <c r="B346" s="16" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="K346" s="13"/>
       <c r="L346" s="13"/>
@@ -11590,7 +11593,7 @@
     </row>
     <row r="351" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A351" s="17" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B351" s="17">
         <v>1</v>
@@ -11608,7 +11611,7 @@
         <v>17</v>
       </c>
       <c r="G351" s="12" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H351" s="11"/>
       <c r="I351" s="11"/>
@@ -11641,7 +11644,7 @@
         <v>193</v>
       </c>
       <c r="H352" s="12" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J352"/>
       <c r="K352" s="20"/>
@@ -11655,7 +11658,7 @@
     </row>
     <row r="353" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A353" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B353" s="12">
         <f>1/3776000</f>
@@ -11688,7 +11691,7 @@
     </row>
     <row r="354" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A354" s="17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B354" s="12">
         <f>-1*B352</f>
@@ -11704,10 +11707,10 @@
         <v>12</v>
       </c>
       <c r="G354" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H354" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J354"/>
       <c r="K354" s="20"/>
@@ -11721,7 +11724,7 @@
     </row>
     <row r="355" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A355" s="17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B355" s="12">
         <f>-1*B353</f>
@@ -11737,10 +11740,10 @@
         <v>12</v>
       </c>
       <c r="G355" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H355" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J355"/>
       <c r="K355" s="20"/>
@@ -11773,7 +11776,7 @@
         <v>38</v>
       </c>
       <c r="H356" s="11" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J356"/>
       <c r="K356" s="20"/>
@@ -11806,7 +11809,7 @@
         <v>59</v>
       </c>
       <c r="H357" s="11" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J357"/>
       <c r="K357" s="20"/>
@@ -11881,7 +11884,7 @@
     </row>
     <row r="360" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A360" s="22" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B360" s="16">
         <f>(0.05*1000*20)/3776000</f>
@@ -11889,10 +11892,10 @@
       </c>
       <c r="C360" s="22"/>
       <c r="D360" s="22" t="s">
+        <v>513</v>
+      </c>
+      <c r="E360" s="22" t="s">
         <v>514</v>
-      </c>
-      <c r="E360" s="22" t="s">
-        <v>515</v>
       </c>
       <c r="F360" s="22" t="s">
         <v>15</v>
@@ -11951,7 +11954,7 @@
         <v>11</v>
       </c>
       <c r="B364" s="15" t="s">
-        <v>197</v>
+        <v>515</v>
       </c>
       <c r="K364" s="13"/>
       <c r="L364" s="13"/>
@@ -12109,7 +12112,7 @@
         <v>83</v>
       </c>
       <c r="H371" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J371"/>
       <c r="K371" s="20"/>
@@ -12141,7 +12144,7 @@
         <v>16</v>
       </c>
       <c r="H372" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J372"/>
       <c r="K372" s="20"/>
@@ -12155,7 +12158,7 @@
     </row>
     <row r="373" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A373" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B373" s="13">
         <v>9</v>
@@ -12170,10 +12173,10 @@
         <v>12</v>
       </c>
       <c r="G373" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="H373" s="12" t="s">
         <v>200</v>
-      </c>
-      <c r="H373" s="12" t="s">
-        <v>201</v>
       </c>
       <c r="J373"/>
       <c r="K373" s="20"/>
@@ -12205,7 +12208,7 @@
         <v>175</v>
       </c>
       <c r="H374" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J374"/>
       <c r="K374" s="20"/>
@@ -12237,7 +12240,7 @@
         <v>180</v>
       </c>
       <c r="H375" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J375"/>
       <c r="K375" s="20"/>
@@ -12251,7 +12254,7 @@
     </row>
     <row r="376" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A376" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B376" s="13">
         <v>14.8</v>
@@ -12266,10 +12269,10 @@
         <v>12</v>
       </c>
       <c r="G376" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H376" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J376"/>
       <c r="K376" s="20"/>
@@ -12283,7 +12286,7 @@
     </row>
     <row r="377" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A377" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B377" s="13">
         <v>91.5</v>
@@ -12298,10 +12301,10 @@
         <v>12</v>
       </c>
       <c r="G377" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H377" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J377"/>
       <c r="K377" s="20"/>
@@ -12315,7 +12318,7 @@
     </row>
     <row r="378" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A378" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B378" s="13">
         <v>22.9</v>
@@ -12330,10 +12333,10 @@
         <v>12</v>
       </c>
       <c r="G378" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H378" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J378"/>
       <c r="K378" s="20"/>
@@ -12347,7 +12350,7 @@
     </row>
     <row r="379" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A379" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B379" s="13">
         <f>42/2</f>
@@ -12363,10 +12366,10 @@
         <v>12</v>
       </c>
       <c r="G379" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="H379" s="12" t="s">
         <v>208</v>
-      </c>
-      <c r="H379" s="12" t="s">
-        <v>209</v>
       </c>
       <c r="J379"/>
       <c r="K379" s="20"/>
@@ -12380,7 +12383,7 @@
     </row>
     <row r="380" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A380" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B380" s="13">
         <f>42/2</f>
@@ -12396,10 +12399,10 @@
         <v>12</v>
       </c>
       <c r="G380" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H380" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J380"/>
       <c r="K380" s="20"/>
@@ -12413,25 +12416,25 @@
     </row>
     <row r="381" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A381" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B381" s="13">
         <v>6.4</v>
       </c>
       <c r="C381" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D381" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F381" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G381" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="D381" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F381" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G381" s="12" t="s">
+      <c r="H381" s="12" t="s">
         <v>214</v>
-      </c>
-      <c r="H381" s="12" t="s">
-        <v>215</v>
       </c>
       <c r="J381"/>
       <c r="K381" s="20"/>
@@ -12445,7 +12448,7 @@
     </row>
     <row r="382" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A382" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B382" s="13">
         <v>6.4</v>
@@ -12460,10 +12463,10 @@
         <v>12</v>
       </c>
       <c r="G382" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H382" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J382"/>
       <c r="K382" s="20"/>
@@ -12477,7 +12480,7 @@
     </row>
     <row r="383" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A383" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B383" s="13">
         <v>6.4</v>
@@ -12492,10 +12495,10 @@
         <v>12</v>
       </c>
       <c r="G383" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H383" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J383"/>
       <c r="K383" s="20"/>
@@ -12509,7 +12512,7 @@
     </row>
     <row r="384" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A384" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B384" s="13">
         <v>6.4</v>
@@ -12524,10 +12527,10 @@
         <v>12</v>
       </c>
       <c r="G384" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H384" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J384"/>
       <c r="K384" s="20"/>
@@ -12559,7 +12562,7 @@
         <v>175</v>
       </c>
       <c r="H385" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J385"/>
       <c r="K385" s="20"/>
@@ -12619,7 +12622,7 @@
         <v>1</v>
       </c>
       <c r="B388" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K388" s="13"/>
       <c r="L388" s="13"/>
@@ -12661,7 +12664,7 @@
         <v>4</v>
       </c>
       <c r="B391" s="17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K391" s="13"/>
       <c r="L391" s="13"/>
@@ -12787,7 +12790,7 @@
     </row>
     <row r="397" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A397" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B397" s="12">
         <v>-26928</v>
@@ -12802,7 +12805,7 @@
         <v>12</v>
       </c>
       <c r="G397" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J397"/>
       <c r="K397" s="20"/>
@@ -12828,7 +12831,7 @@
         <v>1</v>
       </c>
       <c r="B399" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K399" s="25"/>
       <c r="L399" s="26"/>
@@ -12856,7 +12859,7 @@
         <v>11</v>
       </c>
       <c r="B401" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K401" s="13"/>
       <c r="L401" s="26"/>
@@ -13017,7 +13020,7 @@
         <v>83</v>
       </c>
       <c r="H408" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J408"/>
       <c r="K408" s="20"/>
@@ -13049,7 +13052,7 @@
         <v>16</v>
       </c>
       <c r="H409" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J409"/>
       <c r="K409" s="20"/>
@@ -13081,7 +13084,7 @@
         <v>20</v>
       </c>
       <c r="H410" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J410"/>
       <c r="K410" s="20"/>
@@ -13113,7 +13116,7 @@
         <v>78</v>
       </c>
       <c r="H411" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J411"/>
       <c r="K411" s="20"/>
@@ -13146,7 +13149,7 @@
         <v>44</v>
       </c>
       <c r="H412" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J412"/>
       <c r="K412" s="20"/>
@@ -13179,7 +13182,7 @@
         <v>47</v>
       </c>
       <c r="H413" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J413"/>
       <c r="K413" s="20"/>
@@ -13212,7 +13215,7 @@
         <v>48</v>
       </c>
       <c r="H414" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J414"/>
       <c r="K414" s="20"/>
@@ -13245,7 +13248,7 @@
         <v>119</v>
       </c>
       <c r="H415" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J415"/>
       <c r="K415" s="20"/>
@@ -13278,7 +13281,7 @@
         <v>122</v>
       </c>
       <c r="H416" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J416"/>
       <c r="K416" s="20"/>
@@ -13311,7 +13314,7 @@
         <v>44</v>
       </c>
       <c r="H417" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J417"/>
       <c r="K417" s="20"/>
@@ -13344,7 +13347,7 @@
         <v>83</v>
       </c>
       <c r="H418" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J418"/>
       <c r="K418" s="20"/>
@@ -13377,7 +13380,7 @@
         <v>46</v>
       </c>
       <c r="H419" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J419"/>
       <c r="K419" s="20"/>
@@ -13410,7 +13413,7 @@
         <v>16</v>
       </c>
       <c r="H420" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J420"/>
       <c r="K420" s="20"/>
@@ -13443,7 +13446,7 @@
         <v>44</v>
       </c>
       <c r="H421" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J421"/>
       <c r="K421" s="20"/>
@@ -13476,7 +13479,7 @@
         <v>83</v>
       </c>
       <c r="H422" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J422"/>
       <c r="K422" s="20"/>
@@ -13509,7 +13512,7 @@
         <v>46</v>
       </c>
       <c r="H423" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J423"/>
       <c r="K423" s="20"/>
@@ -13542,7 +13545,7 @@
         <v>16</v>
       </c>
       <c r="H424" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J424"/>
       <c r="K424" s="20"/>
@@ -13574,7 +13577,7 @@
         <v>20</v>
       </c>
       <c r="H425" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J425"/>
       <c r="K425" s="20"/>
@@ -13606,7 +13609,7 @@
         <v>78</v>
       </c>
       <c r="H426" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J426"/>
       <c r="K426" s="20"/>
@@ -13638,7 +13641,7 @@
         <v>44</v>
       </c>
       <c r="H427" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J427"/>
       <c r="K427" s="20"/>
@@ -13670,7 +13673,7 @@
         <v>45</v>
       </c>
       <c r="H428" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J428"/>
       <c r="K428" s="20"/>
@@ -13702,7 +13705,7 @@
         <v>46</v>
       </c>
       <c r="H429" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J429"/>
       <c r="K429" s="20"/>
@@ -13734,7 +13737,7 @@
         <v>47</v>
       </c>
       <c r="H430" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J430"/>
       <c r="K430" s="20"/>
@@ -13766,7 +13769,7 @@
         <v>48</v>
       </c>
       <c r="H431" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J431"/>
       <c r="K431" s="20"/>
@@ -13798,7 +13801,7 @@
         <v>31</v>
       </c>
       <c r="H432" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J432"/>
       <c r="K432" s="20"/>
@@ -13831,7 +13834,7 @@
         <v>83</v>
       </c>
       <c r="H433" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J433"/>
       <c r="K433" s="20"/>
@@ -13864,7 +13867,7 @@
         <v>16</v>
       </c>
       <c r="H434" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J434"/>
       <c r="K434" s="20"/>
@@ -13896,7 +13899,7 @@
         <v>83</v>
       </c>
       <c r="H435" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J435"/>
       <c r="K435" s="20"/>
@@ -13928,7 +13931,7 @@
         <v>16</v>
       </c>
       <c r="H436" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J436"/>
       <c r="K436" s="20"/>
@@ -13961,7 +13964,7 @@
         <v>83</v>
       </c>
       <c r="H437" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J437"/>
       <c r="K437" s="20"/>
@@ -13994,7 +13997,7 @@
         <v>16</v>
       </c>
       <c r="H438" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J438"/>
       <c r="K438" s="20"/>
@@ -14027,7 +14030,7 @@
         <v>83</v>
       </c>
       <c r="H439" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J439"/>
       <c r="K439" s="20"/>
@@ -14060,7 +14063,7 @@
         <v>16</v>
       </c>
       <c r="H440" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J440"/>
       <c r="K440" s="20"/>
@@ -14074,7 +14077,7 @@
     </row>
     <row r="441" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A441" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B441" s="17">
         <f>0.4+1</f>
@@ -14090,10 +14093,10 @@
         <v>12</v>
       </c>
       <c r="G441" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="H441" s="11" t="s">
         <v>236</v>
-      </c>
-      <c r="H441" s="11" t="s">
-        <v>237</v>
       </c>
       <c r="J441"/>
       <c r="K441" s="20"/>
@@ -14126,7 +14129,7 @@
         <v>104</v>
       </c>
       <c r="H442" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J442"/>
       <c r="K442" s="20"/>
@@ -14159,7 +14162,7 @@
         <v>47</v>
       </c>
       <c r="H443" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J443"/>
       <c r="K443" s="20"/>
@@ -14192,7 +14195,7 @@
         <v>78</v>
       </c>
       <c r="H444" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J444"/>
       <c r="K444" s="20"/>
@@ -14225,7 +14228,7 @@
         <v>48</v>
       </c>
       <c r="H445" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J445"/>
       <c r="K445" s="20"/>
@@ -14258,7 +14261,7 @@
         <v>44</v>
       </c>
       <c r="H446" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J446"/>
       <c r="K446" s="20"/>
@@ -14291,7 +14294,7 @@
         <v>46</v>
       </c>
       <c r="H447" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J447"/>
       <c r="K447" s="20"/>
@@ -14324,7 +14327,7 @@
         <v>44</v>
       </c>
       <c r="H448" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J448"/>
       <c r="K448" s="20"/>
@@ -14357,7 +14360,7 @@
         <v>46</v>
       </c>
       <c r="H449" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J449"/>
       <c r="K449" s="20"/>
@@ -14389,7 +14392,7 @@
         <v>44</v>
       </c>
       <c r="H450" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J450"/>
       <c r="K450" s="20"/>
@@ -14421,7 +14424,7 @@
         <v>46</v>
       </c>
       <c r="H451" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J451"/>
       <c r="K451" s="20"/>
@@ -14453,7 +14456,7 @@
         <v>44</v>
       </c>
       <c r="H452" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J452"/>
       <c r="K452" s="20"/>
@@ -14485,7 +14488,7 @@
         <v>46</v>
       </c>
       <c r="H453" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J453"/>
       <c r="K453" s="20"/>
@@ -14517,7 +14520,7 @@
         <v>20</v>
       </c>
       <c r="H454" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J454"/>
       <c r="K454" s="20"/>
@@ -14549,7 +14552,7 @@
         <v>78</v>
       </c>
       <c r="H455" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J455"/>
       <c r="K455" s="20"/>
@@ -14578,10 +14581,10 @@
         <v>12</v>
       </c>
       <c r="G456" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H456" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J456"/>
       <c r="K456" s="20"/>
@@ -14613,7 +14616,7 @@
         <v>47</v>
       </c>
       <c r="H457" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J457"/>
       <c r="K457" s="20"/>
@@ -14645,7 +14648,7 @@
         <v>48</v>
       </c>
       <c r="H458" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J458"/>
       <c r="K458" s="20"/>
@@ -14677,7 +14680,7 @@
         <v>28</v>
       </c>
       <c r="H459" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J459"/>
       <c r="K459" s="20"/>
@@ -14709,7 +14712,7 @@
         <v>46</v>
       </c>
       <c r="H460" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J460"/>
       <c r="K460" s="20"/>
@@ -14741,7 +14744,7 @@
         <v>113</v>
       </c>
       <c r="H461" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J461"/>
       <c r="K461" s="20"/>
@@ -14773,7 +14776,7 @@
         <v>116</v>
       </c>
       <c r="H462" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J462"/>
       <c r="K462" s="20"/>
@@ -14805,7 +14808,7 @@
         <v>44</v>
       </c>
       <c r="H463" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J463"/>
       <c r="K463" s="20"/>
@@ -14837,7 +14840,7 @@
         <v>46</v>
       </c>
       <c r="H464" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J464"/>
       <c r="K464" s="20"/>
@@ -14979,7 +14982,7 @@
     </row>
     <row r="469" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A469" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B469" s="17">
         <v>2250</v>
@@ -14994,7 +14997,7 @@
         <v>12</v>
       </c>
       <c r="G469" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H469" s="11" t="s">
         <v>128</v>
@@ -15029,7 +15032,7 @@
         <v>130</v>
       </c>
       <c r="H470" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J470"/>
       <c r="K470" s="20"/>
@@ -15089,7 +15092,7 @@
         <v>1</v>
       </c>
       <c r="B473" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K473" s="13"/>
       <c r="L473" s="13"/>
@@ -15131,7 +15134,7 @@
         <v>4</v>
       </c>
       <c r="B476" s="17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K476" s="13"/>
       <c r="L476" s="13"/>
@@ -15257,7 +15260,7 @@
     </row>
     <row r="482" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A482" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B482" s="12">
         <v>-20421</v>
@@ -15272,7 +15275,7 @@
         <v>12</v>
       </c>
       <c r="G482" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J482"/>
       <c r="K482" s="20"/>
@@ -15286,13 +15289,13 @@
     </row>
     <row r="483" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A483" s="17" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B483" s="12">
         <v>-13730</v>
       </c>
       <c r="C483" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D483" s="12" t="s">
         <v>13</v>
@@ -15301,7 +15304,7 @@
         <v>12</v>
       </c>
       <c r="G483" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J483"/>
       <c r="K483" s="20"/>
@@ -15315,7 +15318,7 @@
     </row>
     <row r="484" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A484" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B484" s="12">
         <v>-401</v>
@@ -15330,7 +15333,7 @@
         <v>12</v>
       </c>
       <c r="G484" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J484"/>
       <c r="K484" s="20"/>
@@ -15344,13 +15347,13 @@
     </row>
     <row r="485" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A485" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B485" s="12">
         <v>-32</v>
       </c>
       <c r="C485" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D485" s="12" t="s">
         <v>13</v>
@@ -15359,7 +15362,7 @@
         <v>12</v>
       </c>
       <c r="G485" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J485"/>
       <c r="K485" s="20"/>
@@ -15373,13 +15376,13 @@
     </row>
     <row r="486" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A486" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B486" s="12">
         <v>-14</v>
       </c>
       <c r="C486" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D486" s="12" t="s">
         <v>13</v>
@@ -15388,7 +15391,7 @@
         <v>12</v>
       </c>
       <c r="G486" s="12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J486"/>
       <c r="K486" s="20"/>
@@ -15402,7 +15405,7 @@
     </row>
     <row r="487" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A487" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B487" s="12">
         <v>-8</v>
@@ -15417,7 +15420,7 @@
         <v>12</v>
       </c>
       <c r="G487" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J487"/>
       <c r="K487" s="20"/>
@@ -15431,7 +15434,7 @@
     </row>
     <row r="488" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A488" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B488" s="12">
         <v>-534</v>
@@ -15446,7 +15449,7 @@
         <v>12</v>
       </c>
       <c r="G488" s="12" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J488"/>
       <c r="K488" s="20"/>
@@ -15460,7 +15463,7 @@
     </row>
     <row r="489" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A489" s="12" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B489" s="12">
         <v>-3000</v>
@@ -15475,7 +15478,7 @@
         <v>12</v>
       </c>
       <c r="G489" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J489"/>
       <c r="K489" s="20"/>
@@ -15489,7 +15492,7 @@
     </row>
     <row r="490" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A490" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B490" s="12">
         <v>-429</v>
@@ -15504,7 +15507,7 @@
         <v>12</v>
       </c>
       <c r="G490" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J490"/>
       <c r="K490" s="20"/>
@@ -15518,13 +15521,13 @@
     </row>
     <row r="491" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A491" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B491" s="12">
         <v>-210</v>
       </c>
       <c r="C491" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D491" s="12" t="s">
         <v>13</v>
@@ -15533,7 +15536,7 @@
         <v>12</v>
       </c>
       <c r="G491" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J491"/>
       <c r="K491" s="20"/>
@@ -15547,7 +15550,7 @@
     </row>
     <row r="492" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A492" s="12" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B492" s="12">
         <v>-5600</v>
@@ -15562,7 +15565,7 @@
         <v>12</v>
       </c>
       <c r="G492" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J492"/>
       <c r="K492" s="20"/>
@@ -15609,49 +15612,49 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="36"/>
       <c r="B3" s="37" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C3" s="37" t="s">
+        <v>448</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>401</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>402</v>
+      </c>
+      <c r="F3" s="37" t="s">
         <v>449</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>402</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>403</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
+        <v>482</v>
+      </c>
+      <c r="B4" s="40" t="s">
         <v>483</v>
       </c>
-      <c r="B4" s="40" t="s">
-        <v>484</v>
-      </c>
       <c r="C4" s="39" t="s">
-        <v>486</v>
-      </c>
-      <c r="D4" s="55" t="s">
+        <v>485</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>450</v>
+      </c>
+      <c r="E4" s="52"/>
+      <c r="F4" s="40" t="s">
         <v>451</v>
-      </c>
-      <c r="E4" s="56"/>
-      <c r="F4" s="40" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="71" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="47" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B5" s="40">
         <v>7</v>
@@ -15659,31 +15662,31 @@
       <c r="C5" s="39">
         <v>5.5</v>
       </c>
-      <c r="D5" s="57">
+      <c r="D5" s="53">
         <v>2.5</v>
       </c>
-      <c r="E5" s="58"/>
+      <c r="E5" s="54"/>
       <c r="F5" s="39" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="47" t="s">
+        <v>453</v>
+      </c>
+      <c r="B6" s="48" t="s">
         <v>454</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="41" t="s">
         <v>455</v>
-      </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="41" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="47" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B7" s="40">
         <v>27.5</v>
@@ -15691,17 +15694,17 @@
       <c r="C7" s="39">
         <v>20</v>
       </c>
-      <c r="D7" s="57">
+      <c r="D7" s="53">
         <v>20</v>
       </c>
-      <c r="E7" s="58"/>
+      <c r="E7" s="54"/>
       <c r="F7" s="39" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="47" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B8" s="40">
         <v>3</v>
@@ -15709,31 +15712,31 @@
       <c r="C8" s="39">
         <v>3</v>
       </c>
-      <c r="D8" s="57">
+      <c r="D8" s="53">
         <v>7</v>
       </c>
-      <c r="E8" s="58"/>
+      <c r="E8" s="54"/>
       <c r="F8" s="39" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="47" t="s">
+        <v>459</v>
+      </c>
+      <c r="B9" s="48" t="s">
+        <v>486</v>
+      </c>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="41" t="s">
         <v>460</v>
-      </c>
-      <c r="B9" s="48" t="s">
-        <v>487</v>
-      </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="41" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="71" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B10" s="40">
         <v>51.8</v>
@@ -15748,12 +15751,12 @@
         <v>39</v>
       </c>
       <c r="F10" s="39" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="47" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B11" s="43">
         <v>0.64500000000000002</v>
@@ -15768,12 +15771,12 @@
         <v>0.85</v>
       </c>
       <c r="F11" s="39" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="47" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B12" s="40"/>
       <c r="C12" s="45"/>
@@ -15782,12 +15785,12 @@
         <v>16</v>
       </c>
       <c r="F12" s="39" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="47" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B13" s="40">
         <v>19.36</v>
@@ -15798,92 +15801,92 @@
       <c r="D13" s="48">
         <v>23.6</v>
       </c>
-      <c r="E13" s="49"/>
+      <c r="E13" s="50"/>
       <c r="F13" s="39" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="47" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B14" s="40">
         <v>3.7000000000000002E-3</v>
       </c>
       <c r="C14" s="46"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
       <c r="F14" s="41" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="47" t="s">
+        <v>469</v>
+      </c>
+      <c r="B15" s="40" t="s">
         <v>470</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="C15" s="40" t="s">
         <v>471</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="D15" s="48" t="s">
         <v>472</v>
       </c>
-      <c r="D15" s="48" t="s">
-        <v>473</v>
-      </c>
-      <c r="E15" s="49"/>
+      <c r="E15" s="50"/>
       <c r="F15" s="39" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="47" t="s">
+        <v>473</v>
+      </c>
+      <c r="B16" s="40" t="s">
         <v>474</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="C16" s="40" t="s">
         <v>475</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="D16" s="48" t="s">
         <v>476</v>
       </c>
-      <c r="D16" s="48" t="s">
-        <v>477</v>
-      </c>
-      <c r="E16" s="49"/>
+      <c r="E16" s="50"/>
       <c r="F16" s="39" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="113" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="47" t="s">
+        <v>477</v>
+      </c>
+      <c r="B17" s="40" t="s">
         <v>478</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="C17" s="40" t="s">
         <v>479</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="D17" s="57" t="s">
         <v>480</v>
       </c>
-      <c r="D17" s="52" t="s">
+      <c r="E17" s="58"/>
+      <c r="F17" s="41" t="s">
         <v>481</v>
-      </c>
-      <c r="E17" s="53"/>
-      <c r="F17" s="41" t="s">
-        <v>482</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15928,119 +15931,119 @@
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="3" spans="1:33" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
+        <v>283</v>
+      </c>
+      <c r="B3" s="31" t="s">
         <v>284</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="C3" s="31" t="s">
         <v>285</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="D3" s="31" t="s">
         <v>286</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="E3" s="31" t="s">
         <v>287</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="F3" s="31" t="s">
         <v>288</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="G3" s="31" t="s">
         <v>289</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="H3" s="31" t="s">
         <v>290</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="I3" s="31" t="s">
         <v>291</v>
       </c>
-      <c r="I3" s="31" t="s">
+      <c r="J3" s="31" t="s">
         <v>292</v>
       </c>
-      <c r="J3" s="31" t="s">
+      <c r="K3" s="31" t="s">
         <v>293</v>
       </c>
-      <c r="K3" s="31" t="s">
+      <c r="L3" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="L3" s="31" t="s">
+      <c r="M3" s="31" t="s">
         <v>295</v>
       </c>
-      <c r="M3" s="31" t="s">
+      <c r="N3" s="31" t="s">
         <v>296</v>
       </c>
-      <c r="N3" s="31" t="s">
+      <c r="O3" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="O3" s="31" t="s">
+      <c r="P3" s="31" t="s">
         <v>298</v>
       </c>
-      <c r="P3" s="31" t="s">
+      <c r="Q3" s="31" t="s">
         <v>299</v>
       </c>
-      <c r="Q3" s="31" t="s">
+      <c r="R3" s="31" t="s">
         <v>300</v>
       </c>
-      <c r="R3" s="31" t="s">
+      <c r="S3" s="31" t="s">
         <v>301</v>
       </c>
-      <c r="S3" s="31" t="s">
+      <c r="T3" s="31" t="s">
         <v>302</v>
       </c>
-      <c r="T3" s="31" t="s">
+      <c r="U3" s="31" t="s">
         <v>303</v>
       </c>
-      <c r="U3" s="31" t="s">
+      <c r="V3" s="31" t="s">
         <v>304</v>
       </c>
-      <c r="V3" s="31" t="s">
+      <c r="W3" s="31" t="s">
         <v>305</v>
       </c>
-      <c r="W3" s="31" t="s">
+      <c r="X3" s="31" t="s">
         <v>306</v>
       </c>
-      <c r="X3" s="31" t="s">
+      <c r="Y3" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="Y3" s="31" t="s">
+      <c r="Z3" s="31" t="s">
         <v>308</v>
       </c>
-      <c r="Z3" s="31" t="s">
+      <c r="AA3" s="31" t="s">
         <v>309</v>
       </c>
-      <c r="AA3" s="31" t="s">
+      <c r="AB3" s="31" t="s">
         <v>310</v>
       </c>
-      <c r="AB3" s="31" t="s">
+      <c r="AC3" s="31" t="s">
         <v>311</v>
       </c>
-      <c r="AC3" s="31" t="s">
+      <c r="AD3" s="31" t="s">
         <v>312</v>
       </c>
-      <c r="AD3" s="31" t="s">
+      <c r="AE3" s="31" t="s">
         <v>313</v>
       </c>
-      <c r="AE3" s="31" t="s">
+      <c r="AF3" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="AF3" s="31" t="s">
+      <c r="AG3" s="31" t="s">
         <v>315</v>
-      </c>
-      <c r="AG3" s="31" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>316</v>
+      </c>
+      <c r="B4" t="s">
         <v>317</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>318</v>
-      </c>
-      <c r="C4" t="s">
-        <v>319</v>
       </c>
       <c r="D4">
         <v>300</v>
@@ -16055,14 +16058,14 @@
         <v>616</v>
       </c>
       <c r="H4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I4" s="32"/>
       <c r="J4">
         <v>10</v>
       </c>
       <c r="K4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O4">
         <v>4.8499999999999996</v>
@@ -16101,18 +16104,18 @@
         <v>308.89999999999998</v>
       </c>
       <c r="AE4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B5" t="s">
         <v>323</v>
       </c>
-      <c r="B5" t="s">
-        <v>324</v>
-      </c>
       <c r="C5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -16154,13 +16157,13 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>324</v>
+      </c>
+      <c r="B6" t="s">
         <v>325</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>326</v>
-      </c>
-      <c r="C6" t="s">
-        <v>327</v>
       </c>
       <c r="F6">
         <v>2.4</v>
@@ -16169,7 +16172,7 @@
         <v>230</v>
       </c>
       <c r="H6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I6" s="32">
         <v>0.125</v>
@@ -16178,7 +16181,7 @@
         <v>3</v>
       </c>
       <c r="K6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M6">
         <v>5</v>
@@ -16223,18 +16226,18 @@
         <v>5</v>
       </c>
       <c r="AE6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B7" t="s">
         <v>329</v>
       </c>
-      <c r="B7" t="s">
-        <v>330</v>
-      </c>
       <c r="C7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -16251,18 +16254,18 @@
         <v>0.4</v>
       </c>
       <c r="AE7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B8" t="s">
         <v>331</v>
       </c>
-      <c r="B8" t="s">
-        <v>332</v>
-      </c>
       <c r="C8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -16277,7 +16280,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I8" s="32">
         <v>0.42857142857142855</v>
@@ -16286,7 +16289,7 @@
         <v>40</v>
       </c>
       <c r="K8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L8">
         <v>8500</v>
@@ -16323,18 +16326,18 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AE8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D9">
         <v>6</v>
@@ -16354,18 +16357,18 @@
         <v>1.6</v>
       </c>
       <c r="AE9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>333</v>
+      </c>
+      <c r="B10" t="s">
         <v>334</v>
       </c>
-      <c r="B10" t="s">
-        <v>335</v>
-      </c>
       <c r="C10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -16380,7 +16383,7 @@
         <v>400</v>
       </c>
       <c r="H10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I10" s="32">
         <v>0.1</v>
@@ -16389,7 +16392,7 @@
         <v>3</v>
       </c>
       <c r="K10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L10">
         <v>8700</v>
@@ -16445,7 +16448,7 @@
         <v>2</v>
       </c>
       <c r="AE10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF10">
         <v>5</v>
@@ -16456,13 +16459,13 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -16477,7 +16480,7 @@
         <v>400</v>
       </c>
       <c r="H11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I11" s="32">
         <v>0.1</v>
@@ -16486,7 +16489,7 @@
         <v>3</v>
       </c>
       <c r="K11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L11">
         <v>8700</v>
@@ -16542,7 +16545,7 @@
         <v>2</v>
       </c>
       <c r="AE11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF11">
         <v>5</v>
@@ -16553,13 +16556,13 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F12">
         <v>13</v>
@@ -16601,13 +16604,13 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B13" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -16622,7 +16625,7 @@
         <v>400</v>
       </c>
       <c r="H13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I13" s="32">
         <v>0.21428571428571427</v>
@@ -16631,7 +16634,7 @@
         <v>40</v>
       </c>
       <c r="K13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L13">
         <v>8500</v>
@@ -16668,18 +16671,18 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="AE13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B14" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -16694,7 +16697,7 @@
         <v>400</v>
       </c>
       <c r="H14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I14" s="32">
         <v>0.15</v>
@@ -16703,7 +16706,7 @@
         <v>40</v>
       </c>
       <c r="K14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L14">
         <v>8500</v>
@@ -16740,18 +16743,18 @@
         <v>3.3</v>
       </c>
       <c r="AE14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -16766,7 +16769,7 @@
         <v>400</v>
       </c>
       <c r="H15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I15" s="32">
         <v>9.0909090909090912E-2</v>
@@ -16775,7 +16778,7 @@
         <v>3</v>
       </c>
       <c r="K15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L15">
         <v>8700</v>
@@ -16831,7 +16834,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="AE15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF15">
         <v>5</v>
@@ -16842,13 +16845,13 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -16863,7 +16866,7 @@
         <v>400</v>
       </c>
       <c r="H16" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I16" s="32">
         <v>9.0909090909090912E-2</v>
@@ -16872,7 +16875,7 @@
         <v>3</v>
       </c>
       <c r="K16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L16">
         <v>8700</v>
@@ -16928,7 +16931,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="AE16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF16">
         <v>5</v>
@@ -16939,13 +16942,13 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C17" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D17">
         <v>14</v>
@@ -16965,18 +16968,18 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="AE17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B18" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C18" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -16991,7 +16994,7 @@
         <v>400</v>
       </c>
       <c r="H18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I18" s="32">
         <v>0.1111111111111111</v>
@@ -17000,7 +17003,7 @@
         <v>40</v>
       </c>
       <c r="K18" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L18">
         <v>8500</v>
@@ -17037,18 +17040,18 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="AE18" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>344</v>
+      </c>
+      <c r="B19" t="s">
         <v>345</v>
       </c>
-      <c r="B19" t="s">
-        <v>346</v>
-      </c>
       <c r="C19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -17063,7 +17066,7 @@
         <v>400</v>
       </c>
       <c r="H19" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I19" s="32">
         <v>0.5357142857142857</v>
@@ -17072,7 +17075,7 @@
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L19">
         <v>8410</v>
@@ -17120,18 +17123,18 @@
         <v>5</v>
       </c>
       <c r="AE19" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B20" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C20" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -17146,7 +17149,7 @@
         <v>400</v>
       </c>
       <c r="H20" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I20" s="32">
         <v>9.0909090909090912E-2</v>
@@ -17155,7 +17158,7 @@
         <v>40</v>
       </c>
       <c r="K20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L20">
         <v>8500</v>
@@ -17192,18 +17195,18 @@
         <v>5.6</v>
       </c>
       <c r="AE20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B21" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C21" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F21">
         <v>35</v>
@@ -17245,13 +17248,13 @@
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B22" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C22" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -17266,7 +17269,7 @@
         <v>400</v>
       </c>
       <c r="H22" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I22" s="32">
         <v>9.3023255813953487E-2</v>
@@ -17275,7 +17278,7 @@
         <v>3</v>
       </c>
       <c r="K22" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L22">
         <v>8700</v>
@@ -17331,7 +17334,7 @@
         <v>8.9</v>
       </c>
       <c r="AE22" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF22">
         <v>5</v>
@@ -17342,13 +17345,13 @@
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B23" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C23" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -17363,7 +17366,7 @@
         <v>400</v>
       </c>
       <c r="H23" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I23" s="32">
         <v>9.3023255813953487E-2</v>
@@ -17372,7 +17375,7 @@
         <v>3</v>
       </c>
       <c r="K23" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L23">
         <v>8700</v>
@@ -17428,7 +17431,7 @@
         <v>8.9</v>
       </c>
       <c r="AE23" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF23">
         <v>5</v>
@@ -17439,19 +17442,19 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B24" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C24" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F24">
         <v>50</v>
       </c>
       <c r="H24" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I24" s="32"/>
       <c r="O24">
@@ -17478,13 +17481,13 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>351</v>
+      </c>
+      <c r="B25" t="s">
         <v>352</v>
       </c>
-      <c r="B25" t="s">
-        <v>353</v>
-      </c>
       <c r="C25" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D25">
         <v>10</v>
@@ -17499,7 +17502,7 @@
         <v>400</v>
       </c>
       <c r="H25" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I25" s="32">
         <v>0.11666666666666667</v>
@@ -17508,7 +17511,7 @@
         <v>15</v>
       </c>
       <c r="K25" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L25">
         <v>8650</v>
@@ -17564,7 +17567,7 @@
         <v>9.9</v>
       </c>
       <c r="AE25" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF25">
         <v>5</v>
@@ -17575,13 +17578,13 @@
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C26" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D26">
         <v>18</v>
@@ -17601,18 +17604,18 @@
         <v>10</v>
       </c>
       <c r="AE26" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B27" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C27" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -17627,7 +17630,7 @@
         <v>400</v>
       </c>
       <c r="H27" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I27" s="32">
         <v>9.3023255813953487E-2</v>
@@ -17636,7 +17639,7 @@
         <v>3</v>
       </c>
       <c r="K27" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L27">
         <v>8700</v>
@@ -17692,7 +17695,7 @@
         <v>17.8</v>
       </c>
       <c r="AE27" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF27">
         <v>5</v>
@@ -17703,13 +17706,13 @@
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B28" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C28" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -17724,7 +17727,7 @@
         <v>400</v>
       </c>
       <c r="H28" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I28" s="32">
         <v>9.3023255813953487E-2</v>
@@ -17733,7 +17736,7 @@
         <v>3</v>
       </c>
       <c r="K28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L28">
         <v>8700</v>
@@ -17789,7 +17792,7 @@
         <v>17.8</v>
       </c>
       <c r="AE28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF28">
         <v>5</v>
@@ -17800,19 +17803,19 @@
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B29" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C29" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F29">
         <v>100</v>
       </c>
       <c r="H29" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I29" s="32"/>
       <c r="O29">
@@ -17839,13 +17842,13 @@
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B30" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C30" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F30">
         <v>100</v>
@@ -17887,13 +17890,13 @@
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>358</v>
+      </c>
+      <c r="B31" t="s">
         <v>359</v>
       </c>
-      <c r="B31" t="s">
-        <v>360</v>
-      </c>
       <c r="C31" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D31">
         <v>12</v>
@@ -17908,7 +17911,7 @@
         <v>400</v>
       </c>
       <c r="H31" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I31" s="32">
         <v>6.6666666666666666E-2</v>
@@ -17917,7 +17920,7 @@
         <v>40</v>
       </c>
       <c r="K31" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L31">
         <v>8600</v>
@@ -17939,18 +17942,18 @@
         <v>19.399999999999999</v>
       </c>
       <c r="AE31" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B32" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C32" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D32">
         <v>10</v>
@@ -17965,7 +17968,7 @@
         <v>400</v>
       </c>
       <c r="H32" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I32" s="32">
         <v>0.13636363636363635</v>
@@ -17974,7 +17977,7 @@
         <v>1</v>
       </c>
       <c r="K32" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L32">
         <v>8410</v>
@@ -18022,18 +18025,18 @@
         <v>20</v>
       </c>
       <c r="AE32" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>361</v>
+      </c>
+      <c r="B33" t="s">
         <v>362</v>
       </c>
-      <c r="B33" t="s">
-        <v>363</v>
-      </c>
       <c r="C33" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D33">
         <v>46</v>
@@ -18042,13 +18045,13 @@
         <v>115</v>
       </c>
       <c r="H33" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I33" s="32">
         <v>0.46956521739130436</v>
       </c>
       <c r="K33" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M33">
         <v>-20</v>
@@ -18078,18 +18081,18 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="AE33" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B34" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C34" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D34">
         <v>20</v>
@@ -18104,7 +18107,7 @@
         <v>400</v>
       </c>
       <c r="H34" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I34" s="32">
         <v>5.8333333333333334E-2</v>
@@ -18113,7 +18116,7 @@
         <v>15</v>
       </c>
       <c r="K34" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L34">
         <v>8650</v>
@@ -18169,7 +18172,7 @@
         <v>19.8</v>
       </c>
       <c r="AE34" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF34">
         <v>5</v>
@@ -18180,13 +18183,13 @@
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B35" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C35" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D35">
         <v>21</v>
@@ -18201,14 +18204,14 @@
         <v>300</v>
       </c>
       <c r="H35" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I35" s="32"/>
       <c r="J35">
         <v>10</v>
       </c>
       <c r="K35" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O35">
         <v>4.83</v>
@@ -18247,18 +18250,18 @@
         <v>21.1</v>
       </c>
       <c r="AE35" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B36" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C36" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D36">
         <v>62</v>
@@ -18267,13 +18270,13 @@
         <v>155</v>
       </c>
       <c r="H36" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I36" s="32">
         <v>0.34838709677419355</v>
       </c>
       <c r="K36" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M36">
         <v>-20</v>
@@ -18303,18 +18306,18 @@
         <v>14.8</v>
       </c>
       <c r="AE36" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B37" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C37" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -18329,7 +18332,7 @@
         <v>400</v>
       </c>
       <c r="H37" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I37" s="32">
         <v>9.2485549132947972E-2</v>
@@ -18338,7 +18341,7 @@
         <v>3</v>
       </c>
       <c r="K37" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L37">
         <v>8700</v>
@@ -18394,7 +18397,7 @@
         <v>35.6</v>
       </c>
       <c r="AE37" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF37">
         <v>5</v>
@@ -18405,13 +18408,13 @@
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B38" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C38" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -18426,7 +18429,7 @@
         <v>400</v>
       </c>
       <c r="H38" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I38" s="32">
         <v>9.2485549132947972E-2</v>
@@ -18435,7 +18438,7 @@
         <v>3</v>
       </c>
       <c r="K38" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L38">
         <v>8700</v>
@@ -18491,7 +18494,7 @@
         <v>35.6</v>
       </c>
       <c r="AE38" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF38">
         <v>5</v>
@@ -18502,13 +18505,13 @@
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B39" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C39" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D39">
         <v>30</v>
@@ -18523,7 +18526,7 @@
         <v>400</v>
       </c>
       <c r="H39" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I39" s="32">
         <v>0.15555555555555556</v>
@@ -18532,7 +18535,7 @@
         <v>15</v>
       </c>
       <c r="K39" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L39">
         <v>8650</v>
@@ -18588,7 +18591,7 @@
         <v>29.7</v>
       </c>
       <c r="AE39" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF39">
         <v>5</v>
@@ -18599,13 +18602,13 @@
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B40" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C40" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D40">
         <v>24</v>
@@ -18620,7 +18623,7 @@
         <v>400</v>
       </c>
       <c r="H40" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I40" s="32">
         <v>6.6666666666666666E-2</v>
@@ -18629,7 +18632,7 @@
         <v>40</v>
       </c>
       <c r="K40" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L40">
         <v>8600</v>
@@ -18651,18 +18654,18 @@
         <v>38.9</v>
       </c>
       <c r="AE40" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B41" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C41" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D41">
         <v>20</v>
@@ -18677,7 +18680,7 @@
         <v>400</v>
       </c>
       <c r="H41" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I41" s="32">
         <v>5.8333333333333334E-2</v>
@@ -18686,7 +18689,7 @@
         <v>15</v>
       </c>
       <c r="K41" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L41">
         <v>8650</v>
@@ -18742,7 +18745,7 @@
         <v>39.6</v>
       </c>
       <c r="AE41" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF41">
         <v>5</v>
@@ -18753,13 +18756,13 @@
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>371</v>
+      </c>
+      <c r="B42" t="s">
         <v>372</v>
       </c>
-      <c r="B42" t="s">
-        <v>373</v>
-      </c>
       <c r="C42" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D42">
         <v>110</v>
@@ -18768,13 +18771,13 @@
         <v>275</v>
       </c>
       <c r="H42" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I42" s="32">
         <v>0.19636363636363635</v>
       </c>
       <c r="K42" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M42">
         <v>-20</v>
@@ -18796,18 +18799,18 @@
         <v>29.6</v>
       </c>
       <c r="AE42" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>373</v>
+      </c>
+      <c r="B43" t="s">
         <v>374</v>
       </c>
-      <c r="B43" t="s">
-        <v>375</v>
-      </c>
       <c r="C43" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D43">
         <v>40</v>
@@ -18822,7 +18825,7 @@
         <v>400</v>
       </c>
       <c r="H43" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I43" s="32">
         <v>4.2424242424242427E-2</v>
@@ -18831,7 +18834,7 @@
         <v>30</v>
       </c>
       <c r="K43" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L43">
         <v>8322</v>
@@ -18859,18 +18862,18 @@
         <v>47</v>
       </c>
       <c r="AE43" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B44" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C44" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D44">
         <v>30</v>
@@ -18885,7 +18888,7 @@
         <v>400</v>
       </c>
       <c r="H44" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I44" s="32">
         <v>3.888888888888889E-2</v>
@@ -18894,7 +18897,7 @@
         <v>15</v>
       </c>
       <c r="K44" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L44">
         <v>8650</v>
@@ -18950,7 +18953,7 @@
         <v>59.3</v>
       </c>
       <c r="AE44" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF44">
         <v>5</v>
@@ -18961,13 +18964,13 @@
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B45" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C45" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D45">
         <v>48</v>
@@ -18982,7 +18985,7 @@
         <v>400</v>
       </c>
       <c r="H45" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I45" s="32">
         <v>6.4285714285714279E-2</v>
@@ -18991,7 +18994,7 @@
         <v>40</v>
       </c>
       <c r="K45" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L45">
         <v>8600</v>
@@ -19013,24 +19016,24 @@
         <v>77.8</v>
       </c>
       <c r="AE45" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B46" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C46" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F46">
         <v>500</v>
       </c>
       <c r="H46" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I46" s="32"/>
       <c r="O46">
@@ -19057,13 +19060,13 @@
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B47" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C47" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D47">
         <v>15</v>
@@ -19078,11 +19081,11 @@
         <v>400</v>
       </c>
       <c r="H47" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I47" s="32"/>
       <c r="K47" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M47">
         <v>-15</v>
@@ -19129,7 +19132,7 @@
         <v>103.3</v>
       </c>
       <c r="AE47" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF47">
         <v>5</v>
@@ -19140,13 +19143,13 @@
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B48" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C48" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D48">
         <v>45</v>
@@ -19161,7 +19164,7 @@
         <v>400</v>
       </c>
       <c r="H48" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I48" s="32">
         <v>2.5925925925925925E-2</v>
@@ -19170,7 +19173,7 @@
         <v>15</v>
       </c>
       <c r="K48" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L48">
         <v>8650</v>
@@ -19226,7 +19229,7 @@
         <v>89</v>
       </c>
       <c r="AE48" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF48">
         <v>5</v>
@@ -19237,13 +19240,13 @@
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B49" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C49" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D49">
         <v>220</v>
@@ -19252,13 +19255,13 @@
         <v>550</v>
       </c>
       <c r="H49" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I49" s="32">
         <v>0.16181818181818181</v>
       </c>
       <c r="K49" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M49">
         <v>-20</v>
@@ -19288,18 +19291,18 @@
         <v>60.2</v>
       </c>
       <c r="AE49" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B50" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C50" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D50">
         <v>270</v>
@@ -19308,13 +19311,13 @@
         <v>675</v>
       </c>
       <c r="H50" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I50" s="32">
         <v>0.13185185185185186</v>
       </c>
       <c r="K50" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M50">
         <v>-20</v>
@@ -19336,18 +19339,18 @@
         <v>74.099999999999994</v>
       </c>
       <c r="AE50" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>382</v>
+      </c>
+      <c r="B51" t="s">
         <v>383</v>
       </c>
-      <c r="B51" t="s">
-        <v>384</v>
-      </c>
       <c r="C51" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F51">
         <v>700</v>
@@ -19356,14 +19359,14 @@
         <v>400</v>
       </c>
       <c r="H51" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I51" s="32"/>
       <c r="J51">
         <v>1</v>
       </c>
       <c r="K51" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="R51" s="34"/>
       <c r="AA51">
@@ -19379,18 +19382,18 @@
         <v>122.2</v>
       </c>
       <c r="AE51" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B52" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C52" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D52">
         <v>60</v>
@@ -19405,7 +19408,7 @@
         <v>400</v>
       </c>
       <c r="H52" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I52" s="32">
         <v>1.9444444444444445E-2</v>
@@ -19414,7 +19417,7 @@
         <v>15</v>
       </c>
       <c r="K52" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L52">
         <v>8650</v>
@@ -19470,7 +19473,7 @@
         <v>118.7</v>
       </c>
       <c r="AE52" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF52">
         <v>5</v>
@@ -19481,13 +19484,13 @@
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B53" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C53" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D53">
         <v>40</v>
@@ -19496,13 +19499,13 @@
         <v>788</v>
       </c>
       <c r="H53" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I53" s="32">
         <v>0.2512690355329949</v>
       </c>
       <c r="K53" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M53">
         <v>-20</v>
@@ -19535,18 +19538,18 @@
         <v>199.5</v>
       </c>
       <c r="AE53" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B54" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C54" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D54">
         <v>320</v>
@@ -19555,13 +19558,13 @@
         <v>800</v>
       </c>
       <c r="H54" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I54" s="32">
         <v>0.11125</v>
       </c>
       <c r="K54" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M54">
         <v>-20</v>
@@ -19583,18 +19586,18 @@
         <v>99.5</v>
       </c>
       <c r="AE54" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B55" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C55" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D55">
         <v>200</v>
@@ -19609,7 +19612,7 @@
         <v>400</v>
       </c>
       <c r="H55" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I55" s="32">
         <v>3.111111111111111E-2</v>
@@ -19618,7 +19621,7 @@
         <v>15</v>
       </c>
       <c r="K55" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L55">
         <v>8650</v>
@@ -19674,7 +19677,7 @@
         <v>148.30000000000001</v>
       </c>
       <c r="AE55" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF55">
         <v>5</v>
@@ -19685,19 +19688,19 @@
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B56" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C56" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F56">
         <v>1000</v>
       </c>
       <c r="H56" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I56" s="32"/>
       <c r="O56">
@@ -19724,13 +19727,13 @@
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>389</v>
+      </c>
+      <c r="B57" t="s">
         <v>390</v>
       </c>
-      <c r="B57" t="s">
-        <v>391</v>
-      </c>
       <c r="C57" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D57">
         <v>300</v>
@@ -19745,7 +19748,7 @@
         <v>10</v>
       </c>
       <c r="H57" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I57" s="32">
         <v>7.0000000000000007E-2</v>
@@ -19754,7 +19757,7 @@
         <v>20</v>
       </c>
       <c r="K57" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L57">
         <v>8568</v>
@@ -19813,7 +19816,7 @@
         <v>186.9</v>
       </c>
       <c r="AE57" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF57">
         <v>5</v>
@@ -19824,13 +19827,13 @@
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B58" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C58" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D58">
         <v>30</v>
@@ -19845,11 +19848,11 @@
         <v>400</v>
       </c>
       <c r="H58" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I58" s="32"/>
       <c r="K58" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M58">
         <v>-15</v>
@@ -19896,7 +19899,7 @@
         <v>207.8</v>
       </c>
       <c r="AE58" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF58">
         <v>5</v>
@@ -19907,13 +19910,13 @@
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B59" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C59" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D59">
         <v>49</v>
@@ -19922,13 +19925,13 @@
         <v>988</v>
       </c>
       <c r="H59" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I59" s="32">
         <v>0.20040485829959515</v>
       </c>
       <c r="K59" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M59">
         <v>-20</v>
@@ -19961,18 +19964,18 @@
         <v>249.5</v>
       </c>
       <c r="AE59" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>393</v>
+      </c>
+      <c r="B60" t="s">
         <v>394</v>
       </c>
-      <c r="B60" t="s">
-        <v>395</v>
-      </c>
       <c r="C60" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F60">
         <v>1000</v>
@@ -19981,7 +19984,7 @@
         <v>400</v>
       </c>
       <c r="H60" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I60" s="32"/>
       <c r="J60">
@@ -20023,13 +20026,13 @@
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B61" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C61" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F61">
         <v>1000</v>
@@ -20079,13 +20082,13 @@
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>396</v>
+      </c>
+      <c r="B62" t="s">
         <v>397</v>
       </c>
-      <c r="B62" t="s">
-        <v>398</v>
-      </c>
       <c r="C62" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D62">
         <v>50</v>
@@ -20100,7 +20103,7 @@
         <v>400</v>
       </c>
       <c r="H62" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I62" s="32">
         <v>4.4999999999999998E-2</v>
@@ -20109,7 +20112,7 @@
         <v>30</v>
       </c>
       <c r="K62" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L62">
         <v>8322</v>
@@ -20145,7 +20148,7 @@
         <v>200</v>
       </c>
       <c r="AE62" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF62">
         <v>5</v>
@@ -20156,13 +20159,13 @@
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B63" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C63" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D63">
         <v>30</v>
@@ -20177,7 +20180,7 @@
         <v>400</v>
       </c>
       <c r="H63" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I63" s="32">
         <v>2.8071833648393194E-2</v>
@@ -20186,7 +20189,7 @@
         <v>3</v>
       </c>
       <c r="K63" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M63">
         <v>5</v>
@@ -20231,18 +20234,18 @@
         <v>208.3</v>
       </c>
       <c r="AE63" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>399</v>
+      </c>
+      <c r="B64" t="s">
         <v>400</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>401</v>
-      </c>
-      <c r="C64" t="s">
-        <v>402</v>
       </c>
       <c r="F64">
         <v>1100</v>
@@ -20251,7 +20254,7 @@
         <v>480</v>
       </c>
       <c r="H64" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I64" s="32">
         <v>4.2237818181818189E-2</v>
@@ -20274,13 +20277,13 @@
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>399</v>
+      </c>
+      <c r="B65" t="s">
         <v>400</v>
       </c>
-      <c r="B65" t="s">
-        <v>401</v>
-      </c>
       <c r="C65" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F65">
         <v>1100</v>
@@ -20289,7 +20292,7 @@
         <v>480</v>
       </c>
       <c r="H65" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I65" s="32">
         <v>4.2237818181818189E-2</v>
@@ -20316,13 +20319,13 @@
     </row>
     <row r="66" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B66" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C66" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D66">
         <v>100</v>
@@ -20337,7 +20340,7 @@
         <v>400</v>
       </c>
       <c r="H66" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I66" s="32">
         <v>2.7272727272727271E-2</v>
@@ -20346,7 +20349,7 @@
         <v>3</v>
       </c>
       <c r="K66" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L66">
         <v>8410</v>
@@ -20394,18 +20397,18 @@
         <v>200</v>
       </c>
       <c r="AE66" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B67" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C67" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D67">
         <v>131</v>
@@ -20420,7 +20423,7 @@
         <v>400</v>
       </c>
       <c r="H67" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I67" s="32">
         <v>4.7619047619047616E-2</v>
@@ -20429,7 +20432,7 @@
         <v>40</v>
       </c>
       <c r="K67" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L67">
         <v>8600</v>
@@ -20451,18 +20454,18 @@
         <v>222.2</v>
       </c>
       <c r="AE67" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B68" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C68" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D68">
         <v>200</v>
@@ -20477,7 +20480,7 @@
         <v>400</v>
       </c>
       <c r="H68" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I68" s="32">
         <v>2.3333333333333334E-2</v>
@@ -20486,7 +20489,7 @@
         <v>15</v>
       </c>
       <c r="K68" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L68">
         <v>8650</v>
@@ -20542,7 +20545,7 @@
         <v>197.8</v>
       </c>
       <c r="AE68" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF68">
         <v>5</v>
@@ -20553,13 +20556,13 @@
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B69" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C69" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F69">
         <v>1390</v>
@@ -20568,11 +20571,11 @@
         <v>11000</v>
       </c>
       <c r="H69" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I69" s="32"/>
       <c r="K69" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="R69" s="34"/>
       <c r="AA69">
@@ -20588,18 +20591,18 @@
         <v>244.4</v>
       </c>
       <c r="AE69" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B70" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C70" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D70">
         <v>200</v>
@@ -20614,7 +20617,7 @@
         <v>568</v>
       </c>
       <c r="H70" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I70" s="32">
         <v>0.02</v>
@@ -20623,7 +20626,7 @@
         <v>30</v>
       </c>
       <c r="K70" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L70">
         <v>8322</v>
@@ -20651,18 +20654,18 @@
         <v>210</v>
       </c>
       <c r="AE70" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="71" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B71" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C71" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D71">
         <v>300</v>
@@ -20677,7 +20680,7 @@
         <v>10</v>
       </c>
       <c r="H71" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I71" s="32">
         <v>7.0000000000000007E-2</v>
@@ -20686,7 +20689,7 @@
         <v>5</v>
       </c>
       <c r="K71" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L71">
         <v>8410</v>
@@ -20745,7 +20748,7 @@
         <v>280.3</v>
       </c>
       <c r="AE71" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF71">
         <v>5</v>
@@ -20756,13 +20759,13 @@
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B72" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C72" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D72">
         <v>79</v>
@@ -20771,13 +20774,13 @@
         <v>1580</v>
       </c>
       <c r="H72" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I72" s="32">
         <v>0.12531645569620253</v>
       </c>
       <c r="K72" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M72">
         <v>-20</v>
@@ -20810,18 +20813,18 @@
         <v>399.1</v>
       </c>
       <c r="AE72" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="73" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B73" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C73" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D73">
         <v>200</v>
@@ -20836,7 +20839,7 @@
         <v>400</v>
       </c>
       <c r="H73" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I73" s="32">
         <v>1.5555555555555555E-2</v>
@@ -20845,7 +20848,7 @@
         <v>15</v>
       </c>
       <c r="K73" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L73">
         <v>8650</v>
@@ -20901,7 +20904,7 @@
         <v>296.7</v>
       </c>
       <c r="AE73" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF73">
         <v>5</v>
@@ -20912,13 +20915,13 @@
     </row>
     <row r="74" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B74" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C74" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D74">
         <v>99</v>
@@ -20927,13 +20930,13 @@
         <v>1975</v>
       </c>
       <c r="H74" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I74" s="32">
         <v>0.10025316455696202</v>
       </c>
       <c r="K74" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M74">
         <v>-20</v>
@@ -20966,18 +20969,18 @@
         <v>500</v>
       </c>
       <c r="AE74" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="75" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>412</v>
+      </c>
+      <c r="B75" t="s">
         <v>413</v>
       </c>
-      <c r="B75" t="s">
-        <v>414</v>
-      </c>
       <c r="C75" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D75">
         <v>200</v>
@@ -20992,7 +20995,7 @@
         <v>400</v>
       </c>
       <c r="H75" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I75" s="32">
         <v>0.15</v>
@@ -21001,7 +21004,7 @@
         <v>1</v>
       </c>
       <c r="K75" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L75">
         <v>8600</v>
@@ -21040,24 +21043,24 @@
         <v>400</v>
       </c>
       <c r="AE75" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="76" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B76" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C76" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F76">
         <v>2000</v>
       </c>
       <c r="H76" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I76" s="32"/>
       <c r="O76">
@@ -21084,13 +21087,13 @@
     </row>
     <row r="77" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B77" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C77" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D77">
         <v>300</v>
@@ -21105,7 +21108,7 @@
         <v>10</v>
       </c>
       <c r="H77" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I77" s="32">
         <v>5.2499999999999998E-2</v>
@@ -21114,7 +21117,7 @@
         <v>20</v>
       </c>
       <c r="K77" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L77">
         <v>8568</v>
@@ -21173,7 +21176,7 @@
         <v>373.8</v>
       </c>
       <c r="AE77" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF77">
         <v>5</v>
@@ -21184,13 +21187,13 @@
     </row>
     <row r="78" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B78" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C78" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F78">
         <v>2350</v>
@@ -21199,11 +21202,11 @@
         <v>11000</v>
       </c>
       <c r="H78" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I78" s="32"/>
       <c r="K78" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="R78" s="34"/>
       <c r="AA78">
@@ -21219,18 +21222,18 @@
         <v>400</v>
       </c>
       <c r="AE78" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="79" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B79" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C79" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D79">
         <v>200</v>
@@ -21245,7 +21248,7 @@
         <v>400</v>
       </c>
       <c r="H79" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I79" s="32">
         <v>1.1666666666666667E-2</v>
@@ -21254,7 +21257,7 @@
         <v>15</v>
       </c>
       <c r="K79" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L79">
         <v>8650</v>
@@ -21310,7 +21313,7 @@
         <v>395.6</v>
       </c>
       <c r="AE79" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF79">
         <v>5</v>
@@ -21321,13 +21324,13 @@
     </row>
     <row r="80" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>418</v>
+      </c>
+      <c r="B80" t="s">
         <v>419</v>
       </c>
-      <c r="B80" t="s">
-        <v>420</v>
-      </c>
       <c r="C80" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D80">
         <v>135</v>
@@ -21336,7 +21339,7 @@
         <v>2475</v>
       </c>
       <c r="H80" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I80" s="32">
         <v>0.12121212121212122</v>
@@ -21374,13 +21377,13 @@
     </row>
     <row r="81" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B81" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C81" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D81">
         <v>125</v>
@@ -21395,7 +21398,7 @@
         <v>400</v>
       </c>
       <c r="H81" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I81" s="32">
         <v>2.4E-2</v>
@@ -21404,7 +21407,7 @@
         <v>30</v>
       </c>
       <c r="K81" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L81">
         <v>8322</v>
@@ -21432,7 +21435,7 @@
         <v>500</v>
       </c>
       <c r="AE81" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF81">
         <v>5</v>
@@ -21443,13 +21446,13 @@
     </row>
     <row r="82" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B82" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C82" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D82">
         <v>300</v>
@@ -21464,7 +21467,7 @@
         <v>10</v>
       </c>
       <c r="H82" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I82" s="32">
         <v>3.5000000000000003E-2</v>
@@ -21473,7 +21476,7 @@
         <v>5</v>
       </c>
       <c r="K82" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L82">
         <v>8568</v>
@@ -21532,7 +21535,7 @@
         <v>560.70000000000005</v>
       </c>
       <c r="AE82" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF82">
         <v>5</v>
@@ -21543,13 +21546,13 @@
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B83" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C83" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D83">
         <v>300</v>
@@ -21564,7 +21567,7 @@
         <v>400</v>
       </c>
       <c r="H83" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I83" s="32">
         <v>0.1</v>
@@ -21573,7 +21576,7 @@
         <v>1</v>
       </c>
       <c r="K83" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L83">
         <v>8600</v>
@@ -21612,18 +21615,18 @@
         <v>600</v>
       </c>
       <c r="AE83" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B84" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C84" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D84">
         <v>400</v>
@@ -21638,7 +21641,7 @@
         <v>400</v>
       </c>
       <c r="H84" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I84" s="32">
         <v>0.1</v>
@@ -21647,7 +21650,7 @@
         <v>1</v>
       </c>
       <c r="K84" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L84">
         <v>8600</v>
@@ -21686,24 +21689,24 @@
         <v>800</v>
       </c>
       <c r="AE84" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B85" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C85" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F85">
         <v>4000</v>
       </c>
       <c r="H85" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I85" s="32"/>
       <c r="O85">
@@ -21730,13 +21733,13 @@
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B86" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C86" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D86">
         <v>500</v>
@@ -21751,7 +21754,7 @@
         <v>400</v>
       </c>
       <c r="H86" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I86" s="32">
         <v>0.08</v>
@@ -21760,7 +21763,7 @@
         <v>1</v>
       </c>
       <c r="K86" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L86">
         <v>8600</v>
@@ -21799,18 +21802,18 @@
         <v>1000</v>
       </c>
       <c r="AE86" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B87" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C87" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D87">
         <v>250</v>
@@ -21825,7 +21828,7 @@
         <v>400</v>
       </c>
       <c r="H87" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I87" s="32">
         <v>1.7999999999999999E-2</v>
@@ -21834,7 +21837,7 @@
         <v>30</v>
       </c>
       <c r="K87" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L87">
         <v>8322</v>
@@ -21870,7 +21873,7 @@
         <v>1</v>
       </c>
       <c r="AE87" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF87">
         <v>5</v>
@@ -21881,19 +21884,19 @@
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B88" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C88" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F88">
         <v>5000</v>
       </c>
       <c r="H88" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I88" s="32">
         <v>2.4E-2</v>
@@ -21923,13 +21926,13 @@
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B89" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C89" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D89">
         <v>215</v>
@@ -21941,11 +21944,11 @@
         <v>5375</v>
       </c>
       <c r="H89" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I89" s="32"/>
       <c r="K89" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M89">
         <v>5</v>
@@ -21978,18 +21981,18 @@
         <v>1000</v>
       </c>
       <c r="AE89" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>429</v>
+      </c>
+      <c r="B90" t="s">
         <v>430</v>
       </c>
-      <c r="B90" t="s">
-        <v>431</v>
-      </c>
       <c r="C90" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F90">
         <v>10000</v>
@@ -21998,7 +22001,7 @@
         <v>800</v>
       </c>
       <c r="H90" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I90" s="32">
         <v>0</v>
@@ -22034,13 +22037,13 @@
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B91" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C91" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F91">
         <v>10000</v>
@@ -22049,7 +22052,7 @@
         <v>800</v>
       </c>
       <c r="H91" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I91" s="32">
         <v>0</v>
@@ -22077,13 +22080,13 @@
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B92" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C92" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D92">
         <v>500</v>
@@ -22098,7 +22101,7 @@
         <v>400</v>
       </c>
       <c r="H92" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I92" s="32">
         <v>1.7999999999999999E-2</v>
@@ -22107,7 +22110,7 @@
         <v>30</v>
       </c>
       <c r="K92" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L92">
         <v>8322</v>
@@ -22143,7 +22146,7 @@
         <v>2</v>
       </c>
       <c r="AE92" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF92">
         <v>5</v>
@@ -22154,13 +22157,13 @@
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B93" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C93" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F93">
         <v>10070</v>
@@ -22169,11 +22172,11 @@
         <v>11000</v>
       </c>
       <c r="H93" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I93" s="32"/>
       <c r="K93" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="R93" s="34"/>
       <c r="AA93">
@@ -22189,18 +22192,18 @@
         <v>1875</v>
       </c>
       <c r="AE93" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>434</v>
+      </c>
+      <c r="B94" t="s">
         <v>435</v>
       </c>
-      <c r="B94" t="s">
-        <v>436</v>
-      </c>
       <c r="C94" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D94">
         <v>4192</v>
@@ -22209,7 +22212,7 @@
         <v>10481</v>
       </c>
       <c r="H94" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I94" s="32">
         <v>4.2934834462360461E-2</v>
@@ -22253,13 +22256,13 @@
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B95" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C95" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D95">
         <v>750</v>
@@ -22274,7 +22277,7 @@
         <v>400</v>
       </c>
       <c r="H95" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I95" s="32">
         <v>1.7999999999999999E-2</v>
@@ -22283,7 +22286,7 @@
         <v>30</v>
       </c>
       <c r="K95" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L95">
         <v>8322</v>
@@ -22319,7 +22322,7 @@
         <v>3</v>
       </c>
       <c r="AE95" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF95">
         <v>5</v>
@@ -22330,13 +22333,13 @@
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>437</v>
+      </c>
+      <c r="B96" t="s">
         <v>438</v>
       </c>
-      <c r="B96" t="s">
-        <v>439</v>
-      </c>
       <c r="C96" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D96">
         <v>1800</v>
@@ -22345,7 +22348,7 @@
         <v>18000</v>
       </c>
       <c r="H96" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I96" s="32">
         <v>0</v>
@@ -22378,18 +22381,18 @@
         <v>4000</v>
       </c>
       <c r="AE96" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="97" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B97" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C97" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D97">
         <v>1000</v>
@@ -22404,7 +22407,7 @@
         <v>400</v>
       </c>
       <c r="H97" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I97" s="32">
         <v>1.7999999999999999E-2</v>
@@ -22413,7 +22416,7 @@
         <v>30</v>
       </c>
       <c r="K97" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L97">
         <v>8322</v>
@@ -22449,7 +22452,7 @@
         <v>4</v>
       </c>
       <c r="AE97" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF97">
         <v>5</v>
@@ -22460,26 +22463,26 @@
     </row>
     <row r="98" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B98" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C98" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G98">
         <v>400</v>
       </c>
       <c r="H98" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I98" s="32"/>
       <c r="J98">
         <v>30</v>
       </c>
       <c r="K98" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L98">
         <v>8322</v>
@@ -22501,7 +22504,7 @@
         <v>3.5</v>
       </c>
       <c r="AE98" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF98">
         <v>5</v>
@@ -22512,13 +22515,13 @@
     </row>
     <row r="99" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B99" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C99" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G99">
         <v>64</v>
@@ -22543,13 +22546,13 @@
     </row>
     <row r="100" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B100" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C100" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G100">
         <v>260</v>
@@ -22574,13 +22577,13 @@
     </row>
     <row r="101" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B101" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C101" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G101">
         <v>54</v>
@@ -22605,13 +22608,13 @@
     </row>
     <row r="102" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B102" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C102" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G102">
         <v>163</v>
@@ -22636,13 +22639,13 @@
     </row>
     <row r="103" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>445</v>
+      </c>
+      <c r="B103" t="s">
         <v>446</v>
       </c>
-      <c r="B103" t="s">
-        <v>447</v>
-      </c>
       <c r="C103" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I103" s="32"/>
       <c r="J103">
@@ -22661,13 +22664,13 @@
     </row>
     <row r="104" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B104" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C104" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I104" s="32"/>
       <c r="J104">

--- a/premise/data/additional_inventories/lci-hydrogen-electrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-electrolysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10719"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781D0AD2-CEEE-9E47-8A18-C999A98DF494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C057B415-CA44-4F49-BBA4-92AFC7BA9ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="1900" windowWidth="29820" windowHeight="24740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="420" yWindow="760" windowWidth="29820" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lci" sheetId="1" r:id="rId1"/>
@@ -2042,7 +2042,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -2126,10 +2126,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2143,21 +2155,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2446,8 +2443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T493"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A451" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A473" sqref="A473:XFD492"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2529,11 +2526,11 @@
       <c r="O5" s="13"/>
       <c r="P5" s="13"/>
     </row>
-    <row r="6" spans="1:20" s="12" customFormat="1" ht="306" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="15" t="s">
         <v>490</v>
       </c>
       <c r="K6" s="13"/>
@@ -15644,10 +15641,10 @@
       <c r="C4" s="39" t="s">
         <v>485</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="55" t="s">
         <v>450</v>
       </c>
-      <c r="E4" s="52"/>
+      <c r="E4" s="56"/>
       <c r="F4" s="40" t="s">
         <v>451</v>
       </c>
@@ -15662,10 +15659,10 @@
       <c r="C5" s="39">
         <v>5.5</v>
       </c>
-      <c r="D5" s="53">
+      <c r="D5" s="57">
         <v>2.5</v>
       </c>
-      <c r="E5" s="54"/>
+      <c r="E5" s="58"/>
       <c r="F5" s="39" t="s">
         <v>452</v>
       </c>
@@ -15677,9 +15674,9 @@
       <c r="B6" s="48" t="s">
         <v>454</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="50"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="49"/>
       <c r="F6" s="41" t="s">
         <v>455</v>
       </c>
@@ -15694,10 +15691,10 @@
       <c r="C7" s="39">
         <v>20</v>
       </c>
-      <c r="D7" s="53">
+      <c r="D7" s="57">
         <v>20</v>
       </c>
-      <c r="E7" s="54"/>
+      <c r="E7" s="58"/>
       <c r="F7" s="39" t="s">
         <v>451</v>
       </c>
@@ -15712,10 +15709,10 @@
       <c r="C8" s="39">
         <v>3</v>
       </c>
-      <c r="D8" s="53">
+      <c r="D8" s="57">
         <v>7</v>
       </c>
-      <c r="E8" s="54"/>
+      <c r="E8" s="58"/>
       <c r="F8" s="39" t="s">
         <v>458</v>
       </c>
@@ -15727,9 +15724,9 @@
       <c r="B9" s="48" t="s">
         <v>486</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="50"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="49"/>
       <c r="F9" s="41" t="s">
         <v>460</v>
       </c>
@@ -15801,7 +15798,7 @@
       <c r="D13" s="48">
         <v>23.6</v>
       </c>
-      <c r="E13" s="50"/>
+      <c r="E13" s="49"/>
       <c r="F13" s="39" t="s">
         <v>463</v>
       </c>
@@ -15814,8 +15811,8 @@
         <v>3.7000000000000002E-3</v>
       </c>
       <c r="C14" s="46"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="51"/>
       <c r="F14" s="41" t="s">
         <v>468</v>
       </c>
@@ -15833,7 +15830,7 @@
       <c r="D15" s="48" t="s">
         <v>472</v>
       </c>
-      <c r="E15" s="50"/>
+      <c r="E15" s="49"/>
       <c r="F15" s="39" t="s">
         <v>465</v>
       </c>
@@ -15851,7 +15848,7 @@
       <c r="D16" s="48" t="s">
         <v>476</v>
       </c>
-      <c r="E16" s="50"/>
+      <c r="E16" s="49"/>
       <c r="F16" s="39" t="s">
         <v>451</v>
       </c>
@@ -15866,27 +15863,27 @@
       <c r="C17" s="40" t="s">
         <v>479</v>
       </c>
-      <c r="D17" s="57" t="s">
+      <c r="D17" s="52" t="s">
         <v>480</v>
       </c>
-      <c r="E17" s="58"/>
+      <c r="E17" s="53"/>
       <c r="F17" s="41" t="s">
         <v>481</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/premise/data/additional_inventories/lci-hydrogen-electrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-electrolysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64623FF-8FA5-0648-A9A5-A4F1C9AB962B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6D8061-0271-3143-8B1A-1C84387EBD22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="4620" windowWidth="39980" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lci" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2723" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2725" uniqueCount="503">
   <si>
     <t>Database</t>
   </si>
@@ -1732,6 +1732,9 @@
   </si>
   <si>
     <t>BoP, 27.5 years lifetime. Min-max: 22.5-32.5 years system lifetime, from the IndWEDe report.</t>
+  </si>
+  <si>
+    <t>Stack, 2.5 years lifetime, replaced 7 times over 20 years. Min-max: 15-25 years.</t>
   </si>
 </sst>
 </file>
@@ -2122,7 +2125,7 @@
     <cellStyle name="Normal 11 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="5" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2402,8 +2405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U455"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B282" sqref="B282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11047,7 +11050,7 @@
       <c r="O304" s="13"/>
       <c r="P304" s="13"/>
     </row>
-    <row r="305" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A305" s="14" t="s">
         <v>11</v>
       </c>
@@ -11061,7 +11064,7 @@
       <c r="O305" s="13"/>
       <c r="P305" s="13"/>
     </row>
-    <row r="306" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A306" s="14" t="s">
         <v>4</v>
       </c>
@@ -11075,7 +11078,7 @@
       <c r="O306" s="13"/>
       <c r="P306" s="13"/>
     </row>
-    <row r="307" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A307" s="14" t="s">
         <v>2</v>
       </c>
@@ -11089,7 +11092,7 @@
       <c r="O307" s="13"/>
       <c r="P307" s="13"/>
     </row>
-    <row r="308" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A308" s="14" t="s">
         <v>6</v>
       </c>
@@ -11106,7 +11109,7 @@
       <c r="O308" s="13"/>
       <c r="P308" s="13"/>
     </row>
-    <row r="309" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A309" s="18" t="s">
         <v>7</v>
       </c>
@@ -11126,7 +11129,7 @@
       <c r="O309" s="13"/>
       <c r="P309" s="13"/>
     </row>
-    <row r="310" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A310" s="18" t="s">
         <v>8</v>
       </c>
@@ -11182,11 +11185,16 @@
         <v>489</v>
       </c>
       <c r="S310" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="T310" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="U310" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="T310" s="8"/>
-    </row>
-    <row r="311" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="311" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A311" s="17" t="s">
         <v>459</v>
       </c>
@@ -11218,7 +11226,7 @@
       <c r="P311" s="13"/>
       <c r="T311"/>
     </row>
-    <row r="312" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A312" s="17" t="s">
         <v>155</v>
       </c>
@@ -11239,9 +11247,15 @@
         <v>152</v>
       </c>
       <c r="H312" s="12" t="s">
-        <v>457</v>
-      </c>
-      <c r="J312"/>
+        <v>502</v>
+      </c>
+      <c r="I312" s="12">
+        <v>5</v>
+      </c>
+      <c r="J312">
+        <f>B312</f>
+        <v>2.1186440677966101E-6</v>
+      </c>
       <c r="K312" s="20"/>
       <c r="L312" s="20"/>
       <c r="M312" s="20"/>
@@ -11250,8 +11264,16 @@
       <c r="P312" s="20"/>
       <c r="Q312"/>
       <c r="R312"/>
-    </row>
-    <row r="313" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="S312" s="12">
+        <f>(1/(25*8000*23.6))*8</f>
+        <v>1.6949152542372882E-6</v>
+      </c>
+      <c r="T312" s="12">
+        <f>(1/(15*8000*23.6))*8</f>
+        <v>2.8248587570621469E-6</v>
+      </c>
+    </row>
+    <row r="313" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A313" s="17" t="s">
         <v>181</v>
       </c>
@@ -11274,7 +11296,13 @@
       <c r="H313" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="J313"/>
+      <c r="I313" s="12">
+        <v>5</v>
+      </c>
+      <c r="J313">
+        <f>B313</f>
+        <v>2.6483050847457627E-7</v>
+      </c>
       <c r="K313" s="20"/>
       <c r="L313" s="20"/>
       <c r="M313" s="20"/>
@@ -11283,8 +11311,16 @@
       <c r="P313" s="20"/>
       <c r="Q313"/>
       <c r="R313"/>
-    </row>
-    <row r="314" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="S313" s="12">
+        <f>(1/(25*8000*23.6))</f>
+        <v>2.1186440677966102E-7</v>
+      </c>
+      <c r="T313" s="12">
+        <f>(1/(15*8000*23.6))</f>
+        <v>3.5310734463276836E-7</v>
+      </c>
+    </row>
+    <row r="314" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A314" s="17" t="s">
         <v>238</v>
       </c>
@@ -11307,7 +11343,13 @@
       <c r="H314" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="J314"/>
+      <c r="I314" s="12">
+        <v>5</v>
+      </c>
+      <c r="J314">
+        <f>B314</f>
+        <v>-2.1186440677966101E-6</v>
+      </c>
       <c r="K314" s="20"/>
       <c r="L314" s="20"/>
       <c r="M314" s="20"/>
@@ -11316,8 +11358,19 @@
       <c r="P314" s="20"/>
       <c r="Q314"/>
       <c r="R314"/>
-    </row>
-    <row r="315" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="S314" s="12">
+        <f>-1*T312</f>
+        <v>-2.8248587570621469E-6</v>
+      </c>
+      <c r="T314" s="12">
+        <f>-1*S312</f>
+        <v>-1.6949152542372882E-6</v>
+      </c>
+      <c r="U314" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A315" s="17" t="s">
         <v>240</v>
       </c>
@@ -11340,7 +11393,13 @@
       <c r="H315" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="J315"/>
+      <c r="I315" s="12">
+        <v>5</v>
+      </c>
+      <c r="J315">
+        <f>B315</f>
+        <v>-2.6483050847457627E-7</v>
+      </c>
       <c r="K315" s="20"/>
       <c r="L315" s="20"/>
       <c r="M315" s="20"/>
@@ -11349,8 +11408,19 @@
       <c r="P315" s="20"/>
       <c r="Q315"/>
       <c r="R315"/>
-    </row>
-    <row r="316" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="S315" s="12">
+        <f>-1*T313</f>
+        <v>-3.5310734463276836E-7</v>
+      </c>
+      <c r="T315" s="12">
+        <f>-1*S313</f>
+        <v>-2.1186440677966102E-7</v>
+      </c>
+      <c r="U315" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A316" s="14" t="s">
         <v>52</v>
       </c>
@@ -11383,7 +11453,7 @@
       <c r="Q316"/>
       <c r="R316"/>
     </row>
-    <row r="317" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A317" s="14" t="s">
         <v>53</v>
       </c>
@@ -11416,7 +11486,7 @@
       <c r="Q317"/>
       <c r="R317"/>
     </row>
-    <row r="318" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A318" s="14" t="s">
         <v>37</v>
       </c>
@@ -11448,7 +11518,7 @@
       <c r="Q318"/>
       <c r="R318"/>
     </row>
-    <row r="319" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A319" s="22" t="s">
         <v>40</v>
       </c>
@@ -11477,7 +11547,7 @@
       <c r="Q319" s="20"/>
       <c r="R319"/>
     </row>
-    <row r="320" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A320" s="48" t="s">
         <v>470</v>
       </c>
@@ -15332,10 +15402,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D607540C-5A98-C943-82C9-9BA357D77C9A}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D8" sqref="D8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15609,16 +15679,6 @@
       <c r="E17" s="60"/>
       <c r="F17" s="41" t="s">
         <v>440</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B19">
-        <f>22.5*8000*19.36</f>
-        <v>3484800</v>
-      </c>
-      <c r="C19">
-        <f>15*8000*18.52</f>
-        <v>2222400</v>
       </c>
     </row>
   </sheetData>

--- a/premise/data/additional_inventories/lci-hydrogen-electrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-electrolysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59970F14-2BBE-0740-BC0B-D60B082D8300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CA656E-EFDF-6141-93DB-BFC437B3931A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="3300" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lci" sheetId="1" r:id="rId1"/>
@@ -661,9 +661,6 @@
     <t>foundation</t>
   </si>
   <si>
-    <t>treatment of fuel cell stack, 1MWe, PEM</t>
-  </si>
-  <si>
     <t>market for scrap steel</t>
   </si>
   <si>
@@ -697,18 +694,9 @@
     <t>waste rubber, unspecified</t>
   </si>
   <si>
-    <t>used fuel cell stack, 1MWe, PEM</t>
-  </si>
-  <si>
     <t>Stack EoL</t>
   </si>
   <si>
-    <t>treatment of fuel cell balance of plant, 1MWe, PEM</t>
-  </si>
-  <si>
-    <t>used fuel cell balance of plant, 1MWe, PEM</t>
-  </si>
-  <si>
     <t>waste reinforcement steel</t>
   </si>
   <si>
@@ -739,34 +727,10 @@
     <t>BoP EoL</t>
   </si>
   <si>
-    <t>treatment of fuel cell stack, 1MWe, AEC</t>
-  </si>
-  <si>
-    <t>used fuel cell stack, 1MWe, AEC</t>
-  </si>
-  <si>
-    <t>treatment of fuel cell balance of plant, 1MWe, AEC</t>
-  </si>
-  <si>
-    <t>used fuel cell balance of plant, 1MWe, AEC</t>
-  </si>
-  <si>
     <t>market for waste plastic, industrial electronics</t>
   </si>
   <si>
     <t>waste plastic, industrial electronics</t>
-  </si>
-  <si>
-    <t>treatment of fuel cell stack, 1MWe, SOEC</t>
-  </si>
-  <si>
-    <t>used fuel cell stack, 1MWe, SOEC</t>
-  </si>
-  <si>
-    <t>treatment of fuel cell balance of plant, 1MWe, SOEC</t>
-  </si>
-  <si>
-    <t>used fuel cell balance of plant, 1MWe, SOEC</t>
   </si>
   <si>
     <t>Manufacturer</t>
@@ -1783,6 +1747,42 @@
   </si>
   <si>
     <t>electricity production, solar tower power plant, 20 MW</t>
+  </si>
+  <si>
+    <t>treatment of electrolyzer stack, 1MWe, PEM</t>
+  </si>
+  <si>
+    <t>used electrolyzer stack, 1MWe, PEM</t>
+  </si>
+  <si>
+    <t>treatment of electrolyzer balance of plant, 1MWe, PEM</t>
+  </si>
+  <si>
+    <t>used electrolyzer balance of plant, 1MWe, PEM</t>
+  </si>
+  <si>
+    <t>treatment of electrolyzer stack, 1MWe, AEC</t>
+  </si>
+  <si>
+    <t>used electrolyzer stack, 1MWe, AEC</t>
+  </si>
+  <si>
+    <t>treatment of electrolyzer balance of plant, 1MWe, AEC</t>
+  </si>
+  <si>
+    <t>used electrolyzer balance of plant, 1MWe, AEC</t>
+  </si>
+  <si>
+    <t>treatment of electrolyzer stack, 1MWe, SOEC</t>
+  </si>
+  <si>
+    <t>used electrolyzer stack, 1MWe, SOEC</t>
+  </si>
+  <si>
+    <t>treatment of electrolyzer balance of plant, 1MWe, SOEC</t>
+  </si>
+  <si>
+    <t>used electrolyzer balance of plant, 1MWe, SOEC</t>
   </si>
 </sst>
 </file>
@@ -2136,22 +2136,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2165,6 +2153,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2453,8 +2453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U555"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD11"/>
+    <sheetView tabSelected="1" topLeftCell="A513" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D524" sqref="D524"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2505,7 +2505,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="C3" s="11"/>
       <c r="K3" s="13"/>
@@ -2534,7 +2534,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
@@ -2634,40 +2634,40 @@
         <v>11</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="M10" s="19" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="N10" s="19" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="O10" s="19" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="P10" s="19" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="R10" s="8" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="S10" s="18" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="T10" s="8" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="U10" s="18" t="s">
         <v>48</v>
@@ -2675,7 +2675,7 @@
     </row>
     <row r="11" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="B11" s="17">
         <v>1</v>
@@ -2729,7 +2729,7 @@
         <v>49</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="I12" s="12">
         <v>5</v>
@@ -2777,7 +2777,7 @@
         <v>50</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="I13" s="12">
         <v>5</v>
@@ -2805,7 +2805,7 @@
     </row>
     <row r="14" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>206</v>
+        <v>507</v>
       </c>
       <c r="B14" s="12">
         <f>B12*-1</f>
@@ -2821,10 +2821,10 @@
         <v>12</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>218</v>
+        <v>508</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I14" s="12">
         <v>5</v>
@@ -2855,7 +2855,7 @@
     </row>
     <row r="15" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
-        <v>220</v>
+        <v>509</v>
       </c>
       <c r="B15" s="12">
         <f>-1*B13</f>
@@ -2871,10 +2871,10 @@
         <v>12</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>221</v>
+        <v>510</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I15" s="12">
         <v>5</v>
@@ -2924,7 +2924,7 @@
         <v>36</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="I16" s="12">
         <v>5</v>
@@ -3017,7 +3017,7 @@
     </row>
     <row r="19" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="48" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="B19" s="49">
         <f>(0.09*1000)/(2963200/20)</f>
@@ -3025,16 +3025,16 @@
       </c>
       <c r="C19" s="48"/>
       <c r="D19" s="48" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="E19" s="48" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="F19" s="48" t="s">
         <v>14</v>
       </c>
       <c r="H19" s="48" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="I19" s="12">
         <v>2</v>
@@ -3081,7 +3081,7 @@
     </row>
     <row r="20" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="48" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="B20" s="49">
         <f>(0.09*1000)/2963200</f>
@@ -3089,16 +3089,16 @@
       </c>
       <c r="C20" s="48"/>
       <c r="D20" s="48" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="E20" s="48" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="F20" s="48" t="s">
         <v>14</v>
       </c>
       <c r="H20" s="48" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="I20" s="12">
         <v>2</v>
@@ -3135,7 +3135,7 @@
     </row>
     <row r="21" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="48" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="B21" s="49">
         <f>(0.09*1000)/2963200</f>
@@ -3143,16 +3143,16 @@
       </c>
       <c r="C21" s="48"/>
       <c r="D21" s="48" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="E21" s="48" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="F21" s="48" t="s">
         <v>14</v>
       </c>
       <c r="H21" s="48" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="I21" s="12">
         <v>2</v>
@@ -3200,7 +3200,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="C23" s="11"/>
       <c r="K23" s="13"/>
@@ -3229,7 +3229,7 @@
         <v>11</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="K25" s="13"/>
       <c r="L25" s="13"/>
@@ -3329,40 +3329,40 @@
         <v>11</v>
       </c>
       <c r="I30" s="18" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="K30" s="19" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="L30" s="19" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="M30" s="19" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="N30" s="19" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="O30" s="19" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="P30" s="19" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="Q30" s="8" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="R30" s="8" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="S30" s="18" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="T30" s="8" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="U30" s="18" t="s">
         <v>48</v>
@@ -3424,7 +3424,7 @@
         <v>49</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="I32" s="12">
         <v>5</v>
@@ -3471,7 +3471,7 @@
         <v>50</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="I33" s="12">
         <v>5</v>
@@ -3499,7 +3499,7 @@
     </row>
     <row r="34" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
-        <v>206</v>
+        <v>507</v>
       </c>
       <c r="B34" s="12">
         <f>B32*-1</f>
@@ -3515,10 +3515,10 @@
         <v>12</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>218</v>
+        <v>508</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I34" s="12">
         <v>5</v>
@@ -3549,7 +3549,7 @@
     </row>
     <row r="35" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
-        <v>220</v>
+        <v>509</v>
       </c>
       <c r="B35" s="12">
         <f>-1*B33</f>
@@ -3565,10 +3565,10 @@
         <v>12</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>221</v>
+        <v>510</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I35" s="12">
         <v>5</v>
@@ -3599,13 +3599,13 @@
     </row>
     <row r="36" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="B36" s="17">
         <v>54</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>35</v>
@@ -3618,7 +3618,7 @@
         <v>36</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="I36" s="12">
         <v>5</v>
@@ -3711,7 +3711,7 @@
     </row>
     <row r="39" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="48" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="B39" s="49">
         <f>(0.09*1000)/(2963200/20)</f>
@@ -3719,16 +3719,16 @@
       </c>
       <c r="C39" s="48"/>
       <c r="D39" s="48" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="E39" s="48" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="F39" s="48" t="s">
         <v>14</v>
       </c>
       <c r="H39" s="48" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="I39" s="12">
         <v>2</v>
@@ -3775,7 +3775,7 @@
     </row>
     <row r="40" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="48" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="B40" s="49">
         <f>(0.09*1000)/2963200</f>
@@ -3783,16 +3783,16 @@
       </c>
       <c r="C40" s="48"/>
       <c r="D40" s="48" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="E40" s="48" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="F40" s="48" t="s">
         <v>14</v>
       </c>
       <c r="H40" s="48" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="I40" s="12">
         <v>2</v>
@@ -3829,7 +3829,7 @@
     </row>
     <row r="41" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="48" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="B41" s="49">
         <f>(0.09*1000)/2963200</f>
@@ -3837,16 +3837,16 @@
       </c>
       <c r="C41" s="48"/>
       <c r="D41" s="48" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="E41" s="48" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="F41" s="48" t="s">
         <v>14</v>
       </c>
       <c r="H41" s="48" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="I41" s="12">
         <v>2</v>
@@ -3894,7 +3894,7 @@
         <v>1</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="C43" s="11"/>
       <c r="K43" s="13"/>
@@ -3923,7 +3923,7 @@
         <v>11</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="K45" s="13"/>
       <c r="L45" s="13"/>
@@ -4023,40 +4023,40 @@
         <v>11</v>
       </c>
       <c r="I50" s="18" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="J50" s="8" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="K50" s="19" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="L50" s="19" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="M50" s="19" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="N50" s="19" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="O50" s="19" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="P50" s="19" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="Q50" s="8" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="R50" s="8" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="S50" s="18" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="T50" s="8" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="U50" s="18" t="s">
         <v>48</v>
@@ -4118,7 +4118,7 @@
         <v>49</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="I52" s="12">
         <v>5</v>
@@ -4165,7 +4165,7 @@
         <v>50</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="I53" s="12">
         <v>5</v>
@@ -4193,7 +4193,7 @@
     </row>
     <row r="54" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="17" t="s">
-        <v>206</v>
+        <v>507</v>
       </c>
       <c r="B54" s="12">
         <f>B52*-1</f>
@@ -4209,10 +4209,10 @@
         <v>12</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>218</v>
+        <v>508</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I54" s="12">
         <v>5</v>
@@ -4243,7 +4243,7 @@
     </row>
     <row r="55" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="17" t="s">
-        <v>220</v>
+        <v>509</v>
       </c>
       <c r="B55" s="12">
         <f>-1*B53</f>
@@ -4259,10 +4259,10 @@
         <v>12</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>221</v>
+        <v>510</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I55" s="12">
         <v>5</v>
@@ -4293,13 +4293,13 @@
     </row>
     <row r="56" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="14" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="B56" s="17">
         <v>54</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="D56" s="12" t="s">
         <v>35</v>
@@ -4309,10 +4309,10 @@
         <v>12</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="I56" s="12">
         <v>5</v>
@@ -4405,7 +4405,7 @@
     </row>
     <row r="59" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="48" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="B59" s="49">
         <f>(0.09*1000)/(2963200/20)</f>
@@ -4413,16 +4413,16 @@
       </c>
       <c r="C59" s="48"/>
       <c r="D59" s="48" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="E59" s="48" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="F59" s="48" t="s">
         <v>14</v>
       </c>
       <c r="H59" s="48" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="I59" s="12">
         <v>2</v>
@@ -4469,7 +4469,7 @@
     </row>
     <row r="60" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="48" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="B60" s="49">
         <f>(0.09*1000)/2963200</f>
@@ -4477,16 +4477,16 @@
       </c>
       <c r="C60" s="48"/>
       <c r="D60" s="48" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="E60" s="48" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="F60" s="48" t="s">
         <v>14</v>
       </c>
       <c r="H60" s="48" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="I60" s="12">
         <v>2</v>
@@ -4523,7 +4523,7 @@
     </row>
     <row r="61" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="48" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="B61" s="49">
         <f>(0.09*1000)/2963200</f>
@@ -4531,16 +4531,16 @@
       </c>
       <c r="C61" s="48"/>
       <c r="D61" s="48" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="E61" s="48" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="F61" s="48" t="s">
         <v>14</v>
       </c>
       <c r="H61" s="48" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="I61" s="12">
         <v>2</v>
@@ -4588,7 +4588,7 @@
         <v>1</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="C63" s="11"/>
       <c r="K63" s="13"/>
@@ -4617,7 +4617,7 @@
         <v>11</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="K65" s="13"/>
       <c r="L65" s="13"/>
@@ -4717,40 +4717,40 @@
         <v>11</v>
       </c>
       <c r="I70" s="18" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="J70" s="8" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="K70" s="19" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="L70" s="19" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="M70" s="19" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="N70" s="19" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="O70" s="19" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="P70" s="19" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="Q70" s="8" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="R70" s="8" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="S70" s="18" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="T70" s="8" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="U70" s="18" t="s">
         <v>48</v>
@@ -4812,7 +4812,7 @@
         <v>49</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="I72" s="12">
         <v>5</v>
@@ -4859,7 +4859,7 @@
         <v>50</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="I73" s="12">
         <v>5</v>
@@ -4887,7 +4887,7 @@
     </row>
     <row r="74" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="17" t="s">
-        <v>206</v>
+        <v>507</v>
       </c>
       <c r="B74" s="12">
         <f>B72*-1</f>
@@ -4903,10 +4903,10 @@
         <v>12</v>
       </c>
       <c r="G74" s="12" t="s">
-        <v>218</v>
+        <v>508</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I74" s="12">
         <v>5</v>
@@ -4937,7 +4937,7 @@
     </row>
     <row r="75" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="17" t="s">
-        <v>220</v>
+        <v>509</v>
       </c>
       <c r="B75" s="12">
         <f>-1*B73</f>
@@ -4953,10 +4953,10 @@
         <v>12</v>
       </c>
       <c r="G75" s="12" t="s">
-        <v>221</v>
+        <v>510</v>
       </c>
       <c r="H75" s="12" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I75" s="12">
         <v>5</v>
@@ -4987,13 +4987,13 @@
     </row>
     <row r="76" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="14" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="B76" s="17">
         <v>54</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="D76" s="12" t="s">
         <v>35</v>
@@ -5003,10 +5003,10 @@
         <v>12</v>
       </c>
       <c r="G76" s="12" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="I76" s="12">
         <v>5</v>
@@ -5099,7 +5099,7 @@
     </row>
     <row r="79" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="48" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="B79" s="49">
         <f>(0.09*1000)/(2963200/20)</f>
@@ -5107,16 +5107,16 @@
       </c>
       <c r="C79" s="48"/>
       <c r="D79" s="48" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="E79" s="48" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="F79" s="48" t="s">
         <v>14</v>
       </c>
       <c r="H79" s="48" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="I79" s="12">
         <v>2</v>
@@ -5163,7 +5163,7 @@
     </row>
     <row r="80" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="48" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="B80" s="49">
         <f>(0.09*1000)/2963200</f>
@@ -5171,16 +5171,16 @@
       </c>
       <c r="C80" s="48"/>
       <c r="D80" s="48" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="E80" s="48" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="F80" s="48" t="s">
         <v>14</v>
       </c>
       <c r="H80" s="48" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="I80" s="12">
         <v>2</v>
@@ -5217,7 +5217,7 @@
     </row>
     <row r="81" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="48" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="B81" s="49">
         <f>(0.09*1000)/2963200</f>
@@ -5225,16 +5225,16 @@
       </c>
       <c r="C81" s="48"/>
       <c r="D81" s="48" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="E81" s="48" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="F81" s="48" t="s">
         <v>14</v>
       </c>
       <c r="H81" s="48" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="I81" s="12">
         <v>2</v>
@@ -5282,7 +5282,7 @@
         <v>1</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="C83" s="11"/>
       <c r="K83" s="13"/>
@@ -5311,7 +5311,7 @@
         <v>11</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="K85" s="13"/>
       <c r="L85" s="13"/>
@@ -5411,40 +5411,40 @@
         <v>11</v>
       </c>
       <c r="I90" s="18" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="J90" s="8" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="K90" s="19" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="L90" s="19" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="M90" s="19" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="N90" s="19" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="O90" s="19" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="P90" s="19" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="Q90" s="8" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="R90" s="8" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="S90" s="18" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="T90" s="8" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="U90" s="18" t="s">
         <v>48</v>
@@ -5506,7 +5506,7 @@
         <v>49</v>
       </c>
       <c r="H92" s="12" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="I92" s="12">
         <v>5</v>
@@ -5553,7 +5553,7 @@
         <v>50</v>
       </c>
       <c r="H93" s="12" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="I93" s="12">
         <v>5</v>
@@ -5581,7 +5581,7 @@
     </row>
     <row r="94" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="17" t="s">
-        <v>206</v>
+        <v>507</v>
       </c>
       <c r="B94" s="12">
         <f>B92*-1</f>
@@ -5597,10 +5597,10 @@
         <v>12</v>
       </c>
       <c r="G94" s="12" t="s">
-        <v>218</v>
+        <v>508</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I94" s="12">
         <v>5</v>
@@ -5631,7 +5631,7 @@
     </row>
     <row r="95" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="17" t="s">
-        <v>220</v>
+        <v>509</v>
       </c>
       <c r="B95" s="12">
         <f>-1*B93</f>
@@ -5647,10 +5647,10 @@
         <v>12</v>
       </c>
       <c r="G95" s="12" t="s">
-        <v>221</v>
+        <v>510</v>
       </c>
       <c r="H95" s="12" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I95" s="12">
         <v>5</v>
@@ -5681,13 +5681,13 @@
     </row>
     <row r="96" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="14" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="B96" s="17">
         <v>54</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D96" s="12" t="s">
         <v>35</v>
@@ -5697,10 +5697,10 @@
         <v>12</v>
       </c>
       <c r="G96" s="12" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="H96" s="11" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="I96" s="12">
         <v>5</v>
@@ -5793,7 +5793,7 @@
     </row>
     <row r="99" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="48" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="B99" s="49">
         <f>(0.09*1000)/(2963200/20)</f>
@@ -5801,16 +5801,16 @@
       </c>
       <c r="C99" s="48"/>
       <c r="D99" s="48" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="E99" s="48" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="F99" s="48" t="s">
         <v>14</v>
       </c>
       <c r="H99" s="48" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="I99" s="12">
         <v>2</v>
@@ -5857,7 +5857,7 @@
     </row>
     <row r="100" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="48" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="B100" s="49">
         <f>(0.09*1000)/2963200</f>
@@ -5865,16 +5865,16 @@
       </c>
       <c r="C100" s="48"/>
       <c r="D100" s="48" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="E100" s="48" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="F100" s="48" t="s">
         <v>14</v>
       </c>
       <c r="H100" s="48" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="I100" s="12">
         <v>2</v>
@@ -5911,7 +5911,7 @@
     </row>
     <row r="101" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="48" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="B101" s="49">
         <f>(0.09*1000)/2963200</f>
@@ -5919,16 +5919,16 @@
       </c>
       <c r="C101" s="48"/>
       <c r="D101" s="48" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="E101" s="48" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="F101" s="48" t="s">
         <v>14</v>
       </c>
       <c r="H101" s="48" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="I101" s="12">
         <v>2</v>
@@ -5976,7 +5976,7 @@
         <v>1</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="C103" s="11"/>
       <c r="K103" s="13"/>
@@ -6005,7 +6005,7 @@
         <v>11</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="K105" s="13"/>
       <c r="L105" s="13"/>
@@ -6105,40 +6105,40 @@
         <v>11</v>
       </c>
       <c r="I110" s="18" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="J110" s="8" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="K110" s="19" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="L110" s="19" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="M110" s="19" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="N110" s="19" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="O110" s="19" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="P110" s="19" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="Q110" s="8" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="R110" s="8" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="S110" s="18" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="T110" s="8" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="U110" s="18" t="s">
         <v>48</v>
@@ -6200,7 +6200,7 @@
         <v>49</v>
       </c>
       <c r="H112" s="12" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="I112" s="12">
         <v>5</v>
@@ -6247,7 +6247,7 @@
         <v>50</v>
       </c>
       <c r="H113" s="12" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="I113" s="12">
         <v>5</v>
@@ -6275,7 +6275,7 @@
     </row>
     <row r="114" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="17" t="s">
-        <v>206</v>
+        <v>507</v>
       </c>
       <c r="B114" s="12">
         <f>B112*-1</f>
@@ -6291,10 +6291,10 @@
         <v>12</v>
       </c>
       <c r="G114" s="12" t="s">
-        <v>218</v>
+        <v>508</v>
       </c>
       <c r="H114" s="12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I114" s="12">
         <v>5</v>
@@ -6325,7 +6325,7 @@
     </row>
     <row r="115" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="17" t="s">
-        <v>220</v>
+        <v>509</v>
       </c>
       <c r="B115" s="12">
         <f>-1*B113</f>
@@ -6341,10 +6341,10 @@
         <v>12</v>
       </c>
       <c r="G115" s="12" t="s">
-        <v>221</v>
+        <v>510</v>
       </c>
       <c r="H115" s="12" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I115" s="12">
         <v>5</v>
@@ -6375,13 +6375,13 @@
     </row>
     <row r="116" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="14" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="B116" s="17">
         <v>54</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="D116" s="12" t="s">
         <v>35</v>
@@ -6391,10 +6391,10 @@
         <v>12</v>
       </c>
       <c r="G116" s="12" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="H116" s="11" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="I116" s="12">
         <v>5</v>
@@ -6487,7 +6487,7 @@
     </row>
     <row r="119" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="48" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="B119" s="49">
         <f>(0.09*1000)/(2963200/20)</f>
@@ -6495,16 +6495,16 @@
       </c>
       <c r="C119" s="48"/>
       <c r="D119" s="48" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="E119" s="48" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="F119" s="48" t="s">
         <v>14</v>
       </c>
       <c r="H119" s="48" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="I119" s="12">
         <v>2</v>
@@ -6551,7 +6551,7 @@
     </row>
     <row r="120" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="48" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="B120" s="49">
         <f>(0.09*1000)/2963200</f>
@@ -6559,16 +6559,16 @@
       </c>
       <c r="C120" s="48"/>
       <c r="D120" s="48" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="E120" s="48" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="F120" s="48" t="s">
         <v>14</v>
       </c>
       <c r="H120" s="48" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="I120" s="12">
         <v>2</v>
@@ -6605,7 +6605,7 @@
     </row>
     <row r="121" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="48" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="B121" s="49">
         <f>(0.09*1000)/2963200</f>
@@ -6613,16 +6613,16 @@
       </c>
       <c r="C121" s="48"/>
       <c r="D121" s="48" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="E121" s="48" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="F121" s="48" t="s">
         <v>14</v>
       </c>
       <c r="H121" s="48" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="I121" s="12">
         <v>2</v>
@@ -6799,16 +6799,16 @@
         <v>11</v>
       </c>
       <c r="I130" s="18" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="J130" s="8" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="K130" s="19" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="L130" s="19" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="M130" s="19"/>
       <c r="N130" s="19"/>
@@ -7028,13 +7028,13 @@
     </row>
     <row r="137" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="12" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="B137" s="13">
         <v>0.8</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="D137" s="12" t="s">
         <v>13</v>
@@ -7083,7 +7083,7 @@
         <v>24</v>
       </c>
       <c r="H138" s="11" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="I138" s="12">
         <v>5</v>
@@ -7365,7 +7365,7 @@
         <v>1</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>206</v>
+        <v>507</v>
       </c>
       <c r="K147" s="13"/>
       <c r="L147" s="13"/>
@@ -7407,7 +7407,7 @@
         <v>4</v>
       </c>
       <c r="B150" s="17" t="s">
-        <v>218</v>
+        <v>508</v>
       </c>
       <c r="K150" s="13"/>
       <c r="L150" s="13"/>
@@ -7505,7 +7505,7 @@
     <row r="155" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="17" t="str">
         <f>B147</f>
-        <v>treatment of fuel cell stack, 1MWe, PEM</v>
+        <v>treatment of electrolyzer stack, 1MWe, PEM</v>
       </c>
       <c r="B155" s="13">
         <v>-1</v>
@@ -7522,7 +7522,7 @@
       </c>
       <c r="G155" s="12" t="str">
         <f>B150</f>
-        <v>used fuel cell stack, 1MWe, PEM</v>
+        <v>used electrolyzer stack, 1MWe, PEM</v>
       </c>
       <c r="K155" s="13"/>
       <c r="L155" s="13"/>
@@ -7533,7 +7533,7 @@
     </row>
     <row r="156" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B156" s="12">
         <f>-1*B142</f>
@@ -7549,7 +7549,7 @@
         <v>12</v>
       </c>
       <c r="G156" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J156"/>
       <c r="K156" s="20"/>
@@ -7563,7 +7563,7 @@
     </row>
     <row r="157" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B157" s="12">
         <f>-1*B132</f>
@@ -7579,7 +7579,7 @@
         <v>12</v>
       </c>
       <c r="G157" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J157"/>
       <c r="K157" s="20"/>
@@ -7593,7 +7593,7 @@
     </row>
     <row r="158" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B158" s="12">
         <f>-1*B140</f>
@@ -7609,7 +7609,7 @@
         <v>12</v>
       </c>
       <c r="G158" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J158"/>
       <c r="K158" s="20"/>
@@ -7623,14 +7623,14 @@
     </row>
     <row r="159" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B159" s="12">
         <f>-1*B135</f>
         <v>-16</v>
       </c>
       <c r="C159" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D159" s="12" t="s">
         <v>13</v>
@@ -7639,7 +7639,7 @@
         <v>12</v>
       </c>
       <c r="G159" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J159"/>
       <c r="K159" s="20"/>
@@ -7653,7 +7653,7 @@
     </row>
     <row r="160" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B160" s="12">
         <f>-1*B144</f>
@@ -7669,7 +7669,7 @@
         <v>12</v>
       </c>
       <c r="G160" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J160"/>
       <c r="K160" s="20"/>
@@ -9413,7 +9413,7 @@
         <v>1</v>
       </c>
       <c r="B220" s="10" t="s">
-        <v>220</v>
+        <v>509</v>
       </c>
       <c r="K220" s="13"/>
       <c r="L220" s="13"/>
@@ -9455,7 +9455,7 @@
         <v>4</v>
       </c>
       <c r="B223" s="17" t="s">
-        <v>221</v>
+        <v>510</v>
       </c>
       <c r="K223" s="13"/>
       <c r="L223" s="13"/>
@@ -9553,7 +9553,7 @@
     <row r="228" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="17" t="str">
         <f>B220</f>
-        <v>treatment of fuel cell balance of plant, 1MWe, PEM</v>
+        <v>treatment of electrolyzer balance of plant, 1MWe, PEM</v>
       </c>
       <c r="B228" s="13">
         <v>-1</v>
@@ -9570,7 +9570,7 @@
       </c>
       <c r="G228" s="12" t="str">
         <f>B223</f>
-        <v>used fuel cell balance of plant, 1MWe, PEM</v>
+        <v>used electrolyzer balance of plant, 1MWe, PEM</v>
       </c>
       <c r="K228" s="13"/>
       <c r="L228" s="13"/>
@@ -9581,7 +9581,7 @@
     </row>
     <row r="229" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A229" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B229" s="12">
         <f>7523*-1</f>
@@ -9597,7 +9597,7 @@
         <v>12</v>
       </c>
       <c r="G229" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J229"/>
       <c r="K229" s="20"/>
@@ -9611,13 +9611,13 @@
     </row>
     <row r="230" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" s="17" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="B230" s="12">
         <v>-3312</v>
       </c>
       <c r="C230" s="12" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D230" s="12" t="s">
         <v>13</v>
@@ -9626,7 +9626,7 @@
         <v>12</v>
       </c>
       <c r="G230" s="17" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="J230"/>
       <c r="K230" s="20"/>
@@ -9640,7 +9640,7 @@
     </row>
     <row r="231" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B231" s="12">
         <v>-260</v>
@@ -9655,7 +9655,7 @@
         <v>12</v>
       </c>
       <c r="G231" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J231"/>
       <c r="K231" s="20"/>
@@ -9669,13 +9669,13 @@
     </row>
     <row r="232" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A232" s="12" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B232" s="12">
         <v>-32</v>
       </c>
       <c r="C232" s="12" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D232" s="12" t="s">
         <v>13</v>
@@ -9684,7 +9684,7 @@
         <v>12</v>
       </c>
       <c r="G232" s="12" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="J232"/>
       <c r="K232" s="20"/>
@@ -9698,13 +9698,13 @@
     </row>
     <row r="233" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="12" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B233" s="12">
         <v>-14</v>
       </c>
       <c r="C233" s="12" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D233" s="12" t="s">
         <v>13</v>
@@ -9713,7 +9713,7 @@
         <v>12</v>
       </c>
       <c r="G233" s="12" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="J233"/>
       <c r="K233" s="20"/>
@@ -9727,7 +9727,7 @@
     </row>
     <row r="234" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="12" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B234" s="12">
         <v>-8</v>
@@ -9742,7 +9742,7 @@
         <v>12</v>
       </c>
       <c r="G234" s="12" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="J234"/>
       <c r="K234" s="20"/>
@@ -9756,7 +9756,7 @@
     </row>
     <row r="235" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="12" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B235" s="12">
         <v>-764.6</v>
@@ -9771,7 +9771,7 @@
         <v>12</v>
       </c>
       <c r="G235" s="12" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="J235"/>
       <c r="K235" s="20"/>
@@ -9785,7 +9785,7 @@
     </row>
     <row r="236" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A236" s="12" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="B236" s="12">
         <v>-600</v>
@@ -9800,7 +9800,7 @@
         <v>12</v>
       </c>
       <c r="G236" s="12" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="J236"/>
       <c r="K236" s="20"/>
@@ -9814,7 +9814,7 @@
     </row>
     <row r="237" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B237" s="12">
         <v>-345</v>
@@ -9829,7 +9829,7 @@
         <v>12</v>
       </c>
       <c r="G237" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J237"/>
       <c r="K237" s="20"/>
@@ -9843,13 +9843,13 @@
     </row>
     <row r="238" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A238" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B238" s="12">
         <v>-147</v>
       </c>
       <c r="C238" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D238" s="12" t="s">
         <v>13</v>
@@ -9858,7 +9858,7 @@
         <v>12</v>
       </c>
       <c r="G238" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J238"/>
       <c r="K238" s="20"/>
@@ -9872,7 +9872,7 @@
     </row>
     <row r="239" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A239" s="12" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="B239" s="12">
         <v>-5600</v>
@@ -9887,7 +9887,7 @@
         <v>12</v>
       </c>
       <c r="G239" s="12" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="J239"/>
       <c r="K239" s="20"/>
@@ -9901,13 +9901,13 @@
     </row>
     <row r="240" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A240" s="12" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B240" s="12">
         <v>-100</v>
       </c>
       <c r="C240" s="12" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D240" s="12" t="s">
         <v>13</v>
@@ -9916,7 +9916,7 @@
         <v>12</v>
       </c>
       <c r="G240" s="12" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="J240"/>
       <c r="K240" s="20"/>
@@ -9942,7 +9942,7 @@
         <v>1</v>
       </c>
       <c r="B242" s="10" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="C242" s="11"/>
       <c r="K242" s="13"/>
@@ -9971,7 +9971,7 @@
         <v>11</v>
       </c>
       <c r="B244" s="15" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="K244" s="13"/>
       <c r="L244" s="13"/>
@@ -9985,7 +9985,7 @@
         <v>4</v>
       </c>
       <c r="B245" s="16" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="K245" s="13"/>
       <c r="L245" s="13"/>
@@ -10071,40 +10071,40 @@
         <v>11</v>
       </c>
       <c r="I249" s="18" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="J249" s="8" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="K249" s="19" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="L249" s="19" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="M249" s="19" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="N249" s="19" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="O249" s="19" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="P249" s="19" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="Q249" s="8" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="R249" s="8" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="S249" s="18" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="T249" s="8" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="U249" s="18" t="s">
         <v>48</v>
@@ -10112,7 +10112,7 @@
     </row>
     <row r="250" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A250" s="17" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="B250" s="17">
         <v>1</v>
@@ -10130,7 +10130,7 @@
         <v>16</v>
       </c>
       <c r="G250" s="12" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="H250" s="11"/>
       <c r="I250" s="11"/>
@@ -10164,7 +10164,7 @@
         <v>125</v>
       </c>
       <c r="H251" s="12" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="I251" s="12">
         <v>5</v>
@@ -10212,7 +10212,7 @@
         <v>126</v>
       </c>
       <c r="H252" s="12" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="I252" s="12">
         <v>5</v>
@@ -10240,7 +10240,7 @@
     </row>
     <row r="253" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A253" s="17" t="s">
-        <v>232</v>
+        <v>511</v>
       </c>
       <c r="B253" s="17">
         <f>-1*B251</f>
@@ -10256,10 +10256,10 @@
         <v>12</v>
       </c>
       <c r="G253" s="12" t="s">
-        <v>233</v>
+        <v>512</v>
       </c>
       <c r="H253" s="12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I253" s="12">
         <v>5</v>
@@ -10290,7 +10290,7 @@
     </row>
     <row r="254" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A254" s="17" t="s">
-        <v>234</v>
+        <v>513</v>
       </c>
       <c r="B254" s="17">
         <f>-1*B252</f>
@@ -10306,10 +10306,10 @@
         <v>12</v>
       </c>
       <c r="G254" s="12" t="s">
-        <v>235</v>
+        <v>514</v>
       </c>
       <c r="H254" s="12" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I254" s="12">
         <v>5</v>
@@ -10359,7 +10359,7 @@
         <v>36</v>
       </c>
       <c r="H255" s="11" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="I255" s="12">
         <v>5</v>
@@ -10479,7 +10479,7 @@
     </row>
     <row r="259" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A259" s="48" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="B259" s="49">
         <f>(0.12*1000)/(4259200/27.5)</f>
@@ -10487,16 +10487,16 @@
       </c>
       <c r="C259" s="48"/>
       <c r="D259" s="48" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="E259" s="48" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="F259" s="48" t="s">
         <v>14</v>
       </c>
       <c r="H259" s="48" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="I259" s="12">
         <v>2</v>
@@ -10543,7 +10543,7 @@
     </row>
     <row r="260" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="48" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="B260" s="49">
         <f>(0.12*1000)/4259200</f>
@@ -10551,16 +10551,16 @@
       </c>
       <c r="C260" s="48"/>
       <c r="D260" s="48" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="E260" s="48" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="F260" s="48" t="s">
         <v>14</v>
       </c>
       <c r="H260" s="48" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="I260" s="12">
         <v>2</v>
@@ -10597,7 +10597,7 @@
     </row>
     <row r="261" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A261" s="48" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="B261" s="49">
         <f>(0.12*1000)/4259200</f>
@@ -10605,16 +10605,16 @@
       </c>
       <c r="C261" s="48"/>
       <c r="D261" s="48" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="E261" s="48" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="F261" s="48" t="s">
         <v>14</v>
       </c>
       <c r="H261" s="48" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="I261" s="12">
         <v>2</v>
@@ -11072,7 +11072,7 @@
         <v>1</v>
       </c>
       <c r="B280" s="10" t="s">
-        <v>232</v>
+        <v>511</v>
       </c>
       <c r="K280" s="13"/>
       <c r="L280" s="13"/>
@@ -11114,7 +11114,7 @@
         <v>4</v>
       </c>
       <c r="B283" s="17" t="s">
-        <v>233</v>
+        <v>512</v>
       </c>
       <c r="K283" s="13"/>
       <c r="L283" s="13"/>
@@ -11212,7 +11212,7 @@
     <row r="288" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A288" s="17" t="str">
         <f>B280</f>
-        <v>treatment of fuel cell stack, 1MWe, AEC</v>
+        <v>treatment of electrolyzer stack, 1MWe, AEC</v>
       </c>
       <c r="B288" s="13">
         <v>-1</v>
@@ -11229,7 +11229,7 @@
       </c>
       <c r="G288" s="12" t="str">
         <f>B283</f>
-        <v>used fuel cell stack, 1MWe, AEC</v>
+        <v>used electrolyzer stack, 1MWe, AEC</v>
       </c>
       <c r="K288" s="13"/>
       <c r="L288" s="13"/>
@@ -11240,7 +11240,7 @@
     </row>
     <row r="289" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A289" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B289" s="12">
         <v>-60583</v>
@@ -11255,7 +11255,7 @@
         <v>12</v>
       </c>
       <c r="G289" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J289"/>
       <c r="K289" s="20"/>
@@ -11269,13 +11269,13 @@
     </row>
     <row r="290" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A290" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B290" s="12">
         <v>-579</v>
       </c>
       <c r="C290" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D290" s="12" t="s">
         <v>13</v>
@@ -11284,7 +11284,7 @@
         <v>12</v>
       </c>
       <c r="G290" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J290"/>
       <c r="K290" s="20"/>
@@ -13386,7 +13386,7 @@
         <v>1</v>
       </c>
       <c r="B361" s="10" t="s">
-        <v>234</v>
+        <v>513</v>
       </c>
       <c r="K361" s="13"/>
       <c r="L361" s="13"/>
@@ -13428,7 +13428,7 @@
         <v>4</v>
       </c>
       <c r="B364" s="17" t="s">
-        <v>235</v>
+        <v>514</v>
       </c>
       <c r="K364" s="13"/>
       <c r="L364" s="13"/>
@@ -13526,7 +13526,7 @@
     <row r="369" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A369" s="17" t="str">
         <f>B361</f>
-        <v>treatment of fuel cell balance of plant, 1MWe, AEC</v>
+        <v>treatment of electrolyzer balance of plant, 1MWe, AEC</v>
       </c>
       <c r="B369" s="13">
         <v>-1</v>
@@ -13543,7 +13543,7 @@
       </c>
       <c r="G369" s="12" t="str">
         <f>B364</f>
-        <v>used fuel cell balance of plant, 1MWe, AEC</v>
+        <v>used electrolyzer balance of plant, 1MWe, AEC</v>
       </c>
       <c r="K369" s="13"/>
       <c r="L369" s="13"/>
@@ -13554,7 +13554,7 @@
     </row>
     <row r="370" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A370" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B370" s="12">
         <v>-12819.5</v>
@@ -13569,7 +13569,7 @@
         <v>12</v>
       </c>
       <c r="G370" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J370"/>
       <c r="K370" s="20"/>
@@ -13583,13 +13583,13 @@
     </row>
     <row r="371" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A371" s="17" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="B371" s="12">
         <v>-5134.3999999999996</v>
       </c>
       <c r="C371" s="12" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D371" s="12" t="s">
         <v>13</v>
@@ -13598,7 +13598,7 @@
         <v>12</v>
       </c>
       <c r="G371" s="17" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="J371"/>
       <c r="K371" s="20"/>
@@ -13612,7 +13612,7 @@
     </row>
     <row r="372" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A372" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B372" s="12">
         <v>-160</v>
@@ -13627,7 +13627,7 @@
         <v>12</v>
       </c>
       <c r="G372" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J372"/>
       <c r="K372" s="20"/>
@@ -13641,13 +13641,13 @@
     </row>
     <row r="373" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A373" s="12" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B373" s="12">
         <v>-32</v>
       </c>
       <c r="C373" s="12" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D373" s="12" t="s">
         <v>13</v>
@@ -13656,7 +13656,7 @@
         <v>12</v>
       </c>
       <c r="G373" s="12" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="J373"/>
       <c r="K373" s="20"/>
@@ -13670,13 +13670,13 @@
     </row>
     <row r="374" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A374" s="12" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B374" s="12">
         <v>-14</v>
       </c>
       <c r="C374" s="12" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D374" s="12" t="s">
         <v>13</v>
@@ -13685,7 +13685,7 @@
         <v>12</v>
       </c>
       <c r="G374" s="12" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="J374"/>
       <c r="K374" s="20"/>
@@ -13699,7 +13699,7 @@
     </row>
     <row r="375" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A375" s="12" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B375" s="12">
         <v>-800</v>
@@ -13714,7 +13714,7 @@
         <v>12</v>
       </c>
       <c r="G375" s="12" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="J375"/>
       <c r="K375" s="20"/>
@@ -13728,7 +13728,7 @@
     </row>
     <row r="376" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A376" s="12" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B376" s="12">
         <v>-468</v>
@@ -13743,7 +13743,7 @@
         <v>12</v>
       </c>
       <c r="G376" s="12" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="J376"/>
       <c r="K376" s="20"/>
@@ -13757,7 +13757,7 @@
     </row>
     <row r="377" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A377" s="12" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="B377" s="12">
         <v>-716</v>
@@ -13772,7 +13772,7 @@
         <v>12</v>
       </c>
       <c r="G377" s="12" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="J377"/>
       <c r="K377" s="20"/>
@@ -13786,7 +13786,7 @@
     </row>
     <row r="378" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A378" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B378" s="12">
         <v>-617</v>
@@ -13801,7 +13801,7 @@
         <v>12</v>
       </c>
       <c r="G378" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J378"/>
       <c r="K378" s="20"/>
@@ -13815,13 +13815,13 @@
     </row>
     <row r="379" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A379" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B379" s="12">
         <v>-208</v>
       </c>
       <c r="C379" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D379" s="12" t="s">
         <v>13</v>
@@ -13830,7 +13830,7 @@
         <v>12</v>
       </c>
       <c r="G379" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J379"/>
       <c r="K379" s="20"/>
@@ -13844,7 +13844,7 @@
     </row>
     <row r="380" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A380" s="12" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="B380" s="12">
         <v>-18519</v>
@@ -13859,7 +13859,7 @@
         <v>12</v>
       </c>
       <c r="G380" s="12" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="J380"/>
       <c r="K380" s="20"/>
@@ -13885,7 +13885,7 @@
         <v>1</v>
       </c>
       <c r="B382" s="10" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="C382" s="11"/>
       <c r="K382" s="13"/>
@@ -13914,7 +13914,7 @@
         <v>11</v>
       </c>
       <c r="B384" s="15" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="K384" s="13"/>
       <c r="L384" s="13"/>
@@ -13928,7 +13928,7 @@
         <v>4</v>
       </c>
       <c r="B385" s="16" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="K385" s="13"/>
       <c r="L385" s="13"/>
@@ -14014,40 +14014,40 @@
         <v>11</v>
       </c>
       <c r="I389" s="18" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="J389" s="8" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="K389" s="19" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="L389" s="19" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="M389" s="19" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="N389" s="19" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="O389" s="19" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="P389" s="19" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="Q389" s="8" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="R389" s="8" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="S389" s="18" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="T389" s="8" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="U389" s="18" t="s">
         <v>48</v>
@@ -14055,7 +14055,7 @@
     </row>
     <row r="390" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A390" s="17" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="B390" s="17">
         <v>1</v>
@@ -14073,7 +14073,7 @@
         <v>16</v>
       </c>
       <c r="G390" s="12" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="H390" s="11"/>
       <c r="I390" s="11"/>
@@ -14107,7 +14107,7 @@
         <v>152</v>
       </c>
       <c r="H391" s="12" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="J391"/>
       <c r="K391" s="20"/>
@@ -14155,7 +14155,7 @@
     </row>
     <row r="393" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A393" s="17" t="s">
-        <v>238</v>
+        <v>515</v>
       </c>
       <c r="B393" s="12">
         <f>-1*B391</f>
@@ -14171,10 +14171,10 @@
         <v>12</v>
       </c>
       <c r="G393" s="12" t="s">
-        <v>239</v>
+        <v>516</v>
       </c>
       <c r="H393" s="12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J393"/>
       <c r="K393" s="20"/>
@@ -14188,7 +14188,7 @@
     </row>
     <row r="394" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A394" s="17" t="s">
-        <v>240</v>
+        <v>517</v>
       </c>
       <c r="B394" s="12">
         <f>-1*B392</f>
@@ -14204,10 +14204,10 @@
         <v>12</v>
       </c>
       <c r="G394" s="12" t="s">
-        <v>241</v>
+        <v>518</v>
       </c>
       <c r="H394" s="12" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="J394"/>
       <c r="K394" s="20"/>
@@ -14240,7 +14240,7 @@
         <v>36</v>
       </c>
       <c r="H395" s="11" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="I395" s="12">
         <v>5</v>
@@ -14360,7 +14360,7 @@
     </row>
     <row r="399" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A399" s="48" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="B399" s="49">
         <f>(0.02*1000)/(3776000/20)</f>
@@ -14368,16 +14368,16 @@
       </c>
       <c r="C399" s="48"/>
       <c r="D399" s="48" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="E399" s="48" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="F399" s="48" t="s">
         <v>14</v>
       </c>
       <c r="H399" s="48" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="I399" s="12">
         <v>2</v>
@@ -14424,7 +14424,7 @@
     </row>
     <row r="400" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A400" s="48" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="B400" s="49">
         <f>(0.02*1000)/3776000</f>
@@ -14432,16 +14432,16 @@
       </c>
       <c r="C400" s="48"/>
       <c r="D400" s="48" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="E400" s="48" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="F400" s="48" t="s">
         <v>14</v>
       </c>
       <c r="H400" s="48" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="I400" s="12">
         <v>2</v>
@@ -14478,7 +14478,7 @@
     </row>
     <row r="401" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A401" s="48" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="B401" s="49">
         <f>(0.02*1000)/3776000</f>
@@ -14486,16 +14486,16 @@
       </c>
       <c r="C401" s="48"/>
       <c r="D401" s="48" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="E401" s="48" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="F401" s="48" t="s">
         <v>14</v>
       </c>
       <c r="H401" s="48" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="I401" s="12">
         <v>2</v>
@@ -14544,7 +14544,7 @@
         <v>1</v>
       </c>
       <c r="B403" s="10" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="C403" s="11"/>
       <c r="K403" s="13"/>
@@ -14573,7 +14573,7 @@
         <v>11</v>
       </c>
       <c r="B405" s="15" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="K405" s="13"/>
       <c r="L405" s="13"/>
@@ -14587,7 +14587,7 @@
         <v>4</v>
       </c>
       <c r="B406" s="16" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="K406" s="13"/>
       <c r="L406" s="13"/>
@@ -14673,40 +14673,40 @@
         <v>11</v>
       </c>
       <c r="I410" s="18" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="J410" s="8" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="K410" s="19" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="L410" s="19" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="M410" s="19" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="N410" s="19" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="O410" s="19" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="P410" s="19" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="Q410" s="8" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="R410" s="8" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="S410" s="18" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="T410" s="8" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="U410" s="18" t="s">
         <v>48</v>
@@ -14714,7 +14714,7 @@
     </row>
     <row r="411" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A411" s="17" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="B411" s="17">
         <v>1</v>
@@ -14732,7 +14732,7 @@
         <v>16</v>
       </c>
       <c r="G411" s="12" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="H411" s="11"/>
       <c r="I411" s="11"/>
@@ -14765,7 +14765,7 @@
         <v>152</v>
       </c>
       <c r="H412" s="12" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="I412" s="12">
         <v>5</v>
@@ -14840,7 +14840,7 @@
     </row>
     <row r="414" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A414" s="17" t="s">
-        <v>238</v>
+        <v>515</v>
       </c>
       <c r="B414" s="12">
         <f>-1*B412</f>
@@ -14856,10 +14856,10 @@
         <v>12</v>
       </c>
       <c r="G414" s="12" t="s">
-        <v>239</v>
+        <v>516</v>
       </c>
       <c r="H414" s="12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I414" s="12">
         <v>5</v>
@@ -14890,7 +14890,7 @@
     </row>
     <row r="415" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A415" s="17" t="s">
-        <v>240</v>
+        <v>517</v>
       </c>
       <c r="B415" s="12">
         <f>-1*B413</f>
@@ -14906,10 +14906,10 @@
         <v>12</v>
       </c>
       <c r="G415" s="12" t="s">
-        <v>241</v>
+        <v>518</v>
       </c>
       <c r="H415" s="12" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I415" s="12">
         <v>5</v>
@@ -14959,7 +14959,7 @@
         <v>36</v>
       </c>
       <c r="H416" s="11" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="J416"/>
       <c r="K416" s="20"/>
@@ -14992,7 +14992,7 @@
         <v>55</v>
       </c>
       <c r="H417" s="11" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="J417"/>
       <c r="K417" s="20"/>
@@ -15067,7 +15067,7 @@
     </row>
     <row r="420" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A420" s="48" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="B420" s="49">
         <f>(0.05*1000)/(3776000/20)</f>
@@ -15075,16 +15075,16 @@
       </c>
       <c r="C420" s="48"/>
       <c r="D420" s="48" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="E420" s="48" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="F420" s="48" t="s">
         <v>14</v>
       </c>
       <c r="H420" s="48" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="I420" s="12">
         <v>2</v>
@@ -15131,7 +15131,7 @@
     </row>
     <row r="421" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A421" s="48" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="B421" s="49">
         <f>(0.05*1000)/3776000</f>
@@ -15139,16 +15139,16 @@
       </c>
       <c r="C421" s="48"/>
       <c r="D421" s="48" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="E421" s="48" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="F421" s="48" t="s">
         <v>14</v>
       </c>
       <c r="H421" s="48" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="I421" s="12">
         <v>2</v>
@@ -15185,7 +15185,7 @@
     </row>
     <row r="422" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A422" s="48" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="B422" s="49">
         <f>(0.05*1000)/3776000</f>
@@ -15193,16 +15193,16 @@
       </c>
       <c r="C422" s="48"/>
       <c r="D422" s="48" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="E422" s="48" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="F422" s="48" t="s">
         <v>14</v>
       </c>
       <c r="H422" s="48" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="I422" s="12">
         <v>2</v>
@@ -15279,7 +15279,7 @@
         <v>11</v>
       </c>
       <c r="B426" s="15" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="K426" s="13"/>
       <c r="L426" s="13"/>
@@ -15947,7 +15947,7 @@
         <v>1</v>
       </c>
       <c r="B450" s="10" t="s">
-        <v>238</v>
+        <v>515</v>
       </c>
       <c r="K450" s="13"/>
       <c r="L450" s="13"/>
@@ -15989,7 +15989,7 @@
         <v>4</v>
       </c>
       <c r="B453" s="17" t="s">
-        <v>239</v>
+        <v>516</v>
       </c>
       <c r="K453" s="13"/>
       <c r="L453" s="13"/>
@@ -16087,7 +16087,7 @@
     <row r="458" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A458" s="17" t="str">
         <f>B450</f>
-        <v>treatment of fuel cell stack, 1MWe, SOEC</v>
+        <v>treatment of electrolyzer stack, 1MWe, SOEC</v>
       </c>
       <c r="B458" s="13">
         <v>-1</v>
@@ -16104,7 +16104,7 @@
       </c>
       <c r="G458" s="12" t="str">
         <f>B453</f>
-        <v>used fuel cell stack, 1MWe, SOEC</v>
+        <v>used electrolyzer stack, 1MWe, SOEC</v>
       </c>
       <c r="K458" s="13"/>
       <c r="L458" s="13"/>
@@ -16115,7 +16115,7 @@
     </row>
     <row r="459" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A459" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B459" s="12">
         <v>-26928</v>
@@ -16130,7 +16130,7 @@
         <v>12</v>
       </c>
       <c r="G459" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J459"/>
       <c r="K459" s="20"/>
@@ -18417,7 +18417,7 @@
         <v>1</v>
       </c>
       <c r="B535" s="10" t="s">
-        <v>240</v>
+        <v>517</v>
       </c>
       <c r="K535" s="13"/>
       <c r="L535" s="13"/>
@@ -18459,7 +18459,7 @@
         <v>4</v>
       </c>
       <c r="B538" s="17" t="s">
-        <v>241</v>
+        <v>518</v>
       </c>
       <c r="K538" s="13"/>
       <c r="L538" s="13"/>
@@ -18557,7 +18557,7 @@
     <row r="543" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A543" s="17" t="str">
         <f>B535</f>
-        <v>treatment of fuel cell balance of plant, 1MWe, SOEC</v>
+        <v>treatment of electrolyzer balance of plant, 1MWe, SOEC</v>
       </c>
       <c r="B543" s="13">
         <v>-1</v>
@@ -18574,7 +18574,7 @@
       </c>
       <c r="G543" s="12" t="str">
         <f>B538</f>
-        <v>used fuel cell balance of plant, 1MWe, SOEC</v>
+        <v>used electrolyzer balance of plant, 1MWe, SOEC</v>
       </c>
       <c r="K543" s="13"/>
       <c r="L543" s="13"/>
@@ -18585,7 +18585,7 @@
     </row>
     <row r="544" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A544" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B544" s="12">
         <v>-20421</v>
@@ -18600,7 +18600,7 @@
         <v>12</v>
       </c>
       <c r="G544" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J544"/>
       <c r="K544" s="20"/>
@@ -18614,13 +18614,13 @@
     </row>
     <row r="545" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A545" s="17" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="B545" s="12">
         <v>-13730</v>
       </c>
       <c r="C545" s="12" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D545" s="12" t="s">
         <v>13</v>
@@ -18629,7 +18629,7 @@
         <v>12</v>
       </c>
       <c r="G545" s="17" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="J545"/>
       <c r="K545" s="20"/>
@@ -18643,7 +18643,7 @@
     </row>
     <row r="546" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A546" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B546" s="12">
         <v>-401</v>
@@ -18658,7 +18658,7 @@
         <v>12</v>
       </c>
       <c r="G546" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J546"/>
       <c r="K546" s="20"/>
@@ -18672,13 +18672,13 @@
     </row>
     <row r="547" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A547" s="12" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B547" s="12">
         <v>-32</v>
       </c>
       <c r="C547" s="12" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D547" s="12" t="s">
         <v>13</v>
@@ -18687,7 +18687,7 @@
         <v>12</v>
       </c>
       <c r="G547" s="12" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="J547"/>
       <c r="K547" s="20"/>
@@ -18701,13 +18701,13 @@
     </row>
     <row r="548" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A548" s="12" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B548" s="12">
         <v>-14</v>
       </c>
       <c r="C548" s="12" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D548" s="12" t="s">
         <v>13</v>
@@ -18716,7 +18716,7 @@
         <v>12</v>
       </c>
       <c r="G548" s="12" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="J548"/>
       <c r="K548" s="20"/>
@@ -18730,7 +18730,7 @@
     </row>
     <row r="549" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A549" s="12" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B549" s="12">
         <v>-8</v>
@@ -18745,7 +18745,7 @@
         <v>12</v>
       </c>
       <c r="G549" s="12" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="J549"/>
       <c r="K549" s="20"/>
@@ -18759,7 +18759,7 @@
     </row>
     <row r="550" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A550" s="12" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B550" s="12">
         <v>-534</v>
@@ -18774,7 +18774,7 @@
         <v>12</v>
       </c>
       <c r="G550" s="12" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="J550"/>
       <c r="K550" s="20"/>
@@ -18788,7 +18788,7 @@
     </row>
     <row r="551" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A551" s="12" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="B551" s="12">
         <v>-3000</v>
@@ -18803,7 +18803,7 @@
         <v>12</v>
       </c>
       <c r="G551" s="12" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="J551"/>
       <c r="K551" s="20"/>
@@ -18817,7 +18817,7 @@
     </row>
     <row r="552" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A552" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B552" s="12">
         <v>-429</v>
@@ -18832,7 +18832,7 @@
         <v>12</v>
       </c>
       <c r="G552" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J552"/>
       <c r="K552" s="20"/>
@@ -18846,13 +18846,13 @@
     </row>
     <row r="553" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A553" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B553" s="12">
         <v>-210</v>
       </c>
       <c r="C553" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D553" s="12" t="s">
         <v>13</v>
@@ -18861,7 +18861,7 @@
         <v>12</v>
       </c>
       <c r="G553" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J553"/>
       <c r="K553" s="20"/>
@@ -18875,7 +18875,7 @@
     </row>
     <row r="554" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A554" s="12" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="B554" s="12">
         <v>-5600</v>
@@ -18890,7 +18890,7 @@
         <v>12</v>
       </c>
       <c r="G554" s="12" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="J554"/>
       <c r="K554" s="20"/>
@@ -18937,49 +18937,49 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="36"/>
       <c r="B3" s="37" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>444</v>
-      </c>
-      <c r="D4" s="57" t="s">
-        <v>409</v>
-      </c>
-      <c r="E4" s="58"/>
+        <v>432</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>397</v>
+      </c>
+      <c r="E4" s="54"/>
       <c r="F4" s="40" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="71" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="47" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="B5" s="40">
         <v>7</v>
@@ -18987,31 +18987,31 @@
       <c r="C5" s="39">
         <v>5.5</v>
       </c>
-      <c r="D5" s="59">
+      <c r="D5" s="55">
         <v>2.5</v>
       </c>
-      <c r="E5" s="60"/>
+      <c r="E5" s="56"/>
       <c r="F5" s="39" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="47" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="B6" s="50" t="s">
-        <v>413</v>
-      </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="51"/>
+        <v>401</v>
+      </c>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="52"/>
       <c r="F6" s="41" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="47" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="B7" s="40">
         <v>27.5</v>
@@ -19019,17 +19019,17 @@
       <c r="C7" s="39">
         <v>20</v>
       </c>
-      <c r="D7" s="59">
+      <c r="D7" s="55">
         <v>20</v>
       </c>
-      <c r="E7" s="60"/>
+      <c r="E7" s="56"/>
       <c r="F7" s="39" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="47" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="B8" s="40">
         <v>3</v>
@@ -19037,31 +19037,31 @@
       <c r="C8" s="39">
         <v>3</v>
       </c>
-      <c r="D8" s="59">
+      <c r="D8" s="55">
         <v>7</v>
       </c>
-      <c r="E8" s="60"/>
+      <c r="E8" s="56"/>
       <c r="F8" s="39" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="47" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>445</v>
-      </c>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="51"/>
+        <v>433</v>
+      </c>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="52"/>
       <c r="F9" s="41" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="71" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="B10" s="40">
         <v>51.8</v>
@@ -19076,12 +19076,12 @@
         <v>39</v>
       </c>
       <c r="F10" s="39" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="47" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="B11" s="43">
         <v>0.64500000000000002</v>
@@ -19096,12 +19096,12 @@
         <v>0.85</v>
       </c>
       <c r="F11" s="39" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="47" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="B12" s="40"/>
       <c r="C12" s="45"/>
@@ -19110,12 +19110,12 @@
         <v>16</v>
       </c>
       <c r="F12" s="39" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="47" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="B13" s="40">
         <v>19.36</v>
@@ -19126,92 +19126,92 @@
       <c r="D13" s="50">
         <v>23.6</v>
       </c>
-      <c r="E13" s="51"/>
+      <c r="E13" s="52"/>
       <c r="F13" s="39" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="47" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="B14" s="40">
         <v>3.7000000000000002E-3</v>
       </c>
       <c r="C14" s="46"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="53"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="58"/>
       <c r="F14" s="41" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="47" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="D15" s="50" t="s">
-        <v>431</v>
-      </c>
-      <c r="E15" s="51"/>
+        <v>419</v>
+      </c>
+      <c r="E15" s="52"/>
       <c r="F15" s="39" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="47" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="D16" s="50" t="s">
-        <v>435</v>
-      </c>
-      <c r="E16" s="51"/>
+        <v>423</v>
+      </c>
+      <c r="E16" s="52"/>
       <c r="F16" s="39" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="113" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="47" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>438</v>
-      </c>
-      <c r="D17" s="54" t="s">
-        <v>439</v>
-      </c>
-      <c r="E17" s="55"/>
+        <v>426</v>
+      </c>
+      <c r="D17" s="59" t="s">
+        <v>427</v>
+      </c>
+      <c r="E17" s="60"/>
       <c r="F17" s="41" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19257,119 +19257,119 @@
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
     </row>
     <row r="3" spans="1:33" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="K3" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="L3" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="M3" s="31" t="s">
         <v>242</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="N3" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="O3" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="P3" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="Q3" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="R3" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="S3" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="T3" s="31" t="s">
         <v>249</v>
       </c>
-      <c r="I3" s="31" t="s">
+      <c r="U3" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="J3" s="31" t="s">
+      <c r="V3" s="31" t="s">
         <v>251</v>
       </c>
-      <c r="K3" s="31" t="s">
+      <c r="W3" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="L3" s="31" t="s">
+      <c r="X3" s="31" t="s">
         <v>253</v>
       </c>
-      <c r="M3" s="31" t="s">
+      <c r="Y3" s="31" t="s">
         <v>254</v>
       </c>
-      <c r="N3" s="31" t="s">
+      <c r="Z3" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="O3" s="31" t="s">
+      <c r="AA3" s="31" t="s">
         <v>256</v>
       </c>
-      <c r="P3" s="31" t="s">
+      <c r="AB3" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="Q3" s="31" t="s">
+      <c r="AC3" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="R3" s="31" t="s">
+      <c r="AD3" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="S3" s="31" t="s">
+      <c r="AE3" s="31" t="s">
         <v>260</v>
       </c>
-      <c r="T3" s="31" t="s">
+      <c r="AF3" s="31" t="s">
         <v>261</v>
       </c>
-      <c r="U3" s="31" t="s">
+      <c r="AG3" s="31" t="s">
         <v>262</v>
-      </c>
-      <c r="V3" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="W3" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="X3" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="Y3" s="31" t="s">
-        <v>266</v>
-      </c>
-      <c r="Z3" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="AA3" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="AB3" s="31" t="s">
-        <v>269</v>
-      </c>
-      <c r="AC3" s="31" t="s">
-        <v>270</v>
-      </c>
-      <c r="AD3" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="AE3" s="31" t="s">
-        <v>272</v>
-      </c>
-      <c r="AF3" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="AG3" s="31" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="B4" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="C4" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D4">
         <v>40</v>
@@ -19378,13 +19378,13 @@
         <v>788</v>
       </c>
       <c r="H4" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="I4" s="32">
         <v>0.2512690355329949</v>
       </c>
       <c r="K4" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="M4">
         <v>-20</v>
@@ -19417,18 +19417,18 @@
         <v>199.5</v>
       </c>
       <c r="AE4" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="B5" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="C5" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D5">
         <v>49</v>
@@ -19437,13 +19437,13 @@
         <v>988</v>
       </c>
       <c r="H5" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="I5" s="32">
         <v>0.20040485829959515</v>
       </c>
       <c r="K5" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="M5">
         <v>-20</v>
@@ -19476,18 +19476,18 @@
         <v>249.5</v>
       </c>
       <c r="AE5" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="B6" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="C6" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="F6">
         <v>2.4</v>
@@ -19496,7 +19496,7 @@
         <v>230</v>
       </c>
       <c r="H6" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="I6" s="32">
         <v>0.125</v>
@@ -19505,7 +19505,7 @@
         <v>3</v>
       </c>
       <c r="K6" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="M6">
         <v>5</v>
@@ -19550,18 +19550,18 @@
         <v>5</v>
       </c>
       <c r="AE6" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="B7" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="C7" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -19578,18 +19578,18 @@
         <v>0.4</v>
       </c>
       <c r="AE7" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="B8" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="C8" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D8">
         <v>79</v>
@@ -19598,13 +19598,13 @@
         <v>1580</v>
       </c>
       <c r="H8" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="I8" s="32">
         <v>0.12531645569620253</v>
       </c>
       <c r="K8" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="M8">
         <v>-20</v>
@@ -19637,18 +19637,18 @@
         <v>399.1</v>
       </c>
       <c r="AE8" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="B9" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="C9" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="D9">
         <v>6</v>
@@ -19668,18 +19668,18 @@
         <v>1.6</v>
       </c>
       <c r="AE9" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="B10" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="C10" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -19694,7 +19694,7 @@
         <v>400</v>
       </c>
       <c r="H10" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="I10" s="32">
         <v>0.1</v>
@@ -19703,7 +19703,7 @@
         <v>3</v>
       </c>
       <c r="K10" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="L10">
         <v>8700</v>
@@ -19759,7 +19759,7 @@
         <v>2</v>
       </c>
       <c r="AE10" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="AF10">
         <v>5</v>
@@ -19770,13 +19770,13 @@
     </row>
     <row r="11" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="B11" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="C11" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -19791,7 +19791,7 @@
         <v>400</v>
       </c>
       <c r="H11" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="I11" s="32">
         <v>0.1</v>
@@ -19800,7 +19800,7 @@
         <v>3</v>
       </c>
       <c r="K11" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="L11">
         <v>8700</v>
@@ -19856,7 +19856,7 @@
         <v>2</v>
       </c>
       <c r="AE11" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="AF11">
         <v>5</v>
@@ -19867,13 +19867,13 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="B12" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="C12" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D12">
         <v>99</v>
@@ -19882,13 +19882,13 @@
         <v>1975</v>
       </c>
       <c r="H12" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="I12" s="32">
         <v>0.10025316455696202</v>
       </c>
       <c r="K12" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="M12">
         <v>-20</v>
@@ -19921,18 +19921,18 @@
         <v>500</v>
       </c>
       <c r="AE12" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="B13" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="C13" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D13">
         <v>215</v>
@@ -19944,11 +19944,11 @@
         <v>5375</v>
       </c>
       <c r="H13" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="I13" s="32"/>
       <c r="K13" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="M13">
         <v>5</v>
@@ -19981,18 +19981,18 @@
         <v>1000</v>
       </c>
       <c r="AE13" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="B14" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="C14" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D14">
         <v>50</v>
@@ -20007,7 +20007,7 @@
         <v>400</v>
       </c>
       <c r="H14" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="I14" s="32">
         <v>4.4999999999999998E-2</v>
@@ -20016,7 +20016,7 @@
         <v>30</v>
       </c>
       <c r="K14" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="L14">
         <v>8322</v>
@@ -20052,7 +20052,7 @@
         <v>200</v>
       </c>
       <c r="AE14" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="AF14">
         <v>5</v>
@@ -20063,13 +20063,13 @@
     </row>
     <row r="15" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="B15" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="C15" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -20084,7 +20084,7 @@
         <v>400</v>
       </c>
       <c r="H15" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="I15" s="32">
         <v>9.0909090909090912E-2</v>
@@ -20093,7 +20093,7 @@
         <v>3</v>
       </c>
       <c r="K15" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="L15">
         <v>8700</v>
@@ -20149,7 +20149,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="AE15" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="AF15">
         <v>5</v>
@@ -20160,13 +20160,13 @@
     </row>
     <row r="16" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="B16" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C16" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -20181,7 +20181,7 @@
         <v>400</v>
       </c>
       <c r="H16" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="I16" s="32">
         <v>9.0909090909090912E-2</v>
@@ -20190,7 +20190,7 @@
         <v>3</v>
       </c>
       <c r="K16" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="L16">
         <v>8700</v>
@@ -20246,7 +20246,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="AE16" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="AF16">
         <v>5</v>
@@ -20257,13 +20257,13 @@
     </row>
     <row r="17" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="B17" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="C17" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="D17">
         <v>14</v>
@@ -20283,18 +20283,18 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="AE17" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="B18" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="C18" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D18">
         <v>250</v>
@@ -20309,7 +20309,7 @@
         <v>400</v>
       </c>
       <c r="H18" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="I18" s="32">
         <v>1.7999999999999999E-2</v>
@@ -20318,7 +20318,7 @@
         <v>30</v>
       </c>
       <c r="K18" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="L18">
         <v>8322</v>
@@ -20354,7 +20354,7 @@
         <v>1</v>
       </c>
       <c r="AE18" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="AF18">
         <v>5</v>
@@ -20365,13 +20365,13 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="B19" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="C19" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="F19">
         <v>1000</v>
@@ -20380,7 +20380,7 @@
         <v>400</v>
       </c>
       <c r="H19" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="I19" s="32"/>
       <c r="J19">
@@ -20422,13 +20422,13 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="B20" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="C20" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D20">
         <v>200</v>
@@ -20443,7 +20443,7 @@
         <v>400</v>
       </c>
       <c r="H20" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="I20" s="32">
         <v>0.15</v>
@@ -20452,7 +20452,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="L20">
         <v>8600</v>
@@ -20491,18 +20491,18 @@
         <v>400</v>
       </c>
       <c r="AE20" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="B21" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="C21" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D21">
         <v>300</v>
@@ -20517,7 +20517,7 @@
         <v>400</v>
       </c>
       <c r="H21" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="I21" s="32">
         <v>0.1</v>
@@ -20526,7 +20526,7 @@
         <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="L21">
         <v>8600</v>
@@ -20565,18 +20565,18 @@
         <v>600</v>
       </c>
       <c r="AE21" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="B22" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="C22" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -20591,7 +20591,7 @@
         <v>400</v>
       </c>
       <c r="H22" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="I22" s="32">
         <v>9.3023255813953487E-2</v>
@@ -20600,7 +20600,7 @@
         <v>3</v>
       </c>
       <c r="K22" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="L22">
         <v>8700</v>
@@ -20656,7 +20656,7 @@
         <v>8.9</v>
       </c>
       <c r="AE22" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="AF22">
         <v>5</v>
@@ -20667,13 +20667,13 @@
     </row>
     <row r="23" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="B23" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="C23" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -20688,7 +20688,7 @@
         <v>400</v>
       </c>
       <c r="H23" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="I23" s="32">
         <v>9.3023255813953487E-2</v>
@@ -20697,7 +20697,7 @@
         <v>3</v>
       </c>
       <c r="K23" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="L23">
         <v>8700</v>
@@ -20753,7 +20753,7 @@
         <v>8.9</v>
       </c>
       <c r="AE23" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="AF23">
         <v>5</v>
@@ -20764,19 +20764,19 @@
     </row>
     <row r="24" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="B24" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="C24" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="F24">
         <v>50</v>
       </c>
       <c r="H24" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="I24" s="32"/>
       <c r="O24">
@@ -20803,13 +20803,13 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="B25" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="C25" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D25">
         <v>400</v>
@@ -20824,7 +20824,7 @@
         <v>400</v>
       </c>
       <c r="H25" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="I25" s="32">
         <v>0.1</v>
@@ -20833,7 +20833,7 @@
         <v>1</v>
       </c>
       <c r="K25" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="L25">
         <v>8600</v>
@@ -20872,18 +20872,18 @@
         <v>800</v>
       </c>
       <c r="AE25" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="26" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="B26" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="C26" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="D26">
         <v>18</v>
@@ -20903,18 +20903,18 @@
         <v>10</v>
       </c>
       <c r="AE26" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="B27" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="C27" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -20929,7 +20929,7 @@
         <v>400</v>
       </c>
       <c r="H27" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="I27" s="32">
         <v>9.3023255813953487E-2</v>
@@ -20938,7 +20938,7 @@
         <v>3</v>
       </c>
       <c r="K27" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="L27">
         <v>8700</v>
@@ -20994,7 +20994,7 @@
         <v>17.8</v>
       </c>
       <c r="AE27" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="AF27">
         <v>5</v>
@@ -21005,13 +21005,13 @@
     </row>
     <row r="28" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="B28" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="C28" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -21026,7 +21026,7 @@
         <v>400</v>
       </c>
       <c r="H28" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="I28" s="32">
         <v>9.3023255813953487E-2</v>
@@ -21035,7 +21035,7 @@
         <v>3</v>
       </c>
       <c r="K28" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="L28">
         <v>8700</v>
@@ -21091,7 +21091,7 @@
         <v>17.8</v>
       </c>
       <c r="AE28" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="AF28">
         <v>5</v>
@@ -21102,19 +21102,19 @@
     </row>
     <row r="29" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="B29" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="C29" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="F29">
         <v>100</v>
       </c>
       <c r="H29" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="I29" s="32"/>
       <c r="O29">
@@ -21141,13 +21141,13 @@
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="B30" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="C30" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D30">
         <v>500</v>
@@ -21162,7 +21162,7 @@
         <v>400</v>
       </c>
       <c r="H30" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="I30" s="32">
         <v>0.08</v>
@@ -21171,7 +21171,7 @@
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="L30">
         <v>8600</v>
@@ -21210,18 +21210,18 @@
         <v>1000</v>
       </c>
       <c r="AE30" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="B31" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="C31" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D31">
         <v>10</v>
@@ -21236,7 +21236,7 @@
         <v>400</v>
       </c>
       <c r="H31" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="I31" s="32">
         <v>0.13636363636363635</v>
@@ -21245,7 +21245,7 @@
         <v>1</v>
       </c>
       <c r="K31" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="L31">
         <v>8410</v>
@@ -21293,18 +21293,18 @@
         <v>20</v>
       </c>
       <c r="AE31" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="B32" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="C32" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="F32">
         <v>1000</v>
@@ -21354,13 +21354,13 @@
     </row>
     <row r="33" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="B33" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="C33" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="D33">
         <v>46</v>
@@ -21369,13 +21369,13 @@
         <v>115</v>
       </c>
       <c r="H33" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="I33" s="32">
         <v>0.46956521739130436</v>
       </c>
       <c r="K33" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="M33">
         <v>-20</v>
@@ -21405,18 +21405,18 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="AE33" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="B34" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="C34" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D34">
         <v>10</v>
@@ -21431,7 +21431,7 @@
         <v>400</v>
       </c>
       <c r="H34" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="I34" s="32">
         <v>0.11666666666666667</v>
@@ -21440,7 +21440,7 @@
         <v>15</v>
       </c>
       <c r="K34" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="L34">
         <v>8650</v>
@@ -21496,7 +21496,7 @@
         <v>9.9</v>
       </c>
       <c r="AE34" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="AF34">
         <v>5</v>
@@ -21507,13 +21507,13 @@
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>298</v>
+      </c>
+      <c r="B35" t="s">
         <v>310</v>
       </c>
-      <c r="B35" t="s">
-        <v>322</v>
-      </c>
       <c r="C35" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D35">
         <v>20</v>
@@ -21528,7 +21528,7 @@
         <v>400</v>
       </c>
       <c r="H35" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="I35" s="32">
         <v>5.8333333333333334E-2</v>
@@ -21537,7 +21537,7 @@
         <v>15</v>
       </c>
       <c r="K35" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="L35">
         <v>8650</v>
@@ -21593,7 +21593,7 @@
         <v>19.8</v>
       </c>
       <c r="AE35" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="AF35">
         <v>5</v>
@@ -21604,13 +21604,13 @@
     </row>
     <row r="36" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="B36" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="C36" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="D36">
         <v>62</v>
@@ -21619,13 +21619,13 @@
         <v>155</v>
       </c>
       <c r="H36" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="I36" s="32">
         <v>0.34838709677419355</v>
       </c>
       <c r="K36" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="M36">
         <v>-20</v>
@@ -21655,18 +21655,18 @@
         <v>14.8</v>
       </c>
       <c r="AE36" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="37" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="B37" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="C37" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -21681,7 +21681,7 @@
         <v>400</v>
       </c>
       <c r="H37" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="I37" s="32">
         <v>9.2485549132947972E-2</v>
@@ -21690,7 +21690,7 @@
         <v>3</v>
       </c>
       <c r="K37" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="L37">
         <v>8700</v>
@@ -21746,7 +21746,7 @@
         <v>35.6</v>
       </c>
       <c r="AE37" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="AF37">
         <v>5</v>
@@ -21757,13 +21757,13 @@
     </row>
     <row r="38" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="B38" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="C38" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -21778,7 +21778,7 @@
         <v>400</v>
       </c>
       <c r="H38" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="I38" s="32">
         <v>9.2485549132947972E-2</v>
@@ -21787,7 +21787,7 @@
         <v>3</v>
       </c>
       <c r="K38" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="L38">
         <v>8700</v>
@@ -21843,7 +21843,7 @@
         <v>35.6</v>
       </c>
       <c r="AE38" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="AF38">
         <v>5</v>
@@ -21854,13 +21854,13 @@
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="B39" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="C39" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D39">
         <v>30</v>
@@ -21875,7 +21875,7 @@
         <v>400</v>
       </c>
       <c r="H39" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="I39" s="32">
         <v>0.15555555555555556</v>
@@ -21884,7 +21884,7 @@
         <v>15</v>
       </c>
       <c r="K39" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="L39">
         <v>8650</v>
@@ -21940,7 +21940,7 @@
         <v>29.7</v>
       </c>
       <c r="AE39" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="AF39">
         <v>5</v>
@@ -21951,13 +21951,13 @@
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="B40" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="C40" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D40">
         <v>20</v>
@@ -21972,7 +21972,7 @@
         <v>400</v>
       </c>
       <c r="H40" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="I40" s="32">
         <v>5.8333333333333334E-2</v>
@@ -21981,7 +21981,7 @@
         <v>15</v>
       </c>
       <c r="K40" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="L40">
         <v>8650</v>
@@ -22037,7 +22037,7 @@
         <v>39.6</v>
       </c>
       <c r="AE40" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="AF40">
         <v>5</v>
@@ -22048,13 +22048,13 @@
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="B41" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="C41" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D41">
         <v>30</v>
@@ -22069,7 +22069,7 @@
         <v>400</v>
       </c>
       <c r="H41" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="I41" s="32">
         <v>3.888888888888889E-2</v>
@@ -22078,7 +22078,7 @@
         <v>15</v>
       </c>
       <c r="K41" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="L41">
         <v>8650</v>
@@ -22134,7 +22134,7 @@
         <v>59.3</v>
       </c>
       <c r="AE41" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="AF41">
         <v>5</v>
@@ -22145,13 +22145,13 @@
     </row>
     <row r="42" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="B42" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="C42" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="D42">
         <v>110</v>
@@ -22160,13 +22160,13 @@
         <v>275</v>
       </c>
       <c r="H42" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="I42" s="32">
         <v>0.19636363636363635</v>
       </c>
       <c r="K42" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="M42">
         <v>-20</v>
@@ -22188,18 +22188,18 @@
         <v>29.6</v>
       </c>
       <c r="AE42" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="B43" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="C43" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D43">
         <v>45</v>
@@ -22214,7 +22214,7 @@
         <v>400</v>
       </c>
       <c r="H43" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="I43" s="32">
         <v>2.5925925925925925E-2</v>
@@ -22223,7 +22223,7 @@
         <v>15</v>
       </c>
       <c r="K43" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="L43">
         <v>8650</v>
@@ -22279,7 +22279,7 @@
         <v>89</v>
       </c>
       <c r="AE43" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="AF43">
         <v>5</v>
@@ -22290,13 +22290,13 @@
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="B44" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="C44" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D44">
         <v>60</v>
@@ -22311,7 +22311,7 @@
         <v>400</v>
       </c>
       <c r="H44" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="I44" s="32">
         <v>1.9444444444444445E-2</v>
@@ -22320,7 +22320,7 @@
         <v>15</v>
       </c>
       <c r="K44" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="L44">
         <v>8650</v>
@@ -22376,7 +22376,7 @@
         <v>118.7</v>
       </c>
       <c r="AE44" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="AF44">
         <v>5</v>
@@ -22387,13 +22387,13 @@
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="B45" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="C45" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D45">
         <v>200</v>
@@ -22408,7 +22408,7 @@
         <v>400</v>
       </c>
       <c r="H45" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="I45" s="32">
         <v>3.111111111111111E-2</v>
@@ -22417,7 +22417,7 @@
         <v>15</v>
       </c>
       <c r="K45" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="L45">
         <v>8650</v>
@@ -22473,7 +22473,7 @@
         <v>148.30000000000001</v>
       </c>
       <c r="AE45" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="AF45">
         <v>5</v>
@@ -22484,19 +22484,19 @@
     </row>
     <row r="46" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="B46" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="C46" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="F46">
         <v>500</v>
       </c>
       <c r="H46" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="I46" s="32"/>
       <c r="O46">
@@ -22523,13 +22523,13 @@
     </row>
     <row r="47" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="B47" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="C47" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="D47">
         <v>15</v>
@@ -22544,11 +22544,11 @@
         <v>400</v>
       </c>
       <c r="H47" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="I47" s="32"/>
       <c r="K47" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="M47">
         <v>-15</v>
@@ -22595,7 +22595,7 @@
         <v>103.3</v>
       </c>
       <c r="AE47" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="AF47">
         <v>5</v>
@@ -22606,13 +22606,13 @@
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="B48" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="C48" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D48">
         <v>200</v>
@@ -22627,7 +22627,7 @@
         <v>400</v>
       </c>
       <c r="H48" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="I48" s="32">
         <v>2.3333333333333334E-2</v>
@@ -22636,7 +22636,7 @@
         <v>15</v>
       </c>
       <c r="K48" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="L48">
         <v>8650</v>
@@ -22692,7 +22692,7 @@
         <v>197.8</v>
       </c>
       <c r="AE48" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="AF48">
         <v>5</v>
@@ -22703,13 +22703,13 @@
     </row>
     <row r="49" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="B49" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="C49" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="D49">
         <v>220</v>
@@ -22718,13 +22718,13 @@
         <v>550</v>
       </c>
       <c r="H49" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="I49" s="32">
         <v>0.16181818181818181</v>
       </c>
       <c r="K49" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="M49">
         <v>-20</v>
@@ -22754,18 +22754,18 @@
         <v>60.2</v>
       </c>
       <c r="AE49" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="50" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="B50" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C50" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="D50">
         <v>270</v>
@@ -22774,13 +22774,13 @@
         <v>675</v>
       </c>
       <c r="H50" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="I50" s="32">
         <v>0.13185185185185186</v>
       </c>
       <c r="K50" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="M50">
         <v>-20</v>
@@ -22802,18 +22802,18 @@
         <v>74.099999999999994</v>
       </c>
       <c r="AE50" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="B51" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C51" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D51">
         <v>200</v>
@@ -22828,7 +22828,7 @@
         <v>400</v>
       </c>
       <c r="H51" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="I51" s="32">
         <v>1.5555555555555555E-2</v>
@@ -22837,7 +22837,7 @@
         <v>15</v>
       </c>
       <c r="K51" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="L51">
         <v>8650</v>
@@ -22893,7 +22893,7 @@
         <v>296.7</v>
       </c>
       <c r="AE51" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="AF51">
         <v>5</v>
@@ -22904,13 +22904,13 @@
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="B52" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="C52" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D52">
         <v>200</v>
@@ -22925,7 +22925,7 @@
         <v>400</v>
       </c>
       <c r="H52" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="I52" s="32">
         <v>1.1666666666666667E-2</v>
@@ -22934,7 +22934,7 @@
         <v>15</v>
       </c>
       <c r="K52" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="L52">
         <v>8650</v>
@@ -22990,7 +22990,7 @@
         <v>395.6</v>
       </c>
       <c r="AE52" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="AF52">
         <v>5</v>
@@ -23001,13 +23001,13 @@
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="B53" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="C53" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D53">
         <v>500</v>
@@ -23022,7 +23022,7 @@
         <v>400</v>
       </c>
       <c r="H53" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="I53" s="32">
         <v>1.7999999999999999E-2</v>
@@ -23031,7 +23031,7 @@
         <v>30</v>
       </c>
       <c r="K53" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="L53">
         <v>8322</v>
@@ -23067,7 +23067,7 @@
         <v>2</v>
       </c>
       <c r="AE53" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="AF53">
         <v>5</v>
@@ -23078,13 +23078,13 @@
     </row>
     <row r="54" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="B54" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="C54" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="D54">
         <v>320</v>
@@ -23093,13 +23093,13 @@
         <v>800</v>
       </c>
       <c r="H54" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="I54" s="32">
         <v>0.11125</v>
       </c>
       <c r="K54" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="M54">
         <v>-20</v>
@@ -23121,18 +23121,18 @@
         <v>99.5</v>
       </c>
       <c r="AE54" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="B55" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="C55" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D55">
         <v>750</v>
@@ -23147,7 +23147,7 @@
         <v>400</v>
       </c>
       <c r="H55" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="I55" s="32">
         <v>1.7999999999999999E-2</v>
@@ -23156,7 +23156,7 @@
         <v>30</v>
       </c>
       <c r="K55" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="L55">
         <v>8322</v>
@@ -23192,7 +23192,7 @@
         <v>3</v>
       </c>
       <c r="AE55" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="AF55">
         <v>5</v>
@@ -23203,19 +23203,19 @@
     </row>
     <row r="56" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="B56" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="C56" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="F56">
         <v>1000</v>
       </c>
       <c r="H56" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="I56" s="32"/>
       <c r="O56">
@@ -23242,13 +23242,13 @@
     </row>
     <row r="57" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="B57" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="C57" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="D57">
         <v>300</v>
@@ -23263,7 +23263,7 @@
         <v>10</v>
       </c>
       <c r="H57" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="I57" s="32">
         <v>7.0000000000000007E-2</v>
@@ -23272,7 +23272,7 @@
         <v>20</v>
       </c>
       <c r="K57" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="L57">
         <v>8568</v>
@@ -23331,7 +23331,7 @@
         <v>186.9</v>
       </c>
       <c r="AE57" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="AF57">
         <v>5</v>
@@ -23342,13 +23342,13 @@
     </row>
     <row r="58" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="B58" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="C58" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="D58">
         <v>30</v>
@@ -23363,11 +23363,11 @@
         <v>400</v>
       </c>
       <c r="H58" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="I58" s="32"/>
       <c r="K58" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="M58">
         <v>-15</v>
@@ -23414,7 +23414,7 @@
         <v>207.8</v>
       </c>
       <c r="AE58" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="AF58">
         <v>5</v>
@@ -23425,13 +23425,13 @@
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="B59" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="C59" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D59">
         <v>1000</v>
@@ -23446,7 +23446,7 @@
         <v>400</v>
       </c>
       <c r="H59" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="I59" s="32">
         <v>1.7999999999999999E-2</v>
@@ -23455,7 +23455,7 @@
         <v>30</v>
       </c>
       <c r="K59" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="L59">
         <v>8322</v>
@@ -23491,7 +23491,7 @@
         <v>4</v>
       </c>
       <c r="AE59" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="AF59">
         <v>5</v>
@@ -23502,13 +23502,13 @@
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B60" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="C60" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D60">
         <v>21</v>
@@ -23523,14 +23523,14 @@
         <v>300</v>
       </c>
       <c r="H60" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="I60" s="32"/>
       <c r="J60">
         <v>10</v>
       </c>
       <c r="K60" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="O60">
         <v>4.83</v>
@@ -23569,18 +23569,18 @@
         <v>21.1</v>
       </c>
       <c r="AE60" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B61" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="C61" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D61">
         <v>300</v>
@@ -23595,14 +23595,14 @@
         <v>616</v>
       </c>
       <c r="H61" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="I61" s="32"/>
       <c r="J61">
         <v>10</v>
       </c>
       <c r="K61" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="O61">
         <v>4.8499999999999996</v>
@@ -23641,18 +23641,18 @@
         <v>308.89999999999998</v>
       </c>
       <c r="AE61" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="B62" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="C62" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D62">
         <v>100</v>
@@ -23667,7 +23667,7 @@
         <v>400</v>
       </c>
       <c r="H62" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="I62" s="32">
         <v>2.7272727272727271E-2</v>
@@ -23676,7 +23676,7 @@
         <v>3</v>
       </c>
       <c r="K62" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="L62">
         <v>8410</v>
@@ -23724,18 +23724,18 @@
         <v>200</v>
       </c>
       <c r="AE62" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="63" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="B63" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="C63" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="D63">
         <v>30</v>
@@ -23750,7 +23750,7 @@
         <v>400</v>
       </c>
       <c r="H63" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="I63" s="32">
         <v>2.8071833648393194E-2</v>
@@ -23759,7 +23759,7 @@
         <v>3</v>
       </c>
       <c r="K63" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="M63">
         <v>5</v>
@@ -23804,18 +23804,18 @@
         <v>208.3</v>
       </c>
       <c r="AE63" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
     <row r="64" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="B64" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="C64" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="F64">
         <v>1100</v>
@@ -23824,7 +23824,7 @@
         <v>480</v>
       </c>
       <c r="H64" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="I64" s="32">
         <v>4.2237818181818189E-2</v>
@@ -23847,13 +23847,13 @@
     </row>
     <row r="65" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="B65" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="C65" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="F65">
         <v>1100</v>
@@ -23862,7 +23862,7 @@
         <v>480</v>
       </c>
       <c r="H65" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="I65" s="32">
         <v>4.2237818181818189E-2</v>
@@ -23889,13 +23889,13 @@
     </row>
     <row r="66" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="B66" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="C66" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D66">
         <v>3</v>
@@ -23910,7 +23910,7 @@
         <v>400</v>
       </c>
       <c r="H66" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="I66" s="32">
         <v>0.5357142857142857</v>
@@ -23919,7 +23919,7 @@
         <v>1</v>
       </c>
       <c r="K66" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="L66">
         <v>8410</v>
@@ -23967,18 +23967,18 @@
         <v>5</v>
       </c>
       <c r="AE66" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="B67" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="C67" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="F67">
         <v>2</v>
@@ -24020,13 +24020,13 @@
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="B68" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="C68" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="F68">
         <v>13</v>
@@ -24068,13 +24068,13 @@
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="B69" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="C69" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="F69">
         <v>35</v>
@@ -24116,13 +24116,13 @@
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="B70" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="C70" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="F70">
         <v>100</v>
@@ -24164,13 +24164,13 @@
     </row>
     <row r="71" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="B71" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="C71" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="D71">
         <v>300</v>
@@ -24185,7 +24185,7 @@
         <v>10</v>
       </c>
       <c r="H71" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="I71" s="32">
         <v>7.0000000000000007E-2</v>
@@ -24194,7 +24194,7 @@
         <v>5</v>
       </c>
       <c r="K71" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="L71">
         <v>8410</v>
@@ -24253,7 +24253,7 @@
         <v>280.3</v>
       </c>
       <c r="AE71" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="AF71">
         <v>5</v>
@@ -24264,13 +24264,13 @@
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="B72" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="C72" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -24285,7 +24285,7 @@
         <v>400</v>
       </c>
       <c r="H72" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="I72" s="32">
         <v>0.42857142857142855</v>
@@ -24294,7 +24294,7 @@
         <v>40</v>
       </c>
       <c r="K72" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="L72">
         <v>8500</v>
@@ -24331,18 +24331,18 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AE72" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
     <row r="73" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="B73" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="C73" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -24357,7 +24357,7 @@
         <v>400</v>
       </c>
       <c r="H73" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="I73" s="32">
         <v>0.21428571428571427</v>
@@ -24366,7 +24366,7 @@
         <v>40</v>
       </c>
       <c r="K73" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="L73">
         <v>8500</v>
@@ -24403,18 +24403,18 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="AE73" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
     <row r="74" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="B74" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="C74" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -24429,7 +24429,7 @@
         <v>400</v>
       </c>
       <c r="H74" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="I74" s="32">
         <v>0.15</v>
@@ -24438,7 +24438,7 @@
         <v>40</v>
       </c>
       <c r="K74" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="L74">
         <v>8500</v>
@@ -24475,18 +24475,18 @@
         <v>3.3</v>
       </c>
       <c r="AE74" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
     <row r="75" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="B75" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="C75" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -24501,7 +24501,7 @@
         <v>400</v>
       </c>
       <c r="H75" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="I75" s="32">
         <v>0.1111111111111111</v>
@@ -24510,7 +24510,7 @@
         <v>40</v>
       </c>
       <c r="K75" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="L75">
         <v>8500</v>
@@ -24547,24 +24547,24 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="AE75" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
     <row r="76" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="B76" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="C76" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="F76">
         <v>2000</v>
       </c>
       <c r="H76" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="I76" s="32"/>
       <c r="O76">
@@ -24591,13 +24591,13 @@
     </row>
     <row r="77" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="B77" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="C77" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="D77">
         <v>300</v>
@@ -24612,7 +24612,7 @@
         <v>10</v>
       </c>
       <c r="H77" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="I77" s="32">
         <v>5.2499999999999998E-2</v>
@@ -24621,7 +24621,7 @@
         <v>20</v>
       </c>
       <c r="K77" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="L77">
         <v>8568</v>
@@ -24680,7 +24680,7 @@
         <v>373.8</v>
       </c>
       <c r="AE77" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="AF77">
         <v>5</v>
@@ -24691,13 +24691,13 @@
     </row>
     <row r="78" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="B78" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="C78" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -24712,7 +24712,7 @@
         <v>400</v>
       </c>
       <c r="H78" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="I78" s="32">
         <v>9.0909090909090912E-2</v>
@@ -24721,7 +24721,7 @@
         <v>40</v>
       </c>
       <c r="K78" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="L78">
         <v>8500</v>
@@ -24758,18 +24758,18 @@
         <v>5.6</v>
       </c>
       <c r="AE78" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
     <row r="79" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="B79" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="C79" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D79">
         <v>12</v>
@@ -24784,7 +24784,7 @@
         <v>400</v>
       </c>
       <c r="H79" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="I79" s="32">
         <v>6.6666666666666666E-2</v>
@@ -24793,7 +24793,7 @@
         <v>40</v>
       </c>
       <c r="K79" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="L79">
         <v>8600</v>
@@ -24815,18 +24815,18 @@
         <v>19.399999999999999</v>
       </c>
       <c r="AE79" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
     <row r="80" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="B80" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="C80" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="D80">
         <v>135</v>
@@ -24835,7 +24835,7 @@
         <v>2475</v>
       </c>
       <c r="H80" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="I80" s="32">
         <v>0.12121212121212122</v>
@@ -24873,13 +24873,13 @@
     </row>
     <row r="81" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="B81" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="C81" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D81">
         <v>24</v>
@@ -24894,7 +24894,7 @@
         <v>400</v>
       </c>
       <c r="H81" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="I81" s="32">
         <v>6.6666666666666666E-2</v>
@@ -24903,7 +24903,7 @@
         <v>40</v>
       </c>
       <c r="K81" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="L81">
         <v>8600</v>
@@ -24925,18 +24925,18 @@
         <v>38.9</v>
       </c>
       <c r="AE81" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
     <row r="82" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="B82" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="C82" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="D82">
         <v>300</v>
@@ -24951,7 +24951,7 @@
         <v>10</v>
       </c>
       <c r="H82" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="I82" s="32">
         <v>3.5000000000000003E-2</v>
@@ -24960,7 +24960,7 @@
         <v>5</v>
       </c>
       <c r="K82" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="L82">
         <v>8568</v>
@@ -25019,7 +25019,7 @@
         <v>560.70000000000005</v>
       </c>
       <c r="AE82" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="AF82">
         <v>5</v>
@@ -25030,13 +25030,13 @@
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="B83" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="C83" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D83">
         <v>40</v>
@@ -25051,7 +25051,7 @@
         <v>400</v>
       </c>
       <c r="H83" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="I83" s="32">
         <v>4.2424242424242427E-2</v>
@@ -25060,7 +25060,7 @@
         <v>30</v>
       </c>
       <c r="K83" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="L83">
         <v>8322</v>
@@ -25088,18 +25088,18 @@
         <v>47</v>
       </c>
       <c r="AE83" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="B84" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="C84" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D84">
         <v>48</v>
@@ -25114,7 +25114,7 @@
         <v>400</v>
       </c>
       <c r="H84" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="I84" s="32">
         <v>6.4285714285714279E-2</v>
@@ -25123,7 +25123,7 @@
         <v>40</v>
       </c>
       <c r="K84" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="L84">
         <v>8600</v>
@@ -25145,24 +25145,24 @@
         <v>77.8</v>
       </c>
       <c r="AE84" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
     <row r="85" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="B85" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="C85" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="F85">
         <v>4000</v>
       </c>
       <c r="H85" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="I85" s="32"/>
       <c r="O85">
@@ -25189,13 +25189,13 @@
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="B86" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C86" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="F86">
         <v>700</v>
@@ -25204,14 +25204,14 @@
         <v>400</v>
       </c>
       <c r="H86" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="I86" s="32"/>
       <c r="J86">
         <v>1</v>
       </c>
       <c r="K86" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="R86" s="34"/>
       <c r="AA86">
@@ -25227,18 +25227,18 @@
         <v>122.2</v>
       </c>
       <c r="AE86" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="B87" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="C87" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D87">
         <v>131</v>
@@ -25253,7 +25253,7 @@
         <v>400</v>
       </c>
       <c r="H87" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="I87" s="32">
         <v>4.7619047619047616E-2</v>
@@ -25262,7 +25262,7 @@
         <v>40</v>
       </c>
       <c r="K87" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="L87">
         <v>8600</v>
@@ -25284,18 +25284,18 @@
         <v>222.2</v>
       </c>
       <c r="AE87" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="B88" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="C88" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="F88">
         <v>1390</v>
@@ -25304,11 +25304,11 @@
         <v>11000</v>
       </c>
       <c r="H88" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="I88" s="32"/>
       <c r="K88" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="R88" s="34"/>
       <c r="AA88">
@@ -25324,18 +25324,18 @@
         <v>244.4</v>
       </c>
       <c r="AE88" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="B89" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="C89" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D89">
         <v>200</v>
@@ -25350,7 +25350,7 @@
         <v>568</v>
       </c>
       <c r="H89" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="I89" s="32">
         <v>0.02</v>
@@ -25359,7 +25359,7 @@
         <v>30</v>
       </c>
       <c r="K89" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="L89">
         <v>8322</v>
@@ -25387,18 +25387,18 @@
         <v>210</v>
       </c>
       <c r="AE89" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="90" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="B90" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="C90" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="F90">
         <v>10000</v>
@@ -25407,7 +25407,7 @@
         <v>800</v>
       </c>
       <c r="H90" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="I90" s="32">
         <v>0</v>
@@ -25443,13 +25443,13 @@
     </row>
     <row r="91" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="B91" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="C91" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="F91">
         <v>10000</v>
@@ -25458,7 +25458,7 @@
         <v>800</v>
       </c>
       <c r="H91" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="I91" s="32">
         <v>0</v>
@@ -25486,13 +25486,13 @@
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="B92" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="C92" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="F92">
         <v>2350</v>
@@ -25501,11 +25501,11 @@
         <v>11000</v>
       </c>
       <c r="H92" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="I92" s="32"/>
       <c r="K92" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="R92" s="34"/>
       <c r="AA92">
@@ -25521,18 +25521,18 @@
         <v>400</v>
       </c>
       <c r="AE92" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="B93" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="C93" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D93">
         <v>125</v>
@@ -25547,7 +25547,7 @@
         <v>400</v>
       </c>
       <c r="H93" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="I93" s="32">
         <v>2.4E-2</v>
@@ -25556,7 +25556,7 @@
         <v>30</v>
       </c>
       <c r="K93" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="L93">
         <v>8322</v>
@@ -25584,7 +25584,7 @@
         <v>500</v>
       </c>
       <c r="AE93" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="AF93">
         <v>5</v>
@@ -25595,13 +25595,13 @@
     </row>
     <row r="94" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="B94" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="C94" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="D94">
         <v>4192</v>
@@ -25610,7 +25610,7 @@
         <v>10481</v>
       </c>
       <c r="H94" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="I94" s="32">
         <v>4.2934834462360461E-2</v>
@@ -25654,19 +25654,19 @@
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="B95" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="C95" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="F95">
         <v>5000</v>
       </c>
       <c r="H95" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="I95" s="32">
         <v>2.4E-2</v>
@@ -25696,13 +25696,13 @@
     </row>
     <row r="96" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="B96" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="C96" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="D96">
         <v>1800</v>
@@ -25711,7 +25711,7 @@
         <v>18000</v>
       </c>
       <c r="H96" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="I96" s="32">
         <v>0</v>
@@ -25744,18 +25744,18 @@
         <v>4000</v>
       </c>
       <c r="AE96" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
     <row r="97" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="B97" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="C97" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="F97">
         <v>10070</v>
@@ -25764,11 +25764,11 @@
         <v>11000</v>
       </c>
       <c r="H97" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="I97" s="32"/>
       <c r="K97" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="R97" s="34"/>
       <c r="AA97">
@@ -25784,31 +25784,31 @@
         <v>1875</v>
       </c>
       <c r="AE97" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
     <row r="98" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="B98" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="C98" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="G98">
         <v>400</v>
       </c>
       <c r="H98" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="I98" s="32"/>
       <c r="J98">
         <v>30</v>
       </c>
       <c r="K98" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="L98">
         <v>8322</v>
@@ -25830,7 +25830,7 @@
         <v>3.5</v>
       </c>
       <c r="AE98" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="AF98">
         <v>5</v>
@@ -25841,13 +25841,13 @@
     </row>
     <row r="99" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="B99" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="C99" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="G99">
         <v>64</v>
@@ -25872,13 +25872,13 @@
     </row>
     <row r="100" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="B100" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="C100" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="G100">
         <v>260</v>
@@ -25903,13 +25903,13 @@
     </row>
     <row r="101" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="B101" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="C101" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="G101">
         <v>54</v>
@@ -25934,13 +25934,13 @@
     </row>
     <row r="102" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="B102" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="C102" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="G102">
         <v>163</v>
@@ -25965,13 +25965,13 @@
     </row>
     <row r="103" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="B103" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="C103" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="I103" s="32"/>
       <c r="J103">
@@ -25990,13 +25990,13 @@
     </row>
     <row r="104" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="B104" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="C104" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="I104" s="32"/>
       <c r="J104">

--- a/premise/data/additional_inventories/lci-hydrogen-electrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-electrolysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10608"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DA8584-26F2-3746-B770-CFAAEEB4980A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E81E569-BFB6-8249-8A7C-E3FA963CF6CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1803,9 +1803,6 @@
     <t>chlorine, liquid</t>
   </si>
   <si>
-    <t>market for acrylic dispersion, with water, in 58% solution state</t>
-  </si>
-  <si>
     <t>acrylic dispersion, with water, in 58% solution state</t>
   </si>
   <si>
@@ -1859,6 +1856,9 @@
   </si>
   <si>
     <t>Chloride</t>
+  </si>
+  <si>
+    <t>market for acrylic dispersion, with water, in 58% solution</t>
   </si>
 </sst>
 </file>
@@ -2126,7 +2126,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -2211,22 +2211,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2241,9 +2229,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Neutral" xfId="4" builtinId="28"/>
@@ -2529,10 +2526,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U589"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:U597"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A553" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B584" sqref="B584"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F588" sqref="F588"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2545,8 +2543,8 @@
     <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="20.6640625" style="60" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" style="60" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" customWidth="1"/>
     <col min="19" max="20" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2564,10 +2562,9 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="5"/>
-      <c r="J1"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="2"/>
@@ -2577,10 +2574,9 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="5"/>
-      <c r="J2"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
@@ -2595,7 +2591,7 @@
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
     </row>
-    <row r="4" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
@@ -2609,7 +2605,7 @@
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
     </row>
-    <row r="5" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>11</v>
       </c>
@@ -2623,7 +2619,7 @@
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
     </row>
-    <row r="6" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>4</v>
       </c>
@@ -2637,7 +2633,7 @@
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
     </row>
-    <row r="7" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>2</v>
       </c>
@@ -2651,7 +2647,7 @@
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
     </row>
-    <row r="8" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>6</v>
       </c>
@@ -2668,7 +2664,7 @@
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
     </row>
-    <row r="9" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
         <v>7</v>
       </c>
@@ -2688,7 +2684,7 @@
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
     </row>
-    <row r="10" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>8</v>
       </c>
@@ -2753,7 +2749,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>438</v>
       </c>
@@ -2787,7 +2783,7 @@
       <c r="P11" s="12"/>
       <c r="T11"/>
     </row>
-    <row r="12" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="str">
         <f>B123</f>
         <v>electrolyzer production, 1MWe, PEM, Stack</v>
@@ -2835,7 +2831,7 @@
         <v>1.7998560115190784E-6</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="str">
         <f>B162</f>
         <v>electrolyzer production, 1MWe, PEM, Balance of Plant</v>
@@ -2883,7 +2879,7 @@
         <v>4.4996400287976961E-7</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>505</v>
       </c>
@@ -2933,7 +2929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
         <v>507</v>
       </c>
@@ -2983,7 +2979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>33</v>
       </c>
@@ -3028,7 +3024,7 @@
         <v>55.1</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>517</v>
       </c>
@@ -3063,7 +3059,7 @@
       <c r="Q17"/>
       <c r="R17"/>
     </row>
-    <row r="18" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
         <v>38</v>
       </c>
@@ -3095,7 +3091,7 @@
       <c r="Q18" s="19"/>
       <c r="R18"/>
     </row>
-    <row r="19" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="47" t="s">
         <v>456</v>
       </c>
@@ -3159,7 +3155,7 @@
         <v>0.24634371748562628</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="47" t="s">
         <v>458</v>
       </c>
@@ -3213,7 +3209,7 @@
         <v>0.24634371748562628</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="47" t="s">
         <v>461</v>
       </c>
@@ -3267,7 +3263,7 @@
         <v>0.24634371748562628</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
@@ -3275,7 +3271,7 @@
       <c r="O22" s="12"/>
       <c r="P22" s="12"/>
     </row>
-    <row r="23" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>1</v>
       </c>
@@ -3290,7 +3286,7 @@
       <c r="O23" s="12"/>
       <c r="P23" s="12"/>
     </row>
-    <row r="24" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
         <v>3</v>
       </c>
@@ -3304,7 +3300,7 @@
       <c r="O24" s="12"/>
       <c r="P24" s="12"/>
     </row>
-    <row r="25" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
         <v>11</v>
       </c>
@@ -3318,7 +3314,7 @@
       <c r="O25" s="12"/>
       <c r="P25" s="12"/>
     </row>
-    <row r="26" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
         <v>4</v>
       </c>
@@ -3332,7 +3328,7 @@
       <c r="O26" s="12"/>
       <c r="P26" s="12"/>
     </row>
-    <row r="27" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
         <v>2</v>
       </c>
@@ -3346,7 +3342,7 @@
       <c r="O27" s="12"/>
       <c r="P27" s="12"/>
     </row>
-    <row r="28" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
         <v>6</v>
       </c>
@@ -3363,7 +3359,7 @@
       <c r="O28" s="12"/>
       <c r="P28" s="12"/>
     </row>
-    <row r="29" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
         <v>7</v>
       </c>
@@ -3383,7 +3379,7 @@
       <c r="O29" s="12"/>
       <c r="P29" s="12"/>
     </row>
-    <row r="30" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
         <v>8</v>
       </c>
@@ -3448,7 +3444,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="str">
         <f>B23</f>
         <v>hydrogen production, gaseous, 30 bar, from PEM electrolysis, from solar photovoltaic electricity</v>
@@ -3483,7 +3479,7 @@
       <c r="P31" s="12"/>
       <c r="T31"/>
     </row>
-    <row r="32" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
         <v>55</v>
       </c>
@@ -3530,7 +3526,7 @@
         <v>1.7998560115190784E-6</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
         <v>80</v>
       </c>
@@ -3577,7 +3573,7 @@
         <v>4.4996400287976961E-7</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
         <v>505</v>
       </c>
@@ -3627,7 +3623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
         <v>507</v>
       </c>
@@ -3677,7 +3673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
         <v>490</v>
       </c>
@@ -3722,7 +3718,7 @@
         <v>55.1</v>
       </c>
     </row>
-    <row r="37" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
         <v>517</v>
       </c>
@@ -3757,7 +3753,7 @@
       <c r="Q37"/>
       <c r="R37"/>
     </row>
-    <row r="38" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21" t="s">
         <v>38</v>
       </c>
@@ -3789,7 +3785,7 @@
       <c r="Q38" s="19"/>
       <c r="R38"/>
     </row>
-    <row r="39" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="47" t="s">
         <v>456</v>
       </c>
@@ -3853,7 +3849,7 @@
         <v>0.24634371748562628</v>
       </c>
     </row>
-    <row r="40" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="47" t="s">
         <v>458</v>
       </c>
@@ -3907,7 +3903,7 @@
         <v>0.24634371748562628</v>
       </c>
     </row>
-    <row r="41" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="47" t="s">
         <v>461</v>
       </c>
@@ -3961,7 +3957,7 @@
         <v>0.24634371748562628</v>
       </c>
     </row>
-    <row r="42" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="K42" s="12"/>
       <c r="L42" s="12"/>
       <c r="M42" s="12"/>
@@ -3969,7 +3965,7 @@
       <c r="O42" s="12"/>
       <c r="P42" s="12"/>
     </row>
-    <row r="43" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>1</v>
       </c>
@@ -3984,7 +3980,7 @@
       <c r="O43" s="12"/>
       <c r="P43" s="12"/>
     </row>
-    <row r="44" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>3</v>
       </c>
@@ -3998,7 +3994,7 @@
       <c r="O44" s="12"/>
       <c r="P44" s="12"/>
     </row>
-    <row r="45" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>11</v>
       </c>
@@ -4012,7 +4008,7 @@
       <c r="O45" s="12"/>
       <c r="P45" s="12"/>
     </row>
-    <row r="46" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>4</v>
       </c>
@@ -4026,7 +4022,7 @@
       <c r="O46" s="12"/>
       <c r="P46" s="12"/>
     </row>
-    <row r="47" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
         <v>2</v>
       </c>
@@ -4040,7 +4036,7 @@
       <c r="O47" s="12"/>
       <c r="P47" s="12"/>
     </row>
-    <row r="48" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
         <v>6</v>
       </c>
@@ -4057,7 +4053,7 @@
       <c r="O48" s="12"/>
       <c r="P48" s="12"/>
     </row>
-    <row r="49" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="17" t="s">
         <v>7</v>
       </c>
@@ -4077,7 +4073,7 @@
       <c r="O49" s="12"/>
       <c r="P49" s="12"/>
     </row>
-    <row r="50" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="17" t="s">
         <v>8</v>
       </c>
@@ -4142,7 +4138,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="16" t="str">
         <f>B43</f>
         <v>hydrogen production, gaseous, 30 bar, from PEM electrolysis, from onshore wind electricity</v>
@@ -4177,7 +4173,7 @@
       <c r="P51" s="12"/>
       <c r="T51"/>
     </row>
-    <row r="52" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="16" t="s">
         <v>55</v>
       </c>
@@ -4224,7 +4220,7 @@
         <v>1.7998560115190784E-6</v>
       </c>
     </row>
-    <row r="53" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="16" t="s">
         <v>80</v>
       </c>
@@ -4271,7 +4267,7 @@
         <v>4.4996400287976961E-7</v>
       </c>
     </row>
-    <row r="54" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
         <v>505</v>
       </c>
@@ -4321,7 +4317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="16" t="s">
         <v>507</v>
       </c>
@@ -4371,7 +4367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
         <v>493</v>
       </c>
@@ -4416,7 +4412,7 @@
         <v>55.1</v>
       </c>
     </row>
-    <row r="57" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
         <v>517</v>
       </c>
@@ -4451,7 +4447,7 @@
       <c r="Q57"/>
       <c r="R57"/>
     </row>
-    <row r="58" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="21" t="s">
         <v>38</v>
       </c>
@@ -4483,7 +4479,7 @@
       <c r="Q58" s="19"/>
       <c r="R58"/>
     </row>
-    <row r="59" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="47" t="s">
         <v>456</v>
       </c>
@@ -4547,7 +4543,7 @@
         <v>0.24634371748562628</v>
       </c>
     </row>
-    <row r="60" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="47" t="s">
         <v>458</v>
       </c>
@@ -4601,7 +4597,7 @@
         <v>0.24634371748562628</v>
       </c>
     </row>
-    <row r="61" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="47" t="s">
         <v>461</v>
       </c>
@@ -4655,7 +4651,7 @@
         <v>0.24634371748562628</v>
       </c>
     </row>
-    <row r="62" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="K62" s="12"/>
       <c r="L62" s="12"/>
       <c r="M62" s="12"/>
@@ -4663,7 +4659,7 @@
       <c r="O62" s="12"/>
       <c r="P62" s="12"/>
     </row>
-    <row r="63" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
         <v>1</v>
       </c>
@@ -4678,7 +4674,7 @@
       <c r="O63" s="12"/>
       <c r="P63" s="12"/>
     </row>
-    <row r="64" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
         <v>3</v>
       </c>
@@ -4692,7 +4688,7 @@
       <c r="O64" s="12"/>
       <c r="P64" s="12"/>
     </row>
-    <row r="65" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
         <v>11</v>
       </c>
@@ -4706,7 +4702,7 @@
       <c r="O65" s="12"/>
       <c r="P65" s="12"/>
     </row>
-    <row r="66" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="13" t="s">
         <v>4</v>
       </c>
@@ -4720,7 +4716,7 @@
       <c r="O66" s="12"/>
       <c r="P66" s="12"/>
     </row>
-    <row r="67" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
         <v>2</v>
       </c>
@@ -4734,7 +4730,7 @@
       <c r="O67" s="12"/>
       <c r="P67" s="12"/>
     </row>
-    <row r="68" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
         <v>6</v>
       </c>
@@ -4751,7 +4747,7 @@
       <c r="O68" s="12"/>
       <c r="P68" s="12"/>
     </row>
-    <row r="69" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="17" t="s">
         <v>7</v>
       </c>
@@ -4771,7 +4767,7 @@
       <c r="O69" s="12"/>
       <c r="P69" s="12"/>
     </row>
-    <row r="70" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="17" t="s">
         <v>8</v>
       </c>
@@ -4836,7 +4832,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="71" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="16" t="str">
         <f>B63</f>
         <v>hydrogen production, gaseous, 30 bar, from PEM electrolysis, from offshore wind electricity</v>
@@ -4871,7 +4867,7 @@
       <c r="P71" s="12"/>
       <c r="T71"/>
     </row>
-    <row r="72" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="16" t="s">
         <v>55</v>
       </c>
@@ -4918,7 +4914,7 @@
         <v>1.7998560115190784E-6</v>
       </c>
     </row>
-    <row r="73" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="16" t="s">
         <v>80</v>
       </c>
@@ -4965,7 +4961,7 @@
         <v>4.4996400287976961E-7</v>
       </c>
     </row>
-    <row r="74" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="16" t="s">
         <v>505</v>
       </c>
@@ -5015,7 +5011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="16" t="s">
         <v>507</v>
       </c>
@@ -5065,7 +5061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="13" t="s">
         <v>499</v>
       </c>
@@ -5110,7 +5106,7 @@
         <v>55.1</v>
       </c>
     </row>
-    <row r="77" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
         <v>517</v>
       </c>
@@ -5145,7 +5141,7 @@
       <c r="Q77"/>
       <c r="R77"/>
     </row>
-    <row r="78" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="21" t="s">
         <v>38</v>
       </c>
@@ -5177,7 +5173,7 @@
       <c r="Q78" s="19"/>
       <c r="R78"/>
     </row>
-    <row r="79" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="47" t="s">
         <v>456</v>
       </c>
@@ -5241,7 +5237,7 @@
         <v>0.24634371748562628</v>
       </c>
     </row>
-    <row r="80" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="47" t="s">
         <v>458</v>
       </c>
@@ -5295,7 +5291,7 @@
         <v>0.24634371748562628</v>
       </c>
     </row>
-    <row r="81" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="47" t="s">
         <v>461</v>
       </c>
@@ -5349,7 +5345,7 @@
         <v>0.24634371748562628</v>
       </c>
     </row>
-    <row r="82" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="K82" s="12"/>
       <c r="L82" s="12"/>
       <c r="M82" s="12"/>
@@ -5357,7 +5353,7 @@
       <c r="O82" s="12"/>
       <c r="P82" s="12"/>
     </row>
-    <row r="83" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
         <v>1</v>
       </c>
@@ -5372,7 +5368,7 @@
       <c r="O83" s="12"/>
       <c r="P83" s="12"/>
     </row>
-    <row r="84" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="13" t="s">
         <v>3</v>
       </c>
@@ -5386,7 +5382,7 @@
       <c r="O84" s="12"/>
       <c r="P84" s="12"/>
     </row>
-    <row r="85" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="13" t="s">
         <v>11</v>
       </c>
@@ -5400,7 +5396,7 @@
       <c r="O85" s="12"/>
       <c r="P85" s="12"/>
     </row>
-    <row r="86" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="13" t="s">
         <v>4</v>
       </c>
@@ -5414,7 +5410,7 @@
       <c r="O86" s="12"/>
       <c r="P86" s="12"/>
     </row>
-    <row r="87" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="13" t="s">
         <v>2</v>
       </c>
@@ -5428,7 +5424,7 @@
       <c r="O87" s="12"/>
       <c r="P87" s="12"/>
     </row>
-    <row r="88" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="13" t="s">
         <v>6</v>
       </c>
@@ -5445,7 +5441,7 @@
       <c r="O88" s="12"/>
       <c r="P88" s="12"/>
     </row>
-    <row r="89" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="17" t="s">
         <v>7</v>
       </c>
@@ -5465,7 +5461,7 @@
       <c r="O89" s="12"/>
       <c r="P89" s="12"/>
     </row>
-    <row r="90" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="17" t="s">
         <v>8</v>
       </c>
@@ -5530,7 +5526,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="91" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="16" t="str">
         <f>B83</f>
         <v>hydrogen production, gaseous, 30 bar, from PEM electrolysis, from geothermal electricity</v>
@@ -5565,7 +5561,7 @@
       <c r="P91" s="12"/>
       <c r="T91"/>
     </row>
-    <row r="92" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="16" t="s">
         <v>55</v>
       </c>
@@ -5612,7 +5608,7 @@
         <v>1.7998560115190784E-6</v>
       </c>
     </row>
-    <row r="93" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="16" t="s">
         <v>80</v>
       </c>
@@ -5659,7 +5655,7 @@
         <v>4.4996400287976961E-7</v>
       </c>
     </row>
-    <row r="94" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="16" t="s">
         <v>505</v>
       </c>
@@ -5709,7 +5705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="16" t="s">
         <v>507</v>
       </c>
@@ -5759,7 +5755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="13" t="s">
         <v>502</v>
       </c>
@@ -5804,7 +5800,7 @@
         <v>55.1</v>
       </c>
     </row>
-    <row r="97" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="13" t="s">
         <v>517</v>
       </c>
@@ -5839,7 +5835,7 @@
       <c r="Q97"/>
       <c r="R97"/>
     </row>
-    <row r="98" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="21" t="s">
         <v>38</v>
       </c>
@@ -5871,7 +5867,7 @@
       <c r="Q98" s="19"/>
       <c r="R98"/>
     </row>
-    <row r="99" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="47" t="s">
         <v>456</v>
       </c>
@@ -5935,7 +5931,7 @@
         <v>0.24634371748562628</v>
       </c>
     </row>
-    <row r="100" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="47" t="s">
         <v>458</v>
       </c>
@@ -5989,7 +5985,7 @@
         <v>0.24634371748562628</v>
       </c>
     </row>
-    <row r="101" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="47" t="s">
         <v>461</v>
       </c>
@@ -6043,7 +6039,7 @@
         <v>0.24634371748562628</v>
       </c>
     </row>
-    <row r="102" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="K102" s="12"/>
       <c r="L102" s="12"/>
       <c r="M102" s="12"/>
@@ -6051,7 +6047,7 @@
       <c r="O102" s="12"/>
       <c r="P102" s="12"/>
     </row>
-    <row r="103" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="8" t="s">
         <v>1</v>
       </c>
@@ -6066,7 +6062,7 @@
       <c r="O103" s="12"/>
       <c r="P103" s="12"/>
     </row>
-    <row r="104" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="13" t="s">
         <v>3</v>
       </c>
@@ -6080,7 +6076,7 @@
       <c r="O104" s="12"/>
       <c r="P104" s="12"/>
     </row>
-    <row r="105" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="13" t="s">
         <v>11</v>
       </c>
@@ -6094,7 +6090,7 @@
       <c r="O105" s="12"/>
       <c r="P105" s="12"/>
     </row>
-    <row r="106" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="13" t="s">
         <v>4</v>
       </c>
@@ -6108,7 +6104,7 @@
       <c r="O106" s="12"/>
       <c r="P106" s="12"/>
     </row>
-    <row r="107" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="13" t="s">
         <v>2</v>
       </c>
@@ -6122,7 +6118,7 @@
       <c r="O107" s="12"/>
       <c r="P107" s="12"/>
     </row>
-    <row r="108" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="13" t="s">
         <v>6</v>
       </c>
@@ -6139,7 +6135,7 @@
       <c r="O108" s="12"/>
       <c r="P108" s="12"/>
     </row>
-    <row r="109" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="17" t="s">
         <v>7</v>
       </c>
@@ -6159,7 +6155,7 @@
       <c r="O109" s="12"/>
       <c r="P109" s="12"/>
     </row>
-    <row r="110" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="17" t="s">
         <v>8</v>
       </c>
@@ -6224,7 +6220,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="111" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="16" t="str">
         <f>B103</f>
         <v>hydrogen production, gaseous, 30 bar, from PEM electrolysis, from concentrated solar electricity</v>
@@ -6259,7 +6255,7 @@
       <c r="P111" s="12"/>
       <c r="T111"/>
     </row>
-    <row r="112" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="16" t="s">
         <v>55</v>
       </c>
@@ -6306,7 +6302,7 @@
         <v>1.7998560115190784E-6</v>
       </c>
     </row>
-    <row r="113" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="16" t="s">
         <v>80</v>
       </c>
@@ -6353,7 +6349,7 @@
         <v>4.4996400287976961E-7</v>
       </c>
     </row>
-    <row r="114" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="16" t="s">
         <v>505</v>
       </c>
@@ -6403,7 +6399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="16" t="s">
         <v>507</v>
       </c>
@@ -6453,7 +6449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="13" t="s">
         <v>504</v>
       </c>
@@ -6498,7 +6494,7 @@
         <v>55.1</v>
       </c>
     </row>
-    <row r="117" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="13" t="s">
         <v>517</v>
       </c>
@@ -6533,7 +6529,7 @@
       <c r="Q117"/>
       <c r="R117"/>
     </row>
-    <row r="118" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="21" t="s">
         <v>38</v>
       </c>
@@ -6565,7 +6561,7 @@
       <c r="Q118" s="19"/>
       <c r="R118"/>
     </row>
-    <row r="119" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="47" t="s">
         <v>456</v>
       </c>
@@ -6629,7 +6625,7 @@
         <v>0.24634371748562628</v>
       </c>
     </row>
-    <row r="120" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="47" t="s">
         <v>458</v>
       </c>
@@ -6683,7 +6679,7 @@
         <v>0.24634371748562628</v>
       </c>
     </row>
-    <row r="121" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="47" t="s">
         <v>461</v>
       </c>
@@ -6737,7 +6733,7 @@
         <v>0.24634371748562628</v>
       </c>
     </row>
-    <row r="122" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="K122" s="12"/>
       <c r="L122" s="12"/>
       <c r="M122" s="12"/>
@@ -6745,7 +6741,7 @@
       <c r="O122" s="12"/>
       <c r="P122" s="12"/>
     </row>
-    <row r="123" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="8" t="s">
         <v>1</v>
       </c>
@@ -6759,7 +6755,7 @@
       <c r="O123" s="12"/>
       <c r="P123" s="12"/>
     </row>
-    <row r="124" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="13" t="s">
         <v>3</v>
       </c>
@@ -6773,7 +6769,7 @@
       <c r="O124" s="12"/>
       <c r="P124" s="12"/>
     </row>
-    <row r="125" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="13" t="s">
         <v>11</v>
       </c>
@@ -6787,7 +6783,7 @@
       <c r="O125" s="12"/>
       <c r="P125" s="12"/>
     </row>
-    <row r="126" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="13" t="s">
         <v>4</v>
       </c>
@@ -6801,7 +6797,7 @@
       <c r="O126" s="12"/>
       <c r="P126" s="12"/>
     </row>
-    <row r="127" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="13" t="s">
         <v>2</v>
       </c>
@@ -6815,7 +6811,7 @@
       <c r="O127" s="12"/>
       <c r="P127" s="12"/>
     </row>
-    <row r="128" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="13" t="s">
         <v>6</v>
       </c>
@@ -6833,7 +6829,7 @@
       <c r="O128" s="12"/>
       <c r="P128" s="12"/>
     </row>
-    <row r="129" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="17" t="s">
         <v>7</v>
       </c>
@@ -6853,7 +6849,7 @@
       <c r="O129" s="12"/>
       <c r="P129" s="12"/>
     </row>
-    <row r="130" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="17" t="s">
         <v>8</v>
       </c>
@@ -6899,7 +6895,7 @@
       <c r="S130" s="17"/>
       <c r="T130" s="7"/>
     </row>
-    <row r="131" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="16" t="str">
         <f>B123</f>
         <v>electrolyzer production, 1MWe, PEM, Stack</v>
@@ -6931,7 +6927,7 @@
       <c r="O131" s="12"/>
       <c r="P131" s="12"/>
     </row>
-    <row r="132" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="11" t="s">
         <v>18</v>
       </c>
@@ -6966,7 +6962,7 @@
       <c r="Q132"/>
       <c r="R132"/>
     </row>
-    <row r="133" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="11" t="s">
         <v>58</v>
       </c>
@@ -7001,7 +6997,7 @@
       <c r="Q133"/>
       <c r="R133"/>
     </row>
-    <row r="134" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="11" t="s">
         <v>59</v>
       </c>
@@ -7036,7 +7032,7 @@
       <c r="Q134"/>
       <c r="R134"/>
     </row>
-    <row r="135" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="11" t="s">
         <v>21</v>
       </c>
@@ -7071,7 +7067,7 @@
       <c r="Q135"/>
       <c r="R135"/>
     </row>
-    <row r="136" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="11" t="s">
         <v>63</v>
       </c>
@@ -7106,7 +7102,7 @@
       <c r="Q136"/>
       <c r="R136"/>
     </row>
-    <row r="137" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="11" t="s">
         <v>479</v>
       </c>
@@ -7141,7 +7137,7 @@
       <c r="Q137"/>
       <c r="R137"/>
     </row>
-    <row r="138" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="11" t="s">
         <v>23</v>
       </c>
@@ -7185,7 +7181,7 @@
       <c r="Q138"/>
       <c r="R138"/>
     </row>
-    <row r="139" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="11" t="s">
         <v>63</v>
       </c>
@@ -7220,7 +7216,7 @@
       <c r="Q139"/>
       <c r="R139"/>
     </row>
-    <row r="140" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="11" t="s">
         <v>68</v>
       </c>
@@ -7255,7 +7251,7 @@
       <c r="Q140"/>
       <c r="R140"/>
     </row>
-    <row r="141" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="11" t="s">
         <v>71</v>
       </c>
@@ -7290,7 +7286,7 @@
       <c r="Q141"/>
       <c r="R141"/>
     </row>
-    <row r="142" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="11" t="s">
         <v>73</v>
       </c>
@@ -7325,7 +7321,7 @@
       <c r="Q142"/>
       <c r="R142"/>
     </row>
-    <row r="143" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="11" t="s">
         <v>20</v>
       </c>
@@ -7360,7 +7356,7 @@
       <c r="Q143"/>
       <c r="R143"/>
     </row>
-    <row r="144" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="11" t="s">
         <v>76</v>
       </c>
@@ -7395,7 +7391,7 @@
       <c r="Q144"/>
       <c r="R144"/>
     </row>
-    <row r="145" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="11" t="s">
         <v>33</v>
       </c>
@@ -7431,7 +7427,7 @@
       <c r="Q145"/>
       <c r="R145"/>
     </row>
-    <row r="146" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B146" s="16"/>
       <c r="K146" s="12"/>
       <c r="L146" s="12"/>
@@ -7440,7 +7436,7 @@
       <c r="O146" s="12"/>
       <c r="P146" s="12"/>
     </row>
-    <row r="147" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="8" t="s">
         <v>1</v>
       </c>
@@ -7454,7 +7450,7 @@
       <c r="O147" s="12"/>
       <c r="P147" s="12"/>
     </row>
-    <row r="148" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="13" t="s">
         <v>3</v>
       </c>
@@ -7468,7 +7464,7 @@
       <c r="O148" s="12"/>
       <c r="P148" s="12"/>
     </row>
-    <row r="149" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="13" t="s">
         <v>11</v>
       </c>
@@ -7482,7 +7478,7 @@
       <c r="O149" s="12"/>
       <c r="P149" s="12"/>
     </row>
-    <row r="150" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="13" t="s">
         <v>4</v>
       </c>
@@ -7496,7 +7492,7 @@
       <c r="O150" s="12"/>
       <c r="P150" s="12"/>
     </row>
-    <row r="151" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="13" t="s">
         <v>2</v>
       </c>
@@ -7510,7 +7506,7 @@
       <c r="O151" s="12"/>
       <c r="P151" s="12"/>
     </row>
-    <row r="152" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="13" t="s">
         <v>6</v>
       </c>
@@ -7524,7 +7520,7 @@
       <c r="O152" s="12"/>
       <c r="P152" s="12"/>
     </row>
-    <row r="153" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="17" t="s">
         <v>7</v>
       </c>
@@ -7544,7 +7540,7 @@
       <c r="O153" s="12"/>
       <c r="P153" s="12"/>
     </row>
-    <row r="154" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="17" t="s">
         <v>8</v>
       </c>
@@ -7582,7 +7578,7 @@
       <c r="S154" s="17"/>
       <c r="T154" s="7"/>
     </row>
-    <row r="155" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="16" t="str">
         <f>B147</f>
         <v>treatment of electrolyzer stack, 1MWe, PEM</v>
@@ -7611,7 +7607,7 @@
       <c r="O155" s="12"/>
       <c r="P155" s="12"/>
     </row>
-    <row r="156" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="16" t="s">
         <v>204</v>
       </c>
@@ -7641,7 +7637,7 @@
       <c r="Q156"/>
       <c r="R156"/>
     </row>
-    <row r="157" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="11" t="s">
         <v>206</v>
       </c>
@@ -7671,7 +7667,7 @@
       <c r="Q157"/>
       <c r="R157"/>
     </row>
-    <row r="158" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="11" t="s">
         <v>208</v>
       </c>
@@ -7701,7 +7697,7 @@
       <c r="Q158"/>
       <c r="R158"/>
     </row>
-    <row r="159" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="11" t="s">
         <v>210</v>
       </c>
@@ -7731,7 +7727,7 @@
       <c r="Q159"/>
       <c r="R159"/>
     </row>
-    <row r="160" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="11" t="s">
         <v>213</v>
       </c>
@@ -7761,7 +7757,7 @@
       <c r="Q160"/>
       <c r="R160"/>
     </row>
-    <row r="161" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B161" s="16"/>
       <c r="K161" s="12"/>
       <c r="L161" s="12"/>
@@ -7770,7 +7766,7 @@
       <c r="O161" s="12"/>
       <c r="P161" s="12"/>
     </row>
-    <row r="162" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="8" t="s">
         <v>1</v>
       </c>
@@ -7784,7 +7780,7 @@
       <c r="O162" s="12"/>
       <c r="P162" s="12"/>
     </row>
-    <row r="163" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="13" t="s">
         <v>3</v>
       </c>
@@ -7798,7 +7794,7 @@
       <c r="O163" s="12"/>
       <c r="P163" s="12"/>
     </row>
-    <row r="164" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="13" t="s">
         <v>11</v>
       </c>
@@ -7812,7 +7808,7 @@
       <c r="O164" s="12"/>
       <c r="P164" s="12"/>
     </row>
-    <row r="165" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="13" t="s">
         <v>4</v>
       </c>
@@ -7826,7 +7822,7 @@
       <c r="O165" s="12"/>
       <c r="P165" s="12"/>
     </row>
-    <row r="166" spans="1:20" s="11" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:20" s="11" customFormat="1" ht="16.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="13" t="s">
         <v>2</v>
       </c>
@@ -7840,7 +7836,7 @@
       <c r="O166" s="12"/>
       <c r="P166" s="12"/>
     </row>
-    <row r="167" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="13" t="s">
         <v>6</v>
       </c>
@@ -7856,7 +7852,7 @@
       <c r="O167" s="12"/>
       <c r="P167" s="12"/>
     </row>
-    <row r="168" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="17" t="s">
         <v>7</v>
       </c>
@@ -7875,7 +7871,7 @@
       <c r="O168" s="12"/>
       <c r="P168" s="12"/>
     </row>
-    <row r="169" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="17" t="s">
         <v>8</v>
       </c>
@@ -7913,7 +7909,7 @@
       <c r="S169" s="17"/>
       <c r="T169" s="7"/>
     </row>
-    <row r="170" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="16" t="str">
         <f>B162</f>
         <v>electrolyzer production, 1MWe, PEM, Balance of Plant</v>
@@ -7943,7 +7939,7 @@
       <c r="O170" s="12"/>
       <c r="P170" s="26"/>
     </row>
-    <row r="171" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="11" t="s">
         <v>18</v>
       </c>
@@ -7975,7 +7971,7 @@
       <c r="Q171"/>
       <c r="R171"/>
     </row>
-    <row r="172" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="11" t="s">
         <v>68</v>
       </c>
@@ -8007,7 +8003,7 @@
       <c r="Q172"/>
       <c r="R172"/>
     </row>
-    <row r="173" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="11" t="s">
         <v>83</v>
       </c>
@@ -8039,7 +8035,7 @@
       <c r="Q173"/>
       <c r="R173"/>
     </row>
-    <row r="174" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="11" t="s">
         <v>58</v>
       </c>
@@ -8071,7 +8067,7 @@
       <c r="Q174"/>
       <c r="R174"/>
     </row>
-    <row r="175" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="11" t="s">
         <v>84</v>
       </c>
@@ -8103,7 +8099,7 @@
       <c r="Q175"/>
       <c r="R175"/>
     </row>
-    <row r="176" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="11" t="s">
         <v>85</v>
       </c>
@@ -8135,7 +8131,7 @@
       <c r="Q176"/>
       <c r="R176"/>
     </row>
-    <row r="177" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="11" t="s">
         <v>86</v>
       </c>
@@ -8167,7 +8163,7 @@
       <c r="Q177"/>
       <c r="R177"/>
     </row>
-    <row r="178" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="11" t="s">
         <v>30</v>
       </c>
@@ -8199,7 +8195,7 @@
       <c r="Q178"/>
       <c r="R178"/>
     </row>
-    <row r="179" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="11" t="s">
         <v>25</v>
       </c>
@@ -8231,7 +8227,7 @@
       <c r="Q179"/>
       <c r="R179"/>
     </row>
-    <row r="180" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="11" t="s">
         <v>84</v>
       </c>
@@ -8263,7 +8259,7 @@
       <c r="Q180"/>
       <c r="R180"/>
     </row>
-    <row r="181" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="11" t="s">
         <v>73</v>
       </c>
@@ -8295,7 +8291,7 @@
       <c r="Q181"/>
       <c r="R181"/>
     </row>
-    <row r="182" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="11" t="s">
         <v>20</v>
       </c>
@@ -8327,7 +8323,7 @@
       <c r="Q182"/>
       <c r="R182"/>
     </row>
-    <row r="183" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="11" t="s">
         <v>18</v>
       </c>
@@ -8359,7 +8355,7 @@
       <c r="Q183"/>
       <c r="R183"/>
     </row>
-    <row r="184" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="11" t="s">
         <v>58</v>
       </c>
@@ -8391,7 +8387,7 @@
       <c r="Q184"/>
       <c r="R184"/>
     </row>
-    <row r="185" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="11" t="s">
         <v>68</v>
       </c>
@@ -8423,7 +8419,7 @@
       <c r="Q185"/>
       <c r="R185"/>
     </row>
-    <row r="186" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="11" t="s">
         <v>71</v>
       </c>
@@ -8455,7 +8451,7 @@
       <c r="Q186"/>
       <c r="R186"/>
     </row>
-    <row r="187" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="11" t="s">
         <v>27</v>
       </c>
@@ -8487,7 +8483,7 @@
       <c r="Q187"/>
       <c r="R187"/>
     </row>
-    <row r="188" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="11" t="s">
         <v>93</v>
       </c>
@@ -8519,7 +8515,7 @@
       <c r="Q188"/>
       <c r="R188"/>
     </row>
-    <row r="189" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="11" t="s">
         <v>95</v>
       </c>
@@ -8551,7 +8547,7 @@
       <c r="Q189"/>
       <c r="R189"/>
     </row>
-    <row r="190" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="11" t="s">
         <v>98</v>
       </c>
@@ -8583,7 +8579,7 @@
       <c r="Q190"/>
       <c r="R190"/>
     </row>
-    <row r="191" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="11" t="s">
         <v>73</v>
       </c>
@@ -8615,7 +8611,7 @@
       <c r="Q191"/>
       <c r="R191"/>
     </row>
-    <row r="192" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="11" t="s">
         <v>20</v>
       </c>
@@ -8647,7 +8643,7 @@
       <c r="Q192"/>
       <c r="R192"/>
     </row>
-    <row r="193" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="11" t="s">
         <v>102</v>
       </c>
@@ -8679,7 +8675,7 @@
       <c r="Q193"/>
       <c r="R193"/>
     </row>
-    <row r="194" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="11" t="s">
         <v>105</v>
       </c>
@@ -8711,7 +8707,7 @@
       <c r="Q194"/>
       <c r="R194"/>
     </row>
-    <row r="195" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="11" t="s">
         <v>83</v>
       </c>
@@ -8743,7 +8739,7 @@
       <c r="Q195"/>
       <c r="R195"/>
     </row>
-    <row r="196" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="11" t="s">
         <v>84</v>
       </c>
@@ -8775,7 +8771,7 @@
       <c r="Q196"/>
       <c r="R196"/>
     </row>
-    <row r="197" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="11" t="s">
         <v>18</v>
       </c>
@@ -8807,7 +8803,7 @@
       <c r="Q197"/>
       <c r="R197"/>
     </row>
-    <row r="198" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="11" t="s">
         <v>68</v>
       </c>
@@ -8839,7 +8835,7 @@
       <c r="Q198"/>
       <c r="R198"/>
     </row>
-    <row r="199" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="11" t="s">
         <v>83</v>
       </c>
@@ -8871,7 +8867,7 @@
       <c r="Q199"/>
       <c r="R199"/>
     </row>
-    <row r="200" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="11" t="s">
         <v>85</v>
       </c>
@@ -8903,7 +8899,7 @@
       <c r="Q200"/>
       <c r="R200"/>
     </row>
-    <row r="201" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="11" t="s">
         <v>86</v>
       </c>
@@ -8935,7 +8931,7 @@
       <c r="Q201"/>
       <c r="R201"/>
     </row>
-    <row r="202" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="11" t="s">
         <v>108</v>
       </c>
@@ -8967,7 +8963,7 @@
       <c r="Q202"/>
       <c r="R202"/>
     </row>
-    <row r="203" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="11" t="s">
         <v>111</v>
       </c>
@@ -8999,7 +8995,7 @@
       <c r="Q203"/>
       <c r="R203"/>
     </row>
-    <row r="204" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="11" t="s">
         <v>83</v>
       </c>
@@ -9031,7 +9027,7 @@
       <c r="Q204"/>
       <c r="R204"/>
     </row>
-    <row r="205" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="11" t="s">
         <v>73</v>
       </c>
@@ -9063,7 +9059,7 @@
       <c r="Q205"/>
       <c r="R205"/>
     </row>
-    <row r="206" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="11" t="s">
         <v>84</v>
       </c>
@@ -9095,7 +9091,7 @@
       <c r="Q206"/>
       <c r="R206"/>
     </row>
-    <row r="207" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="11" t="s">
         <v>20</v>
       </c>
@@ -9127,7 +9123,7 @@
       <c r="Q207"/>
       <c r="R207"/>
     </row>
-    <row r="208" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="11" t="s">
         <v>83</v>
       </c>
@@ -9159,7 +9155,7 @@
       <c r="Q208"/>
       <c r="R208"/>
     </row>
-    <row r="209" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="11" t="s">
         <v>73</v>
       </c>
@@ -9191,7 +9187,7 @@
       <c r="Q209"/>
       <c r="R209"/>
     </row>
-    <row r="210" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="11" t="s">
         <v>84</v>
       </c>
@@ -9223,7 +9219,7 @@
       <c r="Q210"/>
       <c r="R210"/>
     </row>
-    <row r="211" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="11" t="s">
         <v>20</v>
       </c>
@@ -9255,7 +9251,7 @@
       <c r="Q211"/>
       <c r="R211"/>
     </row>
-    <row r="212" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="11" t="s">
         <v>73</v>
       </c>
@@ -9287,7 +9283,7 @@
       <c r="Q212"/>
       <c r="R212"/>
     </row>
-    <row r="213" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="11" t="s">
         <v>20</v>
       </c>
@@ -9319,7 +9315,7 @@
       <c r="Q213"/>
       <c r="R213"/>
     </row>
-    <row r="214" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="11" t="s">
         <v>115</v>
       </c>
@@ -9351,7 +9347,7 @@
       <c r="Q214"/>
       <c r="R214"/>
     </row>
-    <row r="215" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="11" t="s">
         <v>84</v>
       </c>
@@ -9383,7 +9379,7 @@
       <c r="Q215"/>
       <c r="R215"/>
     </row>
-    <row r="216" spans="1:18" s="11" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:18" s="11" customFormat="1" ht="15.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="28" t="s">
         <v>25</v>
       </c>
@@ -9415,7 +9411,7 @@
       <c r="Q216"/>
       <c r="R216"/>
     </row>
-    <row r="217" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="11" t="s">
         <v>119</v>
       </c>
@@ -9447,7 +9443,7 @@
       <c r="Q217"/>
       <c r="R217"/>
     </row>
-    <row r="218" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="11" t="s">
         <v>33</v>
       </c>
@@ -9479,7 +9475,7 @@
       <c r="Q218"/>
       <c r="R218"/>
     </row>
-    <row r="219" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B219" s="16"/>
       <c r="K219" s="12"/>
       <c r="L219" s="12"/>
@@ -9488,7 +9484,7 @@
       <c r="O219" s="12"/>
       <c r="P219" s="12"/>
     </row>
-    <row r="220" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="8" t="s">
         <v>1</v>
       </c>
@@ -9502,7 +9498,7 @@
       <c r="O220" s="12"/>
       <c r="P220" s="12"/>
     </row>
-    <row r="221" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="13" t="s">
         <v>3</v>
       </c>
@@ -9516,7 +9512,7 @@
       <c r="O221" s="12"/>
       <c r="P221" s="12"/>
     </row>
-    <row r="222" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="13" t="s">
         <v>11</v>
       </c>
@@ -9530,7 +9526,7 @@
       <c r="O222" s="12"/>
       <c r="P222" s="12"/>
     </row>
-    <row r="223" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="13" t="s">
         <v>4</v>
       </c>
@@ -9544,7 +9540,7 @@
       <c r="O223" s="12"/>
       <c r="P223" s="12"/>
     </row>
-    <row r="224" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="13" t="s">
         <v>2</v>
       </c>
@@ -9558,7 +9554,7 @@
       <c r="O224" s="12"/>
       <c r="P224" s="12"/>
     </row>
-    <row r="225" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="13" t="s">
         <v>6</v>
       </c>
@@ -9572,7 +9568,7 @@
       <c r="O225" s="12"/>
       <c r="P225" s="12"/>
     </row>
-    <row r="226" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="17" t="s">
         <v>7</v>
       </c>
@@ -9592,7 +9588,7 @@
       <c r="O226" s="12"/>
       <c r="P226" s="12"/>
     </row>
-    <row r="227" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="17" t="s">
         <v>8</v>
       </c>
@@ -9630,7 +9626,7 @@
       <c r="S227" s="17"/>
       <c r="T227" s="7"/>
     </row>
-    <row r="228" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="16" t="str">
         <f>B220</f>
         <v>treatment of electrolyzer balance of plant, 1MWe, PEM</v>
@@ -9659,7 +9655,7 @@
       <c r="O228" s="12"/>
       <c r="P228" s="12"/>
     </row>
-    <row r="229" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="16" t="s">
         <v>204</v>
       </c>
@@ -9689,7 +9685,7 @@
       <c r="Q229"/>
       <c r="R229"/>
     </row>
-    <row r="230" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="16" t="s">
         <v>449</v>
       </c>
@@ -9718,7 +9714,7 @@
       <c r="Q230"/>
       <c r="R230"/>
     </row>
-    <row r="231" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="11" t="s">
         <v>206</v>
       </c>
@@ -9747,7 +9743,7 @@
       <c r="Q231"/>
       <c r="R231"/>
     </row>
-    <row r="232" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="11" t="s">
         <v>226</v>
       </c>
@@ -9776,7 +9772,7 @@
       <c r="Q232"/>
       <c r="R232"/>
     </row>
-    <row r="233" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="11" t="s">
         <v>218</v>
       </c>
@@ -9805,7 +9801,7 @@
       <c r="Q233"/>
       <c r="R233"/>
     </row>
-    <row r="234" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="11" t="s">
         <v>219</v>
       </c>
@@ -9834,7 +9830,7 @@
       <c r="Q234"/>
       <c r="R234"/>
     </row>
-    <row r="235" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="11" t="s">
         <v>221</v>
       </c>
@@ -9863,7 +9859,7 @@
       <c r="Q235"/>
       <c r="R235"/>
     </row>
-    <row r="236" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="11" t="s">
         <v>451</v>
       </c>
@@ -9892,7 +9888,7 @@
       <c r="Q236"/>
       <c r="R236"/>
     </row>
-    <row r="237" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="11" t="s">
         <v>208</v>
       </c>
@@ -9921,7 +9917,7 @@
       <c r="Q237"/>
       <c r="R237"/>
     </row>
-    <row r="238" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="11" t="s">
         <v>210</v>
       </c>
@@ -9950,7 +9946,7 @@
       <c r="Q238"/>
       <c r="R238"/>
     </row>
-    <row r="239" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="11" t="s">
         <v>448</v>
       </c>
@@ -9979,7 +9975,7 @@
       <c r="Q239"/>
       <c r="R239"/>
     </row>
-    <row r="240" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="11" t="s">
         <v>224</v>
       </c>
@@ -10008,7 +10004,7 @@
       <c r="Q240"/>
       <c r="R240"/>
     </row>
-    <row r="241" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B241" s="16"/>
       <c r="K241" s="12"/>
       <c r="L241" s="12"/>
@@ -10017,7 +10013,7 @@
       <c r="O241" s="12"/>
       <c r="P241" s="12"/>
     </row>
-    <row r="242" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="8" t="s">
         <v>1</v>
       </c>
@@ -10032,7 +10028,7 @@
       <c r="O242" s="12"/>
       <c r="P242" s="12"/>
     </row>
-    <row r="243" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="13" t="s">
         <v>3</v>
       </c>
@@ -10046,7 +10042,7 @@
       <c r="O243" s="12"/>
       <c r="P243" s="12"/>
     </row>
-    <row r="244" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="13" t="s">
         <v>11</v>
       </c>
@@ -10060,7 +10056,7 @@
       <c r="O244" s="12"/>
       <c r="P244" s="12"/>
     </row>
-    <row r="245" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="13" t="s">
         <v>4</v>
       </c>
@@ -10074,7 +10070,7 @@
       <c r="O245" s="12"/>
       <c r="P245" s="12"/>
     </row>
-    <row r="246" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="13" t="s">
         <v>2</v>
       </c>
@@ -10088,7 +10084,7 @@
       <c r="O246" s="12"/>
       <c r="P246" s="12"/>
     </row>
-    <row r="247" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="13" t="s">
         <v>6</v>
       </c>
@@ -10105,7 +10101,7 @@
       <c r="O247" s="12"/>
       <c r="P247" s="12"/>
     </row>
-    <row r="248" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="17" t="s">
         <v>7</v>
       </c>
@@ -10125,7 +10121,7 @@
       <c r="O248" s="12"/>
       <c r="P248" s="12"/>
     </row>
-    <row r="249" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="17" t="s">
         <v>8</v>
       </c>
@@ -10190,7 +10186,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="250" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="16" t="s">
         <v>439</v>
       </c>
@@ -10222,7 +10218,7 @@
       <c r="P250" s="12"/>
       <c r="T250"/>
     </row>
-    <row r="251" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="16" t="str">
         <f>B263</f>
         <v>electrolyzer production, 1MWe, AEC, Stack</v>
@@ -10270,7 +10266,7 @@
         <v>1.1478420569329661E-6</v>
       </c>
     </row>
-    <row r="252" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="16" t="str">
         <f>B292</f>
         <v>electrolyzer production, 1MWe, AEC, Balance of Plant</v>
@@ -10318,7 +10314,7 @@
         <v>2.8696051423324152E-7</v>
       </c>
     </row>
-    <row r="253" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="16" t="s">
         <v>509</v>
       </c>
@@ -10368,7 +10364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="16" t="s">
         <v>511</v>
       </c>
@@ -10418,7 +10414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="13" t="s">
         <v>50</v>
       </c>
@@ -10463,7 +10459,7 @@
         <v>54.9</v>
       </c>
     </row>
-    <row r="256" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="13" t="s">
         <v>125</v>
       </c>
@@ -10496,7 +10492,7 @@
       <c r="Q256"/>
       <c r="R256"/>
     </row>
-    <row r="257" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="13" t="s">
         <v>517</v>
       </c>
@@ -10528,7 +10524,7 @@
       <c r="Q257"/>
       <c r="R257"/>
     </row>
-    <row r="258" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="21" t="s">
         <v>38</v>
       </c>
@@ -10557,7 +10553,7 @@
       <c r="Q258" s="19"/>
       <c r="R258"/>
     </row>
-    <row r="259" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="47" t="s">
         <v>456</v>
       </c>
@@ -10621,7 +10617,7 @@
         <v>0.24634371748562628</v>
       </c>
     </row>
-    <row r="260" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="47" t="s">
         <v>458</v>
       </c>
@@ -10675,7 +10671,7 @@
         <v>0.24634371748562628</v>
       </c>
     </row>
-    <row r="261" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="47" t="s">
         <v>461</v>
       </c>
@@ -10729,7 +10725,7 @@
         <v>0.24634371748562628</v>
       </c>
     </row>
-    <row r="262" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B262" s="16"/>
       <c r="K262" s="12"/>
       <c r="L262" s="12"/>
@@ -10738,7 +10734,7 @@
       <c r="O262" s="12"/>
       <c r="P262" s="12"/>
     </row>
-    <row r="263" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="8" t="s">
         <v>1</v>
       </c>
@@ -10752,7 +10748,7 @@
       <c r="O263" s="12"/>
       <c r="P263" s="12"/>
     </row>
-    <row r="264" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="13" t="s">
         <v>3</v>
       </c>
@@ -10766,7 +10762,7 @@
       <c r="O264" s="12"/>
       <c r="P264" s="12"/>
     </row>
-    <row r="265" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="13" t="s">
         <v>11</v>
       </c>
@@ -10780,7 +10776,7 @@
       <c r="O265" s="12"/>
       <c r="P265" s="12"/>
     </row>
-    <row r="266" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="13" t="s">
         <v>4</v>
       </c>
@@ -10794,7 +10790,7 @@
       <c r="O266" s="12"/>
       <c r="P266" s="12"/>
     </row>
-    <row r="267" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="13" t="s">
         <v>2</v>
       </c>
@@ -10808,7 +10804,7 @@
       <c r="O267" s="12"/>
       <c r="P267" s="12"/>
     </row>
-    <row r="268" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="13" t="s">
         <v>6</v>
       </c>
@@ -10822,7 +10818,7 @@
       <c r="O268" s="12"/>
       <c r="P268" s="12"/>
     </row>
-    <row r="269" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="17" t="s">
         <v>7</v>
       </c>
@@ -10842,7 +10838,7 @@
       <c r="O269" s="12"/>
       <c r="P269" s="12"/>
     </row>
-    <row r="270" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="17" t="s">
         <v>8</v>
       </c>
@@ -10880,7 +10876,7 @@
       <c r="S270" s="17"/>
       <c r="T270" s="7"/>
     </row>
-    <row r="271" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="16" t="str">
         <f>B263</f>
         <v>electrolyzer production, 1MWe, AEC, Stack</v>
@@ -10909,7 +10905,7 @@
       <c r="O271" s="12"/>
       <c r="P271" s="12"/>
     </row>
-    <row r="272" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="11" t="s">
         <v>21</v>
       </c>
@@ -10941,7 +10937,7 @@
       <c r="Q272"/>
       <c r="R272"/>
     </row>
-    <row r="273" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="11" t="s">
         <v>73</v>
       </c>
@@ -10973,7 +10969,7 @@
       <c r="Q273"/>
       <c r="R273"/>
     </row>
-    <row r="274" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="11" t="s">
         <v>20</v>
       </c>
@@ -11005,7 +11001,7 @@
       <c r="Q274"/>
       <c r="R274"/>
     </row>
-    <row r="275" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="11" t="s">
         <v>131</v>
       </c>
@@ -11037,7 +11033,7 @@
       <c r="Q275"/>
       <c r="R275"/>
     </row>
-    <row r="276" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="11" t="s">
         <v>133</v>
       </c>
@@ -11070,7 +11066,7 @@
       <c r="Q276"/>
       <c r="R276"/>
     </row>
-    <row r="277" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="11" t="s">
         <v>136</v>
       </c>
@@ -11103,7 +11099,7 @@
       <c r="Q277"/>
       <c r="R277"/>
     </row>
-    <row r="278" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="11" t="s">
         <v>33</v>
       </c>
@@ -11136,7 +11132,7 @@
       <c r="Q278"/>
       <c r="R278"/>
     </row>
-    <row r="279" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B279" s="16"/>
       <c r="F279" s="10"/>
       <c r="G279" s="10"/>
@@ -11147,7 +11143,7 @@
       <c r="O279" s="12"/>
       <c r="P279" s="12"/>
     </row>
-    <row r="280" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="8" t="s">
         <v>1</v>
       </c>
@@ -11161,7 +11157,7 @@
       <c r="O280" s="12"/>
       <c r="P280" s="12"/>
     </row>
-    <row r="281" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="13" t="s">
         <v>3</v>
       </c>
@@ -11175,7 +11171,7 @@
       <c r="O281" s="12"/>
       <c r="P281" s="12"/>
     </row>
-    <row r="282" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="13" t="s">
         <v>11</v>
       </c>
@@ -11189,7 +11185,7 @@
       <c r="O282" s="12"/>
       <c r="P282" s="12"/>
     </row>
-    <row r="283" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="13" t="s">
         <v>4</v>
       </c>
@@ -11203,7 +11199,7 @@
       <c r="O283" s="12"/>
       <c r="P283" s="12"/>
     </row>
-    <row r="284" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="13" t="s">
         <v>2</v>
       </c>
@@ -11217,7 +11213,7 @@
       <c r="O284" s="12"/>
       <c r="P284" s="12"/>
     </row>
-    <row r="285" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="13" t="s">
         <v>6</v>
       </c>
@@ -11231,7 +11227,7 @@
       <c r="O285" s="12"/>
       <c r="P285" s="12"/>
     </row>
-    <row r="286" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" s="17" t="s">
         <v>7</v>
       </c>
@@ -11251,7 +11247,7 @@
       <c r="O286" s="12"/>
       <c r="P286" s="12"/>
     </row>
-    <row r="287" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="17" t="s">
         <v>8</v>
       </c>
@@ -11289,7 +11285,7 @@
       <c r="S287" s="17"/>
       <c r="T287" s="7"/>
     </row>
-    <row r="288" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="16" t="str">
         <f>B280</f>
         <v>treatment of electrolyzer stack, 1MWe, AEC</v>
@@ -11318,7 +11314,7 @@
       <c r="O288" s="12"/>
       <c r="P288" s="12"/>
     </row>
-    <row r="289" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="16" t="s">
         <v>204</v>
       </c>
@@ -11347,7 +11343,7 @@
       <c r="Q289"/>
       <c r="R289"/>
     </row>
-    <row r="290" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="11" t="s">
         <v>210</v>
       </c>
@@ -11376,7 +11372,7 @@
       <c r="Q290"/>
       <c r="R290"/>
     </row>
-    <row r="291" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B291" s="16"/>
       <c r="K291" s="12"/>
       <c r="L291" s="12"/>
@@ -11385,7 +11381,7 @@
       <c r="O291" s="12"/>
       <c r="P291" s="12"/>
     </row>
-    <row r="292" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="8" t="s">
         <v>1</v>
       </c>
@@ -11399,7 +11395,7 @@
       <c r="O292" s="12"/>
       <c r="P292" s="12"/>
     </row>
-    <row r="293" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="13" t="s">
         <v>3</v>
       </c>
@@ -11413,7 +11409,7 @@
       <c r="O293" s="12"/>
       <c r="P293" s="12"/>
     </row>
-    <row r="294" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="13" t="s">
         <v>11</v>
       </c>
@@ -11427,7 +11423,7 @@
       <c r="O294" s="12"/>
       <c r="P294" s="12"/>
     </row>
-    <row r="295" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="13" t="s">
         <v>4</v>
       </c>
@@ -11441,7 +11437,7 @@
       <c r="O295" s="12"/>
       <c r="P295" s="12"/>
     </row>
-    <row r="296" spans="1:20" s="11" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:20" s="11" customFormat="1" ht="16.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="13" t="s">
         <v>2</v>
       </c>
@@ -11455,7 +11451,7 @@
       <c r="O296" s="12"/>
       <c r="P296" s="12"/>
     </row>
-    <row r="297" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" s="13" t="s">
         <v>6</v>
       </c>
@@ -11471,7 +11467,7 @@
       <c r="O297" s="12"/>
       <c r="P297" s="12"/>
     </row>
-    <row r="298" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" s="17" t="s">
         <v>7</v>
       </c>
@@ -11490,7 +11486,7 @@
       <c r="O298" s="12"/>
       <c r="P298" s="12"/>
     </row>
-    <row r="299" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" s="17" t="s">
         <v>8</v>
       </c>
@@ -11528,7 +11524,7 @@
       <c r="S299" s="17"/>
       <c r="T299" s="7"/>
     </row>
-    <row r="300" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" s="16" t="str">
         <f>B292</f>
         <v>electrolyzer production, 1MWe, AEC, Balance of Plant</v>
@@ -11559,7 +11555,7 @@
       <c r="O300" s="12"/>
       <c r="P300" s="12"/>
     </row>
-    <row r="301" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="11" t="s">
         <v>18</v>
       </c>
@@ -11591,7 +11587,7 @@
       <c r="Q301"/>
       <c r="R301"/>
     </row>
-    <row r="302" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" s="11" t="s">
         <v>68</v>
       </c>
@@ -11623,7 +11619,7 @@
       <c r="Q302"/>
       <c r="R302"/>
     </row>
-    <row r="303" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="11" t="s">
         <v>83</v>
       </c>
@@ -11655,7 +11651,7 @@
       <c r="Q303"/>
       <c r="R303"/>
     </row>
-    <row r="304" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" s="11" t="s">
         <v>58</v>
       </c>
@@ -11687,7 +11683,7 @@
       <c r="Q304"/>
       <c r="R304"/>
     </row>
-    <row r="305" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" s="11" t="s">
         <v>84</v>
       </c>
@@ -11719,7 +11715,7 @@
       <c r="Q305"/>
       <c r="R305"/>
     </row>
-    <row r="306" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" s="11" t="s">
         <v>85</v>
       </c>
@@ -11751,7 +11747,7 @@
       <c r="Q306"/>
       <c r="R306"/>
     </row>
-    <row r="307" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" s="11" t="s">
         <v>86</v>
       </c>
@@ -11783,7 +11779,7 @@
       <c r="Q307"/>
       <c r="R307"/>
     </row>
-    <row r="308" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" s="11" t="s">
         <v>30</v>
       </c>
@@ -11815,7 +11811,7 @@
       <c r="Q308"/>
       <c r="R308"/>
     </row>
-    <row r="309" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" s="11" t="s">
         <v>140</v>
       </c>
@@ -11847,7 +11843,7 @@
       <c r="Q309"/>
       <c r="R309"/>
     </row>
-    <row r="310" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" s="11" t="s">
         <v>83</v>
       </c>
@@ -11879,7 +11875,7 @@
       <c r="Q310"/>
       <c r="R310"/>
     </row>
-    <row r="311" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" s="11" t="s">
         <v>84</v>
       </c>
@@ -11911,7 +11907,7 @@
       <c r="Q311"/>
       <c r="R311"/>
     </row>
-    <row r="312" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" s="11" t="s">
         <v>73</v>
       </c>
@@ -11943,7 +11939,7 @@
       <c r="Q312"/>
       <c r="R312"/>
     </row>
-    <row r="313" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" s="11" t="s">
         <v>20</v>
       </c>
@@ -11975,7 +11971,7 @@
       <c r="Q313"/>
       <c r="R313"/>
     </row>
-    <row r="314" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" s="11" t="s">
         <v>103</v>
       </c>
@@ -12007,7 +12003,7 @@
       <c r="Q314"/>
       <c r="R314"/>
     </row>
-    <row r="315" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" s="11" t="s">
         <v>105</v>
       </c>
@@ -12039,7 +12035,7 @@
       <c r="Q315"/>
       <c r="R315"/>
     </row>
-    <row r="316" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" s="11" t="s">
         <v>83</v>
       </c>
@@ -12071,7 +12067,7 @@
       <c r="Q316"/>
       <c r="R316"/>
     </row>
-    <row r="317" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" s="11" t="s">
         <v>84</v>
       </c>
@@ -12103,7 +12099,7 @@
       <c r="Q317"/>
       <c r="R317"/>
     </row>
-    <row r="318" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" s="11" t="s">
         <v>18</v>
       </c>
@@ -12135,7 +12131,7 @@
       <c r="Q318"/>
       <c r="R318"/>
     </row>
-    <row r="319" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" s="11" t="s">
         <v>68</v>
       </c>
@@ -12167,7 +12163,7 @@
       <c r="Q319"/>
       <c r="R319"/>
     </row>
-    <row r="320" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" s="11" t="s">
         <v>83</v>
       </c>
@@ -12199,7 +12195,7 @@
       <c r="Q320"/>
       <c r="R320"/>
     </row>
-    <row r="321" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" s="11" t="s">
         <v>85</v>
       </c>
@@ -12231,7 +12227,7 @@
       <c r="Q321"/>
       <c r="R321"/>
     </row>
-    <row r="322" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" s="11" t="s">
         <v>86</v>
       </c>
@@ -12263,7 +12259,7 @@
       <c r="Q322"/>
       <c r="R322"/>
     </row>
-    <row r="323" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" s="11" t="s">
         <v>108</v>
       </c>
@@ -12295,7 +12291,7 @@
       <c r="Q323"/>
       <c r="R323"/>
     </row>
-    <row r="324" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" s="11" t="s">
         <v>111</v>
       </c>
@@ -12327,7 +12323,7 @@
       <c r="Q324"/>
       <c r="R324"/>
     </row>
-    <row r="325" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" s="11" t="s">
         <v>83</v>
       </c>
@@ -12359,7 +12355,7 @@
       <c r="Q325"/>
       <c r="R325"/>
     </row>
-    <row r="326" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" s="11" t="s">
         <v>73</v>
       </c>
@@ -12391,7 +12387,7 @@
       <c r="Q326"/>
       <c r="R326"/>
     </row>
-    <row r="327" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" s="11" t="s">
         <v>84</v>
       </c>
@@ -12423,7 +12419,7 @@
       <c r="Q327"/>
       <c r="R327"/>
     </row>
-    <row r="328" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" s="11" t="s">
         <v>20</v>
       </c>
@@ -12455,7 +12451,7 @@
       <c r="Q328"/>
       <c r="R328"/>
     </row>
-    <row r="329" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" s="11" t="s">
         <v>83</v>
       </c>
@@ -12487,7 +12483,7 @@
       <c r="Q329"/>
       <c r="R329"/>
     </row>
-    <row r="330" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" s="11" t="s">
         <v>73</v>
       </c>
@@ -12519,7 +12515,7 @@
       <c r="Q330"/>
       <c r="R330"/>
     </row>
-    <row r="331" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" s="11" t="s">
         <v>84</v>
       </c>
@@ -12551,7 +12547,7 @@
       <c r="Q331"/>
       <c r="R331"/>
     </row>
-    <row r="332" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" s="11" t="s">
         <v>20</v>
       </c>
@@ -12583,7 +12579,7 @@
       <c r="Q332"/>
       <c r="R332"/>
     </row>
-    <row r="333" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" s="11" t="s">
         <v>73</v>
       </c>
@@ -12615,7 +12611,7 @@
       <c r="Q333"/>
       <c r="R333"/>
     </row>
-    <row r="334" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" s="11" t="s">
         <v>20</v>
       </c>
@@ -12647,7 +12643,7 @@
       <c r="Q334"/>
       <c r="R334"/>
     </row>
-    <row r="335" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" s="11" t="s">
         <v>68</v>
       </c>
@@ -12679,7 +12675,7 @@
       <c r="Q335"/>
       <c r="R335"/>
     </row>
-    <row r="336" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" s="11" t="s">
         <v>86</v>
       </c>
@@ -12711,7 +12707,7 @@
       <c r="Q336"/>
       <c r="R336"/>
     </row>
-    <row r="337" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" s="11" t="s">
         <v>73</v>
       </c>
@@ -12743,7 +12739,7 @@
       <c r="Q337"/>
       <c r="R337"/>
     </row>
-    <row r="338" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" s="11" t="s">
         <v>20</v>
       </c>
@@ -12775,7 +12771,7 @@
       <c r="Q338"/>
       <c r="R338"/>
     </row>
-    <row r="339" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" s="11" t="s">
         <v>85</v>
       </c>
@@ -12807,7 +12803,7 @@
       <c r="Q339"/>
       <c r="R339"/>
     </row>
-    <row r="340" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" s="11" t="s">
         <v>83</v>
       </c>
@@ -12839,7 +12835,7 @@
       <c r="Q340"/>
       <c r="R340"/>
     </row>
-    <row r="341" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" s="11" t="s">
         <v>84</v>
       </c>
@@ -12871,7 +12867,7 @@
       <c r="Q341"/>
       <c r="R341"/>
     </row>
-    <row r="342" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" s="11" t="s">
         <v>108</v>
       </c>
@@ -12903,7 +12899,7 @@
       <c r="Q342"/>
       <c r="R342"/>
     </row>
-    <row r="343" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" s="11" t="s">
         <v>83</v>
       </c>
@@ -12935,7 +12931,7 @@
       <c r="Q343"/>
       <c r="R343"/>
     </row>
-    <row r="344" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" s="11" t="s">
         <v>84</v>
       </c>
@@ -12967,7 +12963,7 @@
       <c r="Q344"/>
       <c r="R344"/>
     </row>
-    <row r="345" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" s="11" t="s">
         <v>73</v>
       </c>
@@ -12999,7 +12995,7 @@
       <c r="Q345"/>
       <c r="R345"/>
     </row>
-    <row r="346" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" s="11" t="s">
         <v>20</v>
       </c>
@@ -13031,7 +13027,7 @@
       <c r="Q346"/>
       <c r="R346"/>
     </row>
-    <row r="347" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" s="11" t="s">
         <v>83</v>
       </c>
@@ -13063,7 +13059,7 @@
       <c r="Q347"/>
       <c r="R347"/>
     </row>
-    <row r="348" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" s="11" t="s">
         <v>84</v>
       </c>
@@ -13095,7 +13091,7 @@
       <c r="Q348"/>
       <c r="R348"/>
     </row>
-    <row r="349" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" s="11" t="s">
         <v>73</v>
       </c>
@@ -13127,7 +13123,7 @@
       <c r="Q349"/>
       <c r="R349"/>
     </row>
-    <row r="350" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" s="11" t="s">
         <v>20</v>
       </c>
@@ -13159,7 +13155,7 @@
       <c r="Q350"/>
       <c r="R350"/>
     </row>
-    <row r="351" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" s="11" t="s">
         <v>27</v>
       </c>
@@ -13191,7 +13187,7 @@
       <c r="Q351"/>
       <c r="R351"/>
     </row>
-    <row r="352" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" s="11" t="s">
         <v>93</v>
       </c>
@@ -13223,7 +13219,7 @@
       <c r="Q352"/>
       <c r="R352"/>
     </row>
-    <row r="353" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" s="11" t="s">
         <v>73</v>
       </c>
@@ -13255,7 +13251,7 @@
       <c r="Q353"/>
       <c r="R353"/>
     </row>
-    <row r="354" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" s="11" t="s">
         <v>20</v>
       </c>
@@ -13287,7 +13283,7 @@
       <c r="Q354"/>
       <c r="R354"/>
     </row>
-    <row r="355" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" s="11" t="s">
         <v>115</v>
       </c>
@@ -13319,7 +13315,7 @@
       <c r="Q355"/>
       <c r="R355"/>
     </row>
-    <row r="356" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" s="11" t="s">
         <v>84</v>
       </c>
@@ -13351,7 +13347,7 @@
       <c r="Q356"/>
       <c r="R356"/>
     </row>
-    <row r="357" spans="1:20" s="11" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:20" s="11" customFormat="1" ht="15.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="28" t="s">
         <v>25</v>
       </c>
@@ -13383,7 +13379,7 @@
       <c r="Q357"/>
       <c r="R357"/>
     </row>
-    <row r="358" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" s="11" t="s">
         <v>119</v>
       </c>
@@ -13415,7 +13411,7 @@
       <c r="Q358"/>
       <c r="R358"/>
     </row>
-    <row r="359" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" s="11" t="s">
         <v>33</v>
       </c>
@@ -13447,7 +13443,7 @@
       <c r="Q359"/>
       <c r="R359"/>
     </row>
-    <row r="360" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B360" s="16"/>
       <c r="C360" s="10"/>
       <c r="F360" s="10"/>
@@ -13461,7 +13457,7 @@
       <c r="O360" s="12"/>
       <c r="P360" s="12"/>
     </row>
-    <row r="361" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" s="8" t="s">
         <v>1</v>
       </c>
@@ -13475,7 +13471,7 @@
       <c r="O361" s="12"/>
       <c r="P361" s="12"/>
     </row>
-    <row r="362" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" s="13" t="s">
         <v>3</v>
       </c>
@@ -13489,7 +13485,7 @@
       <c r="O362" s="12"/>
       <c r="P362" s="12"/>
     </row>
-    <row r="363" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" s="13" t="s">
         <v>11</v>
       </c>
@@ -13503,7 +13499,7 @@
       <c r="O363" s="12"/>
       <c r="P363" s="12"/>
     </row>
-    <row r="364" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" s="13" t="s">
         <v>4</v>
       </c>
@@ -13517,7 +13513,7 @@
       <c r="O364" s="12"/>
       <c r="P364" s="12"/>
     </row>
-    <row r="365" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" s="13" t="s">
         <v>2</v>
       </c>
@@ -13531,7 +13527,7 @@
       <c r="O365" s="12"/>
       <c r="P365" s="12"/>
     </row>
-    <row r="366" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" s="13" t="s">
         <v>6</v>
       </c>
@@ -13545,7 +13541,7 @@
       <c r="O366" s="12"/>
       <c r="P366" s="12"/>
     </row>
-    <row r="367" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" s="17" t="s">
         <v>7</v>
       </c>
@@ -13565,7 +13561,7 @@
       <c r="O367" s="12"/>
       <c r="P367" s="12"/>
     </row>
-    <row r="368" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" s="17" t="s">
         <v>8</v>
       </c>
@@ -13603,7 +13599,7 @@
       <c r="S368" s="17"/>
       <c r="T368" s="7"/>
     </row>
-    <row r="369" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" s="16" t="str">
         <f>B361</f>
         <v>treatment of electrolyzer balance of plant, 1MWe, AEC</v>
@@ -13632,7 +13628,7 @@
       <c r="O369" s="12"/>
       <c r="P369" s="12"/>
     </row>
-    <row r="370" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" s="16" t="s">
         <v>204</v>
       </c>
@@ -13661,7 +13657,7 @@
       <c r="Q370"/>
       <c r="R370"/>
     </row>
-    <row r="371" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" s="16" t="s">
         <v>449</v>
       </c>
@@ -13690,7 +13686,7 @@
       <c r="Q371"/>
       <c r="R371"/>
     </row>
-    <row r="372" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" s="11" t="s">
         <v>206</v>
       </c>
@@ -13719,7 +13715,7 @@
       <c r="Q372"/>
       <c r="R372"/>
     </row>
-    <row r="373" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" s="11" t="s">
         <v>226</v>
       </c>
@@ -13748,7 +13744,7 @@
       <c r="Q373"/>
       <c r="R373"/>
     </row>
-    <row r="374" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" s="11" t="s">
         <v>218</v>
       </c>
@@ -13777,7 +13773,7 @@
       <c r="Q374"/>
       <c r="R374"/>
     </row>
-    <row r="375" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" s="11" t="s">
         <v>219</v>
       </c>
@@ -13806,7 +13802,7 @@
       <c r="Q375"/>
       <c r="R375"/>
     </row>
-    <row r="376" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" s="11" t="s">
         <v>221</v>
       </c>
@@ -13835,7 +13831,7 @@
       <c r="Q376"/>
       <c r="R376"/>
     </row>
-    <row r="377" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" s="11" t="s">
         <v>451</v>
       </c>
@@ -13864,7 +13860,7 @@
       <c r="Q377"/>
       <c r="R377"/>
     </row>
-    <row r="378" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" s="11" t="s">
         <v>208</v>
       </c>
@@ -13893,7 +13889,7 @@
       <c r="Q378"/>
       <c r="R378"/>
     </row>
-    <row r="379" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" s="11" t="s">
         <v>210</v>
       </c>
@@ -13922,7 +13918,7 @@
       <c r="Q379"/>
       <c r="R379"/>
     </row>
-    <row r="380" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" s="11" t="s">
         <v>448</v>
       </c>
@@ -13951,7 +13947,7 @@
       <c r="Q380"/>
       <c r="R380"/>
     </row>
-    <row r="381" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B381" s="16"/>
       <c r="K381" s="12"/>
       <c r="L381" s="12"/>
@@ -13960,7 +13956,7 @@
       <c r="O381" s="12"/>
       <c r="P381" s="12"/>
     </row>
-    <row r="382" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" s="8" t="s">
         <v>1</v>
       </c>
@@ -13975,7 +13971,7 @@
       <c r="O382" s="12"/>
       <c r="P382" s="12"/>
     </row>
-    <row r="383" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" s="13" t="s">
         <v>3</v>
       </c>
@@ -13989,7 +13985,7 @@
       <c r="O383" s="12"/>
       <c r="P383" s="12"/>
     </row>
-    <row r="384" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" s="13" t="s">
         <v>11</v>
       </c>
@@ -14003,7 +13999,7 @@
       <c r="O384" s="12"/>
       <c r="P384" s="12"/>
     </row>
-    <row r="385" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" s="13" t="s">
         <v>4</v>
       </c>
@@ -14017,7 +14013,7 @@
       <c r="O385" s="12"/>
       <c r="P385" s="12"/>
     </row>
-    <row r="386" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" s="13" t="s">
         <v>2</v>
       </c>
@@ -14031,7 +14027,7 @@
       <c r="O386" s="12"/>
       <c r="P386" s="12"/>
     </row>
-    <row r="387" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" s="13" t="s">
         <v>6</v>
       </c>
@@ -14048,7 +14044,7 @@
       <c r="O387" s="12"/>
       <c r="P387" s="12"/>
     </row>
-    <row r="388" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" s="17" t="s">
         <v>7</v>
       </c>
@@ -14068,7 +14064,7 @@
       <c r="O388" s="12"/>
       <c r="P388" s="12"/>
     </row>
-    <row r="389" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" s="17" t="s">
         <v>8</v>
       </c>
@@ -14133,7 +14129,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="390" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" s="16" t="s">
         <v>441</v>
       </c>
@@ -14165,7 +14161,7 @@
       <c r="P390" s="12"/>
       <c r="T390"/>
     </row>
-    <row r="391" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" s="16" t="str">
         <f>B424</f>
         <v>electrolyzer production, 1MWe, SOEC, Stack</v>
@@ -14199,7 +14195,7 @@
       <c r="Q391"/>
       <c r="R391"/>
     </row>
-    <row r="392" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" s="16" t="str">
         <f>B461</f>
         <v>electrolyzer production, 1MWe, SOEC, Balance of Plant</v>
@@ -14233,7 +14229,7 @@
       <c r="Q392"/>
       <c r="R392"/>
     </row>
-    <row r="393" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" s="16" t="s">
         <v>513</v>
       </c>
@@ -14266,7 +14262,7 @@
       <c r="Q393"/>
       <c r="R393"/>
     </row>
-    <row r="394" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" s="16" t="s">
         <v>515</v>
       </c>
@@ -14299,7 +14295,7 @@
       <c r="Q394"/>
       <c r="R394"/>
     </row>
-    <row r="395" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" s="13" t="s">
         <v>50</v>
       </c>
@@ -14344,7 +14340,7 @@
         <v>43.4</v>
       </c>
     </row>
-    <row r="396" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" s="13" t="s">
         <v>51</v>
       </c>
@@ -14377,7 +14373,7 @@
       <c r="Q396"/>
       <c r="R396"/>
     </row>
-    <row r="397" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" s="13" t="s">
         <v>517</v>
       </c>
@@ -14409,7 +14405,7 @@
       <c r="Q397"/>
       <c r="R397"/>
     </row>
-    <row r="398" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" s="21" t="s">
         <v>38</v>
       </c>
@@ -14438,7 +14434,7 @@
       <c r="Q398" s="19"/>
       <c r="R398"/>
     </row>
-    <row r="399" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" s="47" t="s">
         <v>456</v>
       </c>
@@ -14502,7 +14498,7 @@
         <v>0.24634371748562628</v>
       </c>
     </row>
-    <row r="400" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" s="47" t="s">
         <v>458</v>
       </c>
@@ -14556,7 +14552,7 @@
         <v>0.24634371748562628</v>
       </c>
     </row>
-    <row r="401" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" s="47" t="s">
         <v>461</v>
       </c>
@@ -14610,7 +14606,7 @@
         <v>0.24634371748562628</v>
       </c>
     </row>
-    <row r="402" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B402" s="16"/>
       <c r="K402" s="12"/>
       <c r="L402" s="12"/>
@@ -14619,7 +14615,7 @@
       <c r="O402" s="12"/>
       <c r="P402" s="12"/>
     </row>
-    <row r="403" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" s="8" t="s">
         <v>1</v>
       </c>
@@ -14634,7 +14630,7 @@
       <c r="O403" s="12"/>
       <c r="P403" s="12"/>
     </row>
-    <row r="404" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" s="13" t="s">
         <v>3</v>
       </c>
@@ -14648,7 +14644,7 @@
       <c r="O404" s="12"/>
       <c r="P404" s="12"/>
     </row>
-    <row r="405" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" s="13" t="s">
         <v>11</v>
       </c>
@@ -14662,7 +14658,7 @@
       <c r="O405" s="12"/>
       <c r="P405" s="12"/>
     </row>
-    <row r="406" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" s="13" t="s">
         <v>4</v>
       </c>
@@ -14676,7 +14672,7 @@
       <c r="O406" s="12"/>
       <c r="P406" s="12"/>
     </row>
-    <row r="407" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" s="13" t="s">
         <v>2</v>
       </c>
@@ -14690,7 +14686,7 @@
       <c r="O407" s="12"/>
       <c r="P407" s="12"/>
     </row>
-    <row r="408" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" s="13" t="s">
         <v>6</v>
       </c>
@@ -14707,7 +14703,7 @@
       <c r="O408" s="12"/>
       <c r="P408" s="12"/>
     </row>
-    <row r="409" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" s="17" t="s">
         <v>7</v>
       </c>
@@ -14727,7 +14723,7 @@
       <c r="O409" s="12"/>
       <c r="P409" s="12"/>
     </row>
-    <row r="410" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" s="17" t="s">
         <v>8</v>
       </c>
@@ -14792,7 +14788,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="411" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" s="16" t="s">
         <v>445</v>
       </c>
@@ -14824,7 +14820,7 @@
       <c r="P411" s="12"/>
       <c r="T411"/>
     </row>
-    <row r="412" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" s="16" t="s">
         <v>153</v>
       </c>
@@ -14871,7 +14867,7 @@
         <v>2.8248587570621469E-6</v>
       </c>
     </row>
-    <row r="413" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" s="16" t="s">
         <v>179</v>
       </c>
@@ -14918,7 +14914,7 @@
         <v>3.5310734463276836E-7</v>
       </c>
     </row>
-    <row r="414" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" s="16" t="s">
         <v>513</v>
       </c>
@@ -14968,7 +14964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" s="16" t="s">
         <v>515</v>
       </c>
@@ -15018,7 +15014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" s="13" t="s">
         <v>50</v>
       </c>
@@ -15051,7 +15047,7 @@
       <c r="Q416"/>
       <c r="R416"/>
     </row>
-    <row r="417" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" s="13" t="s">
         <v>51</v>
       </c>
@@ -15084,7 +15080,7 @@
       <c r="Q417"/>
       <c r="R417"/>
     </row>
-    <row r="418" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" s="13" t="s">
         <v>517</v>
       </c>
@@ -15116,7 +15112,7 @@
       <c r="Q418"/>
       <c r="R418"/>
     </row>
-    <row r="419" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" s="21" t="s">
         <v>38</v>
       </c>
@@ -15145,7 +15141,7 @@
       <c r="Q419" s="19"/>
       <c r="R419"/>
     </row>
-    <row r="420" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" s="47" t="s">
         <v>456</v>
       </c>
@@ -15209,7 +15205,7 @@
         <v>0.24634371748562628</v>
       </c>
     </row>
-    <row r="421" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" s="47" t="s">
         <v>458</v>
       </c>
@@ -15263,7 +15259,7 @@
         <v>0.24634371748562628</v>
       </c>
     </row>
-    <row r="422" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" s="47" t="s">
         <v>461</v>
       </c>
@@ -15317,7 +15313,7 @@
         <v>0.24634371748562628</v>
       </c>
     </row>
-    <row r="423" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B423" s="16"/>
       <c r="K423" s="12"/>
       <c r="L423" s="12"/>
@@ -15326,7 +15322,7 @@
       <c r="O423" s="12"/>
       <c r="P423" s="12"/>
     </row>
-    <row r="424" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" s="8" t="s">
         <v>1</v>
       </c>
@@ -15340,7 +15336,7 @@
       <c r="O424" s="12"/>
       <c r="P424" s="12"/>
     </row>
-    <row r="425" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" s="13" t="s">
         <v>3</v>
       </c>
@@ -15354,7 +15350,7 @@
       <c r="O425" s="12"/>
       <c r="P425" s="12"/>
     </row>
-    <row r="426" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" s="13" t="s">
         <v>11</v>
       </c>
@@ -15368,7 +15364,7 @@
       <c r="O426" s="12"/>
       <c r="P426" s="12"/>
     </row>
-    <row r="427" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" s="13" t="s">
         <v>4</v>
       </c>
@@ -15382,7 +15378,7 @@
       <c r="O427" s="12"/>
       <c r="P427" s="12"/>
     </row>
-    <row r="428" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" s="13" t="s">
         <v>2</v>
       </c>
@@ -15396,7 +15392,7 @@
       <c r="O428" s="12"/>
       <c r="P428" s="12"/>
     </row>
-    <row r="429" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" s="13" t="s">
         <v>6</v>
       </c>
@@ -15410,7 +15406,7 @@
       <c r="O429" s="12"/>
       <c r="P429" s="12"/>
     </row>
-    <row r="430" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" s="17" t="s">
         <v>7</v>
       </c>
@@ -15430,7 +15426,7 @@
       <c r="O430" s="12"/>
       <c r="P430" s="12"/>
     </row>
-    <row r="431" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" s="17" t="s">
         <v>8</v>
       </c>
@@ -15468,7 +15464,7 @@
       <c r="S431" s="17"/>
       <c r="T431" s="7"/>
     </row>
-    <row r="432" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" s="16" t="str">
         <f>B424</f>
         <v>electrolyzer production, 1MWe, SOEC, Stack</v>
@@ -15497,7 +15493,7 @@
       <c r="O432" s="12"/>
       <c r="P432" s="12"/>
     </row>
-    <row r="433" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" s="11" t="s">
         <v>73</v>
       </c>
@@ -15529,7 +15525,7 @@
       <c r="Q433"/>
       <c r="R433"/>
     </row>
-    <row r="434" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" s="11" t="s">
         <v>20</v>
       </c>
@@ -15561,7 +15557,7 @@
       <c r="Q434"/>
       <c r="R434"/>
     </row>
-    <row r="435" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" s="11" t="s">
         <v>155</v>
       </c>
@@ -15593,7 +15589,7 @@
       <c r="Q435"/>
       <c r="R435"/>
     </row>
-    <row r="436" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" s="11" t="s">
         <v>131</v>
       </c>
@@ -15625,7 +15621,7 @@
       <c r="Q436"/>
       <c r="R436"/>
     </row>
-    <row r="437" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" s="11" t="s">
         <v>136</v>
       </c>
@@ -15657,7 +15653,7 @@
       <c r="Q437"/>
       <c r="R437"/>
     </row>
-    <row r="438" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" s="11" t="s">
         <v>159</v>
       </c>
@@ -15689,7 +15685,7 @@
       <c r="Q438"/>
       <c r="R438"/>
     </row>
-    <row r="439" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439" s="11" t="s">
         <v>161</v>
       </c>
@@ -15721,7 +15717,7 @@
       <c r="Q439"/>
       <c r="R439"/>
     </row>
-    <row r="440" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" s="11" t="s">
         <v>159</v>
       </c>
@@ -15753,7 +15749,7 @@
       <c r="Q440"/>
       <c r="R440"/>
     </row>
-    <row r="441" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" s="11" t="s">
         <v>163</v>
       </c>
@@ -15786,7 +15782,7 @@
       <c r="Q441"/>
       <c r="R441"/>
     </row>
-    <row r="442" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" s="11" t="s">
         <v>166</v>
       </c>
@@ -15819,7 +15815,7 @@
       <c r="Q442"/>
       <c r="R442"/>
     </row>
-    <row r="443" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" s="11" t="s">
         <v>168</v>
       </c>
@@ -15851,7 +15847,7 @@
       <c r="Q443"/>
       <c r="R443"/>
     </row>
-    <row r="444" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" s="11" t="s">
         <v>172</v>
       </c>
@@ -15883,7 +15879,7 @@
       <c r="Q444"/>
       <c r="R444"/>
     </row>
-    <row r="445" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" s="11" t="s">
         <v>174</v>
       </c>
@@ -15915,7 +15911,7 @@
       <c r="Q445"/>
       <c r="R445"/>
     </row>
-    <row r="446" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" s="11" t="s">
         <v>176</v>
       </c>
@@ -15947,7 +15943,7 @@
       <c r="Q446"/>
       <c r="R446"/>
     </row>
-    <row r="447" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" s="11" t="s">
         <v>131</v>
       </c>
@@ -15979,7 +15975,7 @@
       <c r="Q447"/>
       <c r="R447"/>
     </row>
-    <row r="448" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" s="11" t="s">
         <v>33</v>
       </c>
@@ -16011,7 +16007,7 @@
       <c r="Q448"/>
       <c r="R448"/>
     </row>
-    <row r="449" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B449" s="12"/>
       <c r="F449" s="10"/>
       <c r="G449" s="10"/>
@@ -16022,7 +16018,7 @@
       <c r="O449" s="12"/>
       <c r="P449" s="12"/>
     </row>
-    <row r="450" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450" s="8" t="s">
         <v>1</v>
       </c>
@@ -16036,7 +16032,7 @@
       <c r="O450" s="12"/>
       <c r="P450" s="12"/>
     </row>
-    <row r="451" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" s="13" t="s">
         <v>3</v>
       </c>
@@ -16050,7 +16046,7 @@
       <c r="O451" s="12"/>
       <c r="P451" s="12"/>
     </row>
-    <row r="452" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" s="13" t="s">
         <v>11</v>
       </c>
@@ -16064,7 +16060,7 @@
       <c r="O452" s="12"/>
       <c r="P452" s="12"/>
     </row>
-    <row r="453" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" s="13" t="s">
         <v>4</v>
       </c>
@@ -16078,7 +16074,7 @@
       <c r="O453" s="12"/>
       <c r="P453" s="12"/>
     </row>
-    <row r="454" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454" s="13" t="s">
         <v>2</v>
       </c>
@@ -16092,7 +16088,7 @@
       <c r="O454" s="12"/>
       <c r="P454" s="12"/>
     </row>
-    <row r="455" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" s="13" t="s">
         <v>6</v>
       </c>
@@ -16106,7 +16102,7 @@
       <c r="O455" s="12"/>
       <c r="P455" s="12"/>
     </row>
-    <row r="456" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456" s="17" t="s">
         <v>7</v>
       </c>
@@ -16126,7 +16122,7 @@
       <c r="O456" s="12"/>
       <c r="P456" s="12"/>
     </row>
-    <row r="457" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" s="17" t="s">
         <v>8</v>
       </c>
@@ -16164,7 +16160,7 @@
       <c r="S457" s="17"/>
       <c r="T457" s="7"/>
     </row>
-    <row r="458" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458" s="16" t="str">
         <f>B450</f>
         <v>treatment of electrolyzer stack, 1MWe, SOEC</v>
@@ -16193,7 +16189,7 @@
       <c r="O458" s="12"/>
       <c r="P458" s="12"/>
     </row>
-    <row r="459" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459" s="16" t="s">
         <v>204</v>
       </c>
@@ -16222,7 +16218,7 @@
       <c r="Q459"/>
       <c r="R459"/>
     </row>
-    <row r="460" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B460" s="16"/>
       <c r="K460" s="12"/>
       <c r="L460" s="12"/>
@@ -16231,7 +16227,7 @@
       <c r="O460" s="12"/>
       <c r="P460" s="12"/>
     </row>
-    <row r="461" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461" s="8" t="s">
         <v>1</v>
       </c>
@@ -16245,7 +16241,7 @@
       <c r="O461" s="12"/>
       <c r="P461" s="12"/>
     </row>
-    <row r="462" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462" s="13" t="s">
         <v>3</v>
       </c>
@@ -16259,7 +16255,7 @@
       <c r="O462" s="12"/>
       <c r="P462" s="12"/>
     </row>
-    <row r="463" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463" s="13" t="s">
         <v>11</v>
       </c>
@@ -16273,7 +16269,7 @@
       <c r="O463" s="12"/>
       <c r="P463" s="12"/>
     </row>
-    <row r="464" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" s="13" t="s">
         <v>4</v>
       </c>
@@ -16287,7 +16283,7 @@
       <c r="O464" s="12"/>
       <c r="P464" s="12"/>
     </row>
-    <row r="465" spans="1:20" s="11" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:20" s="11" customFormat="1" ht="16.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="13" t="s">
         <v>2</v>
       </c>
@@ -16301,7 +16297,7 @@
       <c r="O465" s="12"/>
       <c r="P465" s="12"/>
     </row>
-    <row r="466" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466" s="13" t="s">
         <v>6</v>
       </c>
@@ -16317,7 +16313,7 @@
       <c r="O466" s="12"/>
       <c r="P466" s="12"/>
     </row>
-    <row r="467" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467" s="17" t="s">
         <v>7</v>
       </c>
@@ -16336,7 +16332,7 @@
       <c r="O467" s="12"/>
       <c r="P467" s="12"/>
     </row>
-    <row r="468" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468" s="17" t="s">
         <v>8</v>
       </c>
@@ -16374,7 +16370,7 @@
       <c r="S468" s="17"/>
       <c r="T468" s="7"/>
     </row>
-    <row r="469" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469" s="16" t="str">
         <f>B461</f>
         <v>electrolyzer production, 1MWe, SOEC, Balance of Plant</v>
@@ -16405,7 +16401,7 @@
       <c r="O469" s="12"/>
       <c r="P469" s="12"/>
     </row>
-    <row r="470" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470" s="11" t="s">
         <v>73</v>
       </c>
@@ -16437,7 +16433,7 @@
       <c r="Q470"/>
       <c r="R470"/>
     </row>
-    <row r="471" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471" s="11" t="s">
         <v>20</v>
       </c>
@@ -16469,7 +16465,7 @@
       <c r="Q471"/>
       <c r="R471"/>
     </row>
-    <row r="472" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472" s="16" t="s">
         <v>18</v>
       </c>
@@ -16501,7 +16497,7 @@
       <c r="Q472"/>
       <c r="R472"/>
     </row>
-    <row r="473" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473" s="16" t="s">
         <v>68</v>
       </c>
@@ -16533,7 +16529,7 @@
       <c r="Q473"/>
       <c r="R473"/>
     </row>
-    <row r="474" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474" s="16" t="s">
         <v>83</v>
       </c>
@@ -16566,7 +16562,7 @@
       <c r="Q474"/>
       <c r="R474"/>
     </row>
-    <row r="475" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475" s="16" t="s">
         <v>85</v>
       </c>
@@ -16599,7 +16595,7 @@
       <c r="Q475"/>
       <c r="R475"/>
     </row>
-    <row r="476" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476" s="16" t="s">
         <v>86</v>
       </c>
@@ -16632,7 +16628,7 @@
       <c r="Q476"/>
       <c r="R476"/>
     </row>
-    <row r="477" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477" s="16" t="s">
         <v>108</v>
       </c>
@@ -16665,7 +16661,7 @@
       <c r="Q477"/>
       <c r="R477"/>
     </row>
-    <row r="478" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478" s="16" t="s">
         <v>111</v>
       </c>
@@ -16698,7 +16694,7 @@
       <c r="Q478"/>
       <c r="R478"/>
     </row>
-    <row r="479" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479" s="16" t="s">
         <v>83</v>
       </c>
@@ -16731,7 +16727,7 @@
       <c r="Q479"/>
       <c r="R479"/>
     </row>
-    <row r="480" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480" s="16" t="s">
         <v>73</v>
       </c>
@@ -16764,7 +16760,7 @@
       <c r="Q480"/>
       <c r="R480"/>
     </row>
-    <row r="481" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481" s="16" t="s">
         <v>84</v>
       </c>
@@ -16797,7 +16793,7 @@
       <c r="Q481"/>
       <c r="R481"/>
     </row>
-    <row r="482" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482" s="16" t="s">
         <v>20</v>
       </c>
@@ -16830,7 +16826,7 @@
       <c r="Q482"/>
       <c r="R482"/>
     </row>
-    <row r="483" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483" s="16" t="s">
         <v>83</v>
       </c>
@@ -16863,7 +16859,7 @@
       <c r="Q483"/>
       <c r="R483"/>
     </row>
-    <row r="484" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484" s="16" t="s">
         <v>73</v>
       </c>
@@ -16896,7 +16892,7 @@
       <c r="Q484"/>
       <c r="R484"/>
     </row>
-    <row r="485" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485" s="16" t="s">
         <v>84</v>
       </c>
@@ -16929,7 +16925,7 @@
       <c r="Q485"/>
       <c r="R485"/>
     </row>
-    <row r="486" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486" s="16" t="s">
         <v>20</v>
       </c>
@@ -16962,7 +16958,7 @@
       <c r="Q486"/>
       <c r="R486"/>
     </row>
-    <row r="487" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487" s="16" t="s">
         <v>18</v>
       </c>
@@ -16994,7 +16990,7 @@
       <c r="Q487"/>
       <c r="R487"/>
     </row>
-    <row r="488" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488" s="16" t="s">
         <v>68</v>
       </c>
@@ -17026,7 +17022,7 @@
       <c r="Q488"/>
       <c r="R488"/>
     </row>
-    <row r="489" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489" s="16" t="s">
         <v>83</v>
       </c>
@@ -17058,7 +17054,7 @@
       <c r="Q489"/>
       <c r="R489"/>
     </row>
-    <row r="490" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490" s="16" t="s">
         <v>58</v>
       </c>
@@ -17090,7 +17086,7 @@
       <c r="Q490"/>
       <c r="R490"/>
     </row>
-    <row r="491" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491" s="16" t="s">
         <v>84</v>
       </c>
@@ -17122,7 +17118,7 @@
       <c r="Q491"/>
       <c r="R491"/>
     </row>
-    <row r="492" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492" s="16" t="s">
         <v>85</v>
       </c>
@@ -17154,7 +17150,7 @@
       <c r="Q492"/>
       <c r="R492"/>
     </row>
-    <row r="493" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493" s="16" t="s">
         <v>86</v>
       </c>
@@ -17186,7 +17182,7 @@
       <c r="Q493"/>
       <c r="R493"/>
     </row>
-    <row r="494" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494" s="16" t="s">
         <v>30</v>
       </c>
@@ -17218,7 +17214,7 @@
       <c r="Q494"/>
       <c r="R494"/>
     </row>
-    <row r="495" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495" s="16" t="s">
         <v>73</v>
       </c>
@@ -17251,7 +17247,7 @@
       <c r="Q495"/>
       <c r="R495"/>
     </row>
-    <row r="496" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496" s="16" t="s">
         <v>20</v>
       </c>
@@ -17284,7 +17280,7 @@
       <c r="Q496"/>
       <c r="R496"/>
     </row>
-    <row r="497" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497" s="16" t="s">
         <v>73</v>
       </c>
@@ -17316,7 +17312,7 @@
       <c r="Q497"/>
       <c r="R497"/>
     </row>
-    <row r="498" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498" s="16" t="s">
         <v>20</v>
       </c>
@@ -17348,7 +17344,7 @@
       <c r="Q498"/>
       <c r="R498"/>
     </row>
-    <row r="499" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499" s="16" t="s">
         <v>73</v>
       </c>
@@ -17381,7 +17377,7 @@
       <c r="Q499"/>
       <c r="R499"/>
     </row>
-    <row r="500" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500" s="16" t="s">
         <v>20</v>
       </c>
@@ -17414,7 +17410,7 @@
       <c r="Q500"/>
       <c r="R500"/>
     </row>
-    <row r="501" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501" s="16" t="s">
         <v>73</v>
       </c>
@@ -17447,7 +17443,7 @@
       <c r="Q501"/>
       <c r="R501"/>
     </row>
-    <row r="502" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502" s="16" t="s">
         <v>20</v>
       </c>
@@ -17480,7 +17476,7 @@
       <c r="Q502"/>
       <c r="R502"/>
     </row>
-    <row r="503" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503" s="16" t="s">
         <v>191</v>
       </c>
@@ -17513,7 +17509,7 @@
       <c r="Q503"/>
       <c r="R503"/>
     </row>
-    <row r="504" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504" s="16" t="s">
         <v>93</v>
       </c>
@@ -17546,7 +17542,7 @@
       <c r="Q504"/>
       <c r="R504"/>
     </row>
-    <row r="505" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505" s="16" t="s">
         <v>85</v>
       </c>
@@ -17579,7 +17575,7 @@
       <c r="Q505"/>
       <c r="R505"/>
     </row>
-    <row r="506" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506" s="16" t="s">
         <v>68</v>
       </c>
@@ -17612,7 +17608,7 @@
       <c r="Q506"/>
       <c r="R506"/>
     </row>
-    <row r="507" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507" s="16" t="s">
         <v>86</v>
       </c>
@@ -17645,7 +17641,7 @@
       <c r="Q507"/>
       <c r="R507"/>
     </row>
-    <row r="508" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508" s="16" t="s">
         <v>83</v>
       </c>
@@ -17678,7 +17674,7 @@
       <c r="Q508"/>
       <c r="R508"/>
     </row>
-    <row r="509" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509" s="16" t="s">
         <v>84</v>
       </c>
@@ -17711,7 +17707,7 @@
       <c r="Q509"/>
       <c r="R509"/>
     </row>
-    <row r="510" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510" s="16" t="s">
         <v>83</v>
       </c>
@@ -17744,7 +17740,7 @@
       <c r="Q510"/>
       <c r="R510"/>
     </row>
-    <row r="511" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511" s="16" t="s">
         <v>84</v>
       </c>
@@ -17777,7 +17773,7 @@
       <c r="Q511"/>
       <c r="R511"/>
     </row>
-    <row r="512" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512" s="16" t="s">
         <v>83</v>
       </c>
@@ -17809,7 +17805,7 @@
       <c r="Q512"/>
       <c r="R512"/>
     </row>
-    <row r="513" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513" s="16" t="s">
         <v>84</v>
       </c>
@@ -17841,7 +17837,7 @@
       <c r="Q513"/>
       <c r="R513"/>
     </row>
-    <row r="514" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514" s="16" t="s">
         <v>83</v>
       </c>
@@ -17873,7 +17869,7 @@
       <c r="Q514"/>
       <c r="R514"/>
     </row>
-    <row r="515" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515" s="16" t="s">
         <v>84</v>
       </c>
@@ -17905,7 +17901,7 @@
       <c r="Q515"/>
       <c r="R515"/>
     </row>
-    <row r="516" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516" s="16" t="s">
         <v>18</v>
       </c>
@@ -17937,7 +17933,7 @@
       <c r="Q516"/>
       <c r="R516"/>
     </row>
-    <row r="517" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517" s="16" t="s">
         <v>68</v>
       </c>
@@ -17969,7 +17965,7 @@
       <c r="Q517"/>
       <c r="R517"/>
     </row>
-    <row r="518" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518" s="16" t="s">
         <v>83</v>
       </c>
@@ -18001,7 +17997,7 @@
       <c r="Q518"/>
       <c r="R518"/>
     </row>
-    <row r="519" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519" s="16" t="s">
         <v>85</v>
       </c>
@@ -18033,7 +18029,7 @@
       <c r="Q519"/>
       <c r="R519"/>
     </row>
-    <row r="520" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520" s="16" t="s">
         <v>86</v>
       </c>
@@ -18065,7 +18061,7 @@
       <c r="Q520"/>
       <c r="R520"/>
     </row>
-    <row r="521" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521" s="16" t="s">
         <v>25</v>
       </c>
@@ -18097,7 +18093,7 @@
       <c r="Q521"/>
       <c r="R521"/>
     </row>
-    <row r="522" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522" s="16" t="s">
         <v>84</v>
       </c>
@@ -18129,7 +18125,7 @@
       <c r="Q522"/>
       <c r="R522"/>
     </row>
-    <row r="523" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523" s="16" t="s">
         <v>102</v>
       </c>
@@ -18161,7 +18157,7 @@
       <c r="Q523"/>
       <c r="R523"/>
     </row>
-    <row r="524" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524" s="16" t="s">
         <v>105</v>
       </c>
@@ -18193,7 +18189,7 @@
       <c r="Q524"/>
       <c r="R524"/>
     </row>
-    <row r="525" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525" s="16" t="s">
         <v>83</v>
       </c>
@@ -18225,7 +18221,7 @@
       <c r="Q525"/>
       <c r="R525"/>
     </row>
-    <row r="526" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526" s="16" t="s">
         <v>84</v>
       </c>
@@ -18257,7 +18253,7 @@
       <c r="Q526"/>
       <c r="R526"/>
     </row>
-    <row r="527" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527" s="16" t="s">
         <v>73</v>
       </c>
@@ -18289,7 +18285,7 @@
       <c r="Q527"/>
       <c r="R527"/>
     </row>
-    <row r="528" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528" s="16" t="s">
         <v>20</v>
       </c>
@@ -18321,7 +18317,7 @@
       <c r="Q528"/>
       <c r="R528"/>
     </row>
-    <row r="529" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529" s="16" t="s">
         <v>115</v>
       </c>
@@ -18353,7 +18349,7 @@
       <c r="Q529"/>
       <c r="R529"/>
     </row>
-    <row r="530" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530" s="16" t="s">
         <v>84</v>
       </c>
@@ -18385,7 +18381,7 @@
       <c r="Q530"/>
       <c r="R530"/>
     </row>
-    <row r="531" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531" s="16" t="s">
         <v>201</v>
       </c>
@@ -18417,7 +18413,7 @@
       <c r="Q531"/>
       <c r="R531"/>
     </row>
-    <row r="532" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532" s="16" t="s">
         <v>119</v>
       </c>
@@ -18449,7 +18445,7 @@
       <c r="Q532"/>
       <c r="R532"/>
     </row>
-    <row r="533" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533" s="11" t="s">
         <v>33</v>
       </c>
@@ -18481,7 +18477,7 @@
       <c r="Q533"/>
       <c r="R533"/>
     </row>
-    <row r="534" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B534" s="16"/>
       <c r="F534" s="10"/>
       <c r="G534" s="10"/>
@@ -18492,7 +18488,7 @@
       <c r="O534" s="12"/>
       <c r="P534" s="12"/>
     </row>
-    <row r="535" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535" s="8" t="s">
         <v>1</v>
       </c>
@@ -18506,7 +18502,7 @@
       <c r="O535" s="12"/>
       <c r="P535" s="12"/>
     </row>
-    <row r="536" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536" s="13" t="s">
         <v>3</v>
       </c>
@@ -18520,7 +18516,7 @@
       <c r="O536" s="12"/>
       <c r="P536" s="12"/>
     </row>
-    <row r="537" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537" s="13" t="s">
         <v>11</v>
       </c>
@@ -18534,7 +18530,7 @@
       <c r="O537" s="12"/>
       <c r="P537" s="12"/>
     </row>
-    <row r="538" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538" s="13" t="s">
         <v>4</v>
       </c>
@@ -18548,7 +18544,7 @@
       <c r="O538" s="12"/>
       <c r="P538" s="12"/>
     </row>
-    <row r="539" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539" s="13" t="s">
         <v>2</v>
       </c>
@@ -18562,7 +18558,7 @@
       <c r="O539" s="12"/>
       <c r="P539" s="12"/>
     </row>
-    <row r="540" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540" s="13" t="s">
         <v>6</v>
       </c>
@@ -18576,7 +18572,7 @@
       <c r="O540" s="12"/>
       <c r="P540" s="12"/>
     </row>
-    <row r="541" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541" s="17" t="s">
         <v>7</v>
       </c>
@@ -18596,7 +18592,7 @@
       <c r="O541" s="12"/>
       <c r="P541" s="12"/>
     </row>
-    <row r="542" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542" s="17" t="s">
         <v>8</v>
       </c>
@@ -18634,7 +18630,7 @@
       <c r="S542" s="17"/>
       <c r="T542" s="7"/>
     </row>
-    <row r="543" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543" s="16" t="str">
         <f>B535</f>
         <v>treatment of electrolyzer balance of plant, 1MWe, SOEC</v>
@@ -18663,7 +18659,7 @@
       <c r="O543" s="12"/>
       <c r="P543" s="12"/>
     </row>
-    <row r="544" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544" s="16" t="s">
         <v>204</v>
       </c>
@@ -18692,7 +18688,7 @@
       <c r="Q544"/>
       <c r="R544"/>
     </row>
-    <row r="545" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545" s="16" t="s">
         <v>449</v>
       </c>
@@ -18721,7 +18717,7 @@
       <c r="Q545"/>
       <c r="R545"/>
     </row>
-    <row r="546" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546" s="11" t="s">
         <v>206</v>
       </c>
@@ -18750,7 +18746,7 @@
       <c r="Q546"/>
       <c r="R546"/>
     </row>
-    <row r="547" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547" s="11" t="s">
         <v>226</v>
       </c>
@@ -18779,7 +18775,7 @@
       <c r="Q547"/>
       <c r="R547"/>
     </row>
-    <row r="548" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548" s="11" t="s">
         <v>218</v>
       </c>
@@ -18808,7 +18804,7 @@
       <c r="Q548"/>
       <c r="R548"/>
     </row>
-    <row r="549" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A549" s="11" t="s">
         <v>219</v>
       </c>
@@ -18837,7 +18833,7 @@
       <c r="Q549"/>
       <c r="R549"/>
     </row>
-    <row r="550" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A550" s="11" t="s">
         <v>221</v>
       </c>
@@ -18866,7 +18862,7 @@
       <c r="Q550"/>
       <c r="R550"/>
     </row>
-    <row r="551" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551" s="11" t="s">
         <v>451</v>
       </c>
@@ -18895,7 +18891,7 @@
       <c r="Q551"/>
       <c r="R551"/>
     </row>
-    <row r="552" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552" s="11" t="s">
         <v>208</v>
       </c>
@@ -18924,7 +18920,7 @@
       <c r="Q552"/>
       <c r="R552"/>
     </row>
-    <row r="553" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553" s="11" t="s">
         <v>210</v>
       </c>
@@ -18953,7 +18949,7 @@
       <c r="Q553"/>
       <c r="R553"/>
     </row>
-    <row r="554" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554" s="11" t="s">
         <v>448</v>
       </c>
@@ -18982,7 +18978,7 @@
       <c r="Q554"/>
       <c r="R554"/>
     </row>
-    <row r="555" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B555" s="16"/>
       <c r="K555" s="12"/>
       <c r="L555" s="12"/>
@@ -18991,7 +18987,7 @@
       <c r="O555" s="12"/>
       <c r="P555" s="12"/>
     </row>
-    <row r="556" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A556" s="8" t="s">
         <v>1</v>
       </c>
@@ -19006,7 +19002,7 @@
       <c r="O556" s="12"/>
       <c r="P556" s="12"/>
     </row>
-    <row r="557" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A557" s="13" t="s">
         <v>3</v>
       </c>
@@ -19020,12 +19016,12 @@
       <c r="O557" s="12"/>
       <c r="P557" s="12"/>
     </row>
-    <row r="558" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A558" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B558" s="14" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="K558" s="12"/>
       <c r="L558" s="12"/>
@@ -19034,7 +19030,7 @@
       <c r="O558" s="12"/>
       <c r="P558" s="12"/>
     </row>
-    <row r="559" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559" s="13" t="s">
         <v>4</v>
       </c>
@@ -19048,7 +19044,7 @@
       <c r="O559" s="12"/>
       <c r="P559" s="12"/>
     </row>
-    <row r="560" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A560" s="13" t="s">
         <v>2</v>
       </c>
@@ -19062,7 +19058,7 @@
       <c r="O560" s="12"/>
       <c r="P560" s="12"/>
     </row>
-    <row r="561" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561" s="13" t="s">
         <v>6</v>
       </c>
@@ -19079,7 +19075,7 @@
       <c r="O561" s="12"/>
       <c r="P561" s="12"/>
     </row>
-    <row r="562" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562" s="17" t="s">
         <v>7</v>
       </c>
@@ -19099,7 +19095,7 @@
       <c r="O562" s="12"/>
       <c r="P562" s="12"/>
     </row>
-    <row r="563" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A563" s="17" t="s">
         <v>8</v>
       </c>
@@ -19164,7 +19160,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="564" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A564" s="16" t="str">
         <f>B556</f>
         <v>deionized water production, via reverse osmosis, from brackish water</v>
@@ -19200,7 +19196,7 @@
       <c r="P564" s="12"/>
       <c r="T564"/>
     </row>
-    <row r="565" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>33</v>
       </c>
@@ -19220,12 +19216,12 @@
         <v>36</v>
       </c>
       <c r="H565" t="s">
-        <v>531</v>
-      </c>
-      <c r="I565" s="60">
+        <v>530</v>
+      </c>
+      <c r="I565">
         <v>5</v>
       </c>
-      <c r="J565" s="61">
+      <c r="J565" s="4">
         <f>B565</f>
         <v>1.5499999999999999E-3</v>
       </c>
@@ -19238,7 +19234,7 @@
         <v>1.6999999999999999E-3</v>
       </c>
     </row>
-    <row r="566" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>519</v>
       </c>
@@ -19257,11 +19253,11 @@
       <c r="G566" t="s">
         <v>520</v>
       </c>
-      <c r="I566" s="60">
+      <c r="I566">
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>521</v>
       </c>
@@ -19269,7 +19265,7 @@
         <v>7.5799999999999998E-7</v>
       </c>
       <c r="C567" s="11" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D567" t="s">
         <v>13</v>
@@ -19280,11 +19276,11 @@
       <c r="G567" t="s">
         <v>522</v>
       </c>
-      <c r="I567" s="60">
+      <c r="I567">
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>523</v>
       </c>
@@ -19303,13 +19299,13 @@
       <c r="G568" t="s">
         <v>524</v>
       </c>
-      <c r="I568" s="62">
+      <c r="I568">
         <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
-        <v>525</v>
+        <v>541</v>
       </c>
       <c r="B569" s="4">
         <v>2.7E-6</v>
@@ -19324,15 +19320,15 @@
         <v>12</v>
       </c>
       <c r="G569" t="s">
+        <v>525</v>
+      </c>
+      <c r="I569">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A570" t="s">
         <v>526</v>
-      </c>
-      <c r="I569" s="62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="570" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A570" t="s">
-        <v>527</v>
       </c>
       <c r="B570" s="4">
         <f>1/0.7/1000</f>
@@ -19342,18 +19338,18 @@
         <v>31</v>
       </c>
       <c r="E570" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F570" t="s">
         <v>14</v>
       </c>
       <c r="H570" t="s">
-        <v>529</v>
-      </c>
-      <c r="I570" s="62">
+        <v>528</v>
+      </c>
+      <c r="I570">
         <v>5</v>
       </c>
-      <c r="J570" s="61">
+      <c r="J570" s="4">
         <f>B570</f>
         <v>1.4285714285714286E-3</v>
       </c>
@@ -19366,9 +19362,9 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="571" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B571" s="4">
         <f>B570-(1/1000)</f>
@@ -19378,18 +19374,18 @@
         <v>31</v>
       </c>
       <c r="E571" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F571" t="s">
         <v>14</v>
       </c>
       <c r="H571" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="572" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A572" t="s">
         <v>539</v>
-      </c>
-    </row>
-    <row r="572" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A572" t="s">
-        <v>540</v>
       </c>
       <c r="B572" s="4">
         <v>4.5799999999999999E-3</v>
@@ -19398,15 +19394,15 @@
         <v>13</v>
       </c>
       <c r="E572" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F572" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="573" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B573" s="4">
         <v>6.8599999999999998E-3</v>
@@ -19415,18 +19411,19 @@
         <v>13</v>
       </c>
       <c r="E573" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F573" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="575" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:21" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="575" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A575" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B575" s="9" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C575" s="10"/>
       <c r="K575" s="12"/>
@@ -19436,7 +19433,7 @@
       <c r="O575" s="12"/>
       <c r="P575" s="12"/>
     </row>
-    <row r="576" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A576" s="13" t="s">
         <v>3</v>
       </c>
@@ -19450,12 +19447,12 @@
       <c r="O576" s="12"/>
       <c r="P576" s="12"/>
     </row>
-    <row r="577" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A577" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B577" s="14" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="K577" s="12"/>
       <c r="L577" s="12"/>
@@ -19464,7 +19461,7 @@
       <c r="O577" s="12"/>
       <c r="P577" s="12"/>
     </row>
-    <row r="578" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A578" s="13" t="s">
         <v>4</v>
       </c>
@@ -19478,7 +19475,7 @@
       <c r="O578" s="12"/>
       <c r="P578" s="12"/>
     </row>
-    <row r="579" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A579" s="13" t="s">
         <v>2</v>
       </c>
@@ -19492,7 +19489,7 @@
       <c r="O579" s="12"/>
       <c r="P579" s="12"/>
     </row>
-    <row r="580" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A580" s="13" t="s">
         <v>6</v>
       </c>
@@ -19509,7 +19506,7 @@
       <c r="O580" s="12"/>
       <c r="P580" s="12"/>
     </row>
-    <row r="581" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A581" s="17" t="s">
         <v>7</v>
       </c>
@@ -19529,7 +19526,7 @@
       <c r="O581" s="12"/>
       <c r="P581" s="12"/>
     </row>
-    <row r="582" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A582" s="17" t="s">
         <v>8</v>
       </c>
@@ -19594,7 +19591,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="583" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A583" s="16" t="str">
         <f>B575</f>
         <v>deionized water production, via reverse osmosis, from sea water</v>
@@ -19630,7 +19627,7 @@
       <c r="P583" s="12"/>
       <c r="T583"/>
     </row>
-    <row r="584" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>33</v>
       </c>
@@ -19651,12 +19648,12 @@
         <v>36</v>
       </c>
       <c r="H584" t="s">
-        <v>533</v>
-      </c>
-      <c r="I584" s="60">
+        <v>532</v>
+      </c>
+      <c r="I584">
         <v>5</v>
       </c>
-      <c r="J584" s="61">
+      <c r="J584" s="4">
         <f>B584</f>
         <v>4.6500000000000005E-3</v>
       </c>
@@ -19669,7 +19666,7 @@
         <v>5.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="585" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>519</v>
       </c>
@@ -19688,11 +19685,11 @@
       <c r="G585" t="s">
         <v>520</v>
       </c>
-      <c r="I585" s="60">
+      <c r="I585">
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>521</v>
       </c>
@@ -19700,7 +19697,7 @@
         <v>7.5799999999999998E-7</v>
       </c>
       <c r="C586" s="11" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D586" t="s">
         <v>13</v>
@@ -19711,11 +19708,11 @@
       <c r="G586" t="s">
         <v>522</v>
       </c>
-      <c r="I586" s="60">
+      <c r="I586">
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>523</v>
       </c>
@@ -19734,13 +19731,13 @@
       <c r="G587" t="s">
         <v>524</v>
       </c>
-      <c r="I587" s="62">
+      <c r="I587">
         <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
-        <v>525</v>
+        <v>541</v>
       </c>
       <c r="B588" s="4">
         <v>2.7E-6</v>
@@ -19755,15 +19752,15 @@
         <v>12</v>
       </c>
       <c r="G588" t="s">
-        <v>526</v>
-      </c>
-      <c r="I588" s="62">
+        <v>525</v>
+      </c>
+      <c r="I588">
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B589" s="4">
         <f>1/0.4/1000</f>
@@ -19773,18 +19770,18 @@
         <v>31</v>
       </c>
       <c r="E589" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F589" t="s">
         <v>14</v>
       </c>
       <c r="H589" t="s">
-        <v>536</v>
-      </c>
-      <c r="I589" s="62">
+        <v>535</v>
+      </c>
+      <c r="I589">
         <v>5</v>
       </c>
-      <c r="J589" s="61">
+      <c r="J589" s="4">
         <f>B589</f>
         <v>2.5000000000000001E-3</v>
       </c>
@@ -19797,8 +19794,22 @@
         <v>2.8571428571428571E-3</v>
       </c>
     </row>
+    <row r="590" spans="1:21" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="591" spans="1:21" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="592" spans="1:21" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="593" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="594" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="595" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="596" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="597" hidden="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:T597" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:T597" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="market for acrylic dispersion, with water, in 58% solution state"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19855,10 +19866,10 @@
       <c r="C4" s="38" t="s">
         <v>430</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="52" t="s">
         <v>395</v>
       </c>
-      <c r="E4" s="57"/>
+      <c r="E4" s="53"/>
       <c r="F4" s="39" t="s">
         <v>396</v>
       </c>
@@ -19873,10 +19884,10 @@
       <c r="C5" s="38">
         <v>5.5</v>
       </c>
-      <c r="D5" s="58">
+      <c r="D5" s="54">
         <v>2.5</v>
       </c>
-      <c r="E5" s="59"/>
+      <c r="E5" s="55"/>
       <c r="F5" s="38" t="s">
         <v>397</v>
       </c>
@@ -19888,9 +19899,9 @@
       <c r="B6" s="49" t="s">
         <v>399</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="51"/>
       <c r="F6" s="40" t="s">
         <v>400</v>
       </c>
@@ -19905,10 +19916,10 @@
       <c r="C7" s="38">
         <v>20</v>
       </c>
-      <c r="D7" s="58">
+      <c r="D7" s="54">
         <v>20</v>
       </c>
-      <c r="E7" s="59"/>
+      <c r="E7" s="55"/>
       <c r="F7" s="38" t="s">
         <v>396</v>
       </c>
@@ -19923,10 +19934,10 @@
       <c r="C8" s="38">
         <v>3</v>
       </c>
-      <c r="D8" s="58">
+      <c r="D8" s="54">
         <v>7</v>
       </c>
-      <c r="E8" s="59"/>
+      <c r="E8" s="55"/>
       <c r="F8" s="38" t="s">
         <v>403</v>
       </c>
@@ -19938,9 +19949,9 @@
       <c r="B9" s="49" t="s">
         <v>431</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="51"/>
       <c r="F9" s="40" t="s">
         <v>405</v>
       </c>
@@ -20012,7 +20023,7 @@
       <c r="D13" s="49">
         <v>23.6</v>
       </c>
-      <c r="E13" s="50"/>
+      <c r="E13" s="51"/>
       <c r="F13" s="38" t="s">
         <v>408</v>
       </c>
@@ -20025,8 +20036,8 @@
         <v>3.7000000000000002E-3</v>
       </c>
       <c r="C14" s="45"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="52"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="57"/>
       <c r="F14" s="40" t="s">
         <v>413</v>
       </c>
@@ -20044,7 +20055,7 @@
       <c r="D15" s="49" t="s">
         <v>417</v>
       </c>
-      <c r="E15" s="50"/>
+      <c r="E15" s="51"/>
       <c r="F15" s="38" t="s">
         <v>410</v>
       </c>
@@ -20062,7 +20073,7 @@
       <c r="D16" s="49" t="s">
         <v>421</v>
       </c>
-      <c r="E16" s="50"/>
+      <c r="E16" s="51"/>
       <c r="F16" s="38" t="s">
         <v>396</v>
       </c>
@@ -20077,27 +20088,27 @@
       <c r="C17" s="39" t="s">
         <v>424</v>
       </c>
-      <c r="D17" s="53" t="s">
+      <c r="D17" s="58" t="s">
         <v>425</v>
       </c>
-      <c r="E17" s="54"/>
+      <c r="E17" s="59"/>
       <c r="F17" s="40" t="s">
         <v>426</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/premise/data/additional_inventories/lci-hydrogen-electrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-electrolysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E81E569-BFB6-8249-8A7C-E3FA963CF6CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0046B9-DD95-1040-8051-A7A40AA5EE13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2211,10 +2211,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2228,18 +2240,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2526,11 +2526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:U597"/>
+  <dimension ref="A1:U589"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F588" sqref="F588"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2564,7 +2563,7 @@
       <c r="I1" s="5"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="2"/>
@@ -2576,7 +2575,7 @@
       <c r="I2" s="5"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
@@ -2591,7 +2590,7 @@
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
     </row>
-    <row r="4" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
@@ -2605,7 +2604,7 @@
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
     </row>
-    <row r="5" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>11</v>
       </c>
@@ -2619,7 +2618,7 @@
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
     </row>
-    <row r="6" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>4</v>
       </c>
@@ -2633,7 +2632,7 @@
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
     </row>
-    <row r="7" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>2</v>
       </c>
@@ -2647,7 +2646,7 @@
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
     </row>
-    <row r="8" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>6</v>
       </c>
@@ -2664,7 +2663,7 @@
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
     </row>
-    <row r="9" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
         <v>7</v>
       </c>
@@ -2684,7 +2683,7 @@
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
     </row>
-    <row r="10" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>8</v>
       </c>
@@ -2749,7 +2748,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>438</v>
       </c>
@@ -2783,7 +2782,7 @@
       <c r="P11" s="12"/>
       <c r="T11"/>
     </row>
-    <row r="12" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="str">
         <f>B123</f>
         <v>electrolyzer production, 1MWe, PEM, Stack</v>
@@ -2831,7 +2830,7 @@
         <v>1.7998560115190784E-6</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="str">
         <f>B162</f>
         <v>electrolyzer production, 1MWe, PEM, Balance of Plant</v>
@@ -2879,7 +2878,7 @@
         <v>4.4996400287976961E-7</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>505</v>
       </c>
@@ -2929,7 +2928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
         <v>507</v>
       </c>
@@ -2979,7 +2978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>33</v>
       </c>
@@ -3024,7 +3023,7 @@
         <v>55.1</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>517</v>
       </c>
@@ -3059,7 +3058,7 @@
       <c r="Q17"/>
       <c r="R17"/>
     </row>
-    <row r="18" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
         <v>38</v>
       </c>
@@ -3091,7 +3090,7 @@
       <c r="Q18" s="19"/>
       <c r="R18"/>
     </row>
-    <row r="19" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="47" t="s">
         <v>456</v>
       </c>
@@ -3155,7 +3154,7 @@
         <v>0.24634371748562628</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="47" t="s">
         <v>458</v>
       </c>
@@ -3209,7 +3208,7 @@
         <v>0.24634371748562628</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="47" t="s">
         <v>461</v>
       </c>
@@ -3263,7 +3262,7 @@
         <v>0.24634371748562628</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
@@ -3271,7 +3270,7 @@
       <c r="O22" s="12"/>
       <c r="P22" s="12"/>
     </row>
-    <row r="23" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>1</v>
       </c>
@@ -3286,7 +3285,7 @@
       <c r="O23" s="12"/>
       <c r="P23" s="12"/>
     </row>
-    <row r="24" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
         <v>3</v>
       </c>
@@ -3300,7 +3299,7 @@
       <c r="O24" s="12"/>
       <c r="P24" s="12"/>
     </row>
-    <row r="25" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
         <v>11</v>
       </c>
@@ -3314,7 +3313,7 @@
       <c r="O25" s="12"/>
       <c r="P25" s="12"/>
     </row>
-    <row r="26" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
         <v>4</v>
       </c>
@@ -3328,7 +3327,7 @@
       <c r="O26" s="12"/>
       <c r="P26" s="12"/>
     </row>
-    <row r="27" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
         <v>2</v>
       </c>
@@ -3342,7 +3341,7 @@
       <c r="O27" s="12"/>
       <c r="P27" s="12"/>
     </row>
-    <row r="28" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
         <v>6</v>
       </c>
@@ -3359,7 +3358,7 @@
       <c r="O28" s="12"/>
       <c r="P28" s="12"/>
     </row>
-    <row r="29" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
         <v>7</v>
       </c>
@@ -3379,7 +3378,7 @@
       <c r="O29" s="12"/>
       <c r="P29" s="12"/>
     </row>
-    <row r="30" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
         <v>8</v>
       </c>
@@ -3444,7 +3443,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="str">
         <f>B23</f>
         <v>hydrogen production, gaseous, 30 bar, from PEM electrolysis, from solar photovoltaic electricity</v>
@@ -3479,7 +3478,7 @@
       <c r="P31" s="12"/>
       <c r="T31"/>
     </row>
-    <row r="32" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
         <v>55</v>
       </c>
@@ -3526,7 +3525,7 @@
         <v>1.7998560115190784E-6</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
         <v>80</v>
       </c>
@@ -3573,7 +3572,7 @@
         <v>4.4996400287976961E-7</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
         <v>505</v>
       </c>
@@ -3623,7 +3622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
         <v>507</v>
       </c>
@@ -3673,7 +3672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
         <v>490</v>
       </c>
@@ -3718,7 +3717,7 @@
         <v>55.1</v>
       </c>
     </row>
-    <row r="37" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
         <v>517</v>
       </c>
@@ -3753,7 +3752,7 @@
       <c r="Q37"/>
       <c r="R37"/>
     </row>
-    <row r="38" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="21" t="s">
         <v>38</v>
       </c>
@@ -3785,7 +3784,7 @@
       <c r="Q38" s="19"/>
       <c r="R38"/>
     </row>
-    <row r="39" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="47" t="s">
         <v>456</v>
       </c>
@@ -3849,7 +3848,7 @@
         <v>0.24634371748562628</v>
       </c>
     </row>
-    <row r="40" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="47" t="s">
         <v>458</v>
       </c>
@@ -3903,7 +3902,7 @@
         <v>0.24634371748562628</v>
       </c>
     </row>
-    <row r="41" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="47" t="s">
         <v>461</v>
       </c>
@@ -3957,7 +3956,7 @@
         <v>0.24634371748562628</v>
       </c>
     </row>
-    <row r="42" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="K42" s="12"/>
       <c r="L42" s="12"/>
       <c r="M42" s="12"/>
@@ -3965,7 +3964,7 @@
       <c r="O42" s="12"/>
       <c r="P42" s="12"/>
     </row>
-    <row r="43" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>1</v>
       </c>
@@ -3980,7 +3979,7 @@
       <c r="O43" s="12"/>
       <c r="P43" s="12"/>
     </row>
-    <row r="44" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>3</v>
       </c>
@@ -3994,7 +3993,7 @@
       <c r="O44" s="12"/>
       <c r="P44" s="12"/>
     </row>
-    <row r="45" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>11</v>
       </c>
@@ -4008,7 +4007,7 @@
       <c r="O45" s="12"/>
       <c r="P45" s="12"/>
     </row>
-    <row r="46" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>4</v>
       </c>
@@ -4022,7 +4021,7 @@
       <c r="O46" s="12"/>
       <c r="P46" s="12"/>
     </row>
-    <row r="47" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
         <v>2</v>
       </c>
@@ -4036,7 +4035,7 @@
       <c r="O47" s="12"/>
       <c r="P47" s="12"/>
     </row>
-    <row r="48" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
         <v>6</v>
       </c>
@@ -4053,7 +4052,7 @@
       <c r="O48" s="12"/>
       <c r="P48" s="12"/>
     </row>
-    <row r="49" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="17" t="s">
         <v>7</v>
       </c>
@@ -4073,7 +4072,7 @@
       <c r="O49" s="12"/>
       <c r="P49" s="12"/>
     </row>
-    <row r="50" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="17" t="s">
         <v>8</v>
       </c>
@@ -4138,7 +4137,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="16" t="str">
         <f>B43</f>
         <v>hydrogen production, gaseous, 30 bar, from PEM electrolysis, from onshore wind electricity</v>
@@ -4173,7 +4172,7 @@
       <c r="P51" s="12"/>
       <c r="T51"/>
     </row>
-    <row r="52" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="16" t="s">
         <v>55</v>
       </c>
@@ -4220,7 +4219,7 @@
         <v>1.7998560115190784E-6</v>
       </c>
     </row>
-    <row r="53" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="16" t="s">
         <v>80</v>
       </c>
@@ -4267,7 +4266,7 @@
         <v>4.4996400287976961E-7</v>
       </c>
     </row>
-    <row r="54" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
         <v>505</v>
       </c>
@@ -4317,7 +4316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="16" t="s">
         <v>507</v>
       </c>
@@ -4367,7 +4366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
         <v>493</v>
       </c>
@@ -4412,7 +4411,7 @@
         <v>55.1</v>
       </c>
     </row>
-    <row r="57" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
         <v>517</v>
       </c>
@@ -4447,7 +4446,7 @@
       <c r="Q57"/>
       <c r="R57"/>
     </row>
-    <row r="58" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="21" t="s">
         <v>38</v>
       </c>
@@ -4479,7 +4478,7 @@
       <c r="Q58" s="19"/>
       <c r="R58"/>
     </row>
-    <row r="59" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="47" t="s">
         <v>456</v>
       </c>
@@ -4543,7 +4542,7 @@
         <v>0.24634371748562628</v>
       </c>
     </row>
-    <row r="60" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="47" t="s">
         <v>458</v>
       </c>
@@ -4597,7 +4596,7 @@
         <v>0.24634371748562628</v>
       </c>
     </row>
-    <row r="61" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="47" t="s">
         <v>461</v>
       </c>
@@ -4651,7 +4650,7 @@
         <v>0.24634371748562628</v>
       </c>
     </row>
-    <row r="62" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="K62" s="12"/>
       <c r="L62" s="12"/>
       <c r="M62" s="12"/>
@@ -4659,7 +4658,7 @@
       <c r="O62" s="12"/>
       <c r="P62" s="12"/>
     </row>
-    <row r="63" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
         <v>1</v>
       </c>
@@ -4674,7 +4673,7 @@
       <c r="O63" s="12"/>
       <c r="P63" s="12"/>
     </row>
-    <row r="64" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
         <v>3</v>
       </c>
@@ -4688,7 +4687,7 @@
       <c r="O64" s="12"/>
       <c r="P64" s="12"/>
     </row>
-    <row r="65" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
         <v>11</v>
       </c>
@@ -4702,7 +4701,7 @@
       <c r="O65" s="12"/>
       <c r="P65" s="12"/>
     </row>
-    <row r="66" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="13" t="s">
         <v>4</v>
       </c>
@@ -4716,7 +4715,7 @@
       <c r="O66" s="12"/>
       <c r="P66" s="12"/>
     </row>
-    <row r="67" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
         <v>2</v>
       </c>
@@ -4730,7 +4729,7 @@
       <c r="O67" s="12"/>
       <c r="P67" s="12"/>
     </row>
-    <row r="68" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
         <v>6</v>
       </c>
@@ -4747,7 +4746,7 @@
       <c r="O68" s="12"/>
       <c r="P68" s="12"/>
     </row>
-    <row r="69" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="17" t="s">
         <v>7</v>
       </c>
@@ -4767,7 +4766,7 @@
       <c r="O69" s="12"/>
       <c r="P69" s="12"/>
     </row>
-    <row r="70" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="17" t="s">
         <v>8</v>
       </c>
@@ -4832,7 +4831,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="71" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="16" t="str">
         <f>B63</f>
         <v>hydrogen production, gaseous, 30 bar, from PEM electrolysis, from offshore wind electricity</v>
@@ -4867,7 +4866,7 @@
       <c r="P71" s="12"/>
       <c r="T71"/>
     </row>
-    <row r="72" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="16" t="s">
         <v>55</v>
       </c>
@@ -4914,7 +4913,7 @@
         <v>1.7998560115190784E-6</v>
       </c>
     </row>
-    <row r="73" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="16" t="s">
         <v>80</v>
       </c>
@@ -4961,7 +4960,7 @@
         <v>4.4996400287976961E-7</v>
       </c>
     </row>
-    <row r="74" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="16" t="s">
         <v>505</v>
       </c>
@@ -5011,7 +5010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="16" t="s">
         <v>507</v>
       </c>
@@ -5061,7 +5060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="13" t="s">
         <v>499</v>
       </c>
@@ -5106,7 +5105,7 @@
         <v>55.1</v>
       </c>
     </row>
-    <row r="77" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
         <v>517</v>
       </c>
@@ -5141,7 +5140,7 @@
       <c r="Q77"/>
       <c r="R77"/>
     </row>
-    <row r="78" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="21" t="s">
         <v>38</v>
       </c>
@@ -5173,7 +5172,7 @@
       <c r="Q78" s="19"/>
       <c r="R78"/>
     </row>
-    <row r="79" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="47" t="s">
         <v>456</v>
       </c>
@@ -5237,7 +5236,7 @@
         <v>0.24634371748562628</v>
       </c>
     </row>
-    <row r="80" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="47" t="s">
         <v>458</v>
       </c>
@@ -5291,7 +5290,7 @@
         <v>0.24634371748562628</v>
       </c>
     </row>
-    <row r="81" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="47" t="s">
         <v>461</v>
       </c>
@@ -5345,7 +5344,7 @@
         <v>0.24634371748562628</v>
       </c>
     </row>
-    <row r="82" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="K82" s="12"/>
       <c r="L82" s="12"/>
       <c r="M82" s="12"/>
@@ -5353,7 +5352,7 @@
       <c r="O82" s="12"/>
       <c r="P82" s="12"/>
     </row>
-    <row r="83" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
         <v>1</v>
       </c>
@@ -5368,7 +5367,7 @@
       <c r="O83" s="12"/>
       <c r="P83" s="12"/>
     </row>
-    <row r="84" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="13" t="s">
         <v>3</v>
       </c>
@@ -5382,7 +5381,7 @@
       <c r="O84" s="12"/>
       <c r="P84" s="12"/>
     </row>
-    <row r="85" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="13" t="s">
         <v>11</v>
       </c>
@@ -5396,7 +5395,7 @@
       <c r="O85" s="12"/>
       <c r="P85" s="12"/>
     </row>
-    <row r="86" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="13" t="s">
         <v>4</v>
       </c>
@@ -5410,7 +5409,7 @@
       <c r="O86" s="12"/>
       <c r="P86" s="12"/>
     </row>
-    <row r="87" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="13" t="s">
         <v>2</v>
       </c>
@@ -5424,7 +5423,7 @@
       <c r="O87" s="12"/>
       <c r="P87" s="12"/>
     </row>
-    <row r="88" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="13" t="s">
         <v>6</v>
       </c>
@@ -5441,7 +5440,7 @@
       <c r="O88" s="12"/>
       <c r="P88" s="12"/>
     </row>
-    <row r="89" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="17" t="s">
         <v>7</v>
       </c>
@@ -5461,7 +5460,7 @@
       <c r="O89" s="12"/>
       <c r="P89" s="12"/>
     </row>
-    <row r="90" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="17" t="s">
         <v>8</v>
       </c>
@@ -5526,7 +5525,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="91" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="16" t="str">
         <f>B83</f>
         <v>hydrogen production, gaseous, 30 bar, from PEM electrolysis, from geothermal electricity</v>
@@ -5561,7 +5560,7 @@
       <c r="P91" s="12"/>
       <c r="T91"/>
     </row>
-    <row r="92" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="16" t="s">
         <v>55</v>
       </c>
@@ -5608,7 +5607,7 @@
         <v>1.7998560115190784E-6</v>
       </c>
     </row>
-    <row r="93" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="16" t="s">
         <v>80</v>
       </c>
@@ -5655,7 +5654,7 @@
         <v>4.4996400287976961E-7</v>
       </c>
     </row>
-    <row r="94" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="16" t="s">
         <v>505</v>
       </c>
@@ -5705,7 +5704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="16" t="s">
         <v>507</v>
       </c>
@@ -5755,7 +5754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="13" t="s">
         <v>502</v>
       </c>
@@ -5800,7 +5799,7 @@
         <v>55.1</v>
       </c>
     </row>
-    <row r="97" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="13" t="s">
         <v>517</v>
       </c>
@@ -5835,7 +5834,7 @@
       <c r="Q97"/>
       <c r="R97"/>
     </row>
-    <row r="98" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="21" t="s">
         <v>38</v>
       </c>
@@ -5867,7 +5866,7 @@
       <c r="Q98" s="19"/>
       <c r="R98"/>
     </row>
-    <row r="99" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="47" t="s">
         <v>456</v>
       </c>
@@ -5931,7 +5930,7 @@
         <v>0.24634371748562628</v>
       </c>
     </row>
-    <row r="100" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="47" t="s">
         <v>458</v>
       </c>
@@ -5985,7 +5984,7 @@
         <v>0.24634371748562628</v>
       </c>
     </row>
-    <row r="101" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="47" t="s">
         <v>461</v>
       </c>
@@ -6039,7 +6038,7 @@
         <v>0.24634371748562628</v>
       </c>
     </row>
-    <row r="102" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="K102" s="12"/>
       <c r="L102" s="12"/>
       <c r="M102" s="12"/>
@@ -6047,7 +6046,7 @@
       <c r="O102" s="12"/>
       <c r="P102" s="12"/>
     </row>
-    <row r="103" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="8" t="s">
         <v>1</v>
       </c>
@@ -6062,7 +6061,7 @@
       <c r="O103" s="12"/>
       <c r="P103" s="12"/>
     </row>
-    <row r="104" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="13" t="s">
         <v>3</v>
       </c>
@@ -6076,7 +6075,7 @@
       <c r="O104" s="12"/>
       <c r="P104" s="12"/>
     </row>
-    <row r="105" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="13" t="s">
         <v>11</v>
       </c>
@@ -6090,7 +6089,7 @@
       <c r="O105" s="12"/>
       <c r="P105" s="12"/>
     </row>
-    <row r="106" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="13" t="s">
         <v>4</v>
       </c>
@@ -6104,7 +6103,7 @@
       <c r="O106" s="12"/>
       <c r="P106" s="12"/>
     </row>
-    <row r="107" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="13" t="s">
         <v>2</v>
       </c>
@@ -6118,7 +6117,7 @@
       <c r="O107" s="12"/>
       <c r="P107" s="12"/>
     </row>
-    <row r="108" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="13" t="s">
         <v>6</v>
       </c>
@@ -6135,7 +6134,7 @@
       <c r="O108" s="12"/>
       <c r="P108" s="12"/>
     </row>
-    <row r="109" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="17" t="s">
         <v>7</v>
       </c>
@@ -6155,7 +6154,7 @@
       <c r="O109" s="12"/>
       <c r="P109" s="12"/>
     </row>
-    <row r="110" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="17" t="s">
         <v>8</v>
       </c>
@@ -6220,7 +6219,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="111" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="16" t="str">
         <f>B103</f>
         <v>hydrogen production, gaseous, 30 bar, from PEM electrolysis, from concentrated solar electricity</v>
@@ -6255,7 +6254,7 @@
       <c r="P111" s="12"/>
       <c r="T111"/>
     </row>
-    <row r="112" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="16" t="s">
         <v>55</v>
       </c>
@@ -6302,7 +6301,7 @@
         <v>1.7998560115190784E-6</v>
       </c>
     </row>
-    <row r="113" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="16" t="s">
         <v>80</v>
       </c>
@@ -6349,7 +6348,7 @@
         <v>4.4996400287976961E-7</v>
       </c>
     </row>
-    <row r="114" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="16" t="s">
         <v>505</v>
       </c>
@@ -6399,7 +6398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="16" t="s">
         <v>507</v>
       </c>
@@ -6449,7 +6448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="13" t="s">
         <v>504</v>
       </c>
@@ -6494,7 +6493,7 @@
         <v>55.1</v>
       </c>
     </row>
-    <row r="117" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="13" t="s">
         <v>517</v>
       </c>
@@ -6529,7 +6528,7 @@
       <c r="Q117"/>
       <c r="R117"/>
     </row>
-    <row r="118" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="21" t="s">
         <v>38</v>
       </c>
@@ -6561,7 +6560,7 @@
       <c r="Q118" s="19"/>
       <c r="R118"/>
     </row>
-    <row r="119" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="47" t="s">
         <v>456</v>
       </c>
@@ -6625,7 +6624,7 @@
         <v>0.24634371748562628</v>
       </c>
     </row>
-    <row r="120" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="47" t="s">
         <v>458</v>
       </c>
@@ -6679,7 +6678,7 @@
         <v>0.24634371748562628</v>
       </c>
     </row>
-    <row r="121" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="47" t="s">
         <v>461</v>
       </c>
@@ -6733,7 +6732,7 @@
         <v>0.24634371748562628</v>
       </c>
     </row>
-    <row r="122" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="K122" s="12"/>
       <c r="L122" s="12"/>
       <c r="M122" s="12"/>
@@ -6741,7 +6740,7 @@
       <c r="O122" s="12"/>
       <c r="P122" s="12"/>
     </row>
-    <row r="123" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="8" t="s">
         <v>1</v>
       </c>
@@ -6755,7 +6754,7 @@
       <c r="O123" s="12"/>
       <c r="P123" s="12"/>
     </row>
-    <row r="124" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="13" t="s">
         <v>3</v>
       </c>
@@ -6769,7 +6768,7 @@
       <c r="O124" s="12"/>
       <c r="P124" s="12"/>
     </row>
-    <row r="125" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="13" t="s">
         <v>11</v>
       </c>
@@ -6783,7 +6782,7 @@
       <c r="O125" s="12"/>
       <c r="P125" s="12"/>
     </row>
-    <row r="126" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="13" t="s">
         <v>4</v>
       </c>
@@ -6797,7 +6796,7 @@
       <c r="O126" s="12"/>
       <c r="P126" s="12"/>
     </row>
-    <row r="127" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="13" t="s">
         <v>2</v>
       </c>
@@ -6811,7 +6810,7 @@
       <c r="O127" s="12"/>
       <c r="P127" s="12"/>
     </row>
-    <row r="128" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="13" t="s">
         <v>6</v>
       </c>
@@ -6829,7 +6828,7 @@
       <c r="O128" s="12"/>
       <c r="P128" s="12"/>
     </row>
-    <row r="129" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="17" t="s">
         <v>7</v>
       </c>
@@ -6849,7 +6848,7 @@
       <c r="O129" s="12"/>
       <c r="P129" s="12"/>
     </row>
-    <row r="130" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="17" t="s">
         <v>8</v>
       </c>
@@ -6895,7 +6894,7 @@
       <c r="S130" s="17"/>
       <c r="T130" s="7"/>
     </row>
-    <row r="131" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="16" t="str">
         <f>B123</f>
         <v>electrolyzer production, 1MWe, PEM, Stack</v>
@@ -6927,7 +6926,7 @@
       <c r="O131" s="12"/>
       <c r="P131" s="12"/>
     </row>
-    <row r="132" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="11" t="s">
         <v>18</v>
       </c>
@@ -6962,7 +6961,7 @@
       <c r="Q132"/>
       <c r="R132"/>
     </row>
-    <row r="133" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="11" t="s">
         <v>58</v>
       </c>
@@ -6997,7 +6996,7 @@
       <c r="Q133"/>
       <c r="R133"/>
     </row>
-    <row r="134" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="11" t="s">
         <v>59</v>
       </c>
@@ -7032,7 +7031,7 @@
       <c r="Q134"/>
       <c r="R134"/>
     </row>
-    <row r="135" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="11" t="s">
         <v>21</v>
       </c>
@@ -7067,7 +7066,7 @@
       <c r="Q135"/>
       <c r="R135"/>
     </row>
-    <row r="136" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="11" t="s">
         <v>63</v>
       </c>
@@ -7102,7 +7101,7 @@
       <c r="Q136"/>
       <c r="R136"/>
     </row>
-    <row r="137" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="11" t="s">
         <v>479</v>
       </c>
@@ -7137,7 +7136,7 @@
       <c r="Q137"/>
       <c r="R137"/>
     </row>
-    <row r="138" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="11" t="s">
         <v>23</v>
       </c>
@@ -7181,7 +7180,7 @@
       <c r="Q138"/>
       <c r="R138"/>
     </row>
-    <row r="139" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="11" t="s">
         <v>63</v>
       </c>
@@ -7216,7 +7215,7 @@
       <c r="Q139"/>
       <c r="R139"/>
     </row>
-    <row r="140" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="11" t="s">
         <v>68</v>
       </c>
@@ -7251,7 +7250,7 @@
       <c r="Q140"/>
       <c r="R140"/>
     </row>
-    <row r="141" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="11" t="s">
         <v>71</v>
       </c>
@@ -7286,7 +7285,7 @@
       <c r="Q141"/>
       <c r="R141"/>
     </row>
-    <row r="142" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="11" t="s">
         <v>73</v>
       </c>
@@ -7321,7 +7320,7 @@
       <c r="Q142"/>
       <c r="R142"/>
     </row>
-    <row r="143" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="11" t="s">
         <v>20</v>
       </c>
@@ -7356,7 +7355,7 @@
       <c r="Q143"/>
       <c r="R143"/>
     </row>
-    <row r="144" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="11" t="s">
         <v>76</v>
       </c>
@@ -7391,7 +7390,7 @@
       <c r="Q144"/>
       <c r="R144"/>
     </row>
-    <row r="145" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="11" t="s">
         <v>33</v>
       </c>
@@ -7427,7 +7426,7 @@
       <c r="Q145"/>
       <c r="R145"/>
     </row>
-    <row r="146" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B146" s="16"/>
       <c r="K146" s="12"/>
       <c r="L146" s="12"/>
@@ -7436,7 +7435,7 @@
       <c r="O146" s="12"/>
       <c r="P146" s="12"/>
     </row>
-    <row r="147" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="8" t="s">
         <v>1</v>
       </c>
@@ -7450,7 +7449,7 @@
       <c r="O147" s="12"/>
       <c r="P147" s="12"/>
     </row>
-    <row r="148" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="13" t="s">
         <v>3</v>
       </c>
@@ -7464,7 +7463,7 @@
       <c r="O148" s="12"/>
       <c r="P148" s="12"/>
     </row>
-    <row r="149" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="13" t="s">
         <v>11</v>
       </c>
@@ -7478,7 +7477,7 @@
       <c r="O149" s="12"/>
       <c r="P149" s="12"/>
     </row>
-    <row r="150" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="13" t="s">
         <v>4</v>
       </c>
@@ -7492,7 +7491,7 @@
       <c r="O150" s="12"/>
       <c r="P150" s="12"/>
     </row>
-    <row r="151" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="13" t="s">
         <v>2</v>
       </c>
@@ -7506,7 +7505,7 @@
       <c r="O151" s="12"/>
       <c r="P151" s="12"/>
     </row>
-    <row r="152" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="13" t="s">
         <v>6</v>
       </c>
@@ -7520,7 +7519,7 @@
       <c r="O152" s="12"/>
       <c r="P152" s="12"/>
     </row>
-    <row r="153" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="17" t="s">
         <v>7</v>
       </c>
@@ -7540,7 +7539,7 @@
       <c r="O153" s="12"/>
       <c r="P153" s="12"/>
     </row>
-    <row r="154" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="17" t="s">
         <v>8</v>
       </c>
@@ -7578,7 +7577,7 @@
       <c r="S154" s="17"/>
       <c r="T154" s="7"/>
     </row>
-    <row r="155" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="16" t="str">
         <f>B147</f>
         <v>treatment of electrolyzer stack, 1MWe, PEM</v>
@@ -7607,7 +7606,7 @@
       <c r="O155" s="12"/>
       <c r="P155" s="12"/>
     </row>
-    <row r="156" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="16" t="s">
         <v>204</v>
       </c>
@@ -7637,7 +7636,7 @@
       <c r="Q156"/>
       <c r="R156"/>
     </row>
-    <row r="157" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="11" t="s">
         <v>206</v>
       </c>
@@ -7667,7 +7666,7 @@
       <c r="Q157"/>
       <c r="R157"/>
     </row>
-    <row r="158" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="11" t="s">
         <v>208</v>
       </c>
@@ -7697,7 +7696,7 @@
       <c r="Q158"/>
       <c r="R158"/>
     </row>
-    <row r="159" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="11" t="s">
         <v>210</v>
       </c>
@@ -7727,7 +7726,7 @@
       <c r="Q159"/>
       <c r="R159"/>
     </row>
-    <row r="160" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="11" t="s">
         <v>213</v>
       </c>
@@ -7757,7 +7756,7 @@
       <c r="Q160"/>
       <c r="R160"/>
     </row>
-    <row r="161" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B161" s="16"/>
       <c r="K161" s="12"/>
       <c r="L161" s="12"/>
@@ -7766,7 +7765,7 @@
       <c r="O161" s="12"/>
       <c r="P161" s="12"/>
     </row>
-    <row r="162" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="8" t="s">
         <v>1</v>
       </c>
@@ -7780,7 +7779,7 @@
       <c r="O162" s="12"/>
       <c r="P162" s="12"/>
     </row>
-    <row r="163" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="13" t="s">
         <v>3</v>
       </c>
@@ -7794,7 +7793,7 @@
       <c r="O163" s="12"/>
       <c r="P163" s="12"/>
     </row>
-    <row r="164" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="13" t="s">
         <v>11</v>
       </c>
@@ -7808,7 +7807,7 @@
       <c r="O164" s="12"/>
       <c r="P164" s="12"/>
     </row>
-    <row r="165" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="13" t="s">
         <v>4</v>
       </c>
@@ -7822,7 +7821,7 @@
       <c r="O165" s="12"/>
       <c r="P165" s="12"/>
     </row>
-    <row r="166" spans="1:20" s="11" customFormat="1" ht="16.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:20" s="11" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="13" t="s">
         <v>2</v>
       </c>
@@ -7836,7 +7835,7 @@
       <c r="O166" s="12"/>
       <c r="P166" s="12"/>
     </row>
-    <row r="167" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="13" t="s">
         <v>6</v>
       </c>
@@ -7852,7 +7851,7 @@
       <c r="O167" s="12"/>
       <c r="P167" s="12"/>
     </row>
-    <row r="168" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="17" t="s">
         <v>7</v>
       </c>
@@ -7871,7 +7870,7 @@
       <c r="O168" s="12"/>
       <c r="P168" s="12"/>
     </row>
-    <row r="169" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="17" t="s">
         <v>8</v>
       </c>
@@ -7909,7 +7908,7 @@
       <c r="S169" s="17"/>
       <c r="T169" s="7"/>
     </row>
-    <row r="170" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="16" t="str">
         <f>B162</f>
         <v>electrolyzer production, 1MWe, PEM, Balance of Plant</v>
@@ -7939,7 +7938,7 @@
       <c r="O170" s="12"/>
       <c r="P170" s="26"/>
     </row>
-    <row r="171" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="11" t="s">
         <v>18</v>
       </c>
@@ -7971,7 +7970,7 @@
       <c r="Q171"/>
       <c r="R171"/>
     </row>
-    <row r="172" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="11" t="s">
         <v>68</v>
       </c>
@@ -8003,7 +8002,7 @@
       <c r="Q172"/>
       <c r="R172"/>
     </row>
-    <row r="173" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="11" t="s">
         <v>83</v>
       </c>
@@ -8035,7 +8034,7 @@
       <c r="Q173"/>
       <c r="R173"/>
     </row>
-    <row r="174" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="11" t="s">
         <v>58</v>
       </c>
@@ -8067,7 +8066,7 @@
       <c r="Q174"/>
       <c r="R174"/>
     </row>
-    <row r="175" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="11" t="s">
         <v>84</v>
       </c>
@@ -8099,7 +8098,7 @@
       <c r="Q175"/>
       <c r="R175"/>
     </row>
-    <row r="176" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="11" t="s">
         <v>85</v>
       </c>
@@ -8131,7 +8130,7 @@
       <c r="Q176"/>
       <c r="R176"/>
     </row>
-    <row r="177" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="11" t="s">
         <v>86</v>
       </c>
@@ -8163,7 +8162,7 @@
       <c r="Q177"/>
       <c r="R177"/>
     </row>
-    <row r="178" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="11" t="s">
         <v>30</v>
       </c>
@@ -8195,7 +8194,7 @@
       <c r="Q178"/>
       <c r="R178"/>
     </row>
-    <row r="179" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="11" t="s">
         <v>25</v>
       </c>
@@ -8227,7 +8226,7 @@
       <c r="Q179"/>
       <c r="R179"/>
     </row>
-    <row r="180" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="11" t="s">
         <v>84</v>
       </c>
@@ -8259,7 +8258,7 @@
       <c r="Q180"/>
       <c r="R180"/>
     </row>
-    <row r="181" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="11" t="s">
         <v>73</v>
       </c>
@@ -8291,7 +8290,7 @@
       <c r="Q181"/>
       <c r="R181"/>
     </row>
-    <row r="182" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="11" t="s">
         <v>20</v>
       </c>
@@ -8323,7 +8322,7 @@
       <c r="Q182"/>
       <c r="R182"/>
     </row>
-    <row r="183" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="11" t="s">
         <v>18</v>
       </c>
@@ -8355,7 +8354,7 @@
       <c r="Q183"/>
       <c r="R183"/>
     </row>
-    <row r="184" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="11" t="s">
         <v>58</v>
       </c>
@@ -8387,7 +8386,7 @@
       <c r="Q184"/>
       <c r="R184"/>
     </row>
-    <row r="185" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="11" t="s">
         <v>68</v>
       </c>
@@ -8419,7 +8418,7 @@
       <c r="Q185"/>
       <c r="R185"/>
     </row>
-    <row r="186" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="11" t="s">
         <v>71</v>
       </c>
@@ -8451,7 +8450,7 @@
       <c r="Q186"/>
       <c r="R186"/>
     </row>
-    <row r="187" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="11" t="s">
         <v>27</v>
       </c>
@@ -8483,7 +8482,7 @@
       <c r="Q187"/>
       <c r="R187"/>
     </row>
-    <row r="188" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="11" t="s">
         <v>93</v>
       </c>
@@ -8515,7 +8514,7 @@
       <c r="Q188"/>
       <c r="R188"/>
     </row>
-    <row r="189" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="11" t="s">
         <v>95</v>
       </c>
@@ -8547,7 +8546,7 @@
       <c r="Q189"/>
       <c r="R189"/>
     </row>
-    <row r="190" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A190" s="11" t="s">
         <v>98</v>
       </c>
@@ -8579,7 +8578,7 @@
       <c r="Q190"/>
       <c r="R190"/>
     </row>
-    <row r="191" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="11" t="s">
         <v>73</v>
       </c>
@@ -8611,7 +8610,7 @@
       <c r="Q191"/>
       <c r="R191"/>
     </row>
-    <row r="192" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="11" t="s">
         <v>20</v>
       </c>
@@ -8643,7 +8642,7 @@
       <c r="Q192"/>
       <c r="R192"/>
     </row>
-    <row r="193" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="11" t="s">
         <v>102</v>
       </c>
@@ -8675,7 +8674,7 @@
       <c r="Q193"/>
       <c r="R193"/>
     </row>
-    <row r="194" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="11" t="s">
         <v>105</v>
       </c>
@@ -8707,7 +8706,7 @@
       <c r="Q194"/>
       <c r="R194"/>
     </row>
-    <row r="195" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="11" t="s">
         <v>83</v>
       </c>
@@ -8739,7 +8738,7 @@
       <c r="Q195"/>
       <c r="R195"/>
     </row>
-    <row r="196" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="11" t="s">
         <v>84</v>
       </c>
@@ -8771,7 +8770,7 @@
       <c r="Q196"/>
       <c r="R196"/>
     </row>
-    <row r="197" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="11" t="s">
         <v>18</v>
       </c>
@@ -8803,7 +8802,7 @@
       <c r="Q197"/>
       <c r="R197"/>
     </row>
-    <row r="198" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="11" t="s">
         <v>68</v>
       </c>
@@ -8835,7 +8834,7 @@
       <c r="Q198"/>
       <c r="R198"/>
     </row>
-    <row r="199" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="11" t="s">
         <v>83</v>
       </c>
@@ -8867,7 +8866,7 @@
       <c r="Q199"/>
       <c r="R199"/>
     </row>
-    <row r="200" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="11" t="s">
         <v>85</v>
       </c>
@@ -8899,7 +8898,7 @@
       <c r="Q200"/>
       <c r="R200"/>
     </row>
-    <row r="201" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="11" t="s">
         <v>86</v>
       </c>
@@ -8931,7 +8930,7 @@
       <c r="Q201"/>
       <c r="R201"/>
     </row>
-    <row r="202" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A202" s="11" t="s">
         <v>108</v>
       </c>
@@ -8963,7 +8962,7 @@
       <c r="Q202"/>
       <c r="R202"/>
     </row>
-    <row r="203" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" s="11" t="s">
         <v>111</v>
       </c>
@@ -8995,7 +8994,7 @@
       <c r="Q203"/>
       <c r="R203"/>
     </row>
-    <row r="204" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" s="11" t="s">
         <v>83</v>
       </c>
@@ -9027,7 +9026,7 @@
       <c r="Q204"/>
       <c r="R204"/>
     </row>
-    <row r="205" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" s="11" t="s">
         <v>73</v>
       </c>
@@ -9059,7 +9058,7 @@
       <c r="Q205"/>
       <c r="R205"/>
     </row>
-    <row r="206" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A206" s="11" t="s">
         <v>84</v>
       </c>
@@ -9091,7 +9090,7 @@
       <c r="Q206"/>
       <c r="R206"/>
     </row>
-    <row r="207" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A207" s="11" t="s">
         <v>20</v>
       </c>
@@ -9123,7 +9122,7 @@
       <c r="Q207"/>
       <c r="R207"/>
     </row>
-    <row r="208" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A208" s="11" t="s">
         <v>83</v>
       </c>
@@ -9155,7 +9154,7 @@
       <c r="Q208"/>
       <c r="R208"/>
     </row>
-    <row r="209" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A209" s="11" t="s">
         <v>73</v>
       </c>
@@ -9187,7 +9186,7 @@
       <c r="Q209"/>
       <c r="R209"/>
     </row>
-    <row r="210" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A210" s="11" t="s">
         <v>84</v>
       </c>
@@ -9219,7 +9218,7 @@
       <c r="Q210"/>
       <c r="R210"/>
     </row>
-    <row r="211" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" s="11" t="s">
         <v>20</v>
       </c>
@@ -9251,7 +9250,7 @@
       <c r="Q211"/>
       <c r="R211"/>
     </row>
-    <row r="212" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A212" s="11" t="s">
         <v>73</v>
       </c>
@@ -9283,7 +9282,7 @@
       <c r="Q212"/>
       <c r="R212"/>
     </row>
-    <row r="213" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" s="11" t="s">
         <v>20</v>
       </c>
@@ -9315,7 +9314,7 @@
       <c r="Q213"/>
       <c r="R213"/>
     </row>
-    <row r="214" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A214" s="11" t="s">
         <v>115</v>
       </c>
@@ -9347,7 +9346,7 @@
       <c r="Q214"/>
       <c r="R214"/>
     </row>
-    <row r="215" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A215" s="11" t="s">
         <v>84</v>
       </c>
@@ -9379,7 +9378,7 @@
       <c r="Q215"/>
       <c r="R215"/>
     </row>
-    <row r="216" spans="1:18" s="11" customFormat="1" ht="15.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:18" s="11" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="28" t="s">
         <v>25</v>
       </c>
@@ -9411,7 +9410,7 @@
       <c r="Q216"/>
       <c r="R216"/>
     </row>
-    <row r="217" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="11" t="s">
         <v>119</v>
       </c>
@@ -9443,7 +9442,7 @@
       <c r="Q217"/>
       <c r="R217"/>
     </row>
-    <row r="218" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="11" t="s">
         <v>33</v>
       </c>
@@ -9475,7 +9474,7 @@
       <c r="Q218"/>
       <c r="R218"/>
     </row>
-    <row r="219" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B219" s="16"/>
       <c r="K219" s="12"/>
       <c r="L219" s="12"/>
@@ -9484,7 +9483,7 @@
       <c r="O219" s="12"/>
       <c r="P219" s="12"/>
     </row>
-    <row r="220" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" s="8" t="s">
         <v>1</v>
       </c>
@@ -9498,7 +9497,7 @@
       <c r="O220" s="12"/>
       <c r="P220" s="12"/>
     </row>
-    <row r="221" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A221" s="13" t="s">
         <v>3</v>
       </c>
@@ -9512,7 +9511,7 @@
       <c r="O221" s="12"/>
       <c r="P221" s="12"/>
     </row>
-    <row r="222" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A222" s="13" t="s">
         <v>11</v>
       </c>
@@ -9526,7 +9525,7 @@
       <c r="O222" s="12"/>
       <c r="P222" s="12"/>
     </row>
-    <row r="223" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A223" s="13" t="s">
         <v>4</v>
       </c>
@@ -9540,7 +9539,7 @@
       <c r="O223" s="12"/>
       <c r="P223" s="12"/>
     </row>
-    <row r="224" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A224" s="13" t="s">
         <v>2</v>
       </c>
@@ -9554,7 +9553,7 @@
       <c r="O224" s="12"/>
       <c r="P224" s="12"/>
     </row>
-    <row r="225" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A225" s="13" t="s">
         <v>6</v>
       </c>
@@ -9568,7 +9567,7 @@
       <c r="O225" s="12"/>
       <c r="P225" s="12"/>
     </row>
-    <row r="226" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" s="17" t="s">
         <v>7</v>
       </c>
@@ -9588,7 +9587,7 @@
       <c r="O226" s="12"/>
       <c r="P226" s="12"/>
     </row>
-    <row r="227" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="17" t="s">
         <v>8</v>
       </c>
@@ -9626,7 +9625,7 @@
       <c r="S227" s="17"/>
       <c r="T227" s="7"/>
     </row>
-    <row r="228" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="16" t="str">
         <f>B220</f>
         <v>treatment of electrolyzer balance of plant, 1MWe, PEM</v>
@@ -9655,7 +9654,7 @@
       <c r="O228" s="12"/>
       <c r="P228" s="12"/>
     </row>
-    <row r="229" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A229" s="16" t="s">
         <v>204</v>
       </c>
@@ -9685,7 +9684,7 @@
       <c r="Q229"/>
       <c r="R229"/>
     </row>
-    <row r="230" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" s="16" t="s">
         <v>449</v>
       </c>
@@ -9714,7 +9713,7 @@
       <c r="Q230"/>
       <c r="R230"/>
     </row>
-    <row r="231" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" s="11" t="s">
         <v>206</v>
       </c>
@@ -9743,7 +9742,7 @@
       <c r="Q231"/>
       <c r="R231"/>
     </row>
-    <row r="232" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A232" s="11" t="s">
         <v>226</v>
       </c>
@@ -9772,7 +9771,7 @@
       <c r="Q232"/>
       <c r="R232"/>
     </row>
-    <row r="233" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="11" t="s">
         <v>218</v>
       </c>
@@ -9801,7 +9800,7 @@
       <c r="Q233"/>
       <c r="R233"/>
     </row>
-    <row r="234" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="11" t="s">
         <v>219</v>
       </c>
@@ -9830,7 +9829,7 @@
       <c r="Q234"/>
       <c r="R234"/>
     </row>
-    <row r="235" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="11" t="s">
         <v>221</v>
       </c>
@@ -9859,7 +9858,7 @@
       <c r="Q235"/>
       <c r="R235"/>
     </row>
-    <row r="236" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A236" s="11" t="s">
         <v>451</v>
       </c>
@@ -9888,7 +9887,7 @@
       <c r="Q236"/>
       <c r="R236"/>
     </row>
-    <row r="237" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" s="11" t="s">
         <v>208</v>
       </c>
@@ -9917,7 +9916,7 @@
       <c r="Q237"/>
       <c r="R237"/>
     </row>
-    <row r="238" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A238" s="11" t="s">
         <v>210</v>
       </c>
@@ -9946,7 +9945,7 @@
       <c r="Q238"/>
       <c r="R238"/>
     </row>
-    <row r="239" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A239" s="11" t="s">
         <v>448</v>
       </c>
@@ -9975,7 +9974,7 @@
       <c r="Q239"/>
       <c r="R239"/>
     </row>
-    <row r="240" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A240" s="11" t="s">
         <v>224</v>
       </c>
@@ -10004,7 +10003,7 @@
       <c r="Q240"/>
       <c r="R240"/>
     </row>
-    <row r="241" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B241" s="16"/>
       <c r="K241" s="12"/>
       <c r="L241" s="12"/>
@@ -10013,7 +10012,7 @@
       <c r="O241" s="12"/>
       <c r="P241" s="12"/>
     </row>
-    <row r="242" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A242" s="8" t="s">
         <v>1</v>
       </c>
@@ -10028,7 +10027,7 @@
       <c r="O242" s="12"/>
       <c r="P242" s="12"/>
     </row>
-    <row r="243" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A243" s="13" t="s">
         <v>3</v>
       </c>
@@ -10042,7 +10041,7 @@
       <c r="O243" s="12"/>
       <c r="P243" s="12"/>
     </row>
-    <row r="244" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A244" s="13" t="s">
         <v>11</v>
       </c>
@@ -10056,7 +10055,7 @@
       <c r="O244" s="12"/>
       <c r="P244" s="12"/>
     </row>
-    <row r="245" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A245" s="13" t="s">
         <v>4</v>
       </c>
@@ -10070,7 +10069,7 @@
       <c r="O245" s="12"/>
       <c r="P245" s="12"/>
     </row>
-    <row r="246" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A246" s="13" t="s">
         <v>2</v>
       </c>
@@ -10084,7 +10083,7 @@
       <c r="O246" s="12"/>
       <c r="P246" s="12"/>
     </row>
-    <row r="247" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A247" s="13" t="s">
         <v>6</v>
       </c>
@@ -10101,7 +10100,7 @@
       <c r="O247" s="12"/>
       <c r="P247" s="12"/>
     </row>
-    <row r="248" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" s="17" t="s">
         <v>7</v>
       </c>
@@ -10121,7 +10120,7 @@
       <c r="O248" s="12"/>
       <c r="P248" s="12"/>
     </row>
-    <row r="249" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A249" s="17" t="s">
         <v>8</v>
       </c>
@@ -10186,7 +10185,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="250" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A250" s="16" t="s">
         <v>439</v>
       </c>
@@ -10218,7 +10217,7 @@
       <c r="P250" s="12"/>
       <c r="T250"/>
     </row>
-    <row r="251" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A251" s="16" t="str">
         <f>B263</f>
         <v>electrolyzer production, 1MWe, AEC, Stack</v>
@@ -10266,7 +10265,7 @@
         <v>1.1478420569329661E-6</v>
       </c>
     </row>
-    <row r="252" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A252" s="16" t="str">
         <f>B292</f>
         <v>electrolyzer production, 1MWe, AEC, Balance of Plant</v>
@@ -10314,7 +10313,7 @@
         <v>2.8696051423324152E-7</v>
       </c>
     </row>
-    <row r="253" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A253" s="16" t="s">
         <v>509</v>
       </c>
@@ -10364,7 +10363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A254" s="16" t="s">
         <v>511</v>
       </c>
@@ -10414,7 +10413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A255" s="13" t="s">
         <v>50</v>
       </c>
@@ -10459,7 +10458,7 @@
         <v>54.9</v>
       </c>
     </row>
-    <row r="256" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A256" s="13" t="s">
         <v>125</v>
       </c>
@@ -10492,7 +10491,7 @@
       <c r="Q256"/>
       <c r="R256"/>
     </row>
-    <row r="257" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" s="13" t="s">
         <v>517</v>
       </c>
@@ -10524,7 +10523,7 @@
       <c r="Q257"/>
       <c r="R257"/>
     </row>
-    <row r="258" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A258" s="21" t="s">
         <v>38</v>
       </c>
@@ -10553,7 +10552,7 @@
       <c r="Q258" s="19"/>
       <c r="R258"/>
     </row>
-    <row r="259" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A259" s="47" t="s">
         <v>456</v>
       </c>
@@ -10617,7 +10616,7 @@
         <v>0.24634371748562628</v>
       </c>
     </row>
-    <row r="260" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="47" t="s">
         <v>458</v>
       </c>
@@ -10671,7 +10670,7 @@
         <v>0.24634371748562628</v>
       </c>
     </row>
-    <row r="261" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A261" s="47" t="s">
         <v>461</v>
       </c>
@@ -10725,7 +10724,7 @@
         <v>0.24634371748562628</v>
       </c>
     </row>
-    <row r="262" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B262" s="16"/>
       <c r="K262" s="12"/>
       <c r="L262" s="12"/>
@@ -10734,7 +10733,7 @@
       <c r="O262" s="12"/>
       <c r="P262" s="12"/>
     </row>
-    <row r="263" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A263" s="8" t="s">
         <v>1</v>
       </c>
@@ -10748,7 +10747,7 @@
       <c r="O263" s="12"/>
       <c r="P263" s="12"/>
     </row>
-    <row r="264" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A264" s="13" t="s">
         <v>3</v>
       </c>
@@ -10762,7 +10761,7 @@
       <c r="O264" s="12"/>
       <c r="P264" s="12"/>
     </row>
-    <row r="265" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A265" s="13" t="s">
         <v>11</v>
       </c>
@@ -10776,7 +10775,7 @@
       <c r="O265" s="12"/>
       <c r="P265" s="12"/>
     </row>
-    <row r="266" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A266" s="13" t="s">
         <v>4</v>
       </c>
@@ -10790,7 +10789,7 @@
       <c r="O266" s="12"/>
       <c r="P266" s="12"/>
     </row>
-    <row r="267" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A267" s="13" t="s">
         <v>2</v>
       </c>
@@ -10804,7 +10803,7 @@
       <c r="O267" s="12"/>
       <c r="P267" s="12"/>
     </row>
-    <row r="268" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" s="13" t="s">
         <v>6</v>
       </c>
@@ -10818,7 +10817,7 @@
       <c r="O268" s="12"/>
       <c r="P268" s="12"/>
     </row>
-    <row r="269" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A269" s="17" t="s">
         <v>7</v>
       </c>
@@ -10838,7 +10837,7 @@
       <c r="O269" s="12"/>
       <c r="P269" s="12"/>
     </row>
-    <row r="270" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A270" s="17" t="s">
         <v>8</v>
       </c>
@@ -10876,7 +10875,7 @@
       <c r="S270" s="17"/>
       <c r="T270" s="7"/>
     </row>
-    <row r="271" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A271" s="16" t="str">
         <f>B263</f>
         <v>electrolyzer production, 1MWe, AEC, Stack</v>
@@ -10905,7 +10904,7 @@
       <c r="O271" s="12"/>
       <c r="P271" s="12"/>
     </row>
-    <row r="272" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A272" s="11" t="s">
         <v>21</v>
       </c>
@@ -10937,7 +10936,7 @@
       <c r="Q272"/>
       <c r="R272"/>
     </row>
-    <row r="273" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A273" s="11" t="s">
         <v>73</v>
       </c>
@@ -10969,7 +10968,7 @@
       <c r="Q273"/>
       <c r="R273"/>
     </row>
-    <row r="274" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A274" s="11" t="s">
         <v>20</v>
       </c>
@@ -11001,7 +11000,7 @@
       <c r="Q274"/>
       <c r="R274"/>
     </row>
-    <row r="275" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A275" s="11" t="s">
         <v>131</v>
       </c>
@@ -11033,7 +11032,7 @@
       <c r="Q275"/>
       <c r="R275"/>
     </row>
-    <row r="276" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A276" s="11" t="s">
         <v>133</v>
       </c>
@@ -11066,7 +11065,7 @@
       <c r="Q276"/>
       <c r="R276"/>
     </row>
-    <row r="277" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A277" s="11" t="s">
         <v>136</v>
       </c>
@@ -11099,7 +11098,7 @@
       <c r="Q277"/>
       <c r="R277"/>
     </row>
-    <row r="278" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A278" s="11" t="s">
         <v>33</v>
       </c>
@@ -11132,7 +11131,7 @@
       <c r="Q278"/>
       <c r="R278"/>
     </row>
-    <row r="279" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B279" s="16"/>
       <c r="F279" s="10"/>
       <c r="G279" s="10"/>
@@ -11143,7 +11142,7 @@
       <c r="O279" s="12"/>
       <c r="P279" s="12"/>
     </row>
-    <row r="280" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A280" s="8" t="s">
         <v>1</v>
       </c>
@@ -11157,7 +11156,7 @@
       <c r="O280" s="12"/>
       <c r="P280" s="12"/>
     </row>
-    <row r="281" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A281" s="13" t="s">
         <v>3</v>
       </c>
@@ -11171,7 +11170,7 @@
       <c r="O281" s="12"/>
       <c r="P281" s="12"/>
     </row>
-    <row r="282" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A282" s="13" t="s">
         <v>11</v>
       </c>
@@ -11185,7 +11184,7 @@
       <c r="O282" s="12"/>
       <c r="P282" s="12"/>
     </row>
-    <row r="283" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A283" s="13" t="s">
         <v>4</v>
       </c>
@@ -11199,7 +11198,7 @@
       <c r="O283" s="12"/>
       <c r="P283" s="12"/>
     </row>
-    <row r="284" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A284" s="13" t="s">
         <v>2</v>
       </c>
@@ -11213,7 +11212,7 @@
       <c r="O284" s="12"/>
       <c r="P284" s="12"/>
     </row>
-    <row r="285" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A285" s="13" t="s">
         <v>6</v>
       </c>
@@ -11227,7 +11226,7 @@
       <c r="O285" s="12"/>
       <c r="P285" s="12"/>
     </row>
-    <row r="286" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A286" s="17" t="s">
         <v>7</v>
       </c>
@@ -11247,7 +11246,7 @@
       <c r="O286" s="12"/>
       <c r="P286" s="12"/>
     </row>
-    <row r="287" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A287" s="17" t="s">
         <v>8</v>
       </c>
@@ -11285,7 +11284,7 @@
       <c r="S287" s="17"/>
       <c r="T287" s="7"/>
     </row>
-    <row r="288" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A288" s="16" t="str">
         <f>B280</f>
         <v>treatment of electrolyzer stack, 1MWe, AEC</v>
@@ -11314,7 +11313,7 @@
       <c r="O288" s="12"/>
       <c r="P288" s="12"/>
     </row>
-    <row r="289" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A289" s="16" t="s">
         <v>204</v>
       </c>
@@ -11343,7 +11342,7 @@
       <c r="Q289"/>
       <c r="R289"/>
     </row>
-    <row r="290" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A290" s="11" t="s">
         <v>210</v>
       </c>
@@ -11372,7 +11371,7 @@
       <c r="Q290"/>
       <c r="R290"/>
     </row>
-    <row r="291" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B291" s="16"/>
       <c r="K291" s="12"/>
       <c r="L291" s="12"/>
@@ -11381,7 +11380,7 @@
       <c r="O291" s="12"/>
       <c r="P291" s="12"/>
     </row>
-    <row r="292" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A292" s="8" t="s">
         <v>1</v>
       </c>
@@ -11395,7 +11394,7 @@
       <c r="O292" s="12"/>
       <c r="P292" s="12"/>
     </row>
-    <row r="293" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A293" s="13" t="s">
         <v>3</v>
       </c>
@@ -11409,7 +11408,7 @@
       <c r="O293" s="12"/>
       <c r="P293" s="12"/>
     </row>
-    <row r="294" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A294" s="13" t="s">
         <v>11</v>
       </c>
@@ -11423,7 +11422,7 @@
       <c r="O294" s="12"/>
       <c r="P294" s="12"/>
     </row>
-    <row r="295" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A295" s="13" t="s">
         <v>4</v>
       </c>
@@ -11437,7 +11436,7 @@
       <c r="O295" s="12"/>
       <c r="P295" s="12"/>
     </row>
-    <row r="296" spans="1:20" s="11" customFormat="1" ht="16.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:20" s="11" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="13" t="s">
         <v>2</v>
       </c>
@@ -11451,7 +11450,7 @@
       <c r="O296" s="12"/>
       <c r="P296" s="12"/>
     </row>
-    <row r="297" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A297" s="13" t="s">
         <v>6</v>
       </c>
@@ -11467,7 +11466,7 @@
       <c r="O297" s="12"/>
       <c r="P297" s="12"/>
     </row>
-    <row r="298" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A298" s="17" t="s">
         <v>7</v>
       </c>
@@ -11486,7 +11485,7 @@
       <c r="O298" s="12"/>
       <c r="P298" s="12"/>
     </row>
-    <row r="299" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A299" s="17" t="s">
         <v>8</v>
       </c>
@@ -11524,7 +11523,7 @@
       <c r="S299" s="17"/>
       <c r="T299" s="7"/>
     </row>
-    <row r="300" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A300" s="16" t="str">
         <f>B292</f>
         <v>electrolyzer production, 1MWe, AEC, Balance of Plant</v>
@@ -11555,7 +11554,7 @@
       <c r="O300" s="12"/>
       <c r="P300" s="12"/>
     </row>
-    <row r="301" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A301" s="11" t="s">
         <v>18</v>
       </c>
@@ -11587,7 +11586,7 @@
       <c r="Q301"/>
       <c r="R301"/>
     </row>
-    <row r="302" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A302" s="11" t="s">
         <v>68</v>
       </c>
@@ -11619,7 +11618,7 @@
       <c r="Q302"/>
       <c r="R302"/>
     </row>
-    <row r="303" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A303" s="11" t="s">
         <v>83</v>
       </c>
@@ -11651,7 +11650,7 @@
       <c r="Q303"/>
       <c r="R303"/>
     </row>
-    <row r="304" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A304" s="11" t="s">
         <v>58</v>
       </c>
@@ -11683,7 +11682,7 @@
       <c r="Q304"/>
       <c r="R304"/>
     </row>
-    <row r="305" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A305" s="11" t="s">
         <v>84</v>
       </c>
@@ -11715,7 +11714,7 @@
       <c r="Q305"/>
       <c r="R305"/>
     </row>
-    <row r="306" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A306" s="11" t="s">
         <v>85</v>
       </c>
@@ -11747,7 +11746,7 @@
       <c r="Q306"/>
       <c r="R306"/>
     </row>
-    <row r="307" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A307" s="11" t="s">
         <v>86</v>
       </c>
@@ -11779,7 +11778,7 @@
       <c r="Q307"/>
       <c r="R307"/>
     </row>
-    <row r="308" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A308" s="11" t="s">
         <v>30</v>
       </c>
@@ -11811,7 +11810,7 @@
       <c r="Q308"/>
       <c r="R308"/>
     </row>
-    <row r="309" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A309" s="11" t="s">
         <v>140</v>
       </c>
@@ -11843,7 +11842,7 @@
       <c r="Q309"/>
       <c r="R309"/>
     </row>
-    <row r="310" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A310" s="11" t="s">
         <v>83</v>
       </c>
@@ -11875,7 +11874,7 @@
       <c r="Q310"/>
       <c r="R310"/>
     </row>
-    <row r="311" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A311" s="11" t="s">
         <v>84</v>
       </c>
@@ -11907,7 +11906,7 @@
       <c r="Q311"/>
       <c r="R311"/>
     </row>
-    <row r="312" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A312" s="11" t="s">
         <v>73</v>
       </c>
@@ -11939,7 +11938,7 @@
       <c r="Q312"/>
       <c r="R312"/>
     </row>
-    <row r="313" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A313" s="11" t="s">
         <v>20</v>
       </c>
@@ -11971,7 +11970,7 @@
       <c r="Q313"/>
       <c r="R313"/>
     </row>
-    <row r="314" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A314" s="11" t="s">
         <v>103</v>
       </c>
@@ -12003,7 +12002,7 @@
       <c r="Q314"/>
       <c r="R314"/>
     </row>
-    <row r="315" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A315" s="11" t="s">
         <v>105</v>
       </c>
@@ -12035,7 +12034,7 @@
       <c r="Q315"/>
       <c r="R315"/>
     </row>
-    <row r="316" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A316" s="11" t="s">
         <v>83</v>
       </c>
@@ -12067,7 +12066,7 @@
       <c r="Q316"/>
       <c r="R316"/>
     </row>
-    <row r="317" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A317" s="11" t="s">
         <v>84</v>
       </c>
@@ -12099,7 +12098,7 @@
       <c r="Q317"/>
       <c r="R317"/>
     </row>
-    <row r="318" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A318" s="11" t="s">
         <v>18</v>
       </c>
@@ -12131,7 +12130,7 @@
       <c r="Q318"/>
       <c r="R318"/>
     </row>
-    <row r="319" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A319" s="11" t="s">
         <v>68</v>
       </c>
@@ -12163,7 +12162,7 @@
       <c r="Q319"/>
       <c r="R319"/>
     </row>
-    <row r="320" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A320" s="11" t="s">
         <v>83</v>
       </c>
@@ -12195,7 +12194,7 @@
       <c r="Q320"/>
       <c r="R320"/>
     </row>
-    <row r="321" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A321" s="11" t="s">
         <v>85</v>
       </c>
@@ -12227,7 +12226,7 @@
       <c r="Q321"/>
       <c r="R321"/>
     </row>
-    <row r="322" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A322" s="11" t="s">
         <v>86</v>
       </c>
@@ -12259,7 +12258,7 @@
       <c r="Q322"/>
       <c r="R322"/>
     </row>
-    <row r="323" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A323" s="11" t="s">
         <v>108</v>
       </c>
@@ -12291,7 +12290,7 @@
       <c r="Q323"/>
       <c r="R323"/>
     </row>
-    <row r="324" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A324" s="11" t="s">
         <v>111</v>
       </c>
@@ -12323,7 +12322,7 @@
       <c r="Q324"/>
       <c r="R324"/>
     </row>
-    <row r="325" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A325" s="11" t="s">
         <v>83</v>
       </c>
@@ -12355,7 +12354,7 @@
       <c r="Q325"/>
       <c r="R325"/>
     </row>
-    <row r="326" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A326" s="11" t="s">
         <v>73</v>
       </c>
@@ -12387,7 +12386,7 @@
       <c r="Q326"/>
       <c r="R326"/>
     </row>
-    <row r="327" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A327" s="11" t="s">
         <v>84</v>
       </c>
@@ -12419,7 +12418,7 @@
       <c r="Q327"/>
       <c r="R327"/>
     </row>
-    <row r="328" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A328" s="11" t="s">
         <v>20</v>
       </c>
@@ -12451,7 +12450,7 @@
       <c r="Q328"/>
       <c r="R328"/>
     </row>
-    <row r="329" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A329" s="11" t="s">
         <v>83</v>
       </c>
@@ -12483,7 +12482,7 @@
       <c r="Q329"/>
       <c r="R329"/>
     </row>
-    <row r="330" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A330" s="11" t="s">
         <v>73</v>
       </c>
@@ -12515,7 +12514,7 @@
       <c r="Q330"/>
       <c r="R330"/>
     </row>
-    <row r="331" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A331" s="11" t="s">
         <v>84</v>
       </c>
@@ -12547,7 +12546,7 @@
       <c r="Q331"/>
       <c r="R331"/>
     </row>
-    <row r="332" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A332" s="11" t="s">
         <v>20</v>
       </c>
@@ -12579,7 +12578,7 @@
       <c r="Q332"/>
       <c r="R332"/>
     </row>
-    <row r="333" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A333" s="11" t="s">
         <v>73</v>
       </c>
@@ -12611,7 +12610,7 @@
       <c r="Q333"/>
       <c r="R333"/>
     </row>
-    <row r="334" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A334" s="11" t="s">
         <v>20</v>
       </c>
@@ -12643,7 +12642,7 @@
       <c r="Q334"/>
       <c r="R334"/>
     </row>
-    <row r="335" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A335" s="11" t="s">
         <v>68</v>
       </c>
@@ -12675,7 +12674,7 @@
       <c r="Q335"/>
       <c r="R335"/>
     </row>
-    <row r="336" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A336" s="11" t="s">
         <v>86</v>
       </c>
@@ -12707,7 +12706,7 @@
       <c r="Q336"/>
       <c r="R336"/>
     </row>
-    <row r="337" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A337" s="11" t="s">
         <v>73</v>
       </c>
@@ -12739,7 +12738,7 @@
       <c r="Q337"/>
       <c r="R337"/>
     </row>
-    <row r="338" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A338" s="11" t="s">
         <v>20</v>
       </c>
@@ -12771,7 +12770,7 @@
       <c r="Q338"/>
       <c r="R338"/>
     </row>
-    <row r="339" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A339" s="11" t="s">
         <v>85</v>
       </c>
@@ -12803,7 +12802,7 @@
       <c r="Q339"/>
       <c r="R339"/>
     </row>
-    <row r="340" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A340" s="11" t="s">
         <v>83</v>
       </c>
@@ -12835,7 +12834,7 @@
       <c r="Q340"/>
       <c r="R340"/>
     </row>
-    <row r="341" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A341" s="11" t="s">
         <v>84</v>
       </c>
@@ -12867,7 +12866,7 @@
       <c r="Q341"/>
       <c r="R341"/>
     </row>
-    <row r="342" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A342" s="11" t="s">
         <v>108</v>
       </c>
@@ -12899,7 +12898,7 @@
       <c r="Q342"/>
       <c r="R342"/>
     </row>
-    <row r="343" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A343" s="11" t="s">
         <v>83</v>
       </c>
@@ -12931,7 +12930,7 @@
       <c r="Q343"/>
       <c r="R343"/>
     </row>
-    <row r="344" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A344" s="11" t="s">
         <v>84</v>
       </c>
@@ -12963,7 +12962,7 @@
       <c r="Q344"/>
       <c r="R344"/>
     </row>
-    <row r="345" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A345" s="11" t="s">
         <v>73</v>
       </c>
@@ -12995,7 +12994,7 @@
       <c r="Q345"/>
       <c r="R345"/>
     </row>
-    <row r="346" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A346" s="11" t="s">
         <v>20</v>
       </c>
@@ -13027,7 +13026,7 @@
       <c r="Q346"/>
       <c r="R346"/>
     </row>
-    <row r="347" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A347" s="11" t="s">
         <v>83</v>
       </c>
@@ -13059,7 +13058,7 @@
       <c r="Q347"/>
       <c r="R347"/>
     </row>
-    <row r="348" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A348" s="11" t="s">
         <v>84</v>
       </c>
@@ -13091,7 +13090,7 @@
       <c r="Q348"/>
       <c r="R348"/>
     </row>
-    <row r="349" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A349" s="11" t="s">
         <v>73</v>
       </c>
@@ -13123,7 +13122,7 @@
       <c r="Q349"/>
       <c r="R349"/>
     </row>
-    <row r="350" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A350" s="11" t="s">
         <v>20</v>
       </c>
@@ -13155,7 +13154,7 @@
       <c r="Q350"/>
       <c r="R350"/>
     </row>
-    <row r="351" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A351" s="11" t="s">
         <v>27</v>
       </c>
@@ -13187,7 +13186,7 @@
       <c r="Q351"/>
       <c r="R351"/>
     </row>
-    <row r="352" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A352" s="11" t="s">
         <v>93</v>
       </c>
@@ -13219,7 +13218,7 @@
       <c r="Q352"/>
       <c r="R352"/>
     </row>
-    <row r="353" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A353" s="11" t="s">
         <v>73</v>
       </c>
@@ -13251,7 +13250,7 @@
       <c r="Q353"/>
       <c r="R353"/>
     </row>
-    <row r="354" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A354" s="11" t="s">
         <v>20</v>
       </c>
@@ -13283,7 +13282,7 @@
       <c r="Q354"/>
       <c r="R354"/>
     </row>
-    <row r="355" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A355" s="11" t="s">
         <v>115</v>
       </c>
@@ -13315,7 +13314,7 @@
       <c r="Q355"/>
       <c r="R355"/>
     </row>
-    <row r="356" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A356" s="11" t="s">
         <v>84</v>
       </c>
@@ -13347,7 +13346,7 @@
       <c r="Q356"/>
       <c r="R356"/>
     </row>
-    <row r="357" spans="1:20" s="11" customFormat="1" ht="15.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:20" s="11" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="28" t="s">
         <v>25</v>
       </c>
@@ -13379,7 +13378,7 @@
       <c r="Q357"/>
       <c r="R357"/>
     </row>
-    <row r="358" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A358" s="11" t="s">
         <v>119</v>
       </c>
@@ -13411,7 +13410,7 @@
       <c r="Q358"/>
       <c r="R358"/>
     </row>
-    <row r="359" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A359" s="11" t="s">
         <v>33</v>
       </c>
@@ -13443,7 +13442,7 @@
       <c r="Q359"/>
       <c r="R359"/>
     </row>
-    <row r="360" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B360" s="16"/>
       <c r="C360" s="10"/>
       <c r="F360" s="10"/>
@@ -13457,7 +13456,7 @@
       <c r="O360" s="12"/>
       <c r="P360" s="12"/>
     </row>
-    <row r="361" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A361" s="8" t="s">
         <v>1</v>
       </c>
@@ -13471,7 +13470,7 @@
       <c r="O361" s="12"/>
       <c r="P361" s="12"/>
     </row>
-    <row r="362" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A362" s="13" t="s">
         <v>3</v>
       </c>
@@ -13485,7 +13484,7 @@
       <c r="O362" s="12"/>
       <c r="P362" s="12"/>
     </row>
-    <row r="363" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A363" s="13" t="s">
         <v>11</v>
       </c>
@@ -13499,7 +13498,7 @@
       <c r="O363" s="12"/>
       <c r="P363" s="12"/>
     </row>
-    <row r="364" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A364" s="13" t="s">
         <v>4</v>
       </c>
@@ -13513,7 +13512,7 @@
       <c r="O364" s="12"/>
       <c r="P364" s="12"/>
     </row>
-    <row r="365" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A365" s="13" t="s">
         <v>2</v>
       </c>
@@ -13527,7 +13526,7 @@
       <c r="O365" s="12"/>
       <c r="P365" s="12"/>
     </row>
-    <row r="366" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A366" s="13" t="s">
         <v>6</v>
       </c>
@@ -13541,7 +13540,7 @@
       <c r="O366" s="12"/>
       <c r="P366" s="12"/>
     </row>
-    <row r="367" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A367" s="17" t="s">
         <v>7</v>
       </c>
@@ -13561,7 +13560,7 @@
       <c r="O367" s="12"/>
       <c r="P367" s="12"/>
     </row>
-    <row r="368" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A368" s="17" t="s">
         <v>8</v>
       </c>
@@ -13599,7 +13598,7 @@
       <c r="S368" s="17"/>
       <c r="T368" s="7"/>
     </row>
-    <row r="369" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A369" s="16" t="str">
         <f>B361</f>
         <v>treatment of electrolyzer balance of plant, 1MWe, AEC</v>
@@ -13628,7 +13627,7 @@
       <c r="O369" s="12"/>
       <c r="P369" s="12"/>
     </row>
-    <row r="370" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A370" s="16" t="s">
         <v>204</v>
       </c>
@@ -13657,7 +13656,7 @@
       <c r="Q370"/>
       <c r="R370"/>
     </row>
-    <row r="371" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A371" s="16" t="s">
         <v>449</v>
       </c>
@@ -13686,7 +13685,7 @@
       <c r="Q371"/>
       <c r="R371"/>
     </row>
-    <row r="372" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A372" s="11" t="s">
         <v>206</v>
       </c>
@@ -13715,7 +13714,7 @@
       <c r="Q372"/>
       <c r="R372"/>
     </row>
-    <row r="373" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A373" s="11" t="s">
         <v>226</v>
       </c>
@@ -13744,7 +13743,7 @@
       <c r="Q373"/>
       <c r="R373"/>
     </row>
-    <row r="374" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A374" s="11" t="s">
         <v>218</v>
       </c>
@@ -13773,7 +13772,7 @@
       <c r="Q374"/>
       <c r="R374"/>
     </row>
-    <row r="375" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A375" s="11" t="s">
         <v>219</v>
       </c>
@@ -13802,7 +13801,7 @@
       <c r="Q375"/>
       <c r="R375"/>
     </row>
-    <row r="376" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A376" s="11" t="s">
         <v>221</v>
       </c>
@@ -13831,7 +13830,7 @@
       <c r="Q376"/>
       <c r="R376"/>
     </row>
-    <row r="377" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A377" s="11" t="s">
         <v>451</v>
       </c>
@@ -13860,7 +13859,7 @@
       <c r="Q377"/>
       <c r="R377"/>
     </row>
-    <row r="378" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A378" s="11" t="s">
         <v>208</v>
       </c>
@@ -13889,7 +13888,7 @@
       <c r="Q378"/>
       <c r="R378"/>
     </row>
-    <row r="379" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A379" s="11" t="s">
         <v>210</v>
       </c>
@@ -13918,7 +13917,7 @@
       <c r="Q379"/>
       <c r="R379"/>
     </row>
-    <row r="380" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A380" s="11" t="s">
         <v>448</v>
       </c>
@@ -13947,7 +13946,7 @@
       <c r="Q380"/>
       <c r="R380"/>
     </row>
-    <row r="381" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B381" s="16"/>
       <c r="K381" s="12"/>
       <c r="L381" s="12"/>
@@ -13956,7 +13955,7 @@
       <c r="O381" s="12"/>
       <c r="P381" s="12"/>
     </row>
-    <row r="382" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A382" s="8" t="s">
         <v>1</v>
       </c>
@@ -13971,7 +13970,7 @@
       <c r="O382" s="12"/>
       <c r="P382" s="12"/>
     </row>
-    <row r="383" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A383" s="13" t="s">
         <v>3</v>
       </c>
@@ -13985,7 +13984,7 @@
       <c r="O383" s="12"/>
       <c r="P383" s="12"/>
     </row>
-    <row r="384" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A384" s="13" t="s">
         <v>11</v>
       </c>
@@ -13999,7 +13998,7 @@
       <c r="O384" s="12"/>
       <c r="P384" s="12"/>
     </row>
-    <row r="385" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A385" s="13" t="s">
         <v>4</v>
       </c>
@@ -14013,7 +14012,7 @@
       <c r="O385" s="12"/>
       <c r="P385" s="12"/>
     </row>
-    <row r="386" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A386" s="13" t="s">
         <v>2</v>
       </c>
@@ -14027,7 +14026,7 @@
       <c r="O386" s="12"/>
       <c r="P386" s="12"/>
     </row>
-    <row r="387" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A387" s="13" t="s">
         <v>6</v>
       </c>
@@ -14044,7 +14043,7 @@
       <c r="O387" s="12"/>
       <c r="P387" s="12"/>
     </row>
-    <row r="388" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A388" s="17" t="s">
         <v>7</v>
       </c>
@@ -14064,7 +14063,7 @@
       <c r="O388" s="12"/>
       <c r="P388" s="12"/>
     </row>
-    <row r="389" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A389" s="17" t="s">
         <v>8</v>
       </c>
@@ -14129,7 +14128,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="390" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A390" s="16" t="s">
         <v>441</v>
       </c>
@@ -14161,7 +14160,7 @@
       <c r="P390" s="12"/>
       <c r="T390"/>
     </row>
-    <row r="391" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A391" s="16" t="str">
         <f>B424</f>
         <v>electrolyzer production, 1MWe, SOEC, Stack</v>
@@ -14195,7 +14194,7 @@
       <c r="Q391"/>
       <c r="R391"/>
     </row>
-    <row r="392" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A392" s="16" t="str">
         <f>B461</f>
         <v>electrolyzer production, 1MWe, SOEC, Balance of Plant</v>
@@ -14229,7 +14228,7 @@
       <c r="Q392"/>
       <c r="R392"/>
     </row>
-    <row r="393" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A393" s="16" t="s">
         <v>513</v>
       </c>
@@ -14262,7 +14261,7 @@
       <c r="Q393"/>
       <c r="R393"/>
     </row>
-    <row r="394" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A394" s="16" t="s">
         <v>515</v>
       </c>
@@ -14295,7 +14294,7 @@
       <c r="Q394"/>
       <c r="R394"/>
     </row>
-    <row r="395" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A395" s="13" t="s">
         <v>50</v>
       </c>
@@ -14340,7 +14339,7 @@
         <v>43.4</v>
       </c>
     </row>
-    <row r="396" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A396" s="13" t="s">
         <v>51</v>
       </c>
@@ -14373,7 +14372,7 @@
       <c r="Q396"/>
       <c r="R396"/>
     </row>
-    <row r="397" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A397" s="13" t="s">
         <v>517</v>
       </c>
@@ -14405,7 +14404,7 @@
       <c r="Q397"/>
       <c r="R397"/>
     </row>
-    <row r="398" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A398" s="21" t="s">
         <v>38</v>
       </c>
@@ -14434,7 +14433,7 @@
       <c r="Q398" s="19"/>
       <c r="R398"/>
     </row>
-    <row r="399" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A399" s="47" t="s">
         <v>456</v>
       </c>
@@ -14498,7 +14497,7 @@
         <v>0.24634371748562628</v>
       </c>
     </row>
-    <row r="400" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A400" s="47" t="s">
         <v>458</v>
       </c>
@@ -14552,7 +14551,7 @@
         <v>0.24634371748562628</v>
       </c>
     </row>
-    <row r="401" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A401" s="47" t="s">
         <v>461</v>
       </c>
@@ -14606,7 +14605,7 @@
         <v>0.24634371748562628</v>
       </c>
     </row>
-    <row r="402" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B402" s="16"/>
       <c r="K402" s="12"/>
       <c r="L402" s="12"/>
@@ -14615,7 +14614,7 @@
       <c r="O402" s="12"/>
       <c r="P402" s="12"/>
     </row>
-    <row r="403" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A403" s="8" t="s">
         <v>1</v>
       </c>
@@ -14630,7 +14629,7 @@
       <c r="O403" s="12"/>
       <c r="P403" s="12"/>
     </row>
-    <row r="404" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A404" s="13" t="s">
         <v>3</v>
       </c>
@@ -14644,7 +14643,7 @@
       <c r="O404" s="12"/>
       <c r="P404" s="12"/>
     </row>
-    <row r="405" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A405" s="13" t="s">
         <v>11</v>
       </c>
@@ -14658,7 +14657,7 @@
       <c r="O405" s="12"/>
       <c r="P405" s="12"/>
     </row>
-    <row r="406" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A406" s="13" t="s">
         <v>4</v>
       </c>
@@ -14672,7 +14671,7 @@
       <c r="O406" s="12"/>
       <c r="P406" s="12"/>
     </row>
-    <row r="407" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A407" s="13" t="s">
         <v>2</v>
       </c>
@@ -14686,7 +14685,7 @@
       <c r="O407" s="12"/>
       <c r="P407" s="12"/>
     </row>
-    <row r="408" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A408" s="13" t="s">
         <v>6</v>
       </c>
@@ -14703,7 +14702,7 @@
       <c r="O408" s="12"/>
       <c r="P408" s="12"/>
     </row>
-    <row r="409" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A409" s="17" t="s">
         <v>7</v>
       </c>
@@ -14723,7 +14722,7 @@
       <c r="O409" s="12"/>
       <c r="P409" s="12"/>
     </row>
-    <row r="410" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A410" s="17" t="s">
         <v>8</v>
       </c>
@@ -14788,7 +14787,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="411" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A411" s="16" t="s">
         <v>445</v>
       </c>
@@ -14820,7 +14819,7 @@
       <c r="P411" s="12"/>
       <c r="T411"/>
     </row>
-    <row r="412" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A412" s="16" t="s">
         <v>153</v>
       </c>
@@ -14867,7 +14866,7 @@
         <v>2.8248587570621469E-6</v>
       </c>
     </row>
-    <row r="413" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A413" s="16" t="s">
         <v>179</v>
       </c>
@@ -14914,7 +14913,7 @@
         <v>3.5310734463276836E-7</v>
       </c>
     </row>
-    <row r="414" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A414" s="16" t="s">
         <v>513</v>
       </c>
@@ -14964,7 +14963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A415" s="16" t="s">
         <v>515</v>
       </c>
@@ -15014,7 +15013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A416" s="13" t="s">
         <v>50</v>
       </c>
@@ -15047,7 +15046,7 @@
       <c r="Q416"/>
       <c r="R416"/>
     </row>
-    <row r="417" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A417" s="13" t="s">
         <v>51</v>
       </c>
@@ -15080,7 +15079,7 @@
       <c r="Q417"/>
       <c r="R417"/>
     </row>
-    <row r="418" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A418" s="13" t="s">
         <v>517</v>
       </c>
@@ -15112,7 +15111,7 @@
       <c r="Q418"/>
       <c r="R418"/>
     </row>
-    <row r="419" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A419" s="21" t="s">
         <v>38</v>
       </c>
@@ -15141,7 +15140,7 @@
       <c r="Q419" s="19"/>
       <c r="R419"/>
     </row>
-    <row r="420" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A420" s="47" t="s">
         <v>456</v>
       </c>
@@ -15205,7 +15204,7 @@
         <v>0.24634371748562628</v>
       </c>
     </row>
-    <row r="421" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A421" s="47" t="s">
         <v>458</v>
       </c>
@@ -15259,7 +15258,7 @@
         <v>0.24634371748562628</v>
       </c>
     </row>
-    <row r="422" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A422" s="47" t="s">
         <v>461</v>
       </c>
@@ -15313,7 +15312,7 @@
         <v>0.24634371748562628</v>
       </c>
     </row>
-    <row r="423" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B423" s="16"/>
       <c r="K423" s="12"/>
       <c r="L423" s="12"/>
@@ -15322,7 +15321,7 @@
       <c r="O423" s="12"/>
       <c r="P423" s="12"/>
     </row>
-    <row r="424" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A424" s="8" t="s">
         <v>1</v>
       </c>
@@ -15336,7 +15335,7 @@
       <c r="O424" s="12"/>
       <c r="P424" s="12"/>
     </row>
-    <row r="425" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A425" s="13" t="s">
         <v>3</v>
       </c>
@@ -15350,7 +15349,7 @@
       <c r="O425" s="12"/>
       <c r="P425" s="12"/>
     </row>
-    <row r="426" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A426" s="13" t="s">
         <v>11</v>
       </c>
@@ -15364,7 +15363,7 @@
       <c r="O426" s="12"/>
       <c r="P426" s="12"/>
     </row>
-    <row r="427" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A427" s="13" t="s">
         <v>4</v>
       </c>
@@ -15378,7 +15377,7 @@
       <c r="O427" s="12"/>
       <c r="P427" s="12"/>
     </row>
-    <row r="428" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A428" s="13" t="s">
         <v>2</v>
       </c>
@@ -15392,7 +15391,7 @@
       <c r="O428" s="12"/>
       <c r="P428" s="12"/>
     </row>
-    <row r="429" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A429" s="13" t="s">
         <v>6</v>
       </c>
@@ -15406,7 +15405,7 @@
       <c r="O429" s="12"/>
       <c r="P429" s="12"/>
     </row>
-    <row r="430" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A430" s="17" t="s">
         <v>7</v>
       </c>
@@ -15426,7 +15425,7 @@
       <c r="O430" s="12"/>
       <c r="P430" s="12"/>
     </row>
-    <row r="431" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A431" s="17" t="s">
         <v>8</v>
       </c>
@@ -15464,7 +15463,7 @@
       <c r="S431" s="17"/>
       <c r="T431" s="7"/>
     </row>
-    <row r="432" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A432" s="16" t="str">
         <f>B424</f>
         <v>electrolyzer production, 1MWe, SOEC, Stack</v>
@@ -15493,7 +15492,7 @@
       <c r="O432" s="12"/>
       <c r="P432" s="12"/>
     </row>
-    <row r="433" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A433" s="11" t="s">
         <v>73</v>
       </c>
@@ -15525,7 +15524,7 @@
       <c r="Q433"/>
       <c r="R433"/>
     </row>
-    <row r="434" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A434" s="11" t="s">
         <v>20</v>
       </c>
@@ -15557,7 +15556,7 @@
       <c r="Q434"/>
       <c r="R434"/>
     </row>
-    <row r="435" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A435" s="11" t="s">
         <v>155</v>
       </c>
@@ -15589,7 +15588,7 @@
       <c r="Q435"/>
       <c r="R435"/>
     </row>
-    <row r="436" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A436" s="11" t="s">
         <v>131</v>
       </c>
@@ -15621,7 +15620,7 @@
       <c r="Q436"/>
       <c r="R436"/>
     </row>
-    <row r="437" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A437" s="11" t="s">
         <v>136</v>
       </c>
@@ -15653,7 +15652,7 @@
       <c r="Q437"/>
       <c r="R437"/>
     </row>
-    <row r="438" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A438" s="11" t="s">
         <v>159</v>
       </c>
@@ -15685,7 +15684,7 @@
       <c r="Q438"/>
       <c r="R438"/>
     </row>
-    <row r="439" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A439" s="11" t="s">
         <v>161</v>
       </c>
@@ -15717,7 +15716,7 @@
       <c r="Q439"/>
       <c r="R439"/>
     </row>
-    <row r="440" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A440" s="11" t="s">
         <v>159</v>
       </c>
@@ -15749,7 +15748,7 @@
       <c r="Q440"/>
       <c r="R440"/>
     </row>
-    <row r="441" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A441" s="11" t="s">
         <v>163</v>
       </c>
@@ -15782,7 +15781,7 @@
       <c r="Q441"/>
       <c r="R441"/>
     </row>
-    <row r="442" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A442" s="11" t="s">
         <v>166</v>
       </c>
@@ -15815,7 +15814,7 @@
       <c r="Q442"/>
       <c r="R442"/>
     </row>
-    <row r="443" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A443" s="11" t="s">
         <v>168</v>
       </c>
@@ -15847,7 +15846,7 @@
       <c r="Q443"/>
       <c r="R443"/>
     </row>
-    <row r="444" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A444" s="11" t="s">
         <v>172</v>
       </c>
@@ -15879,7 +15878,7 @@
       <c r="Q444"/>
       <c r="R444"/>
     </row>
-    <row r="445" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A445" s="11" t="s">
         <v>174</v>
       </c>
@@ -15911,7 +15910,7 @@
       <c r="Q445"/>
       <c r="R445"/>
     </row>
-    <row r="446" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A446" s="11" t="s">
         <v>176</v>
       </c>
@@ -15943,7 +15942,7 @@
       <c r="Q446"/>
       <c r="R446"/>
     </row>
-    <row r="447" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A447" s="11" t="s">
         <v>131</v>
       </c>
@@ -15975,7 +15974,7 @@
       <c r="Q447"/>
       <c r="R447"/>
     </row>
-    <row r="448" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A448" s="11" t="s">
         <v>33</v>
       </c>
@@ -16007,7 +16006,7 @@
       <c r="Q448"/>
       <c r="R448"/>
     </row>
-    <row r="449" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B449" s="12"/>
       <c r="F449" s="10"/>
       <c r="G449" s="10"/>
@@ -16018,7 +16017,7 @@
       <c r="O449" s="12"/>
       <c r="P449" s="12"/>
     </row>
-    <row r="450" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A450" s="8" t="s">
         <v>1</v>
       </c>
@@ -16032,7 +16031,7 @@
       <c r="O450" s="12"/>
       <c r="P450" s="12"/>
     </row>
-    <row r="451" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A451" s="13" t="s">
         <v>3</v>
       </c>
@@ -16046,7 +16045,7 @@
       <c r="O451" s="12"/>
       <c r="P451" s="12"/>
     </row>
-    <row r="452" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A452" s="13" t="s">
         <v>11</v>
       </c>
@@ -16060,7 +16059,7 @@
       <c r="O452" s="12"/>
       <c r="P452" s="12"/>
     </row>
-    <row r="453" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A453" s="13" t="s">
         <v>4</v>
       </c>
@@ -16074,7 +16073,7 @@
       <c r="O453" s="12"/>
       <c r="P453" s="12"/>
     </row>
-    <row r="454" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A454" s="13" t="s">
         <v>2</v>
       </c>
@@ -16088,7 +16087,7 @@
       <c r="O454" s="12"/>
       <c r="P454" s="12"/>
     </row>
-    <row r="455" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A455" s="13" t="s">
         <v>6</v>
       </c>
@@ -16102,7 +16101,7 @@
       <c r="O455" s="12"/>
       <c r="P455" s="12"/>
     </row>
-    <row r="456" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A456" s="17" t="s">
         <v>7</v>
       </c>
@@ -16122,7 +16121,7 @@
       <c r="O456" s="12"/>
       <c r="P456" s="12"/>
     </row>
-    <row r="457" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A457" s="17" t="s">
         <v>8</v>
       </c>
@@ -16160,7 +16159,7 @@
       <c r="S457" s="17"/>
       <c r="T457" s="7"/>
     </row>
-    <row r="458" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A458" s="16" t="str">
         <f>B450</f>
         <v>treatment of electrolyzer stack, 1MWe, SOEC</v>
@@ -16189,7 +16188,7 @@
       <c r="O458" s="12"/>
       <c r="P458" s="12"/>
     </row>
-    <row r="459" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A459" s="16" t="s">
         <v>204</v>
       </c>
@@ -16218,7 +16217,7 @@
       <c r="Q459"/>
       <c r="R459"/>
     </row>
-    <row r="460" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B460" s="16"/>
       <c r="K460" s="12"/>
       <c r="L460" s="12"/>
@@ -16227,7 +16226,7 @@
       <c r="O460" s="12"/>
       <c r="P460" s="12"/>
     </row>
-    <row r="461" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A461" s="8" t="s">
         <v>1</v>
       </c>
@@ -16241,7 +16240,7 @@
       <c r="O461" s="12"/>
       <c r="P461" s="12"/>
     </row>
-    <row r="462" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A462" s="13" t="s">
         <v>3</v>
       </c>
@@ -16255,7 +16254,7 @@
       <c r="O462" s="12"/>
       <c r="P462" s="12"/>
     </row>
-    <row r="463" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A463" s="13" t="s">
         <v>11</v>
       </c>
@@ -16269,7 +16268,7 @@
       <c r="O463" s="12"/>
       <c r="P463" s="12"/>
     </row>
-    <row r="464" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A464" s="13" t="s">
         <v>4</v>
       </c>
@@ -16283,7 +16282,7 @@
       <c r="O464" s="12"/>
       <c r="P464" s="12"/>
     </row>
-    <row r="465" spans="1:20" s="11" customFormat="1" ht="16.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:20" s="11" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="13" t="s">
         <v>2</v>
       </c>
@@ -16297,7 +16296,7 @@
       <c r="O465" s="12"/>
       <c r="P465" s="12"/>
     </row>
-    <row r="466" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A466" s="13" t="s">
         <v>6</v>
       </c>
@@ -16313,7 +16312,7 @@
       <c r="O466" s="12"/>
       <c r="P466" s="12"/>
     </row>
-    <row r="467" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A467" s="17" t="s">
         <v>7</v>
       </c>
@@ -16332,7 +16331,7 @@
       <c r="O467" s="12"/>
       <c r="P467" s="12"/>
     </row>
-    <row r="468" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A468" s="17" t="s">
         <v>8</v>
       </c>
@@ -16370,7 +16369,7 @@
       <c r="S468" s="17"/>
       <c r="T468" s="7"/>
     </row>
-    <row r="469" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A469" s="16" t="str">
         <f>B461</f>
         <v>electrolyzer production, 1MWe, SOEC, Balance of Plant</v>
@@ -16401,7 +16400,7 @@
       <c r="O469" s="12"/>
       <c r="P469" s="12"/>
     </row>
-    <row r="470" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A470" s="11" t="s">
         <v>73</v>
       </c>
@@ -16433,7 +16432,7 @@
       <c r="Q470"/>
       <c r="R470"/>
     </row>
-    <row r="471" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A471" s="11" t="s">
         <v>20</v>
       </c>
@@ -16465,7 +16464,7 @@
       <c r="Q471"/>
       <c r="R471"/>
     </row>
-    <row r="472" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A472" s="16" t="s">
         <v>18</v>
       </c>
@@ -16497,7 +16496,7 @@
       <c r="Q472"/>
       <c r="R472"/>
     </row>
-    <row r="473" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A473" s="16" t="s">
         <v>68</v>
       </c>
@@ -16529,7 +16528,7 @@
       <c r="Q473"/>
       <c r="R473"/>
     </row>
-    <row r="474" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A474" s="16" t="s">
         <v>83</v>
       </c>
@@ -16562,7 +16561,7 @@
       <c r="Q474"/>
       <c r="R474"/>
     </row>
-    <row r="475" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A475" s="16" t="s">
         <v>85</v>
       </c>
@@ -16595,7 +16594,7 @@
       <c r="Q475"/>
       <c r="R475"/>
     </row>
-    <row r="476" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A476" s="16" t="s">
         <v>86</v>
       </c>
@@ -16628,7 +16627,7 @@
       <c r="Q476"/>
       <c r="R476"/>
     </row>
-    <row r="477" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A477" s="16" t="s">
         <v>108</v>
       </c>
@@ -16661,7 +16660,7 @@
       <c r="Q477"/>
       <c r="R477"/>
     </row>
-    <row r="478" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A478" s="16" t="s">
         <v>111</v>
       </c>
@@ -16694,7 +16693,7 @@
       <c r="Q478"/>
       <c r="R478"/>
     </row>
-    <row r="479" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A479" s="16" t="s">
         <v>83</v>
       </c>
@@ -16727,7 +16726,7 @@
       <c r="Q479"/>
       <c r="R479"/>
     </row>
-    <row r="480" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A480" s="16" t="s">
         <v>73</v>
       </c>
@@ -16760,7 +16759,7 @@
       <c r="Q480"/>
       <c r="R480"/>
     </row>
-    <row r="481" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A481" s="16" t="s">
         <v>84</v>
       </c>
@@ -16793,7 +16792,7 @@
       <c r="Q481"/>
       <c r="R481"/>
     </row>
-    <row r="482" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A482" s="16" t="s">
         <v>20</v>
       </c>
@@ -16826,7 +16825,7 @@
       <c r="Q482"/>
       <c r="R482"/>
     </row>
-    <row r="483" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A483" s="16" t="s">
         <v>83</v>
       </c>
@@ -16859,7 +16858,7 @@
       <c r="Q483"/>
       <c r="R483"/>
     </row>
-    <row r="484" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A484" s="16" t="s">
         <v>73</v>
       </c>
@@ -16892,7 +16891,7 @@
       <c r="Q484"/>
       <c r="R484"/>
     </row>
-    <row r="485" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A485" s="16" t="s">
         <v>84</v>
       </c>
@@ -16925,7 +16924,7 @@
       <c r="Q485"/>
       <c r="R485"/>
     </row>
-    <row r="486" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A486" s="16" t="s">
         <v>20</v>
       </c>
@@ -16958,7 +16957,7 @@
       <c r="Q486"/>
       <c r="R486"/>
     </row>
-    <row r="487" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A487" s="16" t="s">
         <v>18</v>
       </c>
@@ -16990,7 +16989,7 @@
       <c r="Q487"/>
       <c r="R487"/>
     </row>
-    <row r="488" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A488" s="16" t="s">
         <v>68</v>
       </c>
@@ -17022,7 +17021,7 @@
       <c r="Q488"/>
       <c r="R488"/>
     </row>
-    <row r="489" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A489" s="16" t="s">
         <v>83</v>
       </c>
@@ -17054,7 +17053,7 @@
       <c r="Q489"/>
       <c r="R489"/>
     </row>
-    <row r="490" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A490" s="16" t="s">
         <v>58</v>
       </c>
@@ -17086,7 +17085,7 @@
       <c r="Q490"/>
       <c r="R490"/>
     </row>
-    <row r="491" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A491" s="16" t="s">
         <v>84</v>
       </c>
@@ -17118,7 +17117,7 @@
       <c r="Q491"/>
       <c r="R491"/>
     </row>
-    <row r="492" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A492" s="16" t="s">
         <v>85</v>
       </c>
@@ -17150,7 +17149,7 @@
       <c r="Q492"/>
       <c r="R492"/>
     </row>
-    <row r="493" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A493" s="16" t="s">
         <v>86</v>
       </c>
@@ -17182,7 +17181,7 @@
       <c r="Q493"/>
       <c r="R493"/>
     </row>
-    <row r="494" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A494" s="16" t="s">
         <v>30</v>
       </c>
@@ -17214,7 +17213,7 @@
       <c r="Q494"/>
       <c r="R494"/>
     </row>
-    <row r="495" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A495" s="16" t="s">
         <v>73</v>
       </c>
@@ -17247,7 +17246,7 @@
       <c r="Q495"/>
       <c r="R495"/>
     </row>
-    <row r="496" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A496" s="16" t="s">
         <v>20</v>
       </c>
@@ -17280,7 +17279,7 @@
       <c r="Q496"/>
       <c r="R496"/>
     </row>
-    <row r="497" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A497" s="16" t="s">
         <v>73</v>
       </c>
@@ -17312,7 +17311,7 @@
       <c r="Q497"/>
       <c r="R497"/>
     </row>
-    <row r="498" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A498" s="16" t="s">
         <v>20</v>
       </c>
@@ -17344,7 +17343,7 @@
       <c r="Q498"/>
       <c r="R498"/>
     </row>
-    <row r="499" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A499" s="16" t="s">
         <v>73</v>
       </c>
@@ -17377,7 +17376,7 @@
       <c r="Q499"/>
       <c r="R499"/>
     </row>
-    <row r="500" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A500" s="16" t="s">
         <v>20</v>
       </c>
@@ -17410,7 +17409,7 @@
       <c r="Q500"/>
       <c r="R500"/>
     </row>
-    <row r="501" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A501" s="16" t="s">
         <v>73</v>
       </c>
@@ -17443,7 +17442,7 @@
       <c r="Q501"/>
       <c r="R501"/>
     </row>
-    <row r="502" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A502" s="16" t="s">
         <v>20</v>
       </c>
@@ -17476,7 +17475,7 @@
       <c r="Q502"/>
       <c r="R502"/>
     </row>
-    <row r="503" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A503" s="16" t="s">
         <v>191</v>
       </c>
@@ -17509,7 +17508,7 @@
       <c r="Q503"/>
       <c r="R503"/>
     </row>
-    <row r="504" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A504" s="16" t="s">
         <v>93</v>
       </c>
@@ -17542,7 +17541,7 @@
       <c r="Q504"/>
       <c r="R504"/>
     </row>
-    <row r="505" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A505" s="16" t="s">
         <v>85</v>
       </c>
@@ -17575,7 +17574,7 @@
       <c r="Q505"/>
       <c r="R505"/>
     </row>
-    <row r="506" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A506" s="16" t="s">
         <v>68</v>
       </c>
@@ -17608,7 +17607,7 @@
       <c r="Q506"/>
       <c r="R506"/>
     </row>
-    <row r="507" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A507" s="16" t="s">
         <v>86</v>
       </c>
@@ -17641,7 +17640,7 @@
       <c r="Q507"/>
       <c r="R507"/>
     </row>
-    <row r="508" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A508" s="16" t="s">
         <v>83</v>
       </c>
@@ -17674,7 +17673,7 @@
       <c r="Q508"/>
       <c r="R508"/>
     </row>
-    <row r="509" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A509" s="16" t="s">
         <v>84</v>
       </c>
@@ -17707,7 +17706,7 @@
       <c r="Q509"/>
       <c r="R509"/>
     </row>
-    <row r="510" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A510" s="16" t="s">
         <v>83</v>
       </c>
@@ -17740,7 +17739,7 @@
       <c r="Q510"/>
       <c r="R510"/>
     </row>
-    <row r="511" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A511" s="16" t="s">
         <v>84</v>
       </c>
@@ -17773,7 +17772,7 @@
       <c r="Q511"/>
       <c r="R511"/>
     </row>
-    <row r="512" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A512" s="16" t="s">
         <v>83</v>
       </c>
@@ -17805,7 +17804,7 @@
       <c r="Q512"/>
       <c r="R512"/>
     </row>
-    <row r="513" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A513" s="16" t="s">
         <v>84</v>
       </c>
@@ -17837,7 +17836,7 @@
       <c r="Q513"/>
       <c r="R513"/>
     </row>
-    <row r="514" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A514" s="16" t="s">
         <v>83</v>
       </c>
@@ -17869,7 +17868,7 @@
       <c r="Q514"/>
       <c r="R514"/>
     </row>
-    <row r="515" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A515" s="16" t="s">
         <v>84</v>
       </c>
@@ -17901,7 +17900,7 @@
       <c r="Q515"/>
       <c r="R515"/>
     </row>
-    <row r="516" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A516" s="16" t="s">
         <v>18</v>
       </c>
@@ -17933,7 +17932,7 @@
       <c r="Q516"/>
       <c r="R516"/>
     </row>
-    <row r="517" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A517" s="16" t="s">
         <v>68</v>
       </c>
@@ -17965,7 +17964,7 @@
       <c r="Q517"/>
       <c r="R517"/>
     </row>
-    <row r="518" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A518" s="16" t="s">
         <v>83</v>
       </c>
@@ -17997,7 +17996,7 @@
       <c r="Q518"/>
       <c r="R518"/>
     </row>
-    <row r="519" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A519" s="16" t="s">
         <v>85</v>
       </c>
@@ -18029,7 +18028,7 @@
       <c r="Q519"/>
       <c r="R519"/>
     </row>
-    <row r="520" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A520" s="16" t="s">
         <v>86</v>
       </c>
@@ -18061,7 +18060,7 @@
       <c r="Q520"/>
       <c r="R520"/>
     </row>
-    <row r="521" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A521" s="16" t="s">
         <v>25</v>
       </c>
@@ -18093,7 +18092,7 @@
       <c r="Q521"/>
       <c r="R521"/>
     </row>
-    <row r="522" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A522" s="16" t="s">
         <v>84</v>
       </c>
@@ -18125,7 +18124,7 @@
       <c r="Q522"/>
       <c r="R522"/>
     </row>
-    <row r="523" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A523" s="16" t="s">
         <v>102</v>
       </c>
@@ -18157,7 +18156,7 @@
       <c r="Q523"/>
       <c r="R523"/>
     </row>
-    <row r="524" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A524" s="16" t="s">
         <v>105</v>
       </c>
@@ -18189,7 +18188,7 @@
       <c r="Q524"/>
       <c r="R524"/>
     </row>
-    <row r="525" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A525" s="16" t="s">
         <v>83</v>
       </c>
@@ -18221,7 +18220,7 @@
       <c r="Q525"/>
       <c r="R525"/>
     </row>
-    <row r="526" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A526" s="16" t="s">
         <v>84</v>
       </c>
@@ -18253,7 +18252,7 @@
       <c r="Q526"/>
       <c r="R526"/>
     </row>
-    <row r="527" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A527" s="16" t="s">
         <v>73</v>
       </c>
@@ -18285,7 +18284,7 @@
       <c r="Q527"/>
       <c r="R527"/>
     </row>
-    <row r="528" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A528" s="16" t="s">
         <v>20</v>
       </c>
@@ -18317,7 +18316,7 @@
       <c r="Q528"/>
       <c r="R528"/>
     </row>
-    <row r="529" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A529" s="16" t="s">
         <v>115</v>
       </c>
@@ -18349,7 +18348,7 @@
       <c r="Q529"/>
       <c r="R529"/>
     </row>
-    <row r="530" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A530" s="16" t="s">
         <v>84</v>
       </c>
@@ -18381,7 +18380,7 @@
       <c r="Q530"/>
       <c r="R530"/>
     </row>
-    <row r="531" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A531" s="16" t="s">
         <v>201</v>
       </c>
@@ -18413,7 +18412,7 @@
       <c r="Q531"/>
       <c r="R531"/>
     </row>
-    <row r="532" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A532" s="16" t="s">
         <v>119</v>
       </c>
@@ -18445,7 +18444,7 @@
       <c r="Q532"/>
       <c r="R532"/>
     </row>
-    <row r="533" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A533" s="11" t="s">
         <v>33</v>
       </c>
@@ -18477,7 +18476,7 @@
       <c r="Q533"/>
       <c r="R533"/>
     </row>
-    <row r="534" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B534" s="16"/>
       <c r="F534" s="10"/>
       <c r="G534" s="10"/>
@@ -18488,7 +18487,7 @@
       <c r="O534" s="12"/>
       <c r="P534" s="12"/>
     </row>
-    <row r="535" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A535" s="8" t="s">
         <v>1</v>
       </c>
@@ -18502,7 +18501,7 @@
       <c r="O535" s="12"/>
       <c r="P535" s="12"/>
     </row>
-    <row r="536" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A536" s="13" t="s">
         <v>3</v>
       </c>
@@ -18516,7 +18515,7 @@
       <c r="O536" s="12"/>
       <c r="P536" s="12"/>
     </row>
-    <row r="537" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A537" s="13" t="s">
         <v>11</v>
       </c>
@@ -18530,7 +18529,7 @@
       <c r="O537" s="12"/>
       <c r="P537" s="12"/>
     </row>
-    <row r="538" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A538" s="13" t="s">
         <v>4</v>
       </c>
@@ -18544,7 +18543,7 @@
       <c r="O538" s="12"/>
       <c r="P538" s="12"/>
     </row>
-    <row r="539" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A539" s="13" t="s">
         <v>2</v>
       </c>
@@ -18558,7 +18557,7 @@
       <c r="O539" s="12"/>
       <c r="P539" s="12"/>
     </row>
-    <row r="540" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A540" s="13" t="s">
         <v>6</v>
       </c>
@@ -18572,7 +18571,7 @@
       <c r="O540" s="12"/>
       <c r="P540" s="12"/>
     </row>
-    <row r="541" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A541" s="17" t="s">
         <v>7</v>
       </c>
@@ -18592,7 +18591,7 @@
       <c r="O541" s="12"/>
       <c r="P541" s="12"/>
     </row>
-    <row r="542" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A542" s="17" t="s">
         <v>8</v>
       </c>
@@ -18630,7 +18629,7 @@
       <c r="S542" s="17"/>
       <c r="T542" s="7"/>
     </row>
-    <row r="543" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A543" s="16" t="str">
         <f>B535</f>
         <v>treatment of electrolyzer balance of plant, 1MWe, SOEC</v>
@@ -18659,7 +18658,7 @@
       <c r="O543" s="12"/>
       <c r="P543" s="12"/>
     </row>
-    <row r="544" spans="1:20" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A544" s="16" t="s">
         <v>204</v>
       </c>
@@ -18688,7 +18687,7 @@
       <c r="Q544"/>
       <c r="R544"/>
     </row>
-    <row r="545" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A545" s="16" t="s">
         <v>449</v>
       </c>
@@ -18717,7 +18716,7 @@
       <c r="Q545"/>
       <c r="R545"/>
     </row>
-    <row r="546" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A546" s="11" t="s">
         <v>206</v>
       </c>
@@ -18746,7 +18745,7 @@
       <c r="Q546"/>
       <c r="R546"/>
     </row>
-    <row r="547" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A547" s="11" t="s">
         <v>226</v>
       </c>
@@ -18775,7 +18774,7 @@
       <c r="Q547"/>
       <c r="R547"/>
     </row>
-    <row r="548" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A548" s="11" t="s">
         <v>218</v>
       </c>
@@ -18804,7 +18803,7 @@
       <c r="Q548"/>
       <c r="R548"/>
     </row>
-    <row r="549" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A549" s="11" t="s">
         <v>219</v>
       </c>
@@ -18833,7 +18832,7 @@
       <c r="Q549"/>
       <c r="R549"/>
     </row>
-    <row r="550" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A550" s="11" t="s">
         <v>221</v>
       </c>
@@ -18862,7 +18861,7 @@
       <c r="Q550"/>
       <c r="R550"/>
     </row>
-    <row r="551" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A551" s="11" t="s">
         <v>451</v>
       </c>
@@ -18891,7 +18890,7 @@
       <c r="Q551"/>
       <c r="R551"/>
     </row>
-    <row r="552" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A552" s="11" t="s">
         <v>208</v>
       </c>
@@ -18920,7 +18919,7 @@
       <c r="Q552"/>
       <c r="R552"/>
     </row>
-    <row r="553" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A553" s="11" t="s">
         <v>210</v>
       </c>
@@ -18949,7 +18948,7 @@
       <c r="Q553"/>
       <c r="R553"/>
     </row>
-    <row r="554" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A554" s="11" t="s">
         <v>448</v>
       </c>
@@ -18978,7 +18977,7 @@
       <c r="Q554"/>
       <c r="R554"/>
     </row>
-    <row r="555" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B555" s="16"/>
       <c r="K555" s="12"/>
       <c r="L555" s="12"/>
@@ -18987,7 +18986,7 @@
       <c r="O555" s="12"/>
       <c r="P555" s="12"/>
     </row>
-    <row r="556" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A556" s="8" t="s">
         <v>1</v>
       </c>
@@ -19002,7 +19001,7 @@
       <c r="O556" s="12"/>
       <c r="P556" s="12"/>
     </row>
-    <row r="557" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A557" s="13" t="s">
         <v>3</v>
       </c>
@@ -19016,7 +19015,7 @@
       <c r="O557" s="12"/>
       <c r="P557" s="12"/>
     </row>
-    <row r="558" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A558" s="13" t="s">
         <v>11</v>
       </c>
@@ -19030,7 +19029,7 @@
       <c r="O558" s="12"/>
       <c r="P558" s="12"/>
     </row>
-    <row r="559" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A559" s="13" t="s">
         <v>4</v>
       </c>
@@ -19044,7 +19043,7 @@
       <c r="O559" s="12"/>
       <c r="P559" s="12"/>
     </row>
-    <row r="560" spans="1:18" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A560" s="13" t="s">
         <v>2</v>
       </c>
@@ -19058,7 +19057,7 @@
       <c r="O560" s="12"/>
       <c r="P560" s="12"/>
     </row>
-    <row r="561" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A561" s="13" t="s">
         <v>6</v>
       </c>
@@ -19075,7 +19074,7 @@
       <c r="O561" s="12"/>
       <c r="P561" s="12"/>
     </row>
-    <row r="562" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A562" s="17" t="s">
         <v>7</v>
       </c>
@@ -19095,7 +19094,7 @@
       <c r="O562" s="12"/>
       <c r="P562" s="12"/>
     </row>
-    <row r="563" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A563" s="17" t="s">
         <v>8</v>
       </c>
@@ -19160,7 +19159,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="564" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A564" s="16" t="str">
         <f>B556</f>
         <v>deionized water production, via reverse osmosis, from brackish water</v>
@@ -19196,7 +19195,7 @@
       <c r="P564" s="12"/>
       <c r="T564"/>
     </row>
-    <row r="565" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>33</v>
       </c>
@@ -19234,7 +19233,7 @@
         <v>1.6999999999999999E-3</v>
       </c>
     </row>
-    <row r="566" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>519</v>
       </c>
@@ -19257,7 +19256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>521</v>
       </c>
@@ -19280,7 +19279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>523</v>
       </c>
@@ -19326,7 +19325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>526</v>
       </c>
@@ -19362,7 +19361,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="571" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>536</v>
       </c>
@@ -19383,7 +19382,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="572" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>539</v>
       </c>
@@ -19400,7 +19399,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="573" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>540</v>
       </c>
@@ -19417,8 +19416,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="574" spans="1:21" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="575" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A575" s="8" t="s">
         <v>1</v>
       </c>
@@ -19433,7 +19431,7 @@
       <c r="O575" s="12"/>
       <c r="P575" s="12"/>
     </row>
-    <row r="576" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A576" s="13" t="s">
         <v>3</v>
       </c>
@@ -19447,7 +19445,7 @@
       <c r="O576" s="12"/>
       <c r="P576" s="12"/>
     </row>
-    <row r="577" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A577" s="13" t="s">
         <v>11</v>
       </c>
@@ -19461,7 +19459,7 @@
       <c r="O577" s="12"/>
       <c r="P577" s="12"/>
     </row>
-    <row r="578" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A578" s="13" t="s">
         <v>4</v>
       </c>
@@ -19475,7 +19473,7 @@
       <c r="O578" s="12"/>
       <c r="P578" s="12"/>
     </row>
-    <row r="579" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A579" s="13" t="s">
         <v>2</v>
       </c>
@@ -19489,7 +19487,7 @@
       <c r="O579" s="12"/>
       <c r="P579" s="12"/>
     </row>
-    <row r="580" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A580" s="13" t="s">
         <v>6</v>
       </c>
@@ -19506,7 +19504,7 @@
       <c r="O580" s="12"/>
       <c r="P580" s="12"/>
     </row>
-    <row r="581" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A581" s="17" t="s">
         <v>7</v>
       </c>
@@ -19526,7 +19524,7 @@
       <c r="O581" s="12"/>
       <c r="P581" s="12"/>
     </row>
-    <row r="582" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A582" s="17" t="s">
         <v>8</v>
       </c>
@@ -19591,7 +19589,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="583" spans="1:21" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A583" s="16" t="str">
         <f>B575</f>
         <v>deionized water production, via reverse osmosis, from sea water</v>
@@ -19627,7 +19625,7 @@
       <c r="P583" s="12"/>
       <c r="T583"/>
     </row>
-    <row r="584" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>33</v>
       </c>
@@ -19666,7 +19664,7 @@
         <v>5.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="585" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>519</v>
       </c>
@@ -19689,7 +19687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>521</v>
       </c>
@@ -19712,7 +19710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>523</v>
       </c>
@@ -19758,7 +19756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>534</v>
       </c>
@@ -19794,22 +19792,8 @@
         <v>2.8571428571428571E-3</v>
       </c>
     </row>
-    <row r="590" spans="1:21" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="591" spans="1:21" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="592" spans="1:21" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="593" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="594" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="595" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="596" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="597" hidden="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:T597" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="market for acrylic dispersion, with water, in 58% solution state"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:T597" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19866,10 +19850,10 @@
       <c r="C4" s="38" t="s">
         <v>430</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="56" t="s">
         <v>395</v>
       </c>
-      <c r="E4" s="53"/>
+      <c r="E4" s="57"/>
       <c r="F4" s="39" t="s">
         <v>396</v>
       </c>
@@ -19884,10 +19868,10 @@
       <c r="C5" s="38">
         <v>5.5</v>
       </c>
-      <c r="D5" s="54">
+      <c r="D5" s="58">
         <v>2.5</v>
       </c>
-      <c r="E5" s="55"/>
+      <c r="E5" s="59"/>
       <c r="F5" s="38" t="s">
         <v>397</v>
       </c>
@@ -19899,9 +19883,9 @@
       <c r="B6" s="49" t="s">
         <v>399</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="51"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="50"/>
       <c r="F6" s="40" t="s">
         <v>400</v>
       </c>
@@ -19916,10 +19900,10 @@
       <c r="C7" s="38">
         <v>20</v>
       </c>
-      <c r="D7" s="54">
+      <c r="D7" s="58">
         <v>20</v>
       </c>
-      <c r="E7" s="55"/>
+      <c r="E7" s="59"/>
       <c r="F7" s="38" t="s">
         <v>396</v>
       </c>
@@ -19934,10 +19918,10 @@
       <c r="C8" s="38">
         <v>3</v>
       </c>
-      <c r="D8" s="54">
+      <c r="D8" s="58">
         <v>7</v>
       </c>
-      <c r="E8" s="55"/>
+      <c r="E8" s="59"/>
       <c r="F8" s="38" t="s">
         <v>403</v>
       </c>
@@ -19949,9 +19933,9 @@
       <c r="B9" s="49" t="s">
         <v>431</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="51"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="50"/>
       <c r="F9" s="40" t="s">
         <v>405</v>
       </c>
@@ -20023,7 +20007,7 @@
       <c r="D13" s="49">
         <v>23.6</v>
       </c>
-      <c r="E13" s="51"/>
+      <c r="E13" s="50"/>
       <c r="F13" s="38" t="s">
         <v>408</v>
       </c>
@@ -20036,8 +20020,8 @@
         <v>3.7000000000000002E-3</v>
       </c>
       <c r="C14" s="45"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="57"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="52"/>
       <c r="F14" s="40" t="s">
         <v>413</v>
       </c>
@@ -20055,7 +20039,7 @@
       <c r="D15" s="49" t="s">
         <v>417</v>
       </c>
-      <c r="E15" s="51"/>
+      <c r="E15" s="50"/>
       <c r="F15" s="38" t="s">
         <v>410</v>
       </c>
@@ -20073,7 +20057,7 @@
       <c r="D16" s="49" t="s">
         <v>421</v>
       </c>
-      <c r="E16" s="51"/>
+      <c r="E16" s="50"/>
       <c r="F16" s="38" t="s">
         <v>396</v>
       </c>
@@ -20088,27 +20072,27 @@
       <c r="C17" s="39" t="s">
         <v>424</v>
       </c>
-      <c r="D17" s="58" t="s">
+      <c r="D17" s="53" t="s">
         <v>425</v>
       </c>
-      <c r="E17" s="59"/>
+      <c r="E17" s="54"/>
       <c r="F17" s="40" t="s">
         <v>426</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/premise/data/additional_inventories/lci-hydrogen-electrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-electrolysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DA8584-26F2-3746-B770-CFAAEEB4980A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0046B9-DD95-1040-8051-A7A40AA5EE13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1803,9 +1803,6 @@
     <t>chlorine, liquid</t>
   </si>
   <si>
-    <t>market for acrylic dispersion, with water, in 58% solution state</t>
-  </si>
-  <si>
     <t>acrylic dispersion, with water, in 58% solution state</t>
   </si>
   <si>
@@ -1859,6 +1856,9 @@
   </si>
   <si>
     <t>Chloride</t>
+  </si>
+  <si>
+    <t>market for acrylic dispersion, with water, in 58% solution</t>
   </si>
 </sst>
 </file>
@@ -2126,7 +2126,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -2241,9 +2241,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Neutral" xfId="4" builtinId="28"/>
@@ -2531,8 +2528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U589"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A553" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B584" sqref="B584"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2545,8 +2542,8 @@
     <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="20.6640625" style="60" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" style="60" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" customWidth="1"/>
     <col min="19" max="20" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2564,7 +2561,6 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="5"/>
-      <c r="J1"/>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -2577,7 +2573,6 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="5"/>
-      <c r="J2"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -19025,7 +19020,7 @@
         <v>11</v>
       </c>
       <c r="B558" s="14" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="K558" s="12"/>
       <c r="L558" s="12"/>
@@ -19220,12 +19215,12 @@
         <v>36</v>
       </c>
       <c r="H565" t="s">
-        <v>531</v>
-      </c>
-      <c r="I565" s="60">
+        <v>530</v>
+      </c>
+      <c r="I565">
         <v>5</v>
       </c>
-      <c r="J565" s="61">
+      <c r="J565" s="4">
         <f>B565</f>
         <v>1.5499999999999999E-3</v>
       </c>
@@ -19257,7 +19252,7 @@
       <c r="G566" t="s">
         <v>520</v>
       </c>
-      <c r="I566" s="60">
+      <c r="I566">
         <v>0</v>
       </c>
     </row>
@@ -19269,7 +19264,7 @@
         <v>7.5799999999999998E-7</v>
       </c>
       <c r="C567" s="11" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D567" t="s">
         <v>13</v>
@@ -19280,7 +19275,7 @@
       <c r="G567" t="s">
         <v>522</v>
       </c>
-      <c r="I567" s="60">
+      <c r="I567">
         <v>0</v>
       </c>
     </row>
@@ -19303,13 +19298,13 @@
       <c r="G568" t="s">
         <v>524</v>
       </c>
-      <c r="I568" s="62">
+      <c r="I568">
         <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
-        <v>525</v>
+        <v>541</v>
       </c>
       <c r="B569" s="4">
         <v>2.7E-6</v>
@@ -19324,15 +19319,15 @@
         <v>12</v>
       </c>
       <c r="G569" t="s">
-        <v>526</v>
-      </c>
-      <c r="I569" s="62">
+        <v>525</v>
+      </c>
+      <c r="I569">
         <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B570" s="4">
         <f>1/0.7/1000</f>
@@ -19342,18 +19337,18 @@
         <v>31</v>
       </c>
       <c r="E570" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F570" t="s">
         <v>14</v>
       </c>
       <c r="H570" t="s">
-        <v>529</v>
-      </c>
-      <c r="I570" s="62">
+        <v>528</v>
+      </c>
+      <c r="I570">
         <v>5</v>
       </c>
-      <c r="J570" s="61">
+      <c r="J570" s="4">
         <f>B570</f>
         <v>1.4285714285714286E-3</v>
       </c>
@@ -19368,7 +19363,7 @@
     </row>
     <row r="571" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B571" s="4">
         <f>B570-(1/1000)</f>
@@ -19378,18 +19373,18 @@
         <v>31</v>
       </c>
       <c r="E571" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F571" t="s">
         <v>14</v>
       </c>
       <c r="H571" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="572" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B572" s="4">
         <v>4.5799999999999999E-3</v>
@@ -19398,7 +19393,7 @@
         <v>13</v>
       </c>
       <c r="E572" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F572" t="s">
         <v>14</v>
@@ -19406,7 +19401,7 @@
     </row>
     <row r="573" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B573" s="4">
         <v>6.8599999999999998E-3</v>
@@ -19415,7 +19410,7 @@
         <v>13</v>
       </c>
       <c r="E573" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F573" t="s">
         <v>14</v>
@@ -19426,7 +19421,7 @@
         <v>1</v>
       </c>
       <c r="B575" s="9" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C575" s="10"/>
       <c r="K575" s="12"/>
@@ -19455,7 +19450,7 @@
         <v>11</v>
       </c>
       <c r="B577" s="14" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="K577" s="12"/>
       <c r="L577" s="12"/>
@@ -19651,12 +19646,12 @@
         <v>36</v>
       </c>
       <c r="H584" t="s">
-        <v>533</v>
-      </c>
-      <c r="I584" s="60">
+        <v>532</v>
+      </c>
+      <c r="I584">
         <v>5</v>
       </c>
-      <c r="J584" s="61">
+      <c r="J584" s="4">
         <f>B584</f>
         <v>4.6500000000000005E-3</v>
       </c>
@@ -19688,7 +19683,7 @@
       <c r="G585" t="s">
         <v>520</v>
       </c>
-      <c r="I585" s="60">
+      <c r="I585">
         <v>0</v>
       </c>
     </row>
@@ -19700,7 +19695,7 @@
         <v>7.5799999999999998E-7</v>
       </c>
       <c r="C586" s="11" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D586" t="s">
         <v>13</v>
@@ -19711,7 +19706,7 @@
       <c r="G586" t="s">
         <v>522</v>
       </c>
-      <c r="I586" s="60">
+      <c r="I586">
         <v>0</v>
       </c>
     </row>
@@ -19734,13 +19729,13 @@
       <c r="G587" t="s">
         <v>524</v>
       </c>
-      <c r="I587" s="62">
+      <c r="I587">
         <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
-        <v>525</v>
+        <v>541</v>
       </c>
       <c r="B588" s="4">
         <v>2.7E-6</v>
@@ -19755,15 +19750,15 @@
         <v>12</v>
       </c>
       <c r="G588" t="s">
-        <v>526</v>
-      </c>
-      <c r="I588" s="62">
+        <v>525</v>
+      </c>
+      <c r="I588">
         <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B589" s="4">
         <f>1/0.4/1000</f>
@@ -19773,18 +19768,18 @@
         <v>31</v>
       </c>
       <c r="E589" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F589" t="s">
         <v>14</v>
       </c>
       <c r="H589" t="s">
-        <v>536</v>
-      </c>
-      <c r="I589" s="62">
+        <v>535</v>
+      </c>
+      <c r="I589">
         <v>5</v>
       </c>
-      <c r="J589" s="61">
+      <c r="J589" s="4">
         <f>B589</f>
         <v>2.5000000000000001E-3</v>
       </c>

--- a/premise/data/additional_inventories/lci-hydrogen-electrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-electrolysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10817"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0046B9-DD95-1040-8051-A7A40AA5EE13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C63BB10-A47E-6444-8FAC-93041FEF97A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2211,22 +2211,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2241,6 +2229,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Neutral" xfId="4" builtinId="28"/>
@@ -2248,7 +2248,7 @@
     <cellStyle name="Normal 11 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Per cent" xfId="5" builtinId="5"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2528,8 +2528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U589"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A422" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B460" sqref="B460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11318,7 +11318,8 @@
         <v>204</v>
       </c>
       <c r="B289" s="11">
-        <v>-60583</v>
+        <f>-1*B274</f>
+        <v>-20194.400000000001</v>
       </c>
       <c r="C289" s="11" t="s">
         <v>37</v>
@@ -11347,7 +11348,8 @@
         <v>210</v>
       </c>
       <c r="B290" s="11">
-        <v>-579</v>
+        <f>-1*SUM(B272,B276)</f>
+        <v>-193</v>
       </c>
       <c r="C290" s="11" t="s">
         <v>212</v>
@@ -16193,7 +16195,8 @@
         <v>204</v>
       </c>
       <c r="B459" s="11">
-        <v>-26928</v>
+        <f>-1*B434</f>
+        <v>-8976.1</v>
       </c>
       <c r="C459" s="11" t="s">
         <v>37</v>
@@ -19850,10 +19853,10 @@
       <c r="C4" s="38" t="s">
         <v>430</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="52" t="s">
         <v>395</v>
       </c>
-      <c r="E4" s="57"/>
+      <c r="E4" s="53"/>
       <c r="F4" s="39" t="s">
         <v>396</v>
       </c>
@@ -19868,10 +19871,10 @@
       <c r="C5" s="38">
         <v>5.5</v>
       </c>
-      <c r="D5" s="58">
+      <c r="D5" s="54">
         <v>2.5</v>
       </c>
-      <c r="E5" s="59"/>
+      <c r="E5" s="55"/>
       <c r="F5" s="38" t="s">
         <v>397</v>
       </c>
@@ -19883,9 +19886,9 @@
       <c r="B6" s="49" t="s">
         <v>399</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="51"/>
       <c r="F6" s="40" t="s">
         <v>400</v>
       </c>
@@ -19900,10 +19903,10 @@
       <c r="C7" s="38">
         <v>20</v>
       </c>
-      <c r="D7" s="58">
+      <c r="D7" s="54">
         <v>20</v>
       </c>
-      <c r="E7" s="59"/>
+      <c r="E7" s="55"/>
       <c r="F7" s="38" t="s">
         <v>396</v>
       </c>
@@ -19918,10 +19921,10 @@
       <c r="C8" s="38">
         <v>3</v>
       </c>
-      <c r="D8" s="58">
+      <c r="D8" s="54">
         <v>7</v>
       </c>
-      <c r="E8" s="59"/>
+      <c r="E8" s="55"/>
       <c r="F8" s="38" t="s">
         <v>403</v>
       </c>
@@ -19933,9 +19936,9 @@
       <c r="B9" s="49" t="s">
         <v>431</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="51"/>
       <c r="F9" s="40" t="s">
         <v>405</v>
       </c>
@@ -20007,7 +20010,7 @@
       <c r="D13" s="49">
         <v>23.6</v>
       </c>
-      <c r="E13" s="50"/>
+      <c r="E13" s="51"/>
       <c r="F13" s="38" t="s">
         <v>408</v>
       </c>
@@ -20020,8 +20023,8 @@
         <v>3.7000000000000002E-3</v>
       </c>
       <c r="C14" s="45"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="52"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="57"/>
       <c r="F14" s="40" t="s">
         <v>413</v>
       </c>
@@ -20039,7 +20042,7 @@
       <c r="D15" s="49" t="s">
         <v>417</v>
       </c>
-      <c r="E15" s="50"/>
+      <c r="E15" s="51"/>
       <c r="F15" s="38" t="s">
         <v>410</v>
       </c>
@@ -20057,7 +20060,7 @@
       <c r="D16" s="49" t="s">
         <v>421</v>
       </c>
-      <c r="E16" s="50"/>
+      <c r="E16" s="51"/>
       <c r="F16" s="38" t="s">
         <v>396</v>
       </c>
@@ -20072,27 +20075,27 @@
       <c r="C17" s="39" t="s">
         <v>424</v>
       </c>
-      <c r="D17" s="53" t="s">
+      <c r="D17" s="58" t="s">
         <v>425</v>
       </c>
-      <c r="E17" s="54"/>
+      <c r="E17" s="59"/>
       <c r="F17" s="40" t="s">
         <v>426</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/premise/data/additional_inventories/lci-hydrogen-electrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-electrolysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C63BB10-A47E-6444-8FAC-93041FEF97A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D8C29F-CA9A-4C42-A35D-878E671CD9FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34920" yWindow="760" windowWidth="25800" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lci" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Manufacturers' data" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">lci!$A$1:$T$597</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">lci!$A$1:$T$598</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Manufacturers'' data'!$A$3:$AG$104</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3318" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3340" uniqueCount="546">
   <si>
     <t>Database</t>
   </si>
@@ -1821,44 +1821,54 @@
     <t>Depends on salinity. 1.4-1.7 kWh/m3 of brackish water, with miximum posisble values up to 2.5 kWh.</t>
   </si>
   <si>
+    <t>3.6-5.7 kWh/m3 of sea water.</t>
+  </si>
+  <si>
+    <t>1 kg of demineralized and deionized water, from sea water. Adapted from inventories from the following report: LIFE CYCLE ASSESSMENT OF HYDROGEN PRODUCTION PATHWAYS IN CANADA, Giovanna Gonzales-Calienes et al., 2022. https://publications.gc.ca/collections/collection_2022/cnrc-nrc/NR16-399-2022-eng.pdf, but electricity conusmption has been adapted to represent the treatment of high salinity water, based on ﻿Hausmann, J. N., Schlögl, R., Menezes, P. W., &amp; Driess, M. (2021). Is direct seawater splitting economically meaningful? Energy and Environmental Science, 14(7), 3679–3685. https://doi.org/10.1039/d0ee03659e.</t>
+  </si>
+  <si>
+    <t>Water, salt, ocean</t>
+  </si>
+  <si>
+    <t>Recovery rate of 40% for seawater.</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>Brine release</t>
+  </si>
+  <si>
+    <t>market for acrylic dispersion, with water, in 58% solution</t>
+  </si>
+  <si>
+    <t>Chlorine</t>
+  </si>
+  <si>
+    <t>5.2 mg Chlorine (as Cl2)/liter brine.</t>
+  </si>
+  <si>
+    <t>Sodium hydroxide</t>
+  </si>
+  <si>
+    <t>1.7 mg Sodium hydroxide (as NaOH)/liter brine.</t>
+  </si>
+  <si>
+    <t>Sulfuric acid</t>
+  </si>
+  <si>
+    <t>31 mg Sulfuric acid (as H2SO4)/liter brine.</t>
+  </si>
+  <si>
     <t>1 kg of demineralized and deionized water. Inventories from the following report: Life Cycle Assessment of Hydrogen production pathways in Canada, Giovanna Gonzales-Calienes et al., 2022. 
 https://publications.gc.ca/collections/collection_2022/cnrc-nrc/NR16-399-2022-eng.pdf
-Description from the report: "The reverse osmosis process was used since it is one of the most common desalination technologies. The energy requirement is highly dependent on the water quality (such as
-salinity) of the available source since it mainly comes from the use of high-pressure pumps. The quality of feed water is location-dependent for the real plant. In our study, the plant is assumed to be near a river or
-lake for easy access to fresh water and brine discharge, and hence the water is assumed to be brackish water (salinity of 1-15 g/L), and a brackish water RO (BWRO) rather than the seawater RO is considered.
+Description from the report: "The reverse osmosis process was used since it is one of the most common desalination technologies. The energy requirement is highly dependent on the water quality (such as salinity) of the available source since it mainly comes from the use of high-pressure pumps. The quality of feed water is location-dependent for the real plant. In our study, the plant is assumed to be near a river or lake for easy access to fresh water and brine discharge, and hence the water is assumed to be brackish water (salinity of 1-15 g/L), and a brackish water RO (BWRO) rather than the seawater RO is considered.
 The recovery ratio of the water (flow rate ratio of generated clean water to the brackish feed water) by BWRO can range from 50% to 90%, depending on the different configurations adopted (Pan et al., 2020).
-The average water recovery ratio of 70% was assumed. The energy consumption to produce a unit of deionized water generally can vary from 0.8-2.5 kWh/m3 based on the review of BWRO plants (Pan et al.,
-2020). A specific energy requirement of 1.55 kWh/m3 is assumed for the RO in this AE plant, which is an average value of 1.4-1.7 kWh/m3 from a RO process with treatment capacity of 360 m3/day (Pan et al., 2020)."</t>
-  </si>
-  <si>
-    <t>3.6-5.7 kWh/m3 of sea water.</t>
-  </si>
-  <si>
-    <t>1 kg of demineralized and deionized water, from sea water. Adapted from inventories from the following report: LIFE CYCLE ASSESSMENT OF HYDROGEN PRODUCTION PATHWAYS IN CANADA, Giovanna Gonzales-Calienes et al., 2022. https://publications.gc.ca/collections/collection_2022/cnrc-nrc/NR16-399-2022-eng.pdf, but electricity conusmption has been adapted to represent the treatment of high salinity water, based on ﻿Hausmann, J. N., Schlögl, R., Menezes, P. W., &amp; Driess, M. (2021). Is direct seawater splitting economically meaningful? Energy and Environmental Science, 14(7), 3679–3685. https://doi.org/10.1039/d0ee03659e.</t>
-  </si>
-  <si>
-    <t>Water, salt, ocean</t>
-  </si>
-  <si>
-    <t>Recovery rate of 40% for seawater.</t>
-  </si>
-  <si>
-    <t>Water</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>Brine release</t>
-  </si>
-  <si>
-    <t>Sodium I</t>
-  </si>
-  <si>
-    <t>Chloride</t>
-  </si>
-  <si>
-    <t>market for acrylic dispersion, with water, in 58% solution</t>
+The average water recovery ratio of 70% was assumed. The energy consumption to produce a unit of deionized water generally can vary from 0.8-2.5 kWh/m3 based on the review of BWRO plants (Pan et al., 2020). A specific energy requirement of 1.55 kWh/m3 is assumed for the RO in this AE plant, which is an average value of 1.4-1.7 kWh/m3 from a RO process with treatment capacity of 360 m3/day (Pan et al., 2020)."
+Note: we could not represent the emissions of dissolved salts (~33g/L) and antiscalant (~7mg/L) to water.</t>
   </si>
 </sst>
 </file>
@@ -2211,10 +2221,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2229,18 +2251,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Neutral" xfId="4" builtinId="28"/>
@@ -2248,7 +2258,7 @@
     <cellStyle name="Normal 11 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="5" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2526,10 +2536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U589"/>
+  <dimension ref="A1:U593"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A422" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B460" sqref="B460"/>
+    <sheetView tabSelected="1" topLeftCell="A571" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B594" sqref="B594"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19023,7 +19033,7 @@
         <v>11</v>
       </c>
       <c r="B558" s="14" t="s">
-        <v>531</v>
+        <v>545</v>
       </c>
       <c r="K558" s="12"/>
       <c r="L558" s="12"/>
@@ -19307,7 +19317,7 @@
     </row>
     <row r="569" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B569" s="4">
         <v>2.7E-6</v>
@@ -19366,7 +19376,7 @@
     </row>
     <row r="571" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B571" s="4">
         <f>B570-(1/1000)</f>
@@ -19376,13 +19386,16 @@
         <v>31</v>
       </c>
       <c r="E571" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F571" t="s">
         <v>14</v>
       </c>
       <c r="H571" t="s">
-        <v>538</v>
+        <v>537</v>
+      </c>
+      <c r="I571">
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:21" x14ac:dyDescent="0.2">
@@ -19390,57 +19403,81 @@
         <v>539</v>
       </c>
       <c r="B572" s="4">
-        <v>4.5799999999999999E-3</v>
+        <f>(5.2/0.000001)*(B571*1000)</f>
+        <v>2228571.4285714286</v>
       </c>
       <c r="D572" t="s">
         <v>13</v>
       </c>
       <c r="E572" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F572" t="s">
         <v>14</v>
       </c>
+      <c r="H572" t="s">
+        <v>540</v>
+      </c>
+      <c r="I572">
+        <v>0</v>
+      </c>
     </row>
     <row r="573" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B573" s="4">
-        <v>6.8599999999999998E-3</v>
+        <f>(1.7/0.000001)*(B571*1000)</f>
+        <v>728571.42857142852</v>
       </c>
       <c r="D573" t="s">
         <v>13</v>
       </c>
       <c r="E573" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F573" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="575" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A575" s="8" t="s">
+      <c r="H573" t="s">
+        <v>542</v>
+      </c>
+      <c r="I573">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A574" t="s">
+        <v>543</v>
+      </c>
+      <c r="B574" s="4">
+        <f>(31/0.000001)*(B571*1000)</f>
+        <v>13285714.285714285</v>
+      </c>
+      <c r="D574" t="s">
+        <v>13</v>
+      </c>
+      <c r="E574" t="s">
+        <v>536</v>
+      </c>
+      <c r="F574" t="s">
+        <v>14</v>
+      </c>
+      <c r="H574" t="s">
+        <v>544</v>
+      </c>
+      <c r="I574">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A576" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B575" s="9" t="s">
+      <c r="B576" s="9" t="s">
         <v>529</v>
       </c>
-      <c r="C575" s="10"/>
-      <c r="K575" s="12"/>
-      <c r="L575" s="12"/>
-      <c r="M575" s="12"/>
-      <c r="N575" s="12"/>
-      <c r="O575" s="12"/>
-      <c r="P575" s="12"/>
-    </row>
-    <row r="576" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A576" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B576" s="14">
-        <v>1</v>
-      </c>
+      <c r="C576" s="10"/>
       <c r="K576" s="12"/>
       <c r="L576" s="12"/>
       <c r="M576" s="12"/>
@@ -19450,10 +19487,10 @@
     </row>
     <row r="577" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A577" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B577" s="14" t="s">
-        <v>533</v>
+        <v>3</v>
+      </c>
+      <c r="B577" s="14">
+        <v>1</v>
       </c>
       <c r="K577" s="12"/>
       <c r="L577" s="12"/>
@@ -19464,10 +19501,10 @@
     </row>
     <row r="578" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A578" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B578" s="15" t="s">
-        <v>518</v>
+        <v>11</v>
+      </c>
+      <c r="B578" s="14" t="s">
+        <v>532</v>
       </c>
       <c r="K578" s="12"/>
       <c r="L578" s="12"/>
@@ -19478,10 +19515,10 @@
     </row>
     <row r="579" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A579" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B579" s="14" t="s">
-        <v>34</v>
+        <v>4</v>
+      </c>
+      <c r="B579" s="15" t="s">
+        <v>518</v>
       </c>
       <c r="K579" s="12"/>
       <c r="L579" s="12"/>
@@ -19492,14 +19529,11 @@
     </row>
     <row r="580" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A580" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B580" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H580" s="17"/>
-      <c r="I580" s="17"/>
-      <c r="J580" s="17"/>
+        <v>2</v>
+      </c>
+      <c r="B580" s="14" t="s">
+        <v>34</v>
+      </c>
       <c r="K580" s="12"/>
       <c r="L580" s="12"/>
       <c r="M580" s="12"/>
@@ -19508,18 +19542,15 @@
       <c r="P580" s="12"/>
     </row>
     <row r="581" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A581" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B581" s="9"/>
-      <c r="C581" s="17"/>
-      <c r="D581" s="17"/>
-      <c r="E581" s="17"/>
-      <c r="F581" s="17"/>
-      <c r="G581" s="17"/>
-      <c r="H581" s="10"/>
-      <c r="I581" s="10"/>
-      <c r="J581" s="10"/>
+      <c r="A581" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B581" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H581" s="17"/>
+      <c r="I581" s="17"/>
+      <c r="J581" s="17"/>
       <c r="K581" s="12"/>
       <c r="L581" s="12"/>
       <c r="M581" s="12"/>
@@ -19529,176 +19560,173 @@
     </row>
     <row r="582" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A582" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B582" s="9"/>
+      <c r="C582" s="17"/>
+      <c r="D582" s="17"/>
+      <c r="E582" s="17"/>
+      <c r="F582" s="17"/>
+      <c r="G582" s="17"/>
+      <c r="H582" s="10"/>
+      <c r="I582" s="10"/>
+      <c r="J582" s="10"/>
+      <c r="K582" s="12"/>
+      <c r="L582" s="12"/>
+      <c r="M582" s="12"/>
+      <c r="N582" s="12"/>
+      <c r="O582" s="12"/>
+      <c r="P582" s="12"/>
+    </row>
+    <row r="583" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A583" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B582" s="17" t="s">
+      <c r="B583" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C582" s="17" t="s">
+      <c r="C583" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D582" s="17" t="s">
+      <c r="D583" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E582" s="17" t="s">
+      <c r="E583" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F582" s="17" t="s">
+      <c r="F583" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G582" s="17" t="s">
+      <c r="G583" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H582" s="17" t="s">
+      <c r="H583" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I582" s="17" t="s">
+      <c r="I583" s="17" t="s">
         <v>466</v>
       </c>
-      <c r="J582" s="7" t="s">
+      <c r="J583" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="K582" s="18" t="s">
+      <c r="K583" s="18" t="s">
         <v>468</v>
       </c>
-      <c r="L582" s="18" t="s">
+      <c r="L583" s="18" t="s">
         <v>469</v>
       </c>
-      <c r="M582" s="18" t="s">
+      <c r="M583" s="18" t="s">
         <v>470</v>
       </c>
-      <c r="N582" s="18" t="s">
+      <c r="N583" s="18" t="s">
         <v>471</v>
       </c>
-      <c r="O582" s="18" t="s">
+      <c r="O583" s="18" t="s">
         <v>472</v>
       </c>
-      <c r="P582" s="18" t="s">
+      <c r="P583" s="18" t="s">
         <v>473</v>
       </c>
-      <c r="Q582" s="7" t="s">
+      <c r="Q583" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="R582" s="7" t="s">
+      <c r="R583" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="S582" s="17" t="s">
+      <c r="S583" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="T582" s="7" t="s">
+      <c r="T583" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="U582" s="17" t="s">
+      <c r="U583" s="17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="583" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A583" s="16" t="str">
-        <f>B575</f>
+    <row r="584" spans="1:21" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A584" s="16" t="str">
+        <f>B576</f>
         <v>deionized water production, via reverse osmosis, from sea water</v>
       </c>
-      <c r="B583" s="16">
+      <c r="B584" s="16">
         <v>1</v>
       </c>
-      <c r="C583" s="11" t="str">
+      <c r="C584" s="11" t="str">
+        <f>B580</f>
+        <v>RER</v>
+      </c>
+      <c r="D584" s="11" t="str">
+        <f>B581</f>
+        <v>kilogram</v>
+      </c>
+      <c r="E584" s="10"/>
+      <c r="F584" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G584" s="16" t="str">
         <f>B579</f>
-        <v>RER</v>
-      </c>
-      <c r="D583" s="11" t="str">
-        <f>B580</f>
-        <v>kilogram</v>
-      </c>
-      <c r="E583" s="10"/>
-      <c r="F583" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G583" s="16" t="str">
-        <f>B578</f>
         <v>water, deionized</v>
       </c>
-      <c r="H583" s="10"/>
-      <c r="I583" s="10">
+      <c r="H584" s="10"/>
+      <c r="I584" s="10">
         <v>0</v>
       </c>
-      <c r="K583" s="12"/>
-      <c r="L583" s="12"/>
-      <c r="M583" s="12"/>
-      <c r="N583" s="12"/>
-      <c r="O583" s="12"/>
-      <c r="P583" s="12"/>
-      <c r="T583"/>
-    </row>
-    <row r="584" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A584" t="s">
+      <c r="K584" s="12"/>
+      <c r="L584" s="12"/>
+      <c r="M584" s="12"/>
+      <c r="N584" s="12"/>
+      <c r="O584" s="12"/>
+      <c r="P584" s="12"/>
+      <c r="T584"/>
+    </row>
+    <row r="585" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="A585" t="s">
         <v>33</v>
       </c>
-      <c r="B584" s="4">
+      <c r="B585" s="4">
         <f>AVERAGE(3.6, 5.7)/1000</f>
         <v>4.6500000000000005E-3</v>
       </c>
-      <c r="C584" s="11" t="s">
+      <c r="C585" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D584" t="s">
+      <c r="D585" t="s">
         <v>35</v>
       </c>
-      <c r="F584" t="s">
-        <v>12</v>
-      </c>
-      <c r="G584" t="s">
+      <c r="F585" t="s">
+        <v>12</v>
+      </c>
+      <c r="G585" t="s">
         <v>36</v>
       </c>
-      <c r="H584" t="s">
-        <v>532</v>
-      </c>
-      <c r="I584">
+      <c r="H585" t="s">
+        <v>531</v>
+      </c>
+      <c r="I585">
         <v>5</v>
       </c>
-      <c r="J584" s="4">
-        <f>B584</f>
+      <c r="J585" s="4">
+        <f>B585</f>
         <v>4.6500000000000005E-3</v>
       </c>
-      <c r="S584">
+      <c r="S585">
         <f>3.6/1000</f>
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="T584">
+      <c r="T585">
         <f>5.7/1000</f>
         <v>5.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="585" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A585" t="s">
-        <v>519</v>
-      </c>
-      <c r="B585" s="4">
-        <v>1.3499999999999999E-5</v>
-      </c>
-      <c r="C585" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D585" t="s">
-        <v>13</v>
-      </c>
-      <c r="F585" t="s">
-        <v>12</v>
-      </c>
-      <c r="G585" t="s">
-        <v>520</v>
-      </c>
-      <c r="I585">
-        <v>0</v>
-      </c>
-    </row>
     <row r="586" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B586" s="4">
-        <v>7.5799999999999998E-7</v>
+        <v>1.3499999999999999E-5</v>
       </c>
       <c r="C586" s="11" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D586" t="s">
         <v>13</v>
@@ -19707,7 +19735,7 @@
         <v>12</v>
       </c>
       <c r="G586" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="I586">
         <v>0</v>
@@ -19715,13 +19743,13 @@
     </row>
     <row r="587" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B587" s="4">
-        <v>2.1600000000000001E-6</v>
+        <v>7.5799999999999998E-7</v>
       </c>
       <c r="C587" s="11" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D587" t="s">
         <v>13</v>
@@ -19730,7 +19758,7 @@
         <v>12</v>
       </c>
       <c r="G587" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="I587">
         <v>0</v>
@@ -19738,10 +19766,10 @@
     </row>
     <row r="588" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
-        <v>541</v>
+        <v>523</v>
       </c>
       <c r="B588" s="4">
-        <v>2.7E-6</v>
+        <v>2.1600000000000001E-6</v>
       </c>
       <c r="C588" s="11" t="s">
         <v>34</v>
@@ -19753,50 +19781,145 @@
         <v>12</v>
       </c>
       <c r="G588" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I588">
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="B589" s="4">
+        <v>2.7E-6</v>
+      </c>
+      <c r="C589" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D589" t="s">
+        <v>13</v>
+      </c>
+      <c r="F589" t="s">
+        <v>12</v>
+      </c>
+      <c r="G589" t="s">
+        <v>525</v>
+      </c>
+      <c r="I589">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A590" t="s">
+        <v>533</v>
+      </c>
+      <c r="B590" s="4">
         <f>1/0.4/1000</f>
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="D589" t="s">
+      <c r="D590" t="s">
         <v>31</v>
       </c>
-      <c r="E589" t="s">
+      <c r="E590" t="s">
         <v>527</v>
       </c>
-      <c r="F589" t="s">
+      <c r="F590" t="s">
         <v>14</v>
       </c>
-      <c r="H589" t="s">
-        <v>535</v>
-      </c>
-      <c r="I589">
+      <c r="H590" t="s">
+        <v>534</v>
+      </c>
+      <c r="I590">
         <v>5</v>
       </c>
-      <c r="J589" s="4">
-        <f>B589</f>
+      <c r="J590" s="4">
+        <f>B590</f>
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="S589" s="4">
+      <c r="S590" s="4">
         <f>1/0.5/1000</f>
         <v>2E-3</v>
       </c>
-      <c r="T589" s="4">
+      <c r="T590" s="4">
         <f>1/0.35/1000</f>
         <v>2.8571428571428571E-3</v>
       </c>
     </row>
+    <row r="591" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A591" t="s">
+        <v>539</v>
+      </c>
+      <c r="B591" s="4">
+        <f>(5.2/0.000001)*(B590*1000)</f>
+        <v>13000000</v>
+      </c>
+      <c r="D591" t="s">
+        <v>13</v>
+      </c>
+      <c r="E591" t="s">
+        <v>536</v>
+      </c>
+      <c r="F591" t="s">
+        <v>14</v>
+      </c>
+      <c r="H591" t="s">
+        <v>540</v>
+      </c>
+      <c r="I591">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A592" t="s">
+        <v>541</v>
+      </c>
+      <c r="B592" s="4">
+        <f>(1.7/0.000001)*(B590*1000)</f>
+        <v>4250000</v>
+      </c>
+      <c r="D592" t="s">
+        <v>13</v>
+      </c>
+      <c r="E592" t="s">
+        <v>536</v>
+      </c>
+      <c r="F592" t="s">
+        <v>14</v>
+      </c>
+      <c r="H592" t="s">
+        <v>542</v>
+      </c>
+      <c r="I592">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A593" t="s">
+        <v>543</v>
+      </c>
+      <c r="B593" s="4">
+        <f>(31/0.000001)*(B590*1000)</f>
+        <v>77500000</v>
+      </c>
+      <c r="D593" t="s">
+        <v>13</v>
+      </c>
+      <c r="E593" t="s">
+        <v>536</v>
+      </c>
+      <c r="F593" t="s">
+        <v>14</v>
+      </c>
+      <c r="H593" t="s">
+        <v>544</v>
+      </c>
+      <c r="I593">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:T597" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:T598" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19853,10 +19976,10 @@
       <c r="C4" s="38" t="s">
         <v>430</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="56" t="s">
         <v>395</v>
       </c>
-      <c r="E4" s="53"/>
+      <c r="E4" s="57"/>
       <c r="F4" s="39" t="s">
         <v>396</v>
       </c>
@@ -19871,10 +19994,10 @@
       <c r="C5" s="38">
         <v>5.5</v>
       </c>
-      <c r="D5" s="54">
+      <c r="D5" s="58">
         <v>2.5</v>
       </c>
-      <c r="E5" s="55"/>
+      <c r="E5" s="59"/>
       <c r="F5" s="38" t="s">
         <v>397</v>
       </c>
@@ -19886,9 +20009,9 @@
       <c r="B6" s="49" t="s">
         <v>399</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="51"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="50"/>
       <c r="F6" s="40" t="s">
         <v>400</v>
       </c>
@@ -19903,10 +20026,10 @@
       <c r="C7" s="38">
         <v>20</v>
       </c>
-      <c r="D7" s="54">
+      <c r="D7" s="58">
         <v>20</v>
       </c>
-      <c r="E7" s="55"/>
+      <c r="E7" s="59"/>
       <c r="F7" s="38" t="s">
         <v>396</v>
       </c>
@@ -19921,10 +20044,10 @@
       <c r="C8" s="38">
         <v>3</v>
       </c>
-      <c r="D8" s="54">
+      <c r="D8" s="58">
         <v>7</v>
       </c>
-      <c r="E8" s="55"/>
+      <c r="E8" s="59"/>
       <c r="F8" s="38" t="s">
         <v>403</v>
       </c>
@@ -19936,9 +20059,9 @@
       <c r="B9" s="49" t="s">
         <v>431</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="51"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="50"/>
       <c r="F9" s="40" t="s">
         <v>405</v>
       </c>
@@ -20010,7 +20133,7 @@
       <c r="D13" s="49">
         <v>23.6</v>
       </c>
-      <c r="E13" s="51"/>
+      <c r="E13" s="50"/>
       <c r="F13" s="38" t="s">
         <v>408</v>
       </c>
@@ -20023,8 +20146,8 @@
         <v>3.7000000000000002E-3</v>
       </c>
       <c r="C14" s="45"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="57"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="52"/>
       <c r="F14" s="40" t="s">
         <v>413</v>
       </c>
@@ -20042,7 +20165,7 @@
       <c r="D15" s="49" t="s">
         <v>417</v>
       </c>
-      <c r="E15" s="51"/>
+      <c r="E15" s="50"/>
       <c r="F15" s="38" t="s">
         <v>410</v>
       </c>
@@ -20060,7 +20183,7 @@
       <c r="D16" s="49" t="s">
         <v>421</v>
       </c>
-      <c r="E16" s="51"/>
+      <c r="E16" s="50"/>
       <c r="F16" s="38" t="s">
         <v>396</v>
       </c>
@@ -20075,27 +20198,27 @@
       <c r="C17" s="39" t="s">
         <v>424</v>
       </c>
-      <c r="D17" s="58" t="s">
+      <c r="D17" s="53" t="s">
         <v>425</v>
       </c>
-      <c r="E17" s="59"/>
+      <c r="E17" s="54"/>
       <c r="F17" s="40" t="s">
         <v>426</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/premise/data/additional_inventories/lci-hydrogen-electrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-electrolysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D8C29F-CA9A-4C42-A35D-878E671CD9FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E1EBDD-60C2-3141-9321-53456E6339A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34920" yWindow="760" windowWidth="25800" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lci" sheetId="1" r:id="rId1"/>
@@ -2221,22 +2221,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2250,6 +2238,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2538,8 +2538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U593"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A571" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B594" sqref="B594"/>
+    <sheetView tabSelected="1" topLeftCell="A558" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B590" sqref="B590"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19403,8 +19403,8 @@
         <v>539</v>
       </c>
       <c r="B572" s="4">
-        <f>(5.2/0.000001)*(B571*1000)</f>
-        <v>2228571.4285714286</v>
+        <f>(5.2*0.000001)*(B571*1000)</f>
+        <v>2.2285714285714286E-6</v>
       </c>
       <c r="D572" t="s">
         <v>13</v>
@@ -19427,8 +19427,8 @@
         <v>541</v>
       </c>
       <c r="B573" s="4">
-        <f>(1.7/0.000001)*(B571*1000)</f>
-        <v>728571.42857142852</v>
+        <f>(1.7*0.000001)*(B571*1000)</f>
+        <v>7.2857142857142845E-7</v>
       </c>
       <c r="D573" t="s">
         <v>13</v>
@@ -19451,8 +19451,8 @@
         <v>543</v>
       </c>
       <c r="B574" s="4">
-        <f>(31/0.000001)*(B571*1000)</f>
-        <v>13285714.285714285</v>
+        <f>(31*0.000001)*(B571*1000)</f>
+        <v>1.3285714285714285E-5</v>
       </c>
       <c r="D574" t="s">
         <v>13</v>
@@ -19851,8 +19851,8 @@
         <v>539</v>
       </c>
       <c r="B591" s="4">
-        <f>(5.2/0.000001)*(B590*1000)</f>
-        <v>13000000</v>
+        <f>(5.2*0.000001)*(B590*1000)</f>
+        <v>1.3000000000000001E-5</v>
       </c>
       <c r="D591" t="s">
         <v>13</v>
@@ -19875,8 +19875,8 @@
         <v>541</v>
       </c>
       <c r="B592" s="4">
-        <f>(1.7/0.000001)*(B590*1000)</f>
-        <v>4250000</v>
+        <f>(1.7*0.000001)*(B590*1000)</f>
+        <v>4.25E-6</v>
       </c>
       <c r="D592" t="s">
         <v>13</v>
@@ -19899,8 +19899,8 @@
         <v>543</v>
       </c>
       <c r="B593" s="4">
-        <f>(31/0.000001)*(B590*1000)</f>
-        <v>77500000</v>
+        <f>(31*0.000001)*(B590*1000)</f>
+        <v>7.75E-5</v>
       </c>
       <c r="D593" t="s">
         <v>13</v>
@@ -19976,10 +19976,10 @@
       <c r="C4" s="38" t="s">
         <v>430</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="52" t="s">
         <v>395</v>
       </c>
-      <c r="E4" s="57"/>
+      <c r="E4" s="53"/>
       <c r="F4" s="39" t="s">
         <v>396</v>
       </c>
@@ -19994,10 +19994,10 @@
       <c r="C5" s="38">
         <v>5.5</v>
       </c>
-      <c r="D5" s="58">
+      <c r="D5" s="54">
         <v>2.5</v>
       </c>
-      <c r="E5" s="59"/>
+      <c r="E5" s="55"/>
       <c r="F5" s="38" t="s">
         <v>397</v>
       </c>
@@ -20009,9 +20009,9 @@
       <c r="B6" s="49" t="s">
         <v>399</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="51"/>
       <c r="F6" s="40" t="s">
         <v>400</v>
       </c>
@@ -20026,10 +20026,10 @@
       <c r="C7" s="38">
         <v>20</v>
       </c>
-      <c r="D7" s="58">
+      <c r="D7" s="54">
         <v>20</v>
       </c>
-      <c r="E7" s="59"/>
+      <c r="E7" s="55"/>
       <c r="F7" s="38" t="s">
         <v>396</v>
       </c>
@@ -20044,10 +20044,10 @@
       <c r="C8" s="38">
         <v>3</v>
       </c>
-      <c r="D8" s="58">
+      <c r="D8" s="54">
         <v>7</v>
       </c>
-      <c r="E8" s="59"/>
+      <c r="E8" s="55"/>
       <c r="F8" s="38" t="s">
         <v>403</v>
       </c>
@@ -20059,9 +20059,9 @@
       <c r="B9" s="49" t="s">
         <v>431</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="51"/>
       <c r="F9" s="40" t="s">
         <v>405</v>
       </c>
@@ -20133,7 +20133,7 @@
       <c r="D13" s="49">
         <v>23.6</v>
       </c>
-      <c r="E13" s="50"/>
+      <c r="E13" s="51"/>
       <c r="F13" s="38" t="s">
         <v>408</v>
       </c>
@@ -20146,8 +20146,8 @@
         <v>3.7000000000000002E-3</v>
       </c>
       <c r="C14" s="45"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="52"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="57"/>
       <c r="F14" s="40" t="s">
         <v>413</v>
       </c>
@@ -20165,7 +20165,7 @@
       <c r="D15" s="49" t="s">
         <v>417</v>
       </c>
-      <c r="E15" s="50"/>
+      <c r="E15" s="51"/>
       <c r="F15" s="38" t="s">
         <v>410</v>
       </c>
@@ -20183,7 +20183,7 @@
       <c r="D16" s="49" t="s">
         <v>421</v>
       </c>
-      <c r="E16" s="50"/>
+      <c r="E16" s="51"/>
       <c r="F16" s="38" t="s">
         <v>396</v>
       </c>
@@ -20198,27 +20198,27 @@
       <c r="C17" s="39" t="s">
         <v>424</v>
       </c>
-      <c r="D17" s="53" t="s">
+      <c r="D17" s="58" t="s">
         <v>425</v>
       </c>
-      <c r="E17" s="54"/>
+      <c r="E17" s="59"/>
       <c r="F17" s="40" t="s">
         <v>426</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
